--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9991A4-0A48-4C14-867E-F93642E503E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75F253-915D-43E0-939E-E4783B76984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="0" windowWidth="19665" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -236,7 +236,7 @@
     <t>2,20 kVa</t>
   </si>
   <si>
-    <t>13,33 Hours</t>
+    <t>16 Hours</t>
   </si>
 </sst>
 </file>
@@ -561,7 +561,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -760,38 +760,152 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -802,154 +916,31 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -959,172 +950,223 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1136,59 +1178,8 @@
     <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1198,89 +1189,92 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1879,8 +1873,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AH23" sqref="AH23"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1920,146 +1914,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="115"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115"/>
-      <c r="AF4" s="115"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+      <c r="T4" s="130"/>
+      <c r="U4" s="130"/>
+      <c r="V4" s="130"/>
+      <c r="W4" s="130"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="130"/>
+      <c r="Z4" s="130"/>
+      <c r="AA4" s="130"/>
+      <c r="AB4" s="130"/>
+      <c r="AC4" s="130"/>
+      <c r="AD4" s="130"/>
+      <c r="AE4" s="130"/>
+      <c r="AF4" s="130"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="115"/>
-      <c r="P5" s="115"/>
-      <c r="Q5" s="115"/>
-      <c r="R5" s="115"/>
-      <c r="S5" s="115"/>
-      <c r="T5" s="115"/>
-      <c r="U5" s="115"/>
-      <c r="V5" s="115"/>
-      <c r="W5" s="115"/>
-      <c r="X5" s="115"/>
-      <c r="Y5" s="115"/>
-      <c r="Z5" s="115"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
+      <c r="V5" s="130"/>
+      <c r="W5" s="130"/>
+      <c r="X5" s="130"/>
+      <c r="Y5" s="130"/>
+      <c r="Z5" s="130"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="160" t="s">
+      <c r="AB5" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="115"/>
-      <c r="AD5" s="115"/>
-      <c r="AE5" s="115"/>
+      <c r="AC5" s="130"/>
+      <c r="AD5" s="130"/>
+      <c r="AE5" s="130"/>
       <c r="AF5" s="47" t="s">
         <v>54</v>
       </c>
@@ -2072,15 +2066,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2090,35 +2084,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="115"/>
-      <c r="T6" s="115"/>
-      <c r="U6" s="115"/>
-      <c r="V6" s="115"/>
-      <c r="W6" s="115"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="115"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130"/>
+      <c r="U6" s="130"/>
+      <c r="V6" s="130"/>
+      <c r="W6" s="130"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="130"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="160" t="s">
+      <c r="AB6" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="115"/>
-      <c r="AD6" s="115"/>
-      <c r="AE6" s="115"/>
+      <c r="AC6" s="130"/>
+      <c r="AD6" s="130"/>
+      <c r="AE6" s="130"/>
       <c r="AF6" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2146,13 +2140,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2161,38 +2155,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="139" t="s">
+      <c r="Q8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="139" t="s">
+      <c r="R8" s="137"/>
+      <c r="S8" s="137"/>
+      <c r="T8" s="137"/>
+      <c r="U8" s="137"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="137"/>
+      <c r="X8" s="138"/>
+      <c r="Y8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="139" t="s">
+      <c r="Z8" s="137"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="137"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="141"/>
+      <c r="AE8" s="137"/>
+      <c r="AF8" s="138"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2201,22 +2195,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
-      <c r="W9" s="143"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="143"/>
-      <c r="AB9" s="143"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="143"/>
-      <c r="AF9" s="144"/>
+      <c r="Q9" s="139"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="141"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2235,44 +2229,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="150">
+      <c r="Q10" s="144">
         <v>44986</v>
       </c>
-      <c r="R10" s="140"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="154">
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="146">
         <v>0</v>
       </c>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="145" t="s">
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="141"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="138"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="161" t="s">
+      <c r="E11" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2281,22 +2275,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="143"/>
-      <c r="AA11" s="143"/>
-      <c r="AB11" s="143"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="143"/>
-      <c r="AF11" s="144"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="141"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2334,77 +2328,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="150"/>
+      <c r="R13" s="150"/>
+      <c r="S13" s="150"/>
+      <c r="T13" s="150"/>
+      <c r="U13" s="150"/>
+      <c r="V13" s="150"/>
+      <c r="W13" s="150"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="147" t="s">
+      <c r="AA13" s="150" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="151" t="s">
+      <c r="AB13" s="150"/>
+      <c r="AC13" s="150"/>
+      <c r="AD13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="140"/>
-      <c r="AF13" s="140"/>
+      <c r="AE13" s="137"/>
+      <c r="AF13" s="137"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="151"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="151"/>
+      <c r="M14" s="151"/>
+      <c r="N14" s="151"/>
+      <c r="O14" s="151"/>
+      <c r="P14" s="151"/>
+      <c r="Q14" s="151"/>
+      <c r="R14" s="151"/>
+      <c r="S14" s="151"/>
+      <c r="T14" s="151"/>
+      <c r="U14" s="151"/>
+      <c r="V14" s="151"/>
+      <c r="W14" s="151"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="143"/>
-      <c r="AE14" s="143"/>
-      <c r="AF14" s="143"/>
+      <c r="AA14" s="151"/>
+      <c r="AB14" s="151"/>
+      <c r="AC14" s="151"/>
+      <c r="AD14" s="140"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="140"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2441,121 +2435,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="136" t="s">
+      <c r="A16" s="131"/>
+      <c r="B16" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="125"/>
-      <c r="D16" s="149" t="s">
+      <c r="C16" s="96"/>
+      <c r="D16" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="133">
+      <c r="L16" s="91">
         <v>44946</v>
       </c>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="165" t="s">
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="163" t="s">
+      <c r="Q16" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="92"/>
-      <c r="S16" s="133">
+      <c r="R16" s="83"/>
+      <c r="S16" s="91">
         <v>44977</v>
       </c>
-      <c r="T16" s="91"/>
-      <c r="U16" s="91"/>
-      <c r="V16" s="91"/>
-      <c r="W16" s="92"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="82"/>
+      <c r="W16" s="83"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="168"/>
-      <c r="AB16" s="168"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="99"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="76"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="115"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="149" t="s">
+      <c r="A17" s="130"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="162">
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="94">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="166"/>
-      <c r="Q17" s="152">
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="127"/>
+      <c r="Q17" s="97">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="153"/>
-      <c r="S17" s="153"/>
-      <c r="T17" s="153"/>
-      <c r="U17" s="153"/>
-      <c r="V17" s="153"/>
-      <c r="W17" s="125"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="96"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="168"/>
+      <c r="AA17" s="132"/>
+      <c r="AB17" s="132"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="155"/>
-      <c r="AF17" s="99"/>
+      <c r="AE17" s="142"/>
+      <c r="AF17" s="76"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="149" t="s">
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="177">
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="119">
         <v>1</v>
       </c>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="177"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2568,206 +2562,206 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="178" t="s">
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="125"/>
-      <c r="K19" s="130">
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="115">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="131"/>
-      <c r="R19" s="131"/>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
-      <c r="U19" s="131"/>
-      <c r="V19" s="131"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="157" t="s">
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="116"/>
+      <c r="P19" s="116"/>
+      <c r="Q19" s="116"/>
+      <c r="R19" s="116"/>
+      <c r="S19" s="116"/>
+      <c r="T19" s="116"/>
+      <c r="U19" s="116"/>
+      <c r="V19" s="116"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="111"/>
-      <c r="AA19" s="108">
+      <c r="Y19" s="86"/>
+      <c r="Z19" s="86"/>
+      <c r="AA19" s="99">
         <v>1800</v>
       </c>
-      <c r="AB19" s="108"/>
-      <c r="AC19" s="108"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="103">
+      <c r="AE19" s="77">
         <v>0</v>
       </c>
-      <c r="AF19" s="103"/>
+      <c r="AF19" s="77"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="137"/>
-      <c r="D20" s="179" t="s">
+      <c r="B20" s="155"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117" t="s">
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="117"/>
-      <c r="J20" s="118"/>
-      <c r="K20" s="170">
+      <c r="I20" s="101"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="103">
         <v>88</v>
       </c>
-      <c r="L20" s="171"/>
-      <c r="M20" s="171"/>
-      <c r="N20" s="171"/>
-      <c r="O20" s="171"/>
-      <c r="P20" s="171"/>
-      <c r="Q20" s="171"/>
-      <c r="R20" s="171"/>
-      <c r="S20" s="171"/>
-      <c r="T20" s="171"/>
-      <c r="U20" s="171"/>
-      <c r="V20" s="171"/>
-      <c r="W20" s="172"/>
-      <c r="X20" s="157" t="s">
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="104"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="104"/>
+      <c r="V20" s="104"/>
+      <c r="W20" s="105"/>
+      <c r="X20" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="111"/>
-      <c r="AA20" s="108">
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="99">
         <v>1800</v>
       </c>
-      <c r="AB20" s="108"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="109" t="s">
+      <c r="AB20" s="99"/>
+      <c r="AC20" s="99"/>
+      <c r="AD20" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="103">
+      <c r="AE20" s="77">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="103"/>
+      <c r="AF20" s="77"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="88" t="s">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="89" t="s">
+      <c r="H21" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="89"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="173"/>
-      <c r="L21" s="174"/>
-      <c r="M21" s="174"/>
-      <c r="N21" s="174"/>
-      <c r="O21" s="174"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="174"/>
-      <c r="R21" s="174"/>
-      <c r="S21" s="174"/>
-      <c r="T21" s="174"/>
-      <c r="U21" s="174"/>
-      <c r="V21" s="174"/>
-      <c r="W21" s="175"/>
-      <c r="X21" s="157"/>
-      <c r="Y21" s="111"/>
-      <c r="Z21" s="111"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="109"/>
-      <c r="AE21" s="103"/>
-      <c r="AF21" s="103"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="107"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="107"/>
+      <c r="W21" s="108"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="99"/>
+      <c r="AB21" s="99"/>
+      <c r="AC21" s="99"/>
+      <c r="AD21" s="100"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="138" t="s">
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="85">
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="83"/>
+      <c r="K22" s="123">
         <v>0.03</v>
       </c>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="247"/>
+      <c r="L22" s="124"/>
+      <c r="M22" s="124"/>
+      <c r="N22" s="124"/>
+      <c r="O22" s="124"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="124"/>
+      <c r="S22" s="124"/>
+      <c r="T22" s="124"/>
+      <c r="U22" s="124"/>
+      <c r="V22" s="124"/>
+      <c r="W22" s="125"/>
+      <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
       <c r="AA22" s="63"/>
       <c r="AB22" s="63"/>
       <c r="AC22" s="63"/>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="254">
+      <c r="AE22" s="87">
         <f>AE20*K22</f>
         <v>4752</v>
       </c>
-      <c r="AF22" s="255"/>
+      <c r="AF22" s="88"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="248" t="s">
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="249"/>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="249"/>
-      <c r="J23" s="249"/>
-      <c r="K23" s="249"/>
-      <c r="L23" s="249"/>
-      <c r="M23" s="249"/>
-      <c r="N23" s="249"/>
-      <c r="O23" s="249"/>
-      <c r="P23" s="249"/>
-      <c r="Q23" s="249"/>
-      <c r="R23" s="249"/>
-      <c r="S23" s="249"/>
-      <c r="T23" s="249"/>
-      <c r="U23" s="249"/>
-      <c r="V23" s="249"/>
-      <c r="W23" s="250"/>
-      <c r="X23" s="247"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="80"/>
+      <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="63"/>
@@ -2779,41 +2773,41 @@
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="149" t="s">
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="92"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="133">
-        <v>44948</v>
-      </c>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="165" t="s">
+      <c r="L24" s="91">
+        <v>44947</v>
+      </c>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="163" t="s">
+      <c r="Q24" s="128" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="92"/>
-      <c r="S24" s="133">
+      <c r="R24" s="83"/>
+      <c r="S24" s="91">
         <v>44986</v>
       </c>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="247"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
       <c r="AA24" s="63"/>
@@ -2825,35 +2819,35 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="149" t="s">
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="162">
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="94">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="153"/>
-      <c r="M25" s="153"/>
-      <c r="N25" s="153"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="166"/>
-      <c r="Q25" s="152">
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="127"/>
+      <c r="Q25" s="97">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="153"/>
-      <c r="S25" s="153"/>
-      <c r="T25" s="153"/>
-      <c r="U25" s="153"/>
-      <c r="V25" s="153"/>
-      <c r="W25" s="125"/>
-      <c r="X25" s="247"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="96"/>
+      <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
       <c r="AA25" s="63"/>
@@ -2865,33 +2859,33 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="149" t="s">
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="177">
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="83"/>
+      <c r="K26" s="119">
         <v>1</v>
       </c>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="247"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="119"/>
+      <c r="O26" s="119"/>
+      <c r="P26" s="119"/>
+      <c r="Q26" s="119"/>
+      <c r="R26" s="119"/>
+      <c r="S26" s="119"/>
+      <c r="T26" s="119"/>
+      <c r="U26" s="119"/>
+      <c r="V26" s="119"/>
+      <c r="W26" s="119"/>
+      <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
       <c r="AA26" s="63"/>
@@ -2903,166 +2897,166 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="251" t="s">
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="252"/>
-      <c r="F27" s="252"/>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252"/>
-      <c r="I27" s="252"/>
-      <c r="J27" s="253"/>
-      <c r="K27" s="130">
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="115">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
-      <c r="N27" s="131"/>
-      <c r="O27" s="131"/>
-      <c r="P27" s="131"/>
-      <c r="Q27" s="131"/>
-      <c r="R27" s="131"/>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
-      <c r="V27" s="131"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="157" t="s">
+      <c r="L27" s="116"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
+      <c r="P27" s="116"/>
+      <c r="Q27" s="116"/>
+      <c r="R27" s="116"/>
+      <c r="S27" s="116"/>
+      <c r="T27" s="116"/>
+      <c r="U27" s="116"/>
+      <c r="V27" s="116"/>
+      <c r="W27" s="117"/>
+      <c r="X27" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y27" s="111"/>
-      <c r="Z27" s="111"/>
-      <c r="AA27" s="108">
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="99">
         <v>1800</v>
       </c>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="108"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="103">
+      <c r="AE27" s="77">
         <v>0</v>
       </c>
-      <c r="AF27" s="103"/>
+      <c r="AF27" s="77"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="179" t="s">
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117" t="s">
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="117"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="170">
+      <c r="I28" s="101"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="103">
         <v>29.33</v>
       </c>
-      <c r="L28" s="171"/>
-      <c r="M28" s="171"/>
-      <c r="N28" s="171"/>
-      <c r="O28" s="171"/>
-      <c r="P28" s="171"/>
-      <c r="Q28" s="171"/>
-      <c r="R28" s="171"/>
-      <c r="S28" s="171"/>
-      <c r="T28" s="171"/>
-      <c r="U28" s="171"/>
-      <c r="V28" s="171"/>
-      <c r="W28" s="172"/>
-      <c r="X28" s="157" t="s">
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="105"/>
+      <c r="X28" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="Y28" s="111"/>
-      <c r="Z28" s="111"/>
-      <c r="AA28" s="108">
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="99">
         <v>1800</v>
       </c>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="109" t="s">
+      <c r="AB28" s="99"/>
+      <c r="AC28" s="99"/>
+      <c r="AD28" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="103">
+      <c r="AE28" s="77">
         <f>K28*AA28</f>
         <v>52794</v>
       </c>
-      <c r="AF28" s="103"/>
+      <c r="AF28" s="77"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="88" t="s">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="89" t="s">
+      <c r="H29" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="89"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="173"/>
-      <c r="L29" s="174"/>
-      <c r="M29" s="174"/>
-      <c r="N29" s="174"/>
-      <c r="O29" s="174"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="174"/>
-      <c r="R29" s="174"/>
-      <c r="S29" s="174"/>
-      <c r="T29" s="174"/>
-      <c r="U29" s="174"/>
-      <c r="V29" s="174"/>
-      <c r="W29" s="175"/>
-      <c r="X29" s="157"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="111"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="108"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="109"/>
-      <c r="AE29" s="103"/>
-      <c r="AF29" s="103"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="107"/>
+      <c r="P29" s="107"/>
+      <c r="Q29" s="107"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="107"/>
+      <c r="W29" s="108"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="99"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="77"/>
+      <c r="AF29" s="77"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="138" t="s">
+      <c r="B30" s="155"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="85">
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="123">
         <v>0.03</v>
       </c>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="87"/>
+      <c r="L30" s="124"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="124"/>
+      <c r="O30" s="124"/>
+      <c r="P30" s="124"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="124"/>
+      <c r="S30" s="124"/>
+      <c r="T30" s="124"/>
+      <c r="U30" s="124"/>
+      <c r="V30" s="124"/>
+      <c r="W30" s="125"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3072,11 +3066,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="158">
+      <c r="AE30" s="148">
         <f>AE28*K30</f>
         <v>1583.82</v>
       </c>
-      <c r="AF30" s="159"/>
+      <c r="AF30" s="149"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3111,91 +3105,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="121">
+      <c r="AE31" s="75">
         <f>AE20+AE30</f>
         <v>159983.82</v>
       </c>
-      <c r="AF31" s="99"/>
+      <c r="AF31" s="76"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="124" t="s">
+      <c r="B32" s="154" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="125"/>
-      <c r="D32" s="116" t="s">
+      <c r="C32" s="96"/>
+      <c r="D32" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="133">
+      <c r="L32" s="91">
         <v>44946</v>
       </c>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="169" t="s">
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="83"/>
+      <c r="P32" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="169" t="s">
+      <c r="Q32" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="92"/>
-      <c r="S32" s="133">
+      <c r="R32" s="83"/>
+      <c r="S32" s="91">
         <v>44977</v>
       </c>
-      <c r="T32" s="91"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="91"/>
-      <c r="W32" s="92"/>
+      <c r="T32" s="82"/>
+      <c r="U32" s="82"/>
+      <c r="V32" s="82"/>
+      <c r="W32" s="83"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="168"/>
-      <c r="AB32" s="168"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="110"/>
-      <c r="AF32" s="99"/>
+      <c r="AE32" s="165"/>
+      <c r="AF32" s="76"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="116" t="s">
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="162">
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="94">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="153"/>
-      <c r="M33" s="153"/>
-      <c r="N33" s="153"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="176"/>
-      <c r="Q33" s="152">
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="97">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="153"/>
-      <c r="S33" s="153"/>
-      <c r="T33" s="153"/>
-      <c r="U33" s="153"/>
-      <c r="V33" s="153"/>
-      <c r="W33" s="125"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="96"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3203,85 +3197,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="156"/>
-      <c r="AF33" s="99"/>
+      <c r="AE33" s="147"/>
+      <c r="AF33" s="76"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="126"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="90" t="s">
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="92"/>
-      <c r="K34" s="97">
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="84">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-      <c r="T34" s="91"/>
-      <c r="U34" s="91"/>
-      <c r="V34" s="91"/>
-      <c r="W34" s="92"/>
-      <c r="X34" s="111" t="s">
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="82"/>
+      <c r="S34" s="82"/>
+      <c r="T34" s="82"/>
+      <c r="U34" s="82"/>
+      <c r="V34" s="82"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="Y34" s="99"/>
-      <c r="Z34" s="99"/>
-      <c r="AA34" s="105">
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="74">
         <v>1800</v>
       </c>
-      <c r="AB34" s="105"/>
-      <c r="AC34" s="105"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="121">
+      <c r="AE34" s="75">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="99"/>
+      <c r="AF34" s="76"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="126"/>
-      <c r="C35" s="127"/>
-      <c r="D35" s="116" t="s">
+      <c r="A35" s="131"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="97">
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="82"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84">
         <v>1800</v>
       </c>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-      <c r="T35" s="91"/>
-      <c r="U35" s="91"/>
-      <c r="V35" s="91"/>
-      <c r="W35" s="92"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="82"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="82"/>
+      <c r="Q35" s="82"/>
+      <c r="R35" s="82"/>
+      <c r="S35" s="82"/>
+      <c r="T35" s="82"/>
+      <c r="U35" s="82"/>
+      <c r="V35" s="82"/>
+      <c r="W35" s="83"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3291,40 +3285,40 @@
       <c r="AD35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE35" s="103">
+      <c r="AE35" s="77">
         <f>K35</f>
         <v>1800</v>
       </c>
-      <c r="AF35" s="99"/>
+      <c r="AF35" s="76"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
-      <c r="B36" s="126"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="94" t="s">
+      <c r="A36" s="131"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="120">
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="83"/>
+      <c r="K36" s="90">
         <v>1800</v>
       </c>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
-      <c r="T36" s="91"/>
-      <c r="U36" s="91"/>
-      <c r="V36" s="91"/>
-      <c r="W36" s="92"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="83"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -3336,31 +3330,31 @@
       <c r="AF36" s="41"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="248" t="s">
+      <c r="A37" s="131"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-      <c r="H37" s="249"/>
-      <c r="I37" s="249"/>
-      <c r="J37" s="249"/>
-      <c r="K37" s="249"/>
-      <c r="L37" s="249"/>
-      <c r="M37" s="249"/>
-      <c r="N37" s="249"/>
-      <c r="O37" s="249"/>
-      <c r="P37" s="249"/>
-      <c r="Q37" s="249"/>
-      <c r="R37" s="249"/>
-      <c r="S37" s="249"/>
-      <c r="T37" s="249"/>
-      <c r="U37" s="249"/>
-      <c r="V37" s="249"/>
-      <c r="W37" s="250"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="80"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
@@ -3372,41 +3366,41 @@
       <c r="AF37" s="41"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="116" t="s">
+      <c r="A38" s="131"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="92"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="83"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="133">
+      <c r="L38" s="91">
         <v>44947</v>
       </c>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="169" t="s">
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="83"/>
+      <c r="P38" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="169" t="s">
+      <c r="Q38" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="92"/>
-      <c r="S38" s="133">
+      <c r="R38" s="83"/>
+      <c r="S38" s="91">
         <v>44993</v>
       </c>
-      <c r="T38" s="91"/>
-      <c r="U38" s="91"/>
-      <c r="V38" s="91"/>
-      <c r="W38" s="92"/>
+      <c r="T38" s="82"/>
+      <c r="U38" s="82"/>
+      <c r="V38" s="82"/>
+      <c r="W38" s="83"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3418,35 +3412,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="116" t="s">
+      <c r="A39" s="131"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="156"/>
+      <c r="D39" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="162">
+      <c r="E39" s="82"/>
+      <c r="F39" s="82"/>
+      <c r="G39" s="82"/>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="83"/>
+      <c r="K39" s="94">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="153"/>
-      <c r="M39" s="153"/>
-      <c r="N39" s="153"/>
-      <c r="O39" s="125"/>
-      <c r="P39" s="176"/>
-      <c r="Q39" s="152">
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="93"/>
+      <c r="Q39" s="97">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="153"/>
-      <c r="S39" s="153"/>
-      <c r="T39" s="153"/>
-      <c r="U39" s="153"/>
-      <c r="V39" s="153"/>
-      <c r="W39" s="125"/>
+      <c r="R39" s="95"/>
+      <c r="S39" s="95"/>
+      <c r="T39" s="95"/>
+      <c r="U39" s="95"/>
+      <c r="V39" s="95"/>
+      <c r="W39" s="96"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3458,81 +3452,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="90" t="s">
+      <c r="A40" s="131"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="97">
+      <c r="E40" s="82"/>
+      <c r="F40" s="82"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="82"/>
+      <c r="I40" s="82"/>
+      <c r="J40" s="83"/>
+      <c r="K40" s="84">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
-      <c r="T40" s="91"/>
-      <c r="U40" s="91"/>
-      <c r="V40" s="91"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="111" t="s">
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="82"/>
+      <c r="R40" s="82"/>
+      <c r="S40" s="82"/>
+      <c r="T40" s="82"/>
+      <c r="U40" s="82"/>
+      <c r="V40" s="82"/>
+      <c r="W40" s="83"/>
+      <c r="X40" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="Y40" s="99"/>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="105">
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="74">
         <v>1800</v>
       </c>
-      <c r="AB40" s="105"/>
-      <c r="AC40" s="105"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="74"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="121">
+      <c r="AE40" s="75">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="99"/>
+      <c r="AF40" s="76"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="126"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="116" t="s">
+      <c r="A41" s="131"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="97">
+      <c r="E41" s="82"/>
+      <c r="F41" s="82"/>
+      <c r="G41" s="82"/>
+      <c r="H41" s="82"/>
+      <c r="I41" s="82"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="84">
         <v>1800</v>
       </c>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="92"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="82"/>
+      <c r="R41" s="82"/>
+      <c r="S41" s="82"/>
+      <c r="T41" s="82"/>
+      <c r="U41" s="82"/>
+      <c r="V41" s="82"/>
+      <c r="W41" s="83"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3542,40 +3536,40 @@
       <c r="AD41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" s="103">
+      <c r="AE41" s="77">
         <f>K41</f>
         <v>1800</v>
       </c>
-      <c r="AF41" s="99"/>
+      <c r="AF41" s="76"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="115"/>
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="94" t="s">
+      <c r="A42" s="130"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="120">
+      <c r="E42" s="82"/>
+      <c r="F42" s="82"/>
+      <c r="G42" s="82"/>
+      <c r="H42" s="82"/>
+      <c r="I42" s="82"/>
+      <c r="J42" s="83"/>
+      <c r="K42" s="90">
         <v>1800</v>
       </c>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
-      <c r="T42" s="91"/>
-      <c r="U42" s="91"/>
-      <c r="V42" s="91"/>
-      <c r="W42" s="92"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="83"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3585,14 +3579,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="95">
+      <c r="AE42" s="180">
         <f>K42</f>
         <v>1800</v>
       </c>
-      <c r="AF42" s="96"/>
+      <c r="AF42" s="181"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="115"/>
+      <c r="A43" s="130"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3624,14 +3618,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="121">
+      <c r="AE43" s="75">
         <f>AE34+AE35+AE42</f>
         <v>3600</v>
       </c>
-      <c r="AF43" s="99"/>
+      <c r="AF43" s="76"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="115"/>
+      <c r="A44" s="130"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3665,7 +3659,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="115"/>
+      <c r="A45" s="130"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3684,28 +3678,28 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="98" t="s">
+      <c r="T45" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="99"/>
-      <c r="V45" s="99"/>
-      <c r="W45" s="99"/>
-      <c r="X45" s="99"/>
-      <c r="Y45" s="99"/>
-      <c r="Z45" s="99"/>
-      <c r="AA45" s="99"/>
-      <c r="AB45" s="99"/>
+      <c r="U45" s="76"/>
+      <c r="V45" s="76"/>
+      <c r="W45" s="76"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="76"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE45" s="103">
+      <c r="AE45" s="77">
         <v>1800</v>
       </c>
-      <c r="AF45" s="104"/>
+      <c r="AF45" s="186"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="115"/>
+      <c r="A46" s="130"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3724,25 +3718,25 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="119" t="s">
+      <c r="T46" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="99"/>
-      <c r="V46" s="99"/>
-      <c r="W46" s="99"/>
-      <c r="X46" s="99"/>
-      <c r="Y46" s="99"/>
-      <c r="Z46" s="99"/>
-      <c r="AA46" s="99"/>
-      <c r="AB46" s="99"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="76"/>
       <c r="AC46" s="28"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE46" s="101">
+      <c r="AE46" s="184">
         <v>1800</v>
       </c>
-      <c r="AF46" s="102"/>
+      <c r="AF46" s="185"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3764,26 +3758,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="100" t="s">
+      <c r="T47" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="99"/>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="99"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="76"/>
+      <c r="AB47" s="76"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="93">
+      <c r="AE47" s="179">
         <f>AE31+AE43+AE45+AE46</f>
         <v>167183.82</v>
       </c>
-      <c r="AF47" s="93"/>
+      <c r="AF47" s="179"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3855,41 +3849,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84" t="s">
+      <c r="C50" s="177"/>
+      <c r="D50" s="177"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="178" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="84"/>
-      <c r="W50" s="84"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="84"/>
-      <c r="AD50" s="84"/>
-      <c r="AE50" s="84"/>
-      <c r="AF50" s="84"/>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="178"/>
+      <c r="M50" s="178"/>
+      <c r="N50" s="178"/>
+      <c r="O50" s="178"/>
+      <c r="P50" s="178"/>
+      <c r="Q50" s="178"/>
+      <c r="R50" s="178"/>
+      <c r="S50" s="178"/>
+      <c r="T50" s="178"/>
+      <c r="U50" s="178"/>
+      <c r="V50" s="178"/>
+      <c r="W50" s="178"/>
+      <c r="X50" s="178"/>
+      <c r="Y50" s="178"/>
+      <c r="Z50" s="178"/>
+      <c r="AA50" s="178"/>
+      <c r="AB50" s="178"/>
+      <c r="AC50" s="178"/>
+      <c r="AD50" s="178"/>
+      <c r="AE50" s="178"/>
+      <c r="AF50" s="178"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4021,37 +4015,37 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="112" t="s">
+      <c r="AB54" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="AC54" s="112"/>
-      <c r="AD54" s="112"/>
-      <c r="AE54" s="112"/>
-      <c r="AF54" s="112"/>
+      <c r="AC54" s="161"/>
+      <c r="AD54" s="161"/>
+      <c r="AE54" s="161"/>
+      <c r="AF54" s="161"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-      <c r="T55" s="76"/>
+      <c r="C55" s="169"/>
+      <c r="D55" s="169"/>
+      <c r="E55" s="169"/>
+      <c r="F55" s="169"/>
+      <c r="G55" s="169"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="169"/>
+      <c r="K55" s="169"/>
+      <c r="L55" s="169"/>
+      <c r="M55" s="169"/>
+      <c r="N55" s="169"/>
+      <c r="O55" s="169"/>
+      <c r="P55" s="169"/>
+      <c r="Q55" s="169"/>
+      <c r="R55" s="169"/>
+      <c r="S55" s="169"/>
+      <c r="T55" s="170"/>
       <c r="U55" s="30"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -4059,33 +4053,33 @@
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="112"/>
-      <c r="AC55" s="112"/>
-      <c r="AD55" s="112"/>
-      <c r="AE55" s="112"/>
-      <c r="AF55" s="112"/>
+      <c r="AB55" s="161"/>
+      <c r="AC55" s="161"/>
+      <c r="AD55" s="161"/>
+      <c r="AE55" s="161"/>
+      <c r="AF55" s="161"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="78"/>
-      <c r="L56" s="78"/>
-      <c r="M56" s="78"/>
-      <c r="N56" s="78"/>
-      <c r="O56" s="78"/>
-      <c r="P56" s="78"/>
-      <c r="Q56" s="78"/>
-      <c r="R56" s="78"/>
-      <c r="S56" s="78"/>
-      <c r="T56" s="79"/>
+      <c r="B56" s="171"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="172"/>
+      <c r="G56" s="172"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="172"/>
+      <c r="M56" s="172"/>
+      <c r="N56" s="172"/>
+      <c r="O56" s="172"/>
+      <c r="P56" s="172"/>
+      <c r="Q56" s="172"/>
+      <c r="R56" s="172"/>
+      <c r="S56" s="172"/>
+      <c r="T56" s="173"/>
       <c r="U56" s="30"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
@@ -4093,33 +4087,33 @@
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="112"/>
-      <c r="AD56" s="112"/>
-      <c r="AE56" s="112"/>
-      <c r="AF56" s="112"/>
+      <c r="AB56" s="161"/>
+      <c r="AC56" s="161"/>
+      <c r="AD56" s="161"/>
+      <c r="AE56" s="161"/>
+      <c r="AF56" s="161"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="78"/>
-      <c r="L57" s="78"/>
-      <c r="M57" s="78"/>
-      <c r="N57" s="78"/>
-      <c r="O57" s="78"/>
-      <c r="P57" s="78"/>
-      <c r="Q57" s="78"/>
-      <c r="R57" s="78"/>
-      <c r="S57" s="78"/>
-      <c r="T57" s="79"/>
+      <c r="B57" s="171"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="172"/>
+      <c r="G57" s="172"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="172"/>
+      <c r="L57" s="172"/>
+      <c r="M57" s="172"/>
+      <c r="N57" s="172"/>
+      <c r="O57" s="172"/>
+      <c r="P57" s="172"/>
+      <c r="Q57" s="172"/>
+      <c r="R57" s="172"/>
+      <c r="S57" s="172"/>
+      <c r="T57" s="173"/>
       <c r="U57" s="30"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
@@ -4135,25 +4129,25 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
-      <c r="K58" s="78"/>
-      <c r="L58" s="78"/>
-      <c r="M58" s="78"/>
-      <c r="N58" s="78"/>
-      <c r="O58" s="78"/>
-      <c r="P58" s="78"/>
-      <c r="Q58" s="78"/>
-      <c r="R58" s="78"/>
-      <c r="S58" s="78"/>
-      <c r="T58" s="79"/>
+      <c r="B58" s="171"/>
+      <c r="C58" s="172"/>
+      <c r="D58" s="172"/>
+      <c r="E58" s="172"/>
+      <c r="F58" s="172"/>
+      <c r="G58" s="172"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="172"/>
+      <c r="K58" s="172"/>
+      <c r="L58" s="172"/>
+      <c r="M58" s="172"/>
+      <c r="N58" s="172"/>
+      <c r="O58" s="172"/>
+      <c r="P58" s="172"/>
+      <c r="Q58" s="172"/>
+      <c r="R58" s="172"/>
+      <c r="S58" s="172"/>
+      <c r="T58" s="173"/>
       <c r="U58" s="30"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
@@ -4169,25 +4163,25 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="78"/>
-      <c r="I59" s="78"/>
-      <c r="J59" s="78"/>
-      <c r="K59" s="78"/>
-      <c r="L59" s="78"/>
-      <c r="M59" s="78"/>
-      <c r="N59" s="78"/>
-      <c r="O59" s="78"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="78"/>
-      <c r="R59" s="78"/>
-      <c r="S59" s="78"/>
-      <c r="T59" s="79"/>
+      <c r="B59" s="171"/>
+      <c r="C59" s="172"/>
+      <c r="D59" s="172"/>
+      <c r="E59" s="172"/>
+      <c r="F59" s="172"/>
+      <c r="G59" s="172"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="172"/>
+      <c r="K59" s="172"/>
+      <c r="L59" s="172"/>
+      <c r="M59" s="172"/>
+      <c r="N59" s="172"/>
+      <c r="O59" s="172"/>
+      <c r="P59" s="172"/>
+      <c r="Q59" s="172"/>
+      <c r="R59" s="172"/>
+      <c r="S59" s="172"/>
+      <c r="T59" s="173"/>
       <c r="U59" s="30"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
@@ -4203,25 +4197,25 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78"/>
-      <c r="H60" s="78"/>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="78"/>
-      <c r="L60" s="78"/>
-      <c r="M60" s="78"/>
-      <c r="N60" s="78"/>
-      <c r="O60" s="78"/>
-      <c r="P60" s="78"/>
-      <c r="Q60" s="78"/>
-      <c r="R60" s="78"/>
-      <c r="S60" s="78"/>
-      <c r="T60" s="79"/>
+      <c r="B60" s="171"/>
+      <c r="C60" s="172"/>
+      <c r="D60" s="172"/>
+      <c r="E60" s="172"/>
+      <c r="F60" s="172"/>
+      <c r="G60" s="172"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="172"/>
+      <c r="K60" s="172"/>
+      <c r="L60" s="172"/>
+      <c r="M60" s="172"/>
+      <c r="N60" s="172"/>
+      <c r="O60" s="172"/>
+      <c r="P60" s="172"/>
+      <c r="Q60" s="172"/>
+      <c r="R60" s="172"/>
+      <c r="S60" s="172"/>
+      <c r="T60" s="173"/>
       <c r="U60" s="30"/>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
@@ -4237,25 +4231,25 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="82"/>
+      <c r="B61" s="174"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="175"/>
+      <c r="E61" s="175"/>
+      <c r="F61" s="175"/>
+      <c r="G61" s="175"/>
+      <c r="H61" s="175"/>
+      <c r="I61" s="175"/>
+      <c r="J61" s="175"/>
+      <c r="K61" s="175"/>
+      <c r="L61" s="175"/>
+      <c r="M61" s="175"/>
+      <c r="N61" s="175"/>
+      <c r="O61" s="175"/>
+      <c r="P61" s="175"/>
+      <c r="Q61" s="175"/>
+      <c r="R61" s="175"/>
+      <c r="S61" s="175"/>
+      <c r="T61" s="176"/>
       <c r="U61" s="30"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
@@ -4263,13 +4257,13 @@
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="113" t="s">
+      <c r="AB61" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="AC61" s="113"/>
-      <c r="AD61" s="113"/>
-      <c r="AE61" s="113"/>
-      <c r="AF61" s="113"/>
+      <c r="AC61" s="166"/>
+      <c r="AD61" s="166"/>
+      <c r="AE61" s="166"/>
+      <c r="AF61" s="166"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4385,127 +4379,225 @@
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="106" t="s">
+      <c r="A76" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
-      <c r="L76" s="106"/>
-      <c r="M76" s="106"/>
-      <c r="N76" s="106"/>
-      <c r="O76" s="106"/>
-      <c r="P76" s="106"/>
-      <c r="Q76" s="106"/>
-      <c r="R76" s="106"/>
-      <c r="S76" s="106"/>
-      <c r="T76" s="106"/>
-      <c r="U76" s="106"/>
-      <c r="V76" s="106"/>
-      <c r="W76" s="106"/>
-      <c r="X76" s="106"/>
-      <c r="Y76" s="106"/>
-      <c r="Z76" s="106"/>
-      <c r="AA76" s="106"/>
-      <c r="AB76" s="106"/>
-      <c r="AC76" s="106"/>
-      <c r="AD76" s="106"/>
-      <c r="AE76" s="106"/>
-      <c r="AF76" s="106"/>
-      <c r="AG76" s="106"/>
+      <c r="B76" s="163"/>
+      <c r="C76" s="163"/>
+      <c r="D76" s="163"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="163"/>
+      <c r="G76" s="163"/>
+      <c r="H76" s="163"/>
+      <c r="I76" s="163"/>
+      <c r="J76" s="163"/>
+      <c r="K76" s="163"/>
+      <c r="L76" s="163"/>
+      <c r="M76" s="163"/>
+      <c r="N76" s="163"/>
+      <c r="O76" s="163"/>
+      <c r="P76" s="163"/>
+      <c r="Q76" s="163"/>
+      <c r="R76" s="163"/>
+      <c r="S76" s="163"/>
+      <c r="T76" s="163"/>
+      <c r="U76" s="163"/>
+      <c r="V76" s="163"/>
+      <c r="W76" s="163"/>
+      <c r="X76" s="163"/>
+      <c r="Y76" s="163"/>
+      <c r="Z76" s="163"/>
+      <c r="AA76" s="163"/>
+      <c r="AB76" s="163"/>
+      <c r="AC76" s="163"/>
+      <c r="AD76" s="163"/>
+      <c r="AE76" s="163"/>
+      <c r="AF76" s="163"/>
+      <c r="AG76" s="163"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="107" t="s">
+      <c r="A77" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
-      <c r="L77" s="107"/>
-      <c r="M77" s="107"/>
-      <c r="N77" s="107"/>
-      <c r="O77" s="107"/>
-      <c r="P77" s="107"/>
-      <c r="Q77" s="107"/>
-      <c r="R77" s="107"/>
-      <c r="S77" s="107"/>
-      <c r="T77" s="107"/>
-      <c r="U77" s="107"/>
-      <c r="V77" s="107"/>
-      <c r="W77" s="107"/>
-      <c r="X77" s="107"/>
-      <c r="Y77" s="107"/>
-      <c r="Z77" s="107"/>
-      <c r="AA77" s="107"/>
-      <c r="AB77" s="107"/>
-      <c r="AC77" s="107"/>
-      <c r="AD77" s="107"/>
-      <c r="AE77" s="107"/>
-      <c r="AF77" s="107"/>
-      <c r="AG77" s="107"/>
+      <c r="B77" s="164"/>
+      <c r="C77" s="164"/>
+      <c r="D77" s="164"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="164"/>
+      <c r="H77" s="164"/>
+      <c r="I77" s="164"/>
+      <c r="J77" s="164"/>
+      <c r="K77" s="164"/>
+      <c r="L77" s="164"/>
+      <c r="M77" s="164"/>
+      <c r="N77" s="164"/>
+      <c r="O77" s="164"/>
+      <c r="P77" s="164"/>
+      <c r="Q77" s="164"/>
+      <c r="R77" s="164"/>
+      <c r="S77" s="164"/>
+      <c r="T77" s="164"/>
+      <c r="U77" s="164"/>
+      <c r="V77" s="164"/>
+      <c r="W77" s="164"/>
+      <c r="X77" s="164"/>
+      <c r="Y77" s="164"/>
+      <c r="Z77" s="164"/>
+      <c r="AA77" s="164"/>
+      <c r="AB77" s="164"/>
+      <c r="AC77" s="164"/>
+      <c r="AD77" s="164"/>
+      <c r="AE77" s="164"/>
+      <c r="AF77" s="164"/>
+      <c r="AG77" s="164"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="107" t="s">
+      <c r="A78" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="107"/>
-      <c r="C78" s="107"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="P78" s="107"/>
-      <c r="Q78" s="107"/>
-      <c r="R78" s="107"/>
-      <c r="S78" s="107"/>
-      <c r="T78" s="107"/>
-      <c r="U78" s="107"/>
-      <c r="V78" s="107"/>
-      <c r="W78" s="107"/>
-      <c r="X78" s="107"/>
-      <c r="Y78" s="107"/>
-      <c r="Z78" s="107"/>
-      <c r="AA78" s="107"/>
-      <c r="AB78" s="107"/>
-      <c r="AC78" s="107"/>
-      <c r="AD78" s="107"/>
-      <c r="AE78" s="107"/>
-      <c r="AF78" s="107"/>
-      <c r="AG78" s="107"/>
+      <c r="B78" s="164"/>
+      <c r="C78" s="164"/>
+      <c r="D78" s="164"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="164"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="164"/>
+      <c r="L78" s="164"/>
+      <c r="M78" s="164"/>
+      <c r="N78" s="164"/>
+      <c r="O78" s="164"/>
+      <c r="P78" s="164"/>
+      <c r="Q78" s="164"/>
+      <c r="R78" s="164"/>
+      <c r="S78" s="164"/>
+      <c r="T78" s="164"/>
+      <c r="U78" s="164"/>
+      <c r="V78" s="164"/>
+      <c r="W78" s="164"/>
+      <c r="X78" s="164"/>
+      <c r="Y78" s="164"/>
+      <c r="Z78" s="164"/>
+      <c r="AA78" s="164"/>
+      <c r="AB78" s="164"/>
+      <c r="AC78" s="164"/>
+      <c r="AD78" s="164"/>
+      <c r="AE78" s="164"/>
+      <c r="AF78" s="164"/>
+      <c r="AG78" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="140">
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="D37:W37"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:W40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="A76:AG76"/>
+    <mergeCell ref="A77:AG77"/>
+    <mergeCell ref="A78:AG78"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AB54:AF56"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B55:T61"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B32:C42"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C30"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:W24"/>
     <mergeCell ref="AE22:AF22"/>
     <mergeCell ref="D36:J36"/>
     <mergeCell ref="K36:W36"/>
@@ -4530,113 +4622,15 @@
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="K27:W27"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B32:C42"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C30"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="A76:AG76"/>
-    <mergeCell ref="A77:AG77"/>
-    <mergeCell ref="A78:AG78"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AB54:AF56"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B55:T61"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="D37:W37"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:W40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X40:Z40"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -4655,7 +4649,7 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="AD13" sqref="AD13:AF14"/>
     </sheetView>
   </sheetViews>
@@ -4694,163 +4688,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="134"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="134"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="134"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="134"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="135"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="135"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="135"/>
-      <c r="U3" s="135"/>
-      <c r="V3" s="135"/>
-      <c r="W3" s="135"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="135"/>
-      <c r="Z3" s="135"/>
-      <c r="AA3" s="135"/>
-      <c r="AB3" s="135"/>
-      <c r="AC3" s="135"/>
-      <c r="AD3" s="135"/>
-      <c r="AE3" s="135"/>
-      <c r="AF3" s="135"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="134"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="134"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="161" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="135"/>
-      <c r="L4" s="135"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="135"/>
-      <c r="O4" s="135"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="135"/>
-      <c r="R4" s="135"/>
-      <c r="S4" s="135"/>
-      <c r="T4" s="135"/>
-      <c r="U4" s="135"/>
-      <c r="V4" s="135"/>
-      <c r="W4" s="135"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="135"/>
-      <c r="Z4" s="135"/>
-      <c r="AA4" s="135"/>
-      <c r="AB4" s="135"/>
-      <c r="AC4" s="135"/>
-      <c r="AD4" s="135"/>
-      <c r="AE4" s="135"/>
-      <c r="AF4" s="135"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="134"/>
+      <c r="T4" s="134"/>
+      <c r="U4" s="134"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="134"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="134"/>
+      <c r="Z4" s="134"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="134"/>
+      <c r="AC4" s="134"/>
+      <c r="AD4" s="134"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="134"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="167" t="s">
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="135"/>
-      <c r="K5" s="135"/>
-      <c r="L5" s="135"/>
-      <c r="M5" s="135"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="135"/>
-      <c r="P5" s="135"/>
-      <c r="Q5" s="135"/>
-      <c r="R5" s="135"/>
-      <c r="S5" s="135"/>
-      <c r="T5" s="135"/>
-      <c r="U5" s="135"/>
-      <c r="V5" s="135"/>
-      <c r="W5" s="135"/>
-      <c r="X5" s="135"/>
-      <c r="Y5" s="135"/>
-      <c r="Z5" s="135"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="134"/>
+      <c r="L5" s="134"/>
+      <c r="M5" s="134"/>
+      <c r="N5" s="134"/>
+      <c r="O5" s="134"/>
+      <c r="P5" s="134"/>
+      <c r="Q5" s="134"/>
+      <c r="R5" s="134"/>
+      <c r="S5" s="134"/>
+      <c r="T5" s="134"/>
+      <c r="U5" s="134"/>
+      <c r="V5" s="134"/>
+      <c r="W5" s="134"/>
+      <c r="X5" s="134"/>
+      <c r="Y5" s="134"/>
+      <c r="Z5" s="134"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="228" t="s">
+      <c r="AB5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
+      <c r="AC5" s="142"/>
+      <c r="AD5" s="142"/>
+      <c r="AE5" s="142"/>
       <c r="AF5" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4860,35 +4854,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="135"/>
-      <c r="T6" s="135"/>
-      <c r="U6" s="135"/>
-      <c r="V6" s="135"/>
-      <c r="W6" s="135"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="135"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="134"/>
+      <c r="T6" s="134"/>
+      <c r="U6" s="134"/>
+      <c r="V6" s="134"/>
+      <c r="W6" s="134"/>
+      <c r="X6" s="135"/>
+      <c r="Y6" s="134"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="160" t="s">
+      <c r="AB6" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="135"/>
-      <c r="AD6" s="135"/>
-      <c r="AE6" s="135"/>
+      <c r="AC6" s="134"/>
+      <c r="AD6" s="134"/>
+      <c r="AE6" s="134"/>
       <c r="AF6" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4916,13 +4910,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4931,38 +4925,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="139" t="s">
+      <c r="Q8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="223"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="223"/>
-      <c r="U8" s="223"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="139" t="s">
+      <c r="R8" s="220"/>
+      <c r="S8" s="220"/>
+      <c r="T8" s="220"/>
+      <c r="U8" s="220"/>
+      <c r="V8" s="220"/>
+      <c r="W8" s="220"/>
+      <c r="X8" s="222"/>
+      <c r="Y8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="223"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="223"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="139" t="s">
+      <c r="Z8" s="220"/>
+      <c r="AA8" s="220"/>
+      <c r="AB8" s="220"/>
+      <c r="AC8" s="222"/>
+      <c r="AD8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="223"/>
-      <c r="AF8" s="225"/>
+      <c r="AE8" s="220"/>
+      <c r="AF8" s="222"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4971,22 +4965,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="224"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="224"/>
-      <c r="AB9" s="224"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="226"/>
-      <c r="AE9" s="224"/>
-      <c r="AF9" s="227"/>
+      <c r="Q9" s="223"/>
+      <c r="R9" s="221"/>
+      <c r="S9" s="221"/>
+      <c r="T9" s="221"/>
+      <c r="U9" s="221"/>
+      <c r="V9" s="221"/>
+      <c r="W9" s="221"/>
+      <c r="X9" s="224"/>
+      <c r="Y9" s="223"/>
+      <c r="Z9" s="221"/>
+      <c r="AA9" s="221"/>
+      <c r="AB9" s="221"/>
+      <c r="AC9" s="224"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="224"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -5005,44 +4999,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="150">
+      <c r="Q10" s="144">
         <v>44986</v>
       </c>
-      <c r="R10" s="140"/>
-      <c r="S10" s="140"/>
-      <c r="T10" s="140"/>
-      <c r="U10" s="140"/>
-      <c r="V10" s="140"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="154">
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="137"/>
+      <c r="X10" s="138"/>
+      <c r="Y10" s="146">
         <v>0</v>
       </c>
-      <c r="Z10" s="140"/>
-      <c r="AA10" s="140"/>
-      <c r="AB10" s="140"/>
-      <c r="AC10" s="141"/>
-      <c r="AD10" s="145" t="s">
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="140"/>
-      <c r="AF10" s="141"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="138"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="134"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="161" t="s">
+      <c r="E11" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="134"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5051,22 +5045,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
-      <c r="W11" s="143"/>
-      <c r="X11" s="144"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="143"/>
-      <c r="AA11" s="143"/>
-      <c r="AB11" s="143"/>
-      <c r="AC11" s="144"/>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="143"/>
-      <c r="AF11" s="144"/>
+      <c r="Q11" s="139"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="141"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="141"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="141"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5104,75 +5098,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
-      <c r="O13" s="223"/>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="223"/>
-      <c r="S13" s="223"/>
-      <c r="T13" s="223"/>
-      <c r="U13" s="223"/>
-      <c r="V13" s="223"/>
-      <c r="W13" s="223"/>
-      <c r="X13" s="223"/>
-      <c r="Y13" s="223"/>
-      <c r="Z13" s="223"/>
-      <c r="AA13" s="223"/>
-      <c r="AB13" s="223"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="220"/>
+      <c r="E13" s="220"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+      <c r="O13" s="220"/>
+      <c r="P13" s="220"/>
+      <c r="Q13" s="220"/>
+      <c r="R13" s="220"/>
+      <c r="S13" s="220"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="220"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="220"/>
+      <c r="Z13" s="220"/>
+      <c r="AA13" s="220"/>
+      <c r="AB13" s="220"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="151" t="s">
+      <c r="AD13" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="223"/>
-      <c r="AF13" s="223"/>
+      <c r="AE13" s="220"/>
+      <c r="AF13" s="220"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="224"/>
-      <c r="Z14" s="224"/>
-      <c r="AA14" s="224"/>
-      <c r="AB14" s="224"/>
+      <c r="B14" s="221"/>
+      <c r="C14" s="221"/>
+      <c r="D14" s="221"/>
+      <c r="E14" s="221"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
+      <c r="I14" s="221"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="221"/>
+      <c r="L14" s="221"/>
+      <c r="M14" s="221"/>
+      <c r="N14" s="221"/>
+      <c r="O14" s="221"/>
+      <c r="P14" s="221"/>
+      <c r="Q14" s="221"/>
+      <c r="R14" s="221"/>
+      <c r="S14" s="221"/>
+      <c r="T14" s="221"/>
+      <c r="U14" s="221"/>
+      <c r="V14" s="221"/>
+      <c r="W14" s="221"/>
+      <c r="X14" s="221"/>
+      <c r="Y14" s="221"/>
+      <c r="Z14" s="221"/>
+      <c r="AA14" s="221"/>
+      <c r="AB14" s="221"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="224"/>
-      <c r="AE14" s="224"/>
-      <c r="AF14" s="224"/>
+      <c r="AD14" s="221"/>
+      <c r="AE14" s="221"/>
+      <c r="AF14" s="221"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5209,173 +5203,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="136" t="s">
+      <c r="A16" s="131"/>
+      <c r="B16" s="160" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="237" t="s">
+      <c r="C16" s="205"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="188" t="s">
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="189"/>
-      <c r="M16" s="189"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
-      <c r="P16" s="189"/>
-      <c r="Q16" s="189"/>
-      <c r="R16" s="189"/>
-      <c r="S16" s="189"/>
-      <c r="T16" s="189"/>
-      <c r="U16" s="189"/>
-      <c r="V16" s="189"/>
-      <c r="W16" s="189"/>
-      <c r="X16" s="189"/>
-      <c r="Y16" s="189"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="189"/>
-      <c r="AB16" s="190"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="188"/>
+      <c r="N16" s="188"/>
+      <c r="O16" s="188"/>
+      <c r="P16" s="188"/>
+      <c r="Q16" s="188"/>
+      <c r="R16" s="188"/>
+      <c r="S16" s="188"/>
+      <c r="T16" s="188"/>
+      <c r="U16" s="188"/>
+      <c r="V16" s="188"/>
+      <c r="W16" s="188"/>
+      <c r="X16" s="188"/>
+      <c r="Y16" s="188"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="189"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="197"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="191"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="206" t="s">
+      <c r="A17" s="131"/>
+      <c r="B17" s="241"/>
+      <c r="C17" s="227"/>
+      <c r="D17" s="227"/>
+      <c r="E17" s="228"/>
+      <c r="F17" s="235" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="207"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="208"/>
-      <c r="K17" s="212" t="s">
+      <c r="G17" s="236"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="236"/>
+      <c r="J17" s="237"/>
+      <c r="K17" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="213"/>
-      <c r="M17" s="213"/>
-      <c r="N17" s="213"/>
-      <c r="O17" s="213"/>
-      <c r="P17" s="213"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="233" t="s">
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="193"/>
+      <c r="R17" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="S17" s="214" t="s">
+      <c r="S17" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="214"/>
-      <c r="U17" s="214"/>
-      <c r="V17" s="214"/>
-      <c r="W17" s="214"/>
-      <c r="X17" s="214"/>
-      <c r="Y17" s="214"/>
-      <c r="Z17" s="214"/>
-      <c r="AA17" s="214"/>
-      <c r="AB17" s="215"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="194"/>
+      <c r="AA17" s="194"/>
+      <c r="AB17" s="195"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="109" t="s">
+      <c r="AD17" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="234">
+      <c r="AE17" s="207">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="234"/>
+      <c r="AF17" s="207"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="135"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="197"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="210"/>
-      <c r="H18" s="210"/>
-      <c r="I18" s="210"/>
-      <c r="J18" s="211"/>
-      <c r="K18" s="162">
+      <c r="A18" s="134"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="228"/>
+      <c r="F18" s="238"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="240"/>
+      <c r="K18" s="94">
         <v>16000</v>
       </c>
-      <c r="L18" s="191"/>
-      <c r="M18" s="191"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="191"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="233"/>
-      <c r="S18" s="172">
+      <c r="L18" s="205"/>
+      <c r="M18" s="205"/>
+      <c r="N18" s="205"/>
+      <c r="O18" s="205"/>
+      <c r="P18" s="205"/>
+      <c r="Q18" s="205"/>
+      <c r="R18" s="206"/>
+      <c r="S18" s="105">
         <v>68.69</v>
       </c>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="191"/>
-      <c r="AB18" s="192"/>
+      <c r="T18" s="205"/>
+      <c r="U18" s="205"/>
+      <c r="V18" s="205"/>
+      <c r="W18" s="205"/>
+      <c r="X18" s="205"/>
+      <c r="Y18" s="205"/>
+      <c r="Z18" s="205"/>
+      <c r="AA18" s="205"/>
+      <c r="AB18" s="225"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="109"/>
-      <c r="AE18" s="234"/>
-      <c r="AF18" s="234"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="207"/>
+      <c r="AF18" s="207"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="198"/>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="149" t="s">
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="220"/>
-      <c r="H19" s="220"/>
-      <c r="I19" s="220"/>
-      <c r="J19" s="221"/>
-      <c r="K19" s="201">
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="215">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="202"/>
-      <c r="M19" s="202"/>
-      <c r="N19" s="202"/>
-      <c r="O19" s="202"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="202"/>
-      <c r="R19" s="202"/>
-      <c r="S19" s="202"/>
-      <c r="T19" s="202"/>
-      <c r="U19" s="202"/>
-      <c r="V19" s="202"/>
-      <c r="W19" s="202"/>
-      <c r="X19" s="202"/>
-      <c r="Y19" s="202"/>
-      <c r="Z19" s="202"/>
-      <c r="AA19" s="202"/>
-      <c r="AB19" s="203"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="216"/>
+      <c r="Y19" s="216"/>
+      <c r="Z19" s="216"/>
+      <c r="AA19" s="216"/>
+      <c r="AB19" s="217"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="217">
+      <c r="AE19" s="218">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="222"/>
+      <c r="AF19" s="219"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5383,24 +5377,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="197"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="197"/>
+      <c r="F20" s="234"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="238"/>
-      <c r="L20" s="197"/>
-      <c r="M20" s="197"/>
-      <c r="N20" s="197"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="197"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="197"/>
-      <c r="S20" s="197"/>
-      <c r="T20" s="197"/>
-      <c r="U20" s="197"/>
-      <c r="V20" s="197"/>
-      <c r="W20" s="197"/>
+      <c r="K20" s="190"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="208"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="191"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5410,207 +5404,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="232">
+      <c r="AE20" s="204">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="191"/>
+      <c r="AF20" s="205"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="231" t="s">
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="225"/>
+      <c r="F21" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="189"/>
-      <c r="H21" s="189"/>
-      <c r="I21" s="189"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="188" t="s">
+      <c r="G21" s="188"/>
+      <c r="H21" s="188"/>
+      <c r="I21" s="188"/>
+      <c r="J21" s="189"/>
+      <c r="K21" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="189"/>
-      <c r="M21" s="189"/>
-      <c r="N21" s="189"/>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="189"/>
-      <c r="S21" s="189"/>
-      <c r="T21" s="189"/>
-      <c r="U21" s="189"/>
-      <c r="V21" s="189"/>
-      <c r="W21" s="189"/>
-      <c r="X21" s="189"/>
-      <c r="Y21" s="189"/>
-      <c r="Z21" s="189"/>
-      <c r="AA21" s="189"/>
-      <c r="AB21" s="190"/>
+      <c r="L21" s="188"/>
+      <c r="M21" s="188"/>
+      <c r="N21" s="188"/>
+      <c r="O21" s="188"/>
+      <c r="P21" s="188"/>
+      <c r="Q21" s="188"/>
+      <c r="R21" s="188"/>
+      <c r="S21" s="188"/>
+      <c r="T21" s="188"/>
+      <c r="U21" s="188"/>
+      <c r="V21" s="188"/>
+      <c r="W21" s="188"/>
+      <c r="X21" s="188"/>
+      <c r="Y21" s="188"/>
+      <c r="Z21" s="188"/>
+      <c r="AA21" s="188"/>
+      <c r="AB21" s="189"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="110"/>
-      <c r="AF21" s="197"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="191"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="239" t="s">
+      <c r="B22" s="226"/>
+      <c r="C22" s="227"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="228"/>
+      <c r="F22" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="240"/>
-      <c r="H22" s="240"/>
-      <c r="I22" s="240"/>
-      <c r="J22" s="241"/>
-      <c r="K22" s="212" t="s">
+      <c r="G22" s="197"/>
+      <c r="H22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
+      <c r="K22" s="192" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="213"/>
-      <c r="M22" s="213"/>
-      <c r="N22" s="213"/>
-      <c r="O22" s="213"/>
-      <c r="P22" s="213"/>
-      <c r="Q22" s="213"/>
-      <c r="R22" s="245" t="s">
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="193"/>
+      <c r="R22" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="214" t="s">
+      <c r="S22" s="194" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="214"/>
-      <c r="U22" s="214"/>
-      <c r="V22" s="214"/>
-      <c r="W22" s="214"/>
-      <c r="X22" s="214"/>
-      <c r="Y22" s="214"/>
-      <c r="Z22" s="214"/>
-      <c r="AA22" s="214"/>
-      <c r="AB22" s="215"/>
+      <c r="T22" s="194"/>
+      <c r="U22" s="194"/>
+      <c r="V22" s="194"/>
+      <c r="W22" s="194"/>
+      <c r="X22" s="194"/>
+      <c r="Y22" s="194"/>
+      <c r="Z22" s="194"/>
+      <c r="AA22" s="194"/>
+      <c r="AB22" s="195"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="109" t="s">
+      <c r="AD22" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="121">
+      <c r="AE22" s="75">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="121"/>
+      <c r="AF22" s="75"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="196"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
-      <c r="I23" s="243"/>
-      <c r="J23" s="244"/>
-      <c r="K23" s="229">
+      <c r="B23" s="229"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="228"/>
+      <c r="F23" s="199"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="201"/>
+      <c r="K23" s="211">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="220"/>
-      <c r="M23" s="220"/>
-      <c r="N23" s="220"/>
-      <c r="O23" s="220"/>
-      <c r="P23" s="220"/>
-      <c r="Q23" s="220"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="219">
+      <c r="L23" s="212"/>
+      <c r="M23" s="212"/>
+      <c r="N23" s="212"/>
+      <c r="O23" s="212"/>
+      <c r="P23" s="212"/>
+      <c r="Q23" s="212"/>
+      <c r="R23" s="203"/>
+      <c r="S23" s="242">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="220"/>
-      <c r="U23" s="220"/>
-      <c r="V23" s="220"/>
-      <c r="W23" s="220"/>
-      <c r="X23" s="220"/>
-      <c r="Y23" s="220"/>
-      <c r="Z23" s="220"/>
-      <c r="AA23" s="220"/>
-      <c r="AB23" s="221"/>
+      <c r="T23" s="212"/>
+      <c r="U23" s="212"/>
+      <c r="V23" s="212"/>
+      <c r="W23" s="212"/>
+      <c r="X23" s="212"/>
+      <c r="Y23" s="212"/>
+      <c r="Z23" s="212"/>
+      <c r="AA23" s="212"/>
+      <c r="AB23" s="214"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="109"/>
-      <c r="AE23" s="95"/>
-      <c r="AF23" s="95"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="180"/>
+      <c r="AF23" s="180"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="198"/>
-      <c r="C24" s="199"/>
-      <c r="D24" s="199"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="230" t="s">
+      <c r="B24" s="230"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="231"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="213" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="220"/>
-      <c r="H24" s="220"/>
-      <c r="I24" s="220"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="201">
+      <c r="G24" s="212"/>
+      <c r="H24" s="212"/>
+      <c r="I24" s="212"/>
+      <c r="J24" s="214"/>
+      <c r="K24" s="215">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="202"/>
-      <c r="M24" s="202"/>
-      <c r="N24" s="202"/>
-      <c r="O24" s="202"/>
-      <c r="P24" s="202"/>
-      <c r="Q24" s="202"/>
-      <c r="R24" s="202"/>
-      <c r="S24" s="202"/>
-      <c r="T24" s="202"/>
-      <c r="U24" s="202"/>
-      <c r="V24" s="202"/>
-      <c r="W24" s="202"/>
-      <c r="X24" s="202"/>
-      <c r="Y24" s="202"/>
-      <c r="Z24" s="202"/>
-      <c r="AA24" s="202"/>
-      <c r="AB24" s="203"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="216"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="216"/>
+      <c r="S24" s="216"/>
+      <c r="T24" s="216"/>
+      <c r="U24" s="216"/>
+      <c r="V24" s="216"/>
+      <c r="W24" s="216"/>
+      <c r="X24" s="216"/>
+      <c r="Y24" s="216"/>
+      <c r="Z24" s="216"/>
+      <c r="AA24" s="216"/>
+      <c r="AB24" s="217"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="95">
+      <c r="AE24" s="180">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="199"/>
+      <c r="AF24" s="231"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
+      <c r="A25" s="131"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="199"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="235"/>
-      <c r="L25" s="199"/>
-      <c r="M25" s="199"/>
-      <c r="N25" s="199"/>
-      <c r="O25" s="199"/>
-      <c r="P25" s="199"/>
-      <c r="Q25" s="199"/>
-      <c r="R25" s="199"/>
-      <c r="S25" s="199"/>
-      <c r="T25" s="199"/>
-      <c r="U25" s="199"/>
-      <c r="V25" s="199"/>
-      <c r="W25" s="199"/>
+      <c r="K25" s="253"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="231"/>
+      <c r="S25" s="231"/>
+      <c r="T25" s="231"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="231"/>
+      <c r="W25" s="231"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5620,14 +5614,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="217">
+      <c r="AE25" s="218">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="199"/>
+      <c r="AF25" s="231"/>
     </row>
     <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="135"/>
+      <c r="A26" s="134"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5661,7 +5655,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="135"/>
+      <c r="A27" s="134"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5680,28 +5674,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="98" t="s">
+      <c r="T27" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="U27" s="197"/>
-      <c r="V27" s="197"/>
-      <c r="W27" s="197"/>
-      <c r="X27" s="197"/>
-      <c r="Y27" s="197"/>
-      <c r="Z27" s="197"/>
-      <c r="AA27" s="197"/>
-      <c r="AB27" s="197"/>
+      <c r="U27" s="191"/>
+      <c r="V27" s="191"/>
+      <c r="W27" s="191"/>
+      <c r="X27" s="191"/>
+      <c r="Y27" s="191"/>
+      <c r="Z27" s="191"/>
+      <c r="AA27" s="191"/>
+      <c r="AB27" s="191"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="186">
+      <c r="AE27" s="250">
         <v>10000</v>
       </c>
-      <c r="AF27" s="187"/>
+      <c r="AF27" s="251"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="135"/>
+      <c r="A28" s="134"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5720,25 +5714,25 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="119" t="s">
+      <c r="T28" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="197"/>
-      <c r="V28" s="197"/>
-      <c r="W28" s="197"/>
-      <c r="X28" s="197"/>
-      <c r="Y28" s="197"/>
-      <c r="Z28" s="197"/>
-      <c r="AA28" s="197"/>
-      <c r="AB28" s="197"/>
+      <c r="U28" s="191"/>
+      <c r="V28" s="191"/>
+      <c r="W28" s="191"/>
+      <c r="X28" s="191"/>
+      <c r="Y28" s="191"/>
+      <c r="Z28" s="191"/>
+      <c r="AA28" s="191"/>
+      <c r="AB28" s="191"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="216">
+      <c r="AE28" s="252">
         <v>10000</v>
       </c>
-      <c r="AF28" s="187"/>
+      <c r="AF28" s="251"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -5760,26 +5754,26 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="100" t="s">
+      <c r="T29" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="197"/>
-      <c r="V29" s="197"/>
-      <c r="W29" s="197"/>
-      <c r="X29" s="197"/>
-      <c r="Y29" s="197"/>
-      <c r="Z29" s="197"/>
-      <c r="AA29" s="197"/>
-      <c r="AB29" s="197"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="191"/>
+      <c r="W29" s="191"/>
+      <c r="X29" s="191"/>
+      <c r="Y29" s="191"/>
+      <c r="Z29" s="191"/>
+      <c r="AA29" s="191"/>
+      <c r="AB29" s="191"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="121">
+      <c r="AE29" s="75">
         <f>AE20+AE25+AE27+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF29" s="197"/>
+      <c r="AF29" s="191"/>
     </row>
     <row r="30" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5851,41 +5845,41 @@
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="177" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="184" t="s">
+      <c r="C32" s="177"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="248" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="184"/>
-      <c r="I32" s="184"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="184"/>
-      <c r="O32" s="184"/>
-      <c r="P32" s="184"/>
-      <c r="Q32" s="184"/>
-      <c r="R32" s="184"/>
-      <c r="S32" s="184"/>
-      <c r="T32" s="184"/>
-      <c r="U32" s="184"/>
-      <c r="V32" s="184"/>
-      <c r="W32" s="184"/>
-      <c r="X32" s="184"/>
-      <c r="Y32" s="184"/>
-      <c r="Z32" s="184"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="184"/>
-      <c r="AC32" s="184"/>
-      <c r="AD32" s="184"/>
-      <c r="AE32" s="184"/>
-      <c r="AF32" s="184"/>
+      <c r="H32" s="248"/>
+      <c r="I32" s="248"/>
+      <c r="J32" s="248"/>
+      <c r="K32" s="248"/>
+      <c r="L32" s="248"/>
+      <c r="M32" s="248"/>
+      <c r="N32" s="248"/>
+      <c r="O32" s="248"/>
+      <c r="P32" s="248"/>
+      <c r="Q32" s="248"/>
+      <c r="R32" s="248"/>
+      <c r="S32" s="248"/>
+      <c r="T32" s="248"/>
+      <c r="U32" s="248"/>
+      <c r="V32" s="248"/>
+      <c r="W32" s="248"/>
+      <c r="X32" s="248"/>
+      <c r="Y32" s="248"/>
+      <c r="Z32" s="248"/>
+      <c r="AA32" s="248"/>
+      <c r="AB32" s="248"/>
+      <c r="AC32" s="248"/>
+      <c r="AD32" s="248"/>
+      <c r="AE32" s="248"/>
+      <c r="AF32" s="248"/>
     </row>
     <row r="33" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -6014,200 +6008,200 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="49"/>
-      <c r="AB36" s="185" t="s">
+      <c r="AB36" s="249" t="s">
         <v>42</v>
       </c>
-      <c r="AC36" s="185"/>
-      <c r="AD36" s="185"/>
-      <c r="AE36" s="185"/>
-      <c r="AF36" s="185"/>
+      <c r="AC36" s="249"/>
+      <c r="AD36" s="249"/>
+      <c r="AE36" s="249"/>
+      <c r="AF36" s="249"/>
     </row>
     <row r="37" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="76"/>
+      <c r="C37" s="169"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
+      <c r="P37" s="169"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="170"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="AB37" s="185"/>
-      <c r="AC37" s="185"/>
-      <c r="AD37" s="185"/>
-      <c r="AE37" s="185"/>
-      <c r="AF37" s="185"/>
+      <c r="AB37" s="249"/>
+      <c r="AC37" s="249"/>
+      <c r="AD37" s="249"/>
+      <c r="AE37" s="249"/>
+      <c r="AF37" s="249"/>
     </row>
     <row r="38" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="78"/>
-      <c r="H38" s="78"/>
-      <c r="I38" s="78"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
-      <c r="Q38" s="78"/>
-      <c r="R38" s="78"/>
-      <c r="S38" s="78"/>
-      <c r="T38" s="79"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="172"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="172"/>
+      <c r="P38" s="172"/>
+      <c r="Q38" s="172"/>
+      <c r="R38" s="172"/>
+      <c r="S38" s="172"/>
+      <c r="T38" s="173"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="AB38" s="185"/>
-      <c r="AC38" s="185"/>
-      <c r="AD38" s="185"/>
-      <c r="AE38" s="185"/>
-      <c r="AF38" s="185"/>
+      <c r="AB38" s="249"/>
+      <c r="AC38" s="249"/>
+      <c r="AD38" s="249"/>
+      <c r="AE38" s="249"/>
+      <c r="AF38" s="249"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="78"/>
-      <c r="H39" s="78"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
-      <c r="K39" s="78"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
-      <c r="Q39" s="78"/>
-      <c r="R39" s="78"/>
-      <c r="S39" s="78"/>
-      <c r="T39" s="79"/>
+      <c r="B39" s="171"/>
+      <c r="C39" s="172"/>
+      <c r="D39" s="172"/>
+      <c r="E39" s="172"/>
+      <c r="F39" s="172"/>
+      <c r="G39" s="172"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="172"/>
+      <c r="N39" s="172"/>
+      <c r="O39" s="172"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="172"/>
+      <c r="R39" s="172"/>
+      <c r="S39" s="172"/>
+      <c r="T39" s="173"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="78"/>
-      <c r="H40" s="78"/>
-      <c r="I40" s="78"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
-      <c r="Q40" s="78"/>
-      <c r="R40" s="78"/>
-      <c r="S40" s="78"/>
-      <c r="T40" s="79"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="172"/>
+      <c r="N40" s="172"/>
+      <c r="O40" s="172"/>
+      <c r="P40" s="172"/>
+      <c r="Q40" s="172"/>
+      <c r="R40" s="172"/>
+      <c r="S40" s="172"/>
+      <c r="T40" s="173"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="78"/>
-      <c r="R41" s="78"/>
-      <c r="S41" s="78"/>
-      <c r="T41" s="79"/>
+      <c r="B41" s="171"/>
+      <c r="C41" s="172"/>
+      <c r="D41" s="172"/>
+      <c r="E41" s="172"/>
+      <c r="F41" s="172"/>
+      <c r="G41" s="172"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="172"/>
+      <c r="N41" s="172"/>
+      <c r="O41" s="172"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="172"/>
+      <c r="R41" s="172"/>
+      <c r="S41" s="172"/>
+      <c r="T41" s="173"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
     <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="78"/>
-      <c r="H42" s="78"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="78"/>
-      <c r="R42" s="78"/>
-      <c r="S42" s="78"/>
-      <c r="T42" s="79"/>
+      <c r="B42" s="171"/>
+      <c r="C42" s="172"/>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="172"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="172"/>
+      <c r="N42" s="172"/>
+      <c r="O42" s="172"/>
+      <c r="P42" s="172"/>
+      <c r="Q42" s="172"/>
+      <c r="R42" s="172"/>
+      <c r="S42" s="172"/>
+      <c r="T42" s="173"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
-      <c r="N43" s="81"/>
-      <c r="O43" s="81"/>
-      <c r="P43" s="81"/>
-      <c r="Q43" s="81"/>
-      <c r="R43" s="81"/>
-      <c r="S43" s="81"/>
-      <c r="T43" s="82"/>
+      <c r="B43" s="174"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="175"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="175"/>
+      <c r="P43" s="175"/>
+      <c r="Q43" s="175"/>
+      <c r="R43" s="175"/>
+      <c r="S43" s="175"/>
+      <c r="T43" s="176"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="AB43" s="182" t="s">
+      <c r="AB43" s="246" t="s">
         <v>43</v>
       </c>
-      <c r="AC43" s="183"/>
-      <c r="AD43" s="183"/>
-      <c r="AE43" s="183"/>
-      <c r="AF43" s="183"/>
+      <c r="AC43" s="247"/>
+      <c r="AD43" s="247"/>
+      <c r="AE43" s="247"/>
+      <c r="AF43" s="247"/>
     </row>
     <row r="44" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -6233,11 +6227,11 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="AB44" s="180"/>
-      <c r="AC44" s="181"/>
-      <c r="AD44" s="181"/>
-      <c r="AE44" s="181"/>
-      <c r="AF44" s="181"/>
+      <c r="AB44" s="244"/>
+      <c r="AC44" s="245"/>
+      <c r="AD44" s="245"/>
+      <c r="AE44" s="245"/>
+      <c r="AF44" s="245"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -6478,124 +6472,157 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="106" t="s">
+      <c r="B62" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="135"/>
-      <c r="K62" s="135"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="135"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="135"/>
-      <c r="S62" s="135"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="135"/>
-      <c r="V62" s="135"/>
-      <c r="W62" s="135"/>
-      <c r="X62" s="135"/>
-      <c r="Y62" s="135"/>
-      <c r="Z62" s="135"/>
-      <c r="AA62" s="135"/>
-      <c r="AB62" s="135"/>
-      <c r="AC62" s="135"/>
-      <c r="AD62" s="135"/>
-      <c r="AE62" s="135"/>
-      <c r="AF62" s="135"/>
+      <c r="C62" s="134"/>
+      <c r="D62" s="134"/>
+      <c r="E62" s="134"/>
+      <c r="F62" s="134"/>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="134"/>
+      <c r="K62" s="134"/>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="134"/>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="134"/>
+      <c r="V62" s="134"/>
+      <c r="W62" s="134"/>
+      <c r="X62" s="134"/>
+      <c r="Y62" s="134"/>
+      <c r="Z62" s="134"/>
+      <c r="AA62" s="134"/>
+      <c r="AB62" s="134"/>
+      <c r="AC62" s="134"/>
+      <c r="AD62" s="134"/>
+      <c r="AE62" s="134"/>
+      <c r="AF62" s="134"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="107" t="s">
+      <c r="B63" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="135"/>
-      <c r="D63" s="135"/>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
-      <c r="N63" s="135"/>
-      <c r="O63" s="135"/>
-      <c r="P63" s="135"/>
-      <c r="Q63" s="135"/>
-      <c r="R63" s="135"/>
-      <c r="S63" s="135"/>
-      <c r="T63" s="135"/>
-      <c r="U63" s="135"/>
-      <c r="V63" s="135"/>
-      <c r="W63" s="135"/>
-      <c r="X63" s="135"/>
-      <c r="Y63" s="135"/>
-      <c r="Z63" s="135"/>
-      <c r="AA63" s="135"/>
-      <c r="AB63" s="135"/>
-      <c r="AC63" s="135"/>
-      <c r="AD63" s="135"/>
-      <c r="AE63" s="135"/>
-      <c r="AF63" s="135"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="134"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="134"/>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="134"/>
+      <c r="R63" s="134"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="134"/>
+      <c r="U63" s="134"/>
+      <c r="V63" s="134"/>
+      <c r="W63" s="134"/>
+      <c r="X63" s="134"/>
+      <c r="Y63" s="134"/>
+      <c r="Z63" s="134"/>
+      <c r="AA63" s="134"/>
+      <c r="AB63" s="134"/>
+      <c r="AC63" s="134"/>
+      <c r="AD63" s="134"/>
+      <c r="AE63" s="134"/>
+      <c r="AF63" s="134"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="107" t="s">
+      <c r="B64" s="164" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="135"/>
-      <c r="H64" s="135"/>
-      <c r="I64" s="135"/>
-      <c r="J64" s="135"/>
-      <c r="K64" s="135"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
-      <c r="N64" s="135"/>
-      <c r="O64" s="135"/>
-      <c r="P64" s="135"/>
-      <c r="Q64" s="135"/>
-      <c r="R64" s="135"/>
-      <c r="S64" s="135"/>
-      <c r="T64" s="135"/>
-      <c r="U64" s="135"/>
-      <c r="V64" s="135"/>
-      <c r="W64" s="135"/>
-      <c r="X64" s="135"/>
-      <c r="Y64" s="135"/>
-      <c r="Z64" s="135"/>
-      <c r="AA64" s="135"/>
-      <c r="AB64" s="135"/>
-      <c r="AC64" s="135"/>
-      <c r="AD64" s="135"/>
-      <c r="AE64" s="135"/>
-      <c r="AF64" s="135"/>
+      <c r="C64" s="134"/>
+      <c r="D64" s="134"/>
+      <c r="E64" s="134"/>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="134"/>
+      <c r="K64" s="134"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="134"/>
+      <c r="P64" s="134"/>
+      <c r="Q64" s="134"/>
+      <c r="R64" s="134"/>
+      <c r="S64" s="134"/>
+      <c r="T64" s="134"/>
+      <c r="U64" s="134"/>
+      <c r="V64" s="134"/>
+      <c r="W64" s="134"/>
+      <c r="X64" s="134"/>
+      <c r="Y64" s="134"/>
+      <c r="Z64" s="134"/>
+      <c r="AA64" s="134"/>
+      <c r="AB64" s="134"/>
+      <c r="AC64" s="134"/>
+      <c r="AD64" s="134"/>
+      <c r="AE64" s="134"/>
+      <c r="AF64" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B37:T43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
+    <mergeCell ref="AB36:AF38"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B64:AF64"/>
@@ -6612,52 +6639,19 @@
     <mergeCell ref="B63:AF63"/>
     <mergeCell ref="T29:AB29"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
     <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B37:T43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AB36:AF38"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA75F253-915D-43E0-939E-E4783B76984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F70CF7E-2446-43B1-9B8A-D77B9C486BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="60">
   <si>
     <t>BILLING STATEMENT</t>
   </si>
@@ -760,187 +760,190 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -950,236 +953,266 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1189,92 +1222,59 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1873,8 +1873,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScale="115" zoomScaleNormal="100" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AD36" sqref="AD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1914,146 +1914,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AD2" s="92"/>
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="92"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
+      <c r="Q3" s="92"/>
+      <c r="R3" s="92"/>
+      <c r="S3" s="92"/>
+      <c r="T3" s="92"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="92"/>
+      <c r="Y3" s="92"/>
+      <c r="Z3" s="92"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="92"/>
+      <c r="AC3" s="92"/>
+      <c r="AD3" s="92"/>
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="92"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="130"/>
-      <c r="D4" s="130"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
-      <c r="L4" s="130"/>
-      <c r="M4" s="130"/>
-      <c r="N4" s="130"/>
-      <c r="O4" s="130"/>
-      <c r="P4" s="130"/>
-      <c r="Q4" s="130"/>
-      <c r="R4" s="130"/>
-      <c r="S4" s="130"/>
-      <c r="T4" s="130"/>
-      <c r="U4" s="130"/>
-      <c r="V4" s="130"/>
-      <c r="W4" s="130"/>
-      <c r="X4" s="130"/>
-      <c r="Y4" s="130"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
-      <c r="AD4" s="130"/>
-      <c r="AE4" s="130"/>
-      <c r="AF4" s="130"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="92"/>
+      <c r="AD4" s="92"/>
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130"/>
-      <c r="U5" s="130"/>
-      <c r="V5" s="130"/>
-      <c r="W5" s="130"/>
-      <c r="X5" s="130"/>
-      <c r="Y5" s="130"/>
-      <c r="Z5" s="130"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
+      <c r="S5" s="92"/>
+      <c r="T5" s="92"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="92"/>
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="129" t="s">
+      <c r="AB5" s="160" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="130"/>
-      <c r="AD5" s="130"/>
-      <c r="AE5" s="130"/>
+      <c r="AC5" s="92"/>
+      <c r="AD5" s="92"/>
+      <c r="AE5" s="92"/>
       <c r="AF5" s="47" t="s">
         <v>54</v>
       </c>
@@ -2066,15 +2066,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2084,35 +2084,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130"/>
-      <c r="U6" s="130"/>
-      <c r="V6" s="130"/>
-      <c r="W6" s="130"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="130"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="92"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="92"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="129" t="s">
+      <c r="AB6" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="130"/>
-      <c r="AD6" s="130"/>
-      <c r="AE6" s="130"/>
+      <c r="AC6" s="92"/>
+      <c r="AD6" s="92"/>
+      <c r="AE6" s="92"/>
       <c r="AF6" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2140,13 +2140,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2155,38 +2155,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="136" t="s">
+      <c r="Q8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="137"/>
-      <c r="S8" s="137"/>
-      <c r="T8" s="137"/>
-      <c r="U8" s="137"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="137"/>
-      <c r="X8" s="138"/>
-      <c r="Y8" s="136" t="s">
+      <c r="R8" s="138"/>
+      <c r="S8" s="138"/>
+      <c r="T8" s="138"/>
+      <c r="U8" s="138"/>
+      <c r="V8" s="138"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="139"/>
+      <c r="Y8" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="137"/>
-      <c r="AC8" s="138"/>
-      <c r="AD8" s="136" t="s">
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="139"/>
+      <c r="AD8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="138"/>
+      <c r="AE8" s="138"/>
+      <c r="AF8" s="139"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2195,22 +2195,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="140"/>
-      <c r="S9" s="140"/>
-      <c r="T9" s="140"/>
-      <c r="U9" s="140"/>
-      <c r="V9" s="140"/>
-      <c r="W9" s="140"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="140"/>
-      <c r="AA9" s="140"/>
-      <c r="AB9" s="140"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="140"/>
-      <c r="AF9" s="141"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="141"/>
+      <c r="T9" s="141"/>
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="141"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="142"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2229,44 +2229,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="144">
+      <c r="Q10" s="150">
         <v>44986</v>
       </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="146">
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="154">
         <v>0</v>
       </c>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="162" t="s">
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="139"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2275,22 +2275,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="141"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="142"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="142"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2328,77 +2328,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="150"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="150"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="150"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="150"/>
-      <c r="O13" s="150"/>
-      <c r="P13" s="150"/>
-      <c r="Q13" s="150"/>
-      <c r="R13" s="150"/>
-      <c r="S13" s="150"/>
-      <c r="T13" s="150"/>
-      <c r="U13" s="150"/>
-      <c r="V13" s="150"/>
-      <c r="W13" s="150"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
+      <c r="S13" s="145"/>
+      <c r="T13" s="145"/>
+      <c r="U13" s="145"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="145"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="150" t="s">
+      <c r="AA13" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="AB13" s="150"/>
-      <c r="AC13" s="150"/>
-      <c r="AD13" s="145" t="s">
+      <c r="AB13" s="145"/>
+      <c r="AC13" s="145"/>
+      <c r="AD13" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
+      <c r="AE13" s="138"/>
+      <c r="AF13" s="138"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="151"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="151"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="151"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="151"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="151"/>
-      <c r="Q14" s="151"/>
-      <c r="R14" s="151"/>
-      <c r="S14" s="151"/>
-      <c r="T14" s="151"/>
-      <c r="U14" s="151"/>
-      <c r="V14" s="151"/>
-      <c r="W14" s="151"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="146"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="146"/>
+      <c r="P14" s="146"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="146"/>
+      <c r="S14" s="146"/>
+      <c r="T14" s="146"/>
+      <c r="U14" s="146"/>
+      <c r="V14" s="146"/>
+      <c r="W14" s="146"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="151"/>
-      <c r="AB14" s="151"/>
-      <c r="AC14" s="151"/>
-      <c r="AD14" s="140"/>
-      <c r="AE14" s="140"/>
-      <c r="AF14" s="140"/>
+      <c r="AA14" s="146"/>
+      <c r="AB14" s="146"/>
+      <c r="AC14" s="146"/>
+      <c r="AD14" s="141"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="141"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2435,121 +2435,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="160" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="118" t="s">
+      <c r="C16" s="122"/>
+      <c r="D16" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="83"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="91">
+      <c r="L16" s="130">
         <v>44946</v>
       </c>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="126" t="s">
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="128" t="s">
+      <c r="Q16" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="83"/>
-      <c r="S16" s="91">
+      <c r="R16" s="95"/>
+      <c r="S16" s="130">
         <v>44977</v>
       </c>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="83"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="95"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="132"/>
-      <c r="AB16" s="132"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="76"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="75"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="130"/>
-      <c r="B17" s="155"/>
-      <c r="C17" s="156"/>
-      <c r="D17" s="118" t="s">
+      <c r="A17" s="92"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124"/>
+      <c r="D17" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="94">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="162">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="97">
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="166"/>
+      <c r="Q17" s="152">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="96"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="122"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="132"/>
-      <c r="AB17" s="132"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="142"/>
-      <c r="AF17" s="76"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="75"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
-      <c r="D18" s="118" t="s">
+      <c r="B18" s="123"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="119">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="176">
         <v>1</v>
       </c>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="119"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="119"/>
+      <c r="L18" s="176"/>
+      <c r="M18" s="176"/>
+      <c r="N18" s="176"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="176"/>
+      <c r="S18" s="176"/>
+      <c r="T18" s="176"/>
+      <c r="U18" s="176"/>
+      <c r="V18" s="176"/>
+      <c r="W18" s="176"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2562,166 +2562,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="120" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="179" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="115">
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="127">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="116"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="116"/>
-      <c r="P19" s="116"/>
-      <c r="Q19" s="116"/>
-      <c r="R19" s="116"/>
-      <c r="S19" s="116"/>
-      <c r="T19" s="116"/>
-      <c r="U19" s="116"/>
-      <c r="V19" s="116"/>
-      <c r="W19" s="117"/>
-      <c r="X19" s="98" t="s">
+      <c r="L19" s="128"/>
+      <c r="M19" s="128"/>
+      <c r="N19" s="128"/>
+      <c r="O19" s="128"/>
+      <c r="P19" s="128"/>
+      <c r="Q19" s="128"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="129"/>
+      <c r="X19" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="99">
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="85">
         <v>1800</v>
       </c>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
+      <c r="AB19" s="85"/>
+      <c r="AC19" s="85"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="77">
+      <c r="AE19" s="79">
         <v>0</v>
       </c>
-      <c r="AF19" s="77"/>
+      <c r="AF19" s="79"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="121" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101" t="s">
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="103">
+      <c r="I20" s="96"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="170">
         <v>88</v>
       </c>
-      <c r="L20" s="104"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="104"/>
-      <c r="P20" s="104"/>
-      <c r="Q20" s="104"/>
-      <c r="R20" s="104"/>
-      <c r="S20" s="104"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="104"/>
-      <c r="V20" s="104"/>
-      <c r="W20" s="105"/>
-      <c r="X20" s="98" t="s">
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="171"/>
+      <c r="P20" s="171"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="171"/>
+      <c r="T20" s="171"/>
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="99">
+      <c r="Y20" s="88"/>
+      <c r="Z20" s="88"/>
+      <c r="AA20" s="85">
         <v>1800</v>
       </c>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="99"/>
-      <c r="AD20" s="100" t="s">
+      <c r="AB20" s="85"/>
+      <c r="AC20" s="85"/>
+      <c r="AD20" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="77">
+      <c r="AE20" s="79">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="77"/>
+      <c r="AF20" s="79"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="109" t="s">
+      <c r="B21" s="123"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="110" t="s">
+      <c r="H21" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="106"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="107"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="107"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="99"/>
-      <c r="AB21" s="99"/>
-      <c r="AC21" s="99"/>
-      <c r="AD21" s="100"/>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="173"/>
+      <c r="L21" s="174"/>
+      <c r="M21" s="174"/>
+      <c r="N21" s="174"/>
+      <c r="O21" s="174"/>
+      <c r="P21" s="174"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="174"/>
+      <c r="S21" s="174"/>
+      <c r="T21" s="174"/>
+      <c r="U21" s="174"/>
+      <c r="V21" s="174"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="157"/>
+      <c r="Y21" s="88"/>
+      <c r="Z21" s="88"/>
+      <c r="AA21" s="85"/>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="85"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="79"/>
+      <c r="AF21" s="79"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="122" t="s">
+      <c r="B22" s="123"/>
+      <c r="C22" s="124"/>
+      <c r="D22" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="123">
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="111">
         <v>0.03</v>
       </c>
-      <c r="L22" s="124"/>
-      <c r="M22" s="124"/>
-      <c r="N22" s="124"/>
-      <c r="O22" s="124"/>
-      <c r="P22" s="124"/>
-      <c r="Q22" s="124"/>
-      <c r="R22" s="124"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="124"/>
-      <c r="U22" s="124"/>
-      <c r="V22" s="124"/>
-      <c r="W22" s="125"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="N22" s="112"/>
+      <c r="O22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="113"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
@@ -2729,84 +2729,89 @@
       <c r="AB22" s="63"/>
       <c r="AC22" s="63"/>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="87">
+      <c r="AE22" s="183">
         <f>AE20*K22</f>
         <v>4752</v>
       </c>
-      <c r="AF22" s="88"/>
+      <c r="AF22" s="183"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="156"/>
-      <c r="D23" s="78" t="s">
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="D23" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="80"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="181"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="182"/>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
       <c r="AA23" s="63"/>
       <c r="AB23" s="63"/>
       <c r="AC23" s="63"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
+      <c r="AD23" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE23" s="117">
+        <f>AE20+AE22</f>
+        <v>163152</v>
+      </c>
+      <c r="AF23" s="117"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="118" t="s">
+      <c r="B24" s="123"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="83"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="91">
+      <c r="L24" s="130">
         <v>44947</v>
       </c>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="83"/>
-      <c r="P24" s="126" t="s">
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="165" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="128" t="s">
+      <c r="Q24" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="83"/>
-      <c r="S24" s="91">
+      <c r="R24" s="95"/>
+      <c r="S24" s="130">
         <v>44986</v>
       </c>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="83"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="95"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
@@ -2819,34 +2824,34 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="155"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="118" t="s">
+      <c r="B25" s="123"/>
+      <c r="C25" s="124"/>
+      <c r="D25" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="94">
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="162">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="97">
+      <c r="L25" s="153"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="153"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="152">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="96"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="122"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
@@ -2859,32 +2864,32 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="155"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="118" t="s">
+      <c r="B26" s="123"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="119">
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="176">
         <v>1</v>
       </c>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="119"/>
-      <c r="Q26" s="119"/>
-      <c r="R26" s="119"/>
-      <c r="S26" s="119"/>
-      <c r="T26" s="119"/>
-      <c r="U26" s="119"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
+      <c r="O26" s="176"/>
+      <c r="P26" s="176"/>
+      <c r="Q26" s="176"/>
+      <c r="R26" s="176"/>
+      <c r="S26" s="176"/>
+      <c r="T26" s="176"/>
+      <c r="U26" s="176"/>
+      <c r="V26" s="176"/>
+      <c r="W26" s="176"/>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
@@ -2897,166 +2902,166 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="155"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="112" t="s">
+      <c r="B27" s="123"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="184" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="115">
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="185"/>
+      <c r="J27" s="186"/>
+      <c r="K27" s="127">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
-      <c r="V27" s="116"/>
-      <c r="W27" s="117"/>
-      <c r="X27" s="98" t="s">
+      <c r="L27" s="128"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="128"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="129"/>
+      <c r="X27" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="99">
+      <c r="Y27" s="88"/>
+      <c r="Z27" s="88"/>
+      <c r="AA27" s="85">
         <v>1800</v>
       </c>
-      <c r="AB27" s="99"/>
-      <c r="AC27" s="99"/>
+      <c r="AB27" s="85"/>
+      <c r="AC27" s="85"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="77">
+      <c r="AE27" s="79">
         <v>0</v>
       </c>
-      <c r="AF27" s="77"/>
+      <c r="AF27" s="79"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="121" t="s">
+      <c r="B28" s="123"/>
+      <c r="C28" s="124"/>
+      <c r="D28" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101" t="s">
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103">
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="170">
         <v>29.33</v>
       </c>
-      <c r="L28" s="104"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="104"/>
-      <c r="O28" s="104"/>
-      <c r="P28" s="104"/>
-      <c r="Q28" s="104"/>
-      <c r="R28" s="104"/>
-      <c r="S28" s="104"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="104"/>
-      <c r="V28" s="104"/>
-      <c r="W28" s="105"/>
-      <c r="X28" s="98" t="s">
+      <c r="L28" s="171"/>
+      <c r="M28" s="171"/>
+      <c r="N28" s="171"/>
+      <c r="O28" s="171"/>
+      <c r="P28" s="171"/>
+      <c r="Q28" s="171"/>
+      <c r="R28" s="171"/>
+      <c r="S28" s="171"/>
+      <c r="T28" s="171"/>
+      <c r="U28" s="171"/>
+      <c r="V28" s="171"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="99">
+      <c r="Y28" s="88"/>
+      <c r="Z28" s="88"/>
+      <c r="AA28" s="85">
         <v>1800</v>
       </c>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="100" t="s">
+      <c r="AB28" s="85"/>
+      <c r="AC28" s="85"/>
+      <c r="AD28" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="77">
+      <c r="AE28" s="79">
         <f>K28*AA28</f>
         <v>52794</v>
       </c>
-      <c r="AF28" s="77"/>
+      <c r="AF28" s="79"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="109" t="s">
+      <c r="B29" s="123"/>
+      <c r="C29" s="124"/>
+      <c r="D29" s="114" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="110" t="s">
+      <c r="H29" s="115" t="s">
         <v>58</v>
       </c>
-      <c r="I29" s="110"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="107"/>
-      <c r="P29" s="107"/>
-      <c r="Q29" s="107"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="107"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="99"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="100"/>
-      <c r="AE29" s="77"/>
-      <c r="AF29" s="77"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="173"/>
+      <c r="L29" s="174"/>
+      <c r="M29" s="174"/>
+      <c r="N29" s="174"/>
+      <c r="O29" s="174"/>
+      <c r="P29" s="174"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="174"/>
+      <c r="S29" s="174"/>
+      <c r="T29" s="174"/>
+      <c r="U29" s="174"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="88"/>
+      <c r="Z29" s="88"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="86"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="122" t="s">
+      <c r="B30" s="123"/>
+      <c r="C30" s="126"/>
+      <c r="D30" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="123">
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="111">
         <v>0.03</v>
       </c>
-      <c r="L30" s="124"/>
-      <c r="M30" s="124"/>
-      <c r="N30" s="124"/>
-      <c r="O30" s="124"/>
-      <c r="P30" s="124"/>
-      <c r="Q30" s="124"/>
-      <c r="R30" s="124"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="124"/>
-      <c r="U30" s="124"/>
-      <c r="V30" s="124"/>
-      <c r="W30" s="125"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="112"/>
+      <c r="N30" s="112"/>
+      <c r="O30" s="112"/>
+      <c r="P30" s="112"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="112"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="112"/>
+      <c r="U30" s="112"/>
+      <c r="V30" s="112"/>
+      <c r="W30" s="113"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3066,11 +3071,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="148">
+      <c r="AE30" s="158">
         <f>AE28*K30</f>
         <v>1583.82</v>
       </c>
-      <c r="AF30" s="149"/>
+      <c r="AF30" s="159"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3105,91 +3110,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="75">
-        <f>AE20+AE30</f>
-        <v>159983.82</v>
-      </c>
-      <c r="AF31" s="76"/>
+      <c r="AE31" s="117">
+        <f>AE28+AE30</f>
+        <v>54377.82</v>
+      </c>
+      <c r="AF31" s="117"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="154" t="s">
+      <c r="B32" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="85" t="s">
+      <c r="C32" s="122"/>
+      <c r="D32" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="83"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="91">
+      <c r="L32" s="130">
         <v>44946</v>
       </c>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="83"/>
-      <c r="P32" s="92" t="s">
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="92" t="s">
+      <c r="Q32" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="83"/>
-      <c r="S32" s="91">
+      <c r="R32" s="95"/>
+      <c r="S32" s="130">
         <v>44977</v>
       </c>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="83"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="95"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="132"/>
-      <c r="AB32" s="132"/>
+      <c r="AA32" s="168"/>
+      <c r="AB32" s="168"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="165"/>
-      <c r="AF32" s="76"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="75"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="155"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="85" t="s">
+      <c r="B33" s="123"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="94">
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="162">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="97">
+      <c r="L33" s="153"/>
+      <c r="M33" s="153"/>
+      <c r="N33" s="153"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="178"/>
+      <c r="Q33" s="152">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="96"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="153"/>
+      <c r="W33" s="122"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3197,85 +3202,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="147"/>
-      <c r="AF33" s="76"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="75"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="155"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="81" t="s">
+      <c r="B34" s="123"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="84">
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="136">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
-      <c r="S34" s="82"/>
-      <c r="T34" s="82"/>
-      <c r="U34" s="82"/>
-      <c r="V34" s="82"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="86" t="s">
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Y34" s="76"/>
-      <c r="Z34" s="76"/>
-      <c r="AA34" s="74">
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="81">
         <v>1800</v>
       </c>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="74"/>
+      <c r="AB34" s="81"/>
+      <c r="AC34" s="81"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="75">
+      <c r="AE34" s="82">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="76"/>
+      <c r="AF34" s="75"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="131"/>
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="85" t="s">
+      <c r="A35" s="91"/>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="84">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="136">
         <v>1800</v>
       </c>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
-      <c r="S35" s="82"/>
-      <c r="T35" s="82"/>
-      <c r="U35" s="82"/>
-      <c r="V35" s="82"/>
-      <c r="W35" s="83"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="95"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3285,122 +3290,132 @@
       <c r="AD35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE35" s="77">
+      <c r="AE35" s="79">
         <f>K35</f>
         <v>1800</v>
       </c>
-      <c r="AF35" s="76"/>
+      <c r="AF35" s="75"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="131"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="89" t="s">
+      <c r="A36" s="91"/>
+      <c r="B36" s="123"/>
+      <c r="C36" s="124"/>
+      <c r="D36" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="90">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="99">
         <v>1800</v>
       </c>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="83"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="95"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
       <c r="AA36" s="23"/>
       <c r="AB36" s="23"/>
       <c r="AC36" s="38"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="41"/>
+      <c r="AD36" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE36" s="148">
+        <f>K36</f>
+        <v>1800</v>
+      </c>
+      <c r="AF36" s="149"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="131"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="78" t="s">
+      <c r="A37" s="91"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="124"/>
+      <c r="D37" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
-      <c r="V37" s="79"/>
-      <c r="W37" s="80"/>
+      <c r="E37" s="181"/>
+      <c r="F37" s="181"/>
+      <c r="G37" s="181"/>
+      <c r="H37" s="181"/>
+      <c r="I37" s="181"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="181"/>
+      <c r="M37" s="181"/>
+      <c r="N37" s="181"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
+      <c r="Q37" s="181"/>
+      <c r="R37" s="181"/>
+      <c r="S37" s="181"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="181"/>
+      <c r="V37" s="181"/>
+      <c r="W37" s="182"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
       <c r="AA37" s="23"/>
       <c r="AB37" s="23"/>
       <c r="AC37" s="38"/>
-      <c r="AD37" s="42"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="41"/>
+      <c r="AD37" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE37" s="82">
+        <f>AE34+AE35+AE36</f>
+        <v>3600</v>
+      </c>
+      <c r="AF37" s="75"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="131"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="85" t="s">
+      <c r="A38" s="91"/>
+      <c r="B38" s="123"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="82"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="83"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="95"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="91">
+      <c r="L38" s="130">
         <v>44947</v>
       </c>
-      <c r="M38" s="82"/>
-      <c r="N38" s="82"/>
-      <c r="O38" s="83"/>
-      <c r="P38" s="92" t="s">
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="92" t="s">
+      <c r="Q38" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="83"/>
-      <c r="S38" s="91">
+      <c r="R38" s="95"/>
+      <c r="S38" s="130">
         <v>44993</v>
       </c>
-      <c r="T38" s="82"/>
-      <c r="U38" s="82"/>
-      <c r="V38" s="82"/>
-      <c r="W38" s="83"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="95"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3412,35 +3427,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="131"/>
-      <c r="B39" s="155"/>
-      <c r="C39" s="156"/>
-      <c r="D39" s="85" t="s">
+      <c r="A39" s="91"/>
+      <c r="B39" s="123"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="82"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="82"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="94">
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="162">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="97">
+      <c r="L39" s="153"/>
+      <c r="M39" s="153"/>
+      <c r="N39" s="153"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="178"/>
+      <c r="Q39" s="152">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="95"/>
-      <c r="S39" s="95"/>
-      <c r="T39" s="95"/>
-      <c r="U39" s="95"/>
-      <c r="V39" s="95"/>
-      <c r="W39" s="96"/>
+      <c r="R39" s="153"/>
+      <c r="S39" s="153"/>
+      <c r="T39" s="153"/>
+      <c r="U39" s="153"/>
+      <c r="V39" s="153"/>
+      <c r="W39" s="122"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3452,81 +3467,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="131"/>
-      <c r="B40" s="155"/>
-      <c r="C40" s="156"/>
-      <c r="D40" s="81" t="s">
+      <c r="A40" s="91"/>
+      <c r="B40" s="123"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="82"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="84">
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="136">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="82"/>
-      <c r="M40" s="82"/>
-      <c r="N40" s="82"/>
-      <c r="O40" s="82"/>
-      <c r="P40" s="82"/>
-      <c r="Q40" s="82"/>
-      <c r="R40" s="82"/>
-      <c r="S40" s="82"/>
-      <c r="T40" s="82"/>
-      <c r="U40" s="82"/>
-      <c r="V40" s="82"/>
-      <c r="W40" s="83"/>
-      <c r="X40" s="86" t="s">
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
-      <c r="AA40" s="74">
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="81">
         <v>1800</v>
       </c>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="74"/>
+      <c r="AB40" s="81"/>
+      <c r="AC40" s="81"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="75">
+      <c r="AE40" s="82">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="76"/>
+      <c r="AF40" s="75"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="131"/>
-      <c r="B41" s="155"/>
-      <c r="C41" s="156"/>
-      <c r="D41" s="85" t="s">
+      <c r="A41" s="91"/>
+      <c r="B41" s="123"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="82"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="82"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="84">
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="136">
         <v>1800</v>
       </c>
-      <c r="L41" s="82"/>
-      <c r="M41" s="82"/>
-      <c r="N41" s="82"/>
-      <c r="O41" s="82"/>
-      <c r="P41" s="82"/>
-      <c r="Q41" s="82"/>
-      <c r="R41" s="82"/>
-      <c r="S41" s="82"/>
-      <c r="T41" s="82"/>
-      <c r="U41" s="82"/>
-      <c r="V41" s="82"/>
-      <c r="W41" s="83"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="95"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3536,40 +3551,40 @@
       <c r="AD41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" s="77">
+      <c r="AE41" s="79">
         <f>K41</f>
         <v>1800</v>
       </c>
-      <c r="AF41" s="76"/>
+      <c r="AF41" s="75"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="130"/>
-      <c r="B42" s="157"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="89" t="s">
+      <c r="A42" s="92"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="82"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="82"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="90">
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="99">
         <v>1800</v>
       </c>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="83"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="95"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3579,14 +3594,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="180">
+      <c r="AE42" s="148">
         <f>K42</f>
         <v>1800</v>
       </c>
-      <c r="AF42" s="181"/>
+      <c r="AF42" s="149"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="130"/>
+      <c r="A43" s="92"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3618,14 +3633,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="75">
-        <f>AE34+AE35+AE42</f>
+      <c r="AE43" s="82">
+        <f>AE40+AE41+AE42</f>
         <v>3600</v>
       </c>
-      <c r="AF43" s="76"/>
+      <c r="AF43" s="75"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="130"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3659,7 +3674,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="130"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3678,28 +3693,28 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="182" t="s">
+      <c r="T45" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="U45" s="76"/>
-      <c r="V45" s="76"/>
-      <c r="W45" s="76"/>
-      <c r="X45" s="76"/>
-      <c r="Y45" s="76"/>
-      <c r="Z45" s="76"/>
-      <c r="AA45" s="76"/>
-      <c r="AB45" s="76"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE45" s="77">
+      <c r="AE45" s="79">
         <v>1800</v>
       </c>
-      <c r="AF45" s="186"/>
+      <c r="AF45" s="80"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="130"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3718,25 +3733,25 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
       <c r="S46" s="9"/>
-      <c r="T46" s="167" t="s">
+      <c r="T46" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="U46" s="76"/>
-      <c r="V46" s="76"/>
-      <c r="W46" s="76"/>
-      <c r="X46" s="76"/>
-      <c r="Y46" s="76"/>
-      <c r="Z46" s="76"/>
-      <c r="AA46" s="76"/>
-      <c r="AB46" s="76"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="75"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
       <c r="AC46" s="28"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE46" s="184">
+      <c r="AE46" s="77">
         <v>1800</v>
       </c>
-      <c r="AF46" s="185"/>
+      <c r="AF46" s="78"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3758,26 +3773,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="183" t="s">
+      <c r="T47" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U47" s="76"/>
-      <c r="V47" s="76"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="179">
-        <f>AE31+AE43+AE45+AE46</f>
-        <v>167183.82</v>
-      </c>
-      <c r="AF47" s="179"/>
+      <c r="AE47" s="117">
+        <f>AE23+AE31+AE37+AE43</f>
+        <v>224729.82</v>
+      </c>
+      <c r="AF47" s="117"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3849,41 +3864,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="177"/>
-      <c r="D50" s="177"/>
-      <c r="E50" s="177"/>
-      <c r="F50" s="177"/>
-      <c r="G50" s="178" t="s">
+      <c r="C50" s="109"/>
+      <c r="D50" s="109"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="178"/>
-      <c r="L50" s="178"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="178"/>
-      <c r="O50" s="178"/>
-      <c r="P50" s="178"/>
-      <c r="Q50" s="178"/>
-      <c r="R50" s="178"/>
-      <c r="S50" s="178"/>
-      <c r="T50" s="178"/>
-      <c r="U50" s="178"/>
-      <c r="V50" s="178"/>
-      <c r="W50" s="178"/>
-      <c r="X50" s="178"/>
-      <c r="Y50" s="178"/>
-      <c r="Z50" s="178"/>
-      <c r="AA50" s="178"/>
-      <c r="AB50" s="178"/>
-      <c r="AC50" s="178"/>
-      <c r="AD50" s="178"/>
-      <c r="AE50" s="178"/>
-      <c r="AF50" s="178"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="110"/>
+      <c r="T50" s="110"/>
+      <c r="U50" s="110"/>
+      <c r="V50" s="110"/>
+      <c r="W50" s="110"/>
+      <c r="X50" s="110"/>
+      <c r="Y50" s="110"/>
+      <c r="Z50" s="110"/>
+      <c r="AA50" s="110"/>
+      <c r="AB50" s="110"/>
+      <c r="AC50" s="110"/>
+      <c r="AD50" s="110"/>
+      <c r="AE50" s="110"/>
+      <c r="AF50" s="110"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4015,37 +4030,37 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="161" t="s">
+      <c r="AB54" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="AC54" s="161"/>
-      <c r="AD54" s="161"/>
-      <c r="AE54" s="161"/>
-      <c r="AF54" s="161"/>
+      <c r="AC54" s="89"/>
+      <c r="AD54" s="89"/>
+      <c r="AE54" s="89"/>
+      <c r="AF54" s="89"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="168" t="s">
+      <c r="B55" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C55" s="169"/>
-      <c r="D55" s="169"/>
-      <c r="E55" s="169"/>
-      <c r="F55" s="169"/>
-      <c r="G55" s="169"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="169"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
-      <c r="M55" s="169"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="169"/>
-      <c r="P55" s="169"/>
-      <c r="Q55" s="169"/>
-      <c r="R55" s="169"/>
-      <c r="S55" s="169"/>
-      <c r="T55" s="170"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="101"/>
+      <c r="M55" s="101"/>
+      <c r="N55" s="101"/>
+      <c r="O55" s="101"/>
+      <c r="P55" s="101"/>
+      <c r="Q55" s="101"/>
+      <c r="R55" s="101"/>
+      <c r="S55" s="101"/>
+      <c r="T55" s="102"/>
       <c r="U55" s="30"/>
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
@@ -4053,33 +4068,33 @@
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="161"/>
-      <c r="AC55" s="161"/>
-      <c r="AD55" s="161"/>
-      <c r="AE55" s="161"/>
-      <c r="AF55" s="161"/>
+      <c r="AB55" s="89"/>
+      <c r="AC55" s="89"/>
+      <c r="AD55" s="89"/>
+      <c r="AE55" s="89"/>
+      <c r="AF55" s="89"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="171"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="172"/>
-      <c r="E56" s="172"/>
-      <c r="F56" s="172"/>
-      <c r="G56" s="172"/>
-      <c r="H56" s="172"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="172"/>
-      <c r="L56" s="172"/>
-      <c r="M56" s="172"/>
-      <c r="N56" s="172"/>
-      <c r="O56" s="172"/>
-      <c r="P56" s="172"/>
-      <c r="Q56" s="172"/>
-      <c r="R56" s="172"/>
-      <c r="S56" s="172"/>
-      <c r="T56" s="173"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="105"/>
       <c r="U56" s="30"/>
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
@@ -4087,33 +4102,33 @@
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="161"/>
-      <c r="AC56" s="161"/>
-      <c r="AD56" s="161"/>
-      <c r="AE56" s="161"/>
-      <c r="AF56" s="161"/>
+      <c r="AB56" s="89"/>
+      <c r="AC56" s="89"/>
+      <c r="AD56" s="89"/>
+      <c r="AE56" s="89"/>
+      <c r="AF56" s="89"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="171"/>
-      <c r="C57" s="172"/>
-      <c r="D57" s="172"/>
-      <c r="E57" s="172"/>
-      <c r="F57" s="172"/>
-      <c r="G57" s="172"/>
-      <c r="H57" s="172"/>
-      <c r="I57" s="172"/>
-      <c r="J57" s="172"/>
-      <c r="K57" s="172"/>
-      <c r="L57" s="172"/>
-      <c r="M57" s="172"/>
-      <c r="N57" s="172"/>
-      <c r="O57" s="172"/>
-      <c r="P57" s="172"/>
-      <c r="Q57" s="172"/>
-      <c r="R57" s="172"/>
-      <c r="S57" s="172"/>
-      <c r="T57" s="173"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="105"/>
       <c r="U57" s="30"/>
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
@@ -4129,25 +4144,25 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="171"/>
-      <c r="C58" s="172"/>
-      <c r="D58" s="172"/>
-      <c r="E58" s="172"/>
-      <c r="F58" s="172"/>
-      <c r="G58" s="172"/>
-      <c r="H58" s="172"/>
-      <c r="I58" s="172"/>
-      <c r="J58" s="172"/>
-      <c r="K58" s="172"/>
-      <c r="L58" s="172"/>
-      <c r="M58" s="172"/>
-      <c r="N58" s="172"/>
-      <c r="O58" s="172"/>
-      <c r="P58" s="172"/>
-      <c r="Q58" s="172"/>
-      <c r="R58" s="172"/>
-      <c r="S58" s="172"/>
-      <c r="T58" s="173"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="105"/>
       <c r="U58" s="30"/>
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
@@ -4163,25 +4178,25 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="171"/>
-      <c r="C59" s="172"/>
-      <c r="D59" s="172"/>
-      <c r="E59" s="172"/>
-      <c r="F59" s="172"/>
-      <c r="G59" s="172"/>
-      <c r="H59" s="172"/>
-      <c r="I59" s="172"/>
-      <c r="J59" s="172"/>
-      <c r="K59" s="172"/>
-      <c r="L59" s="172"/>
-      <c r="M59" s="172"/>
-      <c r="N59" s="172"/>
-      <c r="O59" s="172"/>
-      <c r="P59" s="172"/>
-      <c r="Q59" s="172"/>
-      <c r="R59" s="172"/>
-      <c r="S59" s="172"/>
-      <c r="T59" s="173"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="105"/>
       <c r="U59" s="30"/>
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
@@ -4197,25 +4212,25 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="171"/>
-      <c r="C60" s="172"/>
-      <c r="D60" s="172"/>
-      <c r="E60" s="172"/>
-      <c r="F60" s="172"/>
-      <c r="G60" s="172"/>
-      <c r="H60" s="172"/>
-      <c r="I60" s="172"/>
-      <c r="J60" s="172"/>
-      <c r="K60" s="172"/>
-      <c r="L60" s="172"/>
-      <c r="M60" s="172"/>
-      <c r="N60" s="172"/>
-      <c r="O60" s="172"/>
-      <c r="P60" s="172"/>
-      <c r="Q60" s="172"/>
-      <c r="R60" s="172"/>
-      <c r="S60" s="172"/>
-      <c r="T60" s="173"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="105"/>
       <c r="U60" s="30"/>
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
@@ -4231,25 +4246,25 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="175"/>
-      <c r="E61" s="175"/>
-      <c r="F61" s="175"/>
-      <c r="G61" s="175"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="175"/>
-      <c r="J61" s="175"/>
-      <c r="K61" s="175"/>
-      <c r="L61" s="175"/>
-      <c r="M61" s="175"/>
-      <c r="N61" s="175"/>
-      <c r="O61" s="175"/>
-      <c r="P61" s="175"/>
-      <c r="Q61" s="175"/>
-      <c r="R61" s="175"/>
-      <c r="S61" s="175"/>
-      <c r="T61" s="176"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="107"/>
+      <c r="K61" s="107"/>
+      <c r="L61" s="107"/>
+      <c r="M61" s="107"/>
+      <c r="N61" s="107"/>
+      <c r="O61" s="107"/>
+      <c r="P61" s="107"/>
+      <c r="Q61" s="107"/>
+      <c r="R61" s="107"/>
+      <c r="S61" s="107"/>
+      <c r="T61" s="108"/>
       <c r="U61" s="30"/>
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
@@ -4257,13 +4272,13 @@
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="166" t="s">
+      <c r="AB61" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="AC61" s="166"/>
-      <c r="AD61" s="166"/>
-      <c r="AE61" s="166"/>
-      <c r="AF61" s="166"/>
+      <c r="AC61" s="90"/>
+      <c r="AD61" s="90"/>
+      <c r="AE61" s="90"/>
+      <c r="AF61" s="90"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4379,148 +4394,194 @@
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="163" t="s">
+      <c r="A76" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B76" s="163"/>
-      <c r="C76" s="163"/>
-      <c r="D76" s="163"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="163"/>
-      <c r="G76" s="163"/>
-      <c r="H76" s="163"/>
-      <c r="I76" s="163"/>
-      <c r="J76" s="163"/>
-      <c r="K76" s="163"/>
-      <c r="L76" s="163"/>
-      <c r="M76" s="163"/>
-      <c r="N76" s="163"/>
-      <c r="O76" s="163"/>
-      <c r="P76" s="163"/>
-      <c r="Q76" s="163"/>
-      <c r="R76" s="163"/>
-      <c r="S76" s="163"/>
-      <c r="T76" s="163"/>
-      <c r="U76" s="163"/>
-      <c r="V76" s="163"/>
-      <c r="W76" s="163"/>
-      <c r="X76" s="163"/>
-      <c r="Y76" s="163"/>
-      <c r="Z76" s="163"/>
-      <c r="AA76" s="163"/>
-      <c r="AB76" s="163"/>
-      <c r="AC76" s="163"/>
-      <c r="AD76" s="163"/>
-      <c r="AE76" s="163"/>
-      <c r="AF76" s="163"/>
-      <c r="AG76" s="163"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
+      <c r="I76" s="83"/>
+      <c r="J76" s="83"/>
+      <c r="K76" s="83"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="83"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="83"/>
+      <c r="P76" s="83"/>
+      <c r="Q76" s="83"/>
+      <c r="R76" s="83"/>
+      <c r="S76" s="83"/>
+      <c r="T76" s="83"/>
+      <c r="U76" s="83"/>
+      <c r="V76" s="83"/>
+      <c r="W76" s="83"/>
+      <c r="X76" s="83"/>
+      <c r="Y76" s="83"/>
+      <c r="Z76" s="83"/>
+      <c r="AA76" s="83"/>
+      <c r="AB76" s="83"/>
+      <c r="AC76" s="83"/>
+      <c r="AD76" s="83"/>
+      <c r="AE76" s="83"/>
+      <c r="AF76" s="83"/>
+      <c r="AG76" s="83"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="164" t="s">
+      <c r="A77" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="164"/>
-      <c r="C77" s="164"/>
-      <c r="D77" s="164"/>
-      <c r="E77" s="164"/>
-      <c r="F77" s="164"/>
-      <c r="G77" s="164"/>
-      <c r="H77" s="164"/>
-      <c r="I77" s="164"/>
-      <c r="J77" s="164"/>
-      <c r="K77" s="164"/>
-      <c r="L77" s="164"/>
-      <c r="M77" s="164"/>
-      <c r="N77" s="164"/>
-      <c r="O77" s="164"/>
-      <c r="P77" s="164"/>
-      <c r="Q77" s="164"/>
-      <c r="R77" s="164"/>
-      <c r="S77" s="164"/>
-      <c r="T77" s="164"/>
-      <c r="U77" s="164"/>
-      <c r="V77" s="164"/>
-      <c r="W77" s="164"/>
-      <c r="X77" s="164"/>
-      <c r="Y77" s="164"/>
-      <c r="Z77" s="164"/>
-      <c r="AA77" s="164"/>
-      <c r="AB77" s="164"/>
-      <c r="AC77" s="164"/>
-      <c r="AD77" s="164"/>
-      <c r="AE77" s="164"/>
-      <c r="AF77" s="164"/>
-      <c r="AG77" s="164"/>
+      <c r="B77" s="84"/>
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="84"/>
+      <c r="G77" s="84"/>
+      <c r="H77" s="84"/>
+      <c r="I77" s="84"/>
+      <c r="J77" s="84"/>
+      <c r="K77" s="84"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="84"/>
+      <c r="N77" s="84"/>
+      <c r="O77" s="84"/>
+      <c r="P77" s="84"/>
+      <c r="Q77" s="84"/>
+      <c r="R77" s="84"/>
+      <c r="S77" s="84"/>
+      <c r="T77" s="84"/>
+      <c r="U77" s="84"/>
+      <c r="V77" s="84"/>
+      <c r="W77" s="84"/>
+      <c r="X77" s="84"/>
+      <c r="Y77" s="84"/>
+      <c r="Z77" s="84"/>
+      <c r="AA77" s="84"/>
+      <c r="AB77" s="84"/>
+      <c r="AC77" s="84"/>
+      <c r="AD77" s="84"/>
+      <c r="AE77" s="84"/>
+      <c r="AF77" s="84"/>
+      <c r="AG77" s="84"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="164" t="s">
+      <c r="A78" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B78" s="164"/>
-      <c r="C78" s="164"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="164"/>
-      <c r="F78" s="164"/>
-      <c r="G78" s="164"/>
-      <c r="H78" s="164"/>
-      <c r="I78" s="164"/>
-      <c r="J78" s="164"/>
-      <c r="K78" s="164"/>
-      <c r="L78" s="164"/>
-      <c r="M78" s="164"/>
-      <c r="N78" s="164"/>
-      <c r="O78" s="164"/>
-      <c r="P78" s="164"/>
-      <c r="Q78" s="164"/>
-      <c r="R78" s="164"/>
-      <c r="S78" s="164"/>
-      <c r="T78" s="164"/>
-      <c r="U78" s="164"/>
-      <c r="V78" s="164"/>
-      <c r="W78" s="164"/>
-      <c r="X78" s="164"/>
-      <c r="Y78" s="164"/>
-      <c r="Z78" s="164"/>
-      <c r="AA78" s="164"/>
-      <c r="AB78" s="164"/>
-      <c r="AC78" s="164"/>
-      <c r="AD78" s="164"/>
-      <c r="AE78" s="164"/>
-      <c r="AF78" s="164"/>
-      <c r="AG78" s="164"/>
+      <c r="B78" s="84"/>
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
+      <c r="Q78" s="84"/>
+      <c r="R78" s="84"/>
+      <c r="S78" s="84"/>
+      <c r="T78" s="84"/>
+      <c r="U78" s="84"/>
+      <c r="V78" s="84"/>
+      <c r="W78" s="84"/>
+      <c r="X78" s="84"/>
+      <c r="Y78" s="84"/>
+      <c r="Z78" s="84"/>
+      <c r="AA78" s="84"/>
+      <c r="AB78" s="84"/>
+      <c r="AC78" s="84"/>
+      <c r="AD78" s="84"/>
+      <c r="AE78" s="84"/>
+      <c r="AF78" s="84"/>
+      <c r="AG78" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="140">
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="A76:AG76"/>
-    <mergeCell ref="A77:AG77"/>
-    <mergeCell ref="A78:AG78"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="AB54:AF56"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B55:T61"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
+  <mergeCells count="143">
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:W29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="D37:W37"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:W40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="X28:Z29"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="R6:W6"/>
     <mergeCell ref="B32:C42"/>
@@ -4545,60 +4606,39 @@
     <mergeCell ref="Q17:W17"/>
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="AB54:AF56"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B55:T61"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
     <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="D28:G28"/>
     <mergeCell ref="D35:J35"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
     <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="A76:AG76"/>
+    <mergeCell ref="A77:AG77"/>
+    <mergeCell ref="A78:AG78"/>
     <mergeCell ref="D36:J36"/>
     <mergeCell ref="K36:W36"/>
     <mergeCell ref="D38:J38"/>
@@ -4609,30 +4649,8 @@
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="K39:O39"/>
     <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="X28:Z29"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AF29"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:W29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="D37:W37"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:W40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X40:Z40"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -4649,8 +4667,8 @@
   </sheetPr>
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13:AF14"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20:AF20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4688,163 +4706,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="134"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="134"/>
-      <c r="AB2" s="134"/>
-      <c r="AC2" s="134"/>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="134"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="132"/>
+      <c r="L2" s="132"/>
+      <c r="M2" s="132"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="132"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="132"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="132"/>
+      <c r="W2" s="132"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="134"/>
-      <c r="R3" s="134"/>
-      <c r="S3" s="134"/>
-      <c r="T3" s="134"/>
-      <c r="U3" s="134"/>
-      <c r="V3" s="134"/>
-      <c r="W3" s="134"/>
-      <c r="X3" s="134"/>
-      <c r="Y3" s="134"/>
-      <c r="Z3" s="134"/>
-      <c r="AA3" s="134"/>
-      <c r="AB3" s="134"/>
-      <c r="AC3" s="134"/>
-      <c r="AD3" s="134"/>
-      <c r="AE3" s="134"/>
-      <c r="AF3" s="134"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="132"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="132"/>
+      <c r="W3" s="132"/>
+      <c r="X3" s="132"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="132"/>
+      <c r="AA3" s="132"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="132"/>
+      <c r="AD3" s="132"/>
+      <c r="AE3" s="132"/>
+      <c r="AF3" s="132"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
-      <c r="U4" s="134"/>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="134"/>
-      <c r="Z4" s="134"/>
-      <c r="AA4" s="134"/>
-      <c r="AB4" s="134"/>
-      <c r="AC4" s="134"/>
-      <c r="AD4" s="134"/>
-      <c r="AE4" s="134"/>
-      <c r="AF4" s="134"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="132"/>
+      <c r="X4" s="132"/>
+      <c r="Y4" s="132"/>
+      <c r="Z4" s="132"/>
+      <c r="AA4" s="132"/>
+      <c r="AB4" s="132"/>
+      <c r="AC4" s="132"/>
+      <c r="AD4" s="132"/>
+      <c r="AE4" s="132"/>
+      <c r="AF4" s="132"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="143" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
-      <c r="O5" s="134"/>
-      <c r="P5" s="134"/>
-      <c r="Q5" s="134"/>
-      <c r="R5" s="134"/>
-      <c r="S5" s="134"/>
-      <c r="T5" s="134"/>
-      <c r="U5" s="134"/>
-      <c r="V5" s="134"/>
-      <c r="W5" s="134"/>
-      <c r="X5" s="134"/>
-      <c r="Y5" s="134"/>
-      <c r="Z5" s="134"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="132"/>
+      <c r="M5" s="132"/>
+      <c r="N5" s="132"/>
+      <c r="O5" s="132"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="132"/>
+      <c r="R5" s="132"/>
+      <c r="S5" s="132"/>
+      <c r="T5" s="132"/>
+      <c r="U5" s="132"/>
+      <c r="V5" s="132"/>
+      <c r="W5" s="132"/>
+      <c r="X5" s="132"/>
+      <c r="Y5" s="132"/>
+      <c r="Z5" s="132"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="209" t="s">
+      <c r="AB5" s="236" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="142"/>
-      <c r="AD5" s="142"/>
-      <c r="AE5" s="142"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
       <c r="AF5" s="47" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="159" t="s">
+      <c r="B6" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="132"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4854,35 +4872,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="134"/>
-      <c r="T6" s="134"/>
-      <c r="U6" s="134"/>
-      <c r="V6" s="134"/>
-      <c r="W6" s="134"/>
-      <c r="X6" s="135"/>
-      <c r="Y6" s="134"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
+      <c r="V6" s="132"/>
+      <c r="W6" s="132"/>
+      <c r="X6" s="164"/>
+      <c r="Y6" s="132"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="129" t="s">
+      <c r="AB6" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="134"/>
-      <c r="AD6" s="134"/>
-      <c r="AE6" s="134"/>
+      <c r="AC6" s="132"/>
+      <c r="AD6" s="132"/>
+      <c r="AE6" s="132"/>
       <c r="AF6" s="46" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4910,13 +4928,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
+      <c r="B8" s="132"/>
+      <c r="C8" s="132"/>
+      <c r="D8" s="132"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4925,38 +4943,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="136" t="s">
+      <c r="Q8" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="220"/>
-      <c r="S8" s="220"/>
-      <c r="T8" s="220"/>
-      <c r="U8" s="220"/>
-      <c r="V8" s="220"/>
-      <c r="W8" s="220"/>
-      <c r="X8" s="222"/>
-      <c r="Y8" s="136" t="s">
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
+      <c r="U8" s="231"/>
+      <c r="V8" s="231"/>
+      <c r="W8" s="231"/>
+      <c r="X8" s="233"/>
+      <c r="Y8" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="220"/>
-      <c r="AA8" s="220"/>
-      <c r="AB8" s="220"/>
-      <c r="AC8" s="222"/>
-      <c r="AD8" s="136" t="s">
+      <c r="Z8" s="231"/>
+      <c r="AA8" s="231"/>
+      <c r="AB8" s="231"/>
+      <c r="AC8" s="233"/>
+      <c r="AD8" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="220"/>
-      <c r="AF8" s="222"/>
+      <c r="AE8" s="231"/>
+      <c r="AF8" s="233"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
+      <c r="B9" s="132"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4965,22 +4983,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="223"/>
-      <c r="R9" s="221"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="221"/>
-      <c r="U9" s="221"/>
-      <c r="V9" s="221"/>
-      <c r="W9" s="221"/>
-      <c r="X9" s="224"/>
-      <c r="Y9" s="223"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="221"/>
-      <c r="AB9" s="221"/>
-      <c r="AC9" s="224"/>
-      <c r="AD9" s="223"/>
-      <c r="AE9" s="221"/>
-      <c r="AF9" s="224"/>
+      <c r="Q9" s="234"/>
+      <c r="R9" s="232"/>
+      <c r="S9" s="232"/>
+      <c r="T9" s="232"/>
+      <c r="U9" s="232"/>
+      <c r="V9" s="232"/>
+      <c r="W9" s="232"/>
+      <c r="X9" s="235"/>
+      <c r="Y9" s="234"/>
+      <c r="Z9" s="232"/>
+      <c r="AA9" s="232"/>
+      <c r="AB9" s="232"/>
+      <c r="AC9" s="235"/>
+      <c r="AD9" s="234"/>
+      <c r="AE9" s="232"/>
+      <c r="AF9" s="235"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4999,44 +5017,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="144">
+      <c r="Q10" s="150">
         <v>44986</v>
       </c>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="137"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="146">
+      <c r="R10" s="138"/>
+      <c r="S10" s="138"/>
+      <c r="T10" s="138"/>
+      <c r="U10" s="138"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="138"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="154">
         <v>0</v>
       </c>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="162" t="s">
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="143" t="s">
         <v>47</v>
       </c>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="139"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="134"/>
+      <c r="C11" s="132"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="161" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5045,22 +5063,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="139"/>
-      <c r="R11" s="140"/>
-      <c r="S11" s="140"/>
-      <c r="T11" s="140"/>
-      <c r="U11" s="140"/>
-      <c r="V11" s="140"/>
-      <c r="W11" s="140"/>
-      <c r="X11" s="141"/>
-      <c r="Y11" s="139"/>
-      <c r="Z11" s="140"/>
-      <c r="AA11" s="140"/>
-      <c r="AB11" s="140"/>
-      <c r="AC11" s="141"/>
-      <c r="AD11" s="139"/>
-      <c r="AE11" s="140"/>
-      <c r="AF11" s="141"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="141"/>
+      <c r="S11" s="141"/>
+      <c r="T11" s="141"/>
+      <c r="U11" s="141"/>
+      <c r="V11" s="141"/>
+      <c r="W11" s="141"/>
+      <c r="X11" s="142"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="141"/>
+      <c r="AC11" s="142"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="142"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5098,75 +5116,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
-      <c r="L13" s="220"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="220"/>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="220"/>
-      <c r="R13" s="220"/>
-      <c r="S13" s="220"/>
-      <c r="T13" s="220"/>
-      <c r="U13" s="220"/>
-      <c r="V13" s="220"/>
-      <c r="W13" s="220"/>
-      <c r="X13" s="220"/>
-      <c r="Y13" s="220"/>
-      <c r="Z13" s="220"/>
-      <c r="AA13" s="220"/>
-      <c r="AB13" s="220"/>
+      <c r="C13" s="231"/>
+      <c r="D13" s="231"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="231"/>
+      <c r="G13" s="231"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="231"/>
+      <c r="J13" s="231"/>
+      <c r="K13" s="231"/>
+      <c r="L13" s="231"/>
+      <c r="M13" s="231"/>
+      <c r="N13" s="231"/>
+      <c r="O13" s="231"/>
+      <c r="P13" s="231"/>
+      <c r="Q13" s="231"/>
+      <c r="R13" s="231"/>
+      <c r="S13" s="231"/>
+      <c r="T13" s="231"/>
+      <c r="U13" s="231"/>
+      <c r="V13" s="231"/>
+      <c r="W13" s="231"/>
+      <c r="X13" s="231"/>
+      <c r="Y13" s="231"/>
+      <c r="Z13" s="231"/>
+      <c r="AA13" s="231"/>
+      <c r="AB13" s="231"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="145" t="s">
+      <c r="AD13" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="220"/>
-      <c r="AF13" s="220"/>
+      <c r="AE13" s="231"/>
+      <c r="AF13" s="231"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="221"/>
-      <c r="C14" s="221"/>
-      <c r="D14" s="221"/>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
-      <c r="G14" s="221"/>
-      <c r="H14" s="221"/>
-      <c r="I14" s="221"/>
-      <c r="J14" s="221"/>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
-      <c r="M14" s="221"/>
-      <c r="N14" s="221"/>
-      <c r="O14" s="221"/>
-      <c r="P14" s="221"/>
-      <c r="Q14" s="221"/>
-      <c r="R14" s="221"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="221"/>
-      <c r="U14" s="221"/>
-      <c r="V14" s="221"/>
-      <c r="W14" s="221"/>
-      <c r="X14" s="221"/>
-      <c r="Y14" s="221"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="221"/>
-      <c r="AB14" s="221"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="232"/>
+      <c r="D14" s="232"/>
+      <c r="E14" s="232"/>
+      <c r="F14" s="232"/>
+      <c r="G14" s="232"/>
+      <c r="H14" s="232"/>
+      <c r="I14" s="232"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
+      <c r="L14" s="232"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="232"/>
+      <c r="Q14" s="232"/>
+      <c r="R14" s="232"/>
+      <c r="S14" s="232"/>
+      <c r="T14" s="232"/>
+      <c r="U14" s="232"/>
+      <c r="V14" s="232"/>
+      <c r="W14" s="232"/>
+      <c r="X14" s="232"/>
+      <c r="Y14" s="232"/>
+      <c r="Z14" s="232"/>
+      <c r="AA14" s="232"/>
+      <c r="AB14" s="232"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="221"/>
-      <c r="AE14" s="221"/>
-      <c r="AF14" s="221"/>
+      <c r="AD14" s="232"/>
+      <c r="AE14" s="232"/>
+      <c r="AF14" s="232"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5203,173 +5221,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="131"/>
-      <c r="B16" s="160" t="s">
+      <c r="A16" s="91"/>
+      <c r="B16" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="205"/>
-      <c r="D16" s="205"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="187" t="s">
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="244" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="210" t="s">
+      <c r="G16" s="228"/>
+      <c r="H16" s="228"/>
+      <c r="I16" s="228"/>
+      <c r="J16" s="229"/>
+      <c r="K16" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="L16" s="188"/>
-      <c r="M16" s="188"/>
-      <c r="N16" s="188"/>
-      <c r="O16" s="188"/>
-      <c r="P16" s="188"/>
-      <c r="Q16" s="188"/>
-      <c r="R16" s="188"/>
-      <c r="S16" s="188"/>
-      <c r="T16" s="188"/>
-      <c r="U16" s="188"/>
-      <c r="V16" s="188"/>
-      <c r="W16" s="188"/>
-      <c r="X16" s="188"/>
-      <c r="Y16" s="188"/>
-      <c r="Z16" s="188"/>
-      <c r="AA16" s="188"/>
-      <c r="AB16" s="189"/>
+      <c r="L16" s="228"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="228"/>
+      <c r="O16" s="228"/>
+      <c r="P16" s="228"/>
+      <c r="Q16" s="228"/>
+      <c r="R16" s="228"/>
+      <c r="S16" s="228"/>
+      <c r="T16" s="228"/>
+      <c r="U16" s="228"/>
+      <c r="V16" s="228"/>
+      <c r="W16" s="228"/>
+      <c r="X16" s="228"/>
+      <c r="Y16" s="228"/>
+      <c r="Z16" s="228"/>
+      <c r="AA16" s="228"/>
+      <c r="AB16" s="229"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="191"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="198"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="131"/>
-      <c r="B17" s="241"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="228"/>
-      <c r="F17" s="235" t="s">
+      <c r="A17" s="91"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="236"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="236"/>
-      <c r="J17" s="237"/>
-      <c r="K17" s="192" t="s">
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="215"/>
+      <c r="K17" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="206" t="s">
+      <c r="L17" s="220"/>
+      <c r="M17" s="220"/>
+      <c r="N17" s="220"/>
+      <c r="O17" s="220"/>
+      <c r="P17" s="220"/>
+      <c r="Q17" s="220"/>
+      <c r="R17" s="241" t="s">
         <v>35</v>
       </c>
-      <c r="S17" s="194" t="s">
+      <c r="S17" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="T17" s="194"/>
-      <c r="U17" s="194"/>
-      <c r="V17" s="194"/>
-      <c r="W17" s="194"/>
-      <c r="X17" s="194"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="194"/>
-      <c r="AA17" s="194"/>
-      <c r="AB17" s="195"/>
+      <c r="T17" s="221"/>
+      <c r="U17" s="221"/>
+      <c r="V17" s="221"/>
+      <c r="W17" s="221"/>
+      <c r="X17" s="221"/>
+      <c r="Y17" s="221"/>
+      <c r="Z17" s="221"/>
+      <c r="AA17" s="221"/>
+      <c r="AB17" s="222"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="100" t="s">
+      <c r="AD17" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="207">
+      <c r="AE17" s="242">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="207"/>
+      <c r="AF17" s="242"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="134"/>
-      <c r="B18" s="229"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="228"/>
-      <c r="F18" s="238"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="240"/>
-      <c r="K18" s="94">
+      <c r="A18" s="132"/>
+      <c r="B18" s="205"/>
+      <c r="C18" s="198"/>
+      <c r="D18" s="198"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="162">
         <v>16000</v>
       </c>
-      <c r="L18" s="205"/>
-      <c r="M18" s="205"/>
-      <c r="N18" s="205"/>
-      <c r="O18" s="205"/>
-      <c r="P18" s="205"/>
-      <c r="Q18" s="205"/>
-      <c r="R18" s="206"/>
-      <c r="S18" s="105">
+      <c r="L18" s="200"/>
+      <c r="M18" s="200"/>
+      <c r="N18" s="200"/>
+      <c r="O18" s="200"/>
+      <c r="P18" s="200"/>
+      <c r="Q18" s="200"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="172">
         <v>68.69</v>
       </c>
-      <c r="T18" s="205"/>
-      <c r="U18" s="205"/>
-      <c r="V18" s="205"/>
-      <c r="W18" s="205"/>
-      <c r="X18" s="205"/>
-      <c r="Y18" s="205"/>
-      <c r="Z18" s="205"/>
-      <c r="AA18" s="205"/>
-      <c r="AB18" s="225"/>
+      <c r="T18" s="200"/>
+      <c r="U18" s="200"/>
+      <c r="V18" s="200"/>
+      <c r="W18" s="200"/>
+      <c r="X18" s="200"/>
+      <c r="Y18" s="200"/>
+      <c r="Z18" s="200"/>
+      <c r="AA18" s="200"/>
+      <c r="AB18" s="201"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="100"/>
-      <c r="AE18" s="207"/>
-      <c r="AF18" s="207"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="242"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="230"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="118" t="s">
+      <c r="B19" s="206"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="215">
+      <c r="G19" s="225"/>
+      <c r="H19" s="225"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="226"/>
+      <c r="K19" s="208">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="216"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="216"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="216"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="216"/>
-      <c r="U19" s="216"/>
-      <c r="V19" s="216"/>
-      <c r="W19" s="216"/>
-      <c r="X19" s="216"/>
-      <c r="Y19" s="216"/>
-      <c r="Z19" s="216"/>
-      <c r="AA19" s="216"/>
-      <c r="AB19" s="217"/>
+      <c r="L19" s="209"/>
+      <c r="M19" s="209"/>
+      <c r="N19" s="209"/>
+      <c r="O19" s="209"/>
+      <c r="P19" s="209"/>
+      <c r="Q19" s="209"/>
+      <c r="R19" s="209"/>
+      <c r="S19" s="209"/>
+      <c r="T19" s="209"/>
+      <c r="U19" s="209"/>
+      <c r="V19" s="209"/>
+      <c r="W19" s="209"/>
+      <c r="X19" s="209"/>
+      <c r="Y19" s="209"/>
+      <c r="Z19" s="209"/>
+      <c r="AA19" s="209"/>
+      <c r="AB19" s="210"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="218">
+      <c r="AE19" s="196">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="219"/>
+      <c r="AF19" s="230"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5377,24 +5395,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="234"/>
-      <c r="G20" s="191"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="191"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="198"/>
+      <c r="H20" s="198"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="190"/>
-      <c r="L20" s="191"/>
-      <c r="M20" s="191"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="191"/>
-      <c r="Q20" s="208"/>
-      <c r="R20" s="191"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="191"/>
-      <c r="U20" s="191"/>
-      <c r="V20" s="191"/>
-      <c r="W20" s="191"/>
+      <c r="K20" s="245"/>
+      <c r="L20" s="198"/>
+      <c r="M20" s="198"/>
+      <c r="N20" s="198"/>
+      <c r="O20" s="168"/>
+      <c r="P20" s="198"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="198"/>
+      <c r="S20" s="198"/>
+      <c r="T20" s="198"/>
+      <c r="U20" s="198"/>
+      <c r="V20" s="198"/>
+      <c r="W20" s="198"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5404,207 +5422,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="204">
+      <c r="AE20" s="240">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="205"/>
+      <c r="AF20" s="200"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="154" t="s">
+      <c r="B21" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="225"/>
-      <c r="F21" s="243" t="s">
+      <c r="C21" s="200"/>
+      <c r="D21" s="200"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="189"/>
-      <c r="K21" s="210" t="s">
+      <c r="G21" s="228"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="228"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="237" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="188"/>
-      <c r="M21" s="188"/>
-      <c r="N21" s="188"/>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
-      <c r="S21" s="188"/>
-      <c r="T21" s="188"/>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
-      <c r="W21" s="188"/>
-      <c r="X21" s="188"/>
-      <c r="Y21" s="188"/>
-      <c r="Z21" s="188"/>
-      <c r="AA21" s="188"/>
-      <c r="AB21" s="189"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="228"/>
+      <c r="N21" s="228"/>
+      <c r="O21" s="228"/>
+      <c r="P21" s="228"/>
+      <c r="Q21" s="228"/>
+      <c r="R21" s="228"/>
+      <c r="S21" s="228"/>
+      <c r="T21" s="228"/>
+      <c r="U21" s="228"/>
+      <c r="V21" s="228"/>
+      <c r="W21" s="228"/>
+      <c r="X21" s="228"/>
+      <c r="Y21" s="228"/>
+      <c r="Z21" s="228"/>
+      <c r="AA21" s="228"/>
+      <c r="AB21" s="229"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="191"/>
+      <c r="AE21" s="87"/>
+      <c r="AF21" s="198"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="226"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="196" t="s">
+      <c r="B22" s="202"/>
+      <c r="C22" s="203"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="197"/>
-      <c r="H22" s="197"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="192" t="s">
+      <c r="G22" s="247"/>
+      <c r="H22" s="247"/>
+      <c r="I22" s="247"/>
+      <c r="J22" s="248"/>
+      <c r="K22" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193"/>
-      <c r="P22" s="193"/>
-      <c r="Q22" s="193"/>
-      <c r="R22" s="202" t="s">
+      <c r="L22" s="220"/>
+      <c r="M22" s="220"/>
+      <c r="N22" s="220"/>
+      <c r="O22" s="220"/>
+      <c r="P22" s="220"/>
+      <c r="Q22" s="220"/>
+      <c r="R22" s="252" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="194" t="s">
+      <c r="S22" s="221" t="s">
         <v>46</v>
       </c>
-      <c r="T22" s="194"/>
-      <c r="U22" s="194"/>
-      <c r="V22" s="194"/>
-      <c r="W22" s="194"/>
-      <c r="X22" s="194"/>
-      <c r="Y22" s="194"/>
-      <c r="Z22" s="194"/>
-      <c r="AA22" s="194"/>
-      <c r="AB22" s="195"/>
+      <c r="T22" s="221"/>
+      <c r="U22" s="221"/>
+      <c r="V22" s="221"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="221"/>
+      <c r="Y22" s="221"/>
+      <c r="Z22" s="221"/>
+      <c r="AA22" s="221"/>
+      <c r="AB22" s="222"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="100" t="s">
+      <c r="AD22" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="75">
+      <c r="AE22" s="82">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="75"/>
+      <c r="AF22" s="82"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="229"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="199"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="201"/>
-      <c r="K23" s="211">
+      <c r="B23" s="205"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="250"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="250"/>
+      <c r="J23" s="251"/>
+      <c r="K23" s="238">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="212"/>
-      <c r="M23" s="212"/>
-      <c r="N23" s="212"/>
-      <c r="O23" s="212"/>
-      <c r="P23" s="212"/>
-      <c r="Q23" s="212"/>
-      <c r="R23" s="203"/>
-      <c r="S23" s="242">
+      <c r="L23" s="225"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="225"/>
+      <c r="O23" s="225"/>
+      <c r="P23" s="225"/>
+      <c r="Q23" s="225"/>
+      <c r="R23" s="253"/>
+      <c r="S23" s="224">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="212"/>
-      <c r="U23" s="212"/>
-      <c r="V23" s="212"/>
-      <c r="W23" s="212"/>
-      <c r="X23" s="212"/>
-      <c r="Y23" s="212"/>
-      <c r="Z23" s="212"/>
-      <c r="AA23" s="212"/>
-      <c r="AB23" s="214"/>
+      <c r="T23" s="225"/>
+      <c r="U23" s="225"/>
+      <c r="V23" s="225"/>
+      <c r="W23" s="225"/>
+      <c r="X23" s="225"/>
+      <c r="Y23" s="225"/>
+      <c r="Z23" s="225"/>
+      <c r="AA23" s="225"/>
+      <c r="AB23" s="226"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="100"/>
-      <c r="AE23" s="180"/>
-      <c r="AF23" s="180"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="148"/>
+      <c r="AF23" s="148"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="230"/>
-      <c r="C24" s="231"/>
-      <c r="D24" s="231"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="213" t="s">
+      <c r="B24" s="206"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="239" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="212"/>
-      <c r="H24" s="212"/>
-      <c r="I24" s="212"/>
-      <c r="J24" s="214"/>
-      <c r="K24" s="215">
+      <c r="G24" s="225"/>
+      <c r="H24" s="225"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="226"/>
+      <c r="K24" s="208">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="216"/>
-      <c r="M24" s="216"/>
-      <c r="N24" s="216"/>
-      <c r="O24" s="216"/>
-      <c r="P24" s="216"/>
-      <c r="Q24" s="216"/>
-      <c r="R24" s="216"/>
-      <c r="S24" s="216"/>
-      <c r="T24" s="216"/>
-      <c r="U24" s="216"/>
-      <c r="V24" s="216"/>
-      <c r="W24" s="216"/>
-      <c r="X24" s="216"/>
-      <c r="Y24" s="216"/>
-      <c r="Z24" s="216"/>
-      <c r="AA24" s="216"/>
-      <c r="AB24" s="217"/>
+      <c r="L24" s="209"/>
+      <c r="M24" s="209"/>
+      <c r="N24" s="209"/>
+      <c r="O24" s="209"/>
+      <c r="P24" s="209"/>
+      <c r="Q24" s="209"/>
+      <c r="R24" s="209"/>
+      <c r="S24" s="209"/>
+      <c r="T24" s="209"/>
+      <c r="U24" s="209"/>
+      <c r="V24" s="209"/>
+      <c r="W24" s="209"/>
+      <c r="X24" s="209"/>
+      <c r="Y24" s="209"/>
+      <c r="Z24" s="209"/>
+      <c r="AA24" s="209"/>
+      <c r="AB24" s="210"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="180">
+      <c r="AE24" s="148">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="231"/>
+      <c r="AF24" s="197"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="131"/>
+      <c r="A25" s="91"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="233"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="197"/>
+      <c r="H25" s="197"/>
+      <c r="I25" s="197"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
-      <c r="N25" s="231"/>
-      <c r="O25" s="231"/>
-      <c r="P25" s="231"/>
-      <c r="Q25" s="231"/>
-      <c r="R25" s="231"/>
-      <c r="S25" s="231"/>
-      <c r="T25" s="231"/>
-      <c r="U25" s="231"/>
-      <c r="V25" s="231"/>
-      <c r="W25" s="231"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="197"/>
+      <c r="M25" s="197"/>
+      <c r="N25" s="197"/>
+      <c r="O25" s="197"/>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
+      <c r="W25" s="197"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5614,14 +5632,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="218">
+      <c r="AE25" s="196">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="231"/>
+      <c r="AF25" s="197"/>
     </row>
     <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="134"/>
+      <c r="A26" s="132"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5655,7 +5673,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="134"/>
+      <c r="A27" s="132"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5674,28 +5692,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="182" t="s">
+      <c r="T27" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="191"/>
-      <c r="AB27" s="191"/>
+      <c r="U27" s="198"/>
+      <c r="V27" s="198"/>
+      <c r="W27" s="198"/>
+      <c r="X27" s="198"/>
+      <c r="Y27" s="198"/>
+      <c r="Z27" s="198"/>
+      <c r="AA27" s="198"/>
+      <c r="AB27" s="198"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="250">
+      <c r="AE27" s="193">
         <v>10000</v>
       </c>
-      <c r="AF27" s="251"/>
+      <c r="AF27" s="194"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="134"/>
+      <c r="A28" s="132"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5714,25 +5732,25 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="167" t="s">
+      <c r="T28" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="191"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="191"/>
-      <c r="AB28" s="191"/>
+      <c r="U28" s="198"/>
+      <c r="V28" s="198"/>
+      <c r="W28" s="198"/>
+      <c r="X28" s="198"/>
+      <c r="Y28" s="198"/>
+      <c r="Z28" s="198"/>
+      <c r="AA28" s="198"/>
+      <c r="AB28" s="198"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="252">
+      <c r="AE28" s="195">
         <v>10000</v>
       </c>
-      <c r="AF28" s="251"/>
+      <c r="AF28" s="194"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
@@ -5754,26 +5772,26 @@
       <c r="Q29" s="19"/>
       <c r="R29" s="19"/>
       <c r="S29" s="19"/>
-      <c r="T29" s="183" t="s">
+      <c r="T29" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="U29" s="191"/>
-      <c r="V29" s="191"/>
-      <c r="W29" s="191"/>
-      <c r="X29" s="191"/>
-      <c r="Y29" s="191"/>
-      <c r="Z29" s="191"/>
-      <c r="AA29" s="191"/>
-      <c r="AB29" s="191"/>
+      <c r="U29" s="198"/>
+      <c r="V29" s="198"/>
+      <c r="W29" s="198"/>
+      <c r="X29" s="198"/>
+      <c r="Y29" s="198"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="198"/>
+      <c r="AB29" s="198"/>
       <c r="AC29" s="19"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="75">
+      <c r="AE29" s="82">
         <f>AE20+AE25+AE27+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF29" s="191"/>
+      <c r="AF29" s="198"/>
     </row>
     <row r="30" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5845,41 +5863,41 @@
     </row>
     <row r="32" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="177"/>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="248" t="s">
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="191" t="s">
         <v>50</v>
       </c>
-      <c r="H32" s="248"/>
-      <c r="I32" s="248"/>
-      <c r="J32" s="248"/>
-      <c r="K32" s="248"/>
-      <c r="L32" s="248"/>
-      <c r="M32" s="248"/>
-      <c r="N32" s="248"/>
-      <c r="O32" s="248"/>
-      <c r="P32" s="248"/>
-      <c r="Q32" s="248"/>
-      <c r="R32" s="248"/>
-      <c r="S32" s="248"/>
-      <c r="T32" s="248"/>
-      <c r="U32" s="248"/>
-      <c r="V32" s="248"/>
-      <c r="W32" s="248"/>
-      <c r="X32" s="248"/>
-      <c r="Y32" s="248"/>
-      <c r="Z32" s="248"/>
-      <c r="AA32" s="248"/>
-      <c r="AB32" s="248"/>
-      <c r="AC32" s="248"/>
-      <c r="AD32" s="248"/>
-      <c r="AE32" s="248"/>
-      <c r="AF32" s="248"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="191"/>
+      <c r="N32" s="191"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="191"/>
+      <c r="S32" s="191"/>
+      <c r="T32" s="191"/>
+      <c r="U32" s="191"/>
+      <c r="V32" s="191"/>
+      <c r="W32" s="191"/>
+      <c r="X32" s="191"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="191"/>
+      <c r="AB32" s="191"/>
+      <c r="AC32" s="191"/>
+      <c r="AD32" s="191"/>
+      <c r="AE32" s="191"/>
+      <c r="AF32" s="191"/>
     </row>
     <row r="33" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
@@ -6008,200 +6026,200 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
       <c r="X36" s="49"/>
-      <c r="AB36" s="249" t="s">
+      <c r="AB36" s="192" t="s">
         <v>42</v>
       </c>
-      <c r="AC36" s="249"/>
-      <c r="AD36" s="249"/>
-      <c r="AE36" s="249"/>
-      <c r="AF36" s="249"/>
+      <c r="AC36" s="192"/>
+      <c r="AD36" s="192"/>
+      <c r="AE36" s="192"/>
+      <c r="AF36" s="192"/>
     </row>
     <row r="37" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="169"/>
-      <c r="P37" s="169"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="169"/>
-      <c r="S37" s="169"/>
-      <c r="T37" s="170"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+      <c r="S37" s="101"/>
+      <c r="T37" s="102"/>
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
-      <c r="AB37" s="249"/>
-      <c r="AC37" s="249"/>
-      <c r="AD37" s="249"/>
-      <c r="AE37" s="249"/>
-      <c r="AF37" s="249"/>
+      <c r="AB37" s="192"/>
+      <c r="AC37" s="192"/>
+      <c r="AD37" s="192"/>
+      <c r="AE37" s="192"/>
+      <c r="AF37" s="192"/>
     </row>
     <row r="38" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="172"/>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
-      <c r="T38" s="173"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="104"/>
+      <c r="P38" s="104"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="105"/>
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
-      <c r="AB38" s="249"/>
-      <c r="AC38" s="249"/>
-      <c r="AD38" s="249"/>
-      <c r="AE38" s="249"/>
-      <c r="AF38" s="249"/>
+      <c r="AB38" s="192"/>
+      <c r="AC38" s="192"/>
+      <c r="AD38" s="192"/>
+      <c r="AE38" s="192"/>
+      <c r="AF38" s="192"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="171"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="172"/>
-      <c r="T39" s="173"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="104"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="104"/>
+      <c r="L39" s="104"/>
+      <c r="M39" s="104"/>
+      <c r="N39" s="104"/>
+      <c r="O39" s="104"/>
+      <c r="P39" s="104"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="105"/>
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="171"/>
-      <c r="C40" s="172"/>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="172"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="172"/>
-      <c r="R40" s="172"/>
-      <c r="S40" s="172"/>
-      <c r="T40" s="173"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="104"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="104"/>
+      <c r="L40" s="104"/>
+      <c r="M40" s="104"/>
+      <c r="N40" s="104"/>
+      <c r="O40" s="104"/>
+      <c r="P40" s="104"/>
+      <c r="Q40" s="104"/>
+      <c r="R40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="105"/>
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="171"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="172"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="173"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="104"/>
+      <c r="L41" s="104"/>
+      <c r="M41" s="104"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="104"/>
+      <c r="P41" s="104"/>
+      <c r="Q41" s="104"/>
+      <c r="R41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="105"/>
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
     <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="171"/>
-      <c r="C42" s="172"/>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="172"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="173"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="105"/>
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
     <row r="43" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="174"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="175"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="175"/>
-      <c r="S43" s="175"/>
-      <c r="T43" s="176"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="107"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="107"/>
+      <c r="M43" s="107"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="107"/>
+      <c r="P43" s="107"/>
+      <c r="Q43" s="107"/>
+      <c r="R43" s="107"/>
+      <c r="S43" s="107"/>
+      <c r="T43" s="108"/>
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
-      <c r="AB43" s="246" t="s">
+      <c r="AB43" s="189" t="s">
         <v>43</v>
       </c>
-      <c r="AC43" s="247"/>
-      <c r="AD43" s="247"/>
-      <c r="AE43" s="247"/>
-      <c r="AF43" s="247"/>
+      <c r="AC43" s="190"/>
+      <c r="AD43" s="190"/>
+      <c r="AE43" s="190"/>
+      <c r="AF43" s="190"/>
     </row>
     <row r="44" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
@@ -6227,11 +6245,11 @@
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
-      <c r="AB44" s="244"/>
-      <c r="AC44" s="245"/>
-      <c r="AD44" s="245"/>
-      <c r="AE44" s="245"/>
-      <c r="AF44" s="245"/>
+      <c r="AB44" s="187"/>
+      <c r="AC44" s="188"/>
+      <c r="AD44" s="188"/>
+      <c r="AE44" s="188"/>
+      <c r="AF44" s="188"/>
     </row>
     <row r="45" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -6472,141 +6490,138 @@
       <c r="AF51" s="6"/>
     </row>
     <row r="62" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B62" s="163" t="s">
+      <c r="B62" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C62" s="134"/>
-      <c r="D62" s="134"/>
-      <c r="E62" s="134"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="134"/>
-      <c r="H62" s="134"/>
-      <c r="I62" s="134"/>
-      <c r="J62" s="134"/>
-      <c r="K62" s="134"/>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="134"/>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="134"/>
-      <c r="R62" s="134"/>
-      <c r="S62" s="134"/>
-      <c r="T62" s="134"/>
-      <c r="U62" s="134"/>
-      <c r="V62" s="134"/>
-      <c r="W62" s="134"/>
-      <c r="X62" s="134"/>
-      <c r="Y62" s="134"/>
-      <c r="Z62" s="134"/>
-      <c r="AA62" s="134"/>
-      <c r="AB62" s="134"/>
-      <c r="AC62" s="134"/>
-      <c r="AD62" s="134"/>
-      <c r="AE62" s="134"/>
-      <c r="AF62" s="134"/>
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="132"/>
+      <c r="H62" s="132"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="132"/>
+      <c r="P62" s="132"/>
+      <c r="Q62" s="132"/>
+      <c r="R62" s="132"/>
+      <c r="S62" s="132"/>
+      <c r="T62" s="132"/>
+      <c r="U62" s="132"/>
+      <c r="V62" s="132"/>
+      <c r="W62" s="132"/>
+      <c r="X62" s="132"/>
+      <c r="Y62" s="132"/>
+      <c r="Z62" s="132"/>
+      <c r="AA62" s="132"/>
+      <c r="AB62" s="132"/>
+      <c r="AC62" s="132"/>
+      <c r="AD62" s="132"/>
+      <c r="AE62" s="132"/>
+      <c r="AF62" s="132"/>
     </row>
     <row r="63" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="164" t="s">
+      <c r="B63" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="134"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
-      <c r="O63" s="134"/>
-      <c r="P63" s="134"/>
-      <c r="Q63" s="134"/>
-      <c r="R63" s="134"/>
-      <c r="S63" s="134"/>
-      <c r="T63" s="134"/>
-      <c r="U63" s="134"/>
-      <c r="V63" s="134"/>
-      <c r="W63" s="134"/>
-      <c r="X63" s="134"/>
-      <c r="Y63" s="134"/>
-      <c r="Z63" s="134"/>
-      <c r="AA63" s="134"/>
-      <c r="AB63" s="134"/>
-      <c r="AC63" s="134"/>
-      <c r="AD63" s="134"/>
-      <c r="AE63" s="134"/>
-      <c r="AF63" s="134"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="132"/>
+      <c r="H63" s="132"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="132"/>
+      <c r="T63" s="132"/>
+      <c r="U63" s="132"/>
+      <c r="V63" s="132"/>
+      <c r="W63" s="132"/>
+      <c r="X63" s="132"/>
+      <c r="Y63" s="132"/>
+      <c r="Z63" s="132"/>
+      <c r="AA63" s="132"/>
+      <c r="AB63" s="132"/>
+      <c r="AC63" s="132"/>
+      <c r="AD63" s="132"/>
+      <c r="AE63" s="132"/>
+      <c r="AF63" s="132"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="164" t="s">
+      <c r="B64" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="134"/>
-      <c r="D64" s="134"/>
-      <c r="E64" s="134"/>
-      <c r="F64" s="134"/>
-      <c r="G64" s="134"/>
-      <c r="H64" s="134"/>
-      <c r="I64" s="134"/>
-      <c r="J64" s="134"/>
-      <c r="K64" s="134"/>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
-      <c r="N64" s="134"/>
-      <c r="O64" s="134"/>
-      <c r="P64" s="134"/>
-      <c r="Q64" s="134"/>
-      <c r="R64" s="134"/>
-      <c r="S64" s="134"/>
-      <c r="T64" s="134"/>
-      <c r="U64" s="134"/>
-      <c r="V64" s="134"/>
-      <c r="W64" s="134"/>
-      <c r="X64" s="134"/>
-      <c r="Y64" s="134"/>
-      <c r="Z64" s="134"/>
-      <c r="AA64" s="134"/>
-      <c r="AB64" s="134"/>
-      <c r="AC64" s="134"/>
-      <c r="AD64" s="134"/>
-      <c r="AE64" s="134"/>
-      <c r="AF64" s="134"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="132"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132"/>
+      <c r="R64" s="132"/>
+      <c r="S64" s="132"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="132"/>
+      <c r="V64" s="132"/>
+      <c r="W64" s="132"/>
+      <c r="X64" s="132"/>
+      <c r="Y64" s="132"/>
+      <c r="Z64" s="132"/>
+      <c r="AA64" s="132"/>
+      <c r="AB64" s="132"/>
+      <c r="AC64" s="132"/>
+      <c r="AD64" s="132"/>
+      <c r="AE64" s="132"/>
+      <c r="AF64" s="132"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B37:T43"/>
-    <mergeCell ref="AB43:AF43"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="G32:AF32"/>
-    <mergeCell ref="AB36:AF38"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B64:AF64"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="B62:AF62"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B63:AF63"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F24:J24"/>
     <mergeCell ref="B4:AF4"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="K19:AB19"/>
@@ -6623,35 +6638,38 @@
     <mergeCell ref="Q10:X11"/>
     <mergeCell ref="AD10:AF11"/>
     <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B64:AF64"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="B62:AF62"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B63:AF63"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B37:T43"/>
+    <mergeCell ref="AB43:AF43"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="G32:AF32"/>
+    <mergeCell ref="AB36:AF38"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
     <mergeCell ref="K22:Q22"/>
     <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1ABC5-A77F-403F-BFD2-CFB66ECDE0D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611284E-C25A-4D76-8CCD-10FF7AD7E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,8 +226,17 @@
     <t>Ppju + Common Area</t>
   </si>
   <si>
+    <t>Admin Fee (5%) :</t>
+  </si>
+  <si>
+    <t>Late Charges :</t>
+  </si>
+  <si>
+    <t>Common Area</t>
+  </si>
+  <si>
     <t>Attention :
-1. Payment by transfer to Bank BCA Virtual Account.
+1. Payment by transfer to Bank BCA Virtual Account above.
 2. Payment by transfer must state the unit number.
 3. Please settle your payment before the due date to avoid disconnection of the Facility and accumulative late charges.
 4. Should you have any queries, please contact Tenant Relation at: 
@@ -235,15 +244,6 @@
     - 0811814845 (Jumiah), 
     - 081717129340 (Office).
 5. Please avoid this invoice, if payment has been made.</t>
-  </si>
-  <si>
-    <t>Admin Fee (5%) :</t>
-  </si>
-  <si>
-    <t>Late Charges :</t>
-  </si>
-  <si>
-    <t>Common Area</t>
   </si>
 </sst>
 </file>
@@ -767,29 +767,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -797,17 +861,41 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -818,121 +906,21 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -942,164 +930,263 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1107,35 +1194,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1145,116 +1205,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1853,8 +1853,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:W42"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE37" sqref="AE37:AF37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1894,146 +1894,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="107"/>
-      <c r="AB2" s="107"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="107"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
+      <c r="Z2" s="99"/>
+      <c r="AA2" s="99"/>
+      <c r="AB2" s="99"/>
+      <c r="AC2" s="99"/>
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="99"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="107"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="107"/>
-      <c r="AB3" s="107"/>
-      <c r="AC3" s="107"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="107"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="107"/>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="107"/>
-      <c r="Z4" s="107"/>
-      <c r="AA4" s="107"/>
-      <c r="AB4" s="107"/>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="99"/>
+      <c r="W4" s="99"/>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="99"/>
+      <c r="AD4" s="99"/>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="107"/>
-      <c r="L5" s="107"/>
-      <c r="M5" s="107"/>
-      <c r="N5" s="107"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="107"/>
-      <c r="Q5" s="107"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="107"/>
-      <c r="U5" s="107"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="107"/>
-      <c r="X5" s="107"/>
-      <c r="Y5" s="107"/>
-      <c r="Z5" s="107"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
+      <c r="L5" s="99"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="99"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="99"/>
+      <c r="T5" s="99"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
+      <c r="W5" s="99"/>
+      <c r="X5" s="99"/>
+      <c r="Y5" s="99"/>
+      <c r="Z5" s="99"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="139" t="s">
+      <c r="AB5" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="107"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="107"/>
+      <c r="AC5" s="99"/>
+      <c r="AD5" s="99"/>
+      <c r="AE5" s="99"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
@@ -2046,15 +2046,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2064,35 +2064,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="107"/>
-      <c r="T6" s="107"/>
-      <c r="U6" s="107"/>
-      <c r="V6" s="107"/>
-      <c r="W6" s="107"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="107"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="99"/>
+      <c r="T6" s="99"/>
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="99"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="139" t="s">
+      <c r="AB6" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="107"/>
-      <c r="AD6" s="107"/>
-      <c r="AE6" s="107"/>
+      <c r="AC6" s="99"/>
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2135,38 +2135,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="131" t="s">
+      <c r="Q8" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="133"/>
-      <c r="Y8" s="131" t="s">
+      <c r="R8" s="128"/>
+      <c r="S8" s="128"/>
+      <c r="T8" s="128"/>
+      <c r="U8" s="128"/>
+      <c r="V8" s="128"/>
+      <c r="W8" s="128"/>
+      <c r="X8" s="129"/>
+      <c r="Y8" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-      <c r="AB8" s="132"/>
-      <c r="AC8" s="133"/>
-      <c r="AD8" s="131" t="s">
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="129"/>
+      <c r="AD8" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="132"/>
-      <c r="AF8" s="133"/>
+      <c r="AE8" s="128"/>
+      <c r="AF8" s="129"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2175,22 +2175,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="134"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="134"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="134"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="136"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="131"/>
+      <c r="S9" s="131"/>
+      <c r="T9" s="131"/>
+      <c r="U9" s="131"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="131"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="130"/>
+      <c r="Z9" s="131"/>
+      <c r="AA9" s="131"/>
+      <c r="AB9" s="131"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="130"/>
+      <c r="AE9" s="131"/>
+      <c r="AF9" s="132"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2209,44 +2209,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="162">
+      <c r="Q10" s="140">
         <v>44986</v>
       </c>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="140">
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="158">
         <v>0</v>
       </c>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="161" t="s">
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="133"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="129"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2255,22 +2255,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="136"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="132"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2308,77 +2308,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="145" t="s">
+      <c r="B13" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="145"/>
-      <c r="Q13" s="145"/>
-      <c r="R13" s="145"/>
-      <c r="S13" s="145"/>
-      <c r="T13" s="145"/>
-      <c r="U13" s="145"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="145"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="135"/>
+      <c r="Q13" s="135"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="145" t="s">
+      <c r="AA13" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="145"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="163" t="s">
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="132"/>
-      <c r="AF13" s="132"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="146"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="146"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="146"/>
-      <c r="S14" s="146"/>
-      <c r="T14" s="146"/>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="146"/>
+      <c r="B14" s="136"/>
+      <c r="C14" s="136"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="136"/>
+      <c r="Q14" s="136"/>
+      <c r="R14" s="136"/>
+      <c r="S14" s="136"/>
+      <c r="T14" s="136"/>
+      <c r="U14" s="136"/>
+      <c r="V14" s="136"/>
+      <c r="W14" s="136"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="146"/>
-      <c r="AB14" s="146"/>
-      <c r="AC14" s="146"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="135"/>
-      <c r="AF14" s="135"/>
+      <c r="AA14" s="136"/>
+      <c r="AB14" s="136"/>
+      <c r="AC14" s="136"/>
+      <c r="AD14" s="131"/>
+      <c r="AE14" s="131"/>
+      <c r="AF14" s="131"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2415,121 +2415,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="158" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="110" t="s">
+      <c r="C16" s="90"/>
+      <c r="D16" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="100"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="124">
+      <c r="L16" s="85">
         <v>44946</v>
       </c>
-      <c r="M16" s="99"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="125" t="s">
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="129" t="s">
+      <c r="Q16" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="100"/>
-      <c r="S16" s="124">
+      <c r="R16" s="80"/>
+      <c r="S16" s="85">
         <v>44977</v>
       </c>
-      <c r="T16" s="99"/>
-      <c r="U16" s="99"/>
-      <c r="V16" s="99"/>
-      <c r="W16" s="100"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="80"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="109"/>
-      <c r="AB16" s="109"/>
+      <c r="AA16" s="157"/>
+      <c r="AB16" s="157"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="93"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="75"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="107"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="110" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="111">
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="88">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="113"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="114">
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="91">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="112"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="112"/>
-      <c r="V17" s="112"/>
-      <c r="W17" s="113"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="90"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
+      <c r="AA17" s="157"/>
+      <c r="AB17" s="157"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="93"/>
+      <c r="AE17" s="155"/>
+      <c r="AF17" s="75"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="110" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="115">
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="165">
         <v>1</v>
       </c>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="115"/>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="115"/>
-      <c r="W18" s="115"/>
+      <c r="L18" s="165"/>
+      <c r="M18" s="165"/>
+      <c r="N18" s="165"/>
+      <c r="O18" s="165"/>
+      <c r="P18" s="165"/>
+      <c r="Q18" s="165"/>
+      <c r="R18" s="165"/>
+      <c r="S18" s="165"/>
+      <c r="T18" s="165"/>
+      <c r="U18" s="165"/>
+      <c r="V18" s="165"/>
+      <c r="W18" s="165"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2542,43 +2542,43 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="119" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="88">
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="118">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="90"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="120"/>
       <c r="X19" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="103"/>
-      <c r="Z19" s="103"/>
-      <c r="AA19" s="108">
+      <c r="Y19" s="143"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="148">
         <v>1800</v>
       </c>
-      <c r="AB19" s="108"/>
-      <c r="AC19" s="108"/>
+      <c r="AB19" s="148"/>
+      <c r="AC19" s="148"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
@@ -2589,45 +2589,45 @@
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="116" t="s">
+      <c r="B20" s="114"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74" t="s">
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76">
+      <c r="I20" s="100"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="159">
         <v>88</v>
       </c>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="160"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="160"/>
+      <c r="S20" s="160"/>
+      <c r="T20" s="160"/>
+      <c r="U20" s="160"/>
+      <c r="V20" s="160"/>
+      <c r="W20" s="161"/>
       <c r="X20" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="108">
+      <c r="Y20" s="143"/>
+      <c r="Z20" s="143"/>
+      <c r="AA20" s="148">
         <v>1800</v>
       </c>
-      <c r="AB20" s="108"/>
-      <c r="AC20" s="108"/>
-      <c r="AD20" s="148" t="s">
+      <c r="AB20" s="148"/>
+      <c r="AC20" s="148"/>
+      <c r="AD20" s="149" t="s">
         <v>17</v>
       </c>
       <c r="AE20" s="94">
@@ -2638,70 +2638,70 @@
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="82" t="s">
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="83" t="s">
+      <c r="H21" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="83"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="81"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="163"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="163"/>
+      <c r="O21" s="163"/>
+      <c r="P21" s="163"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="164"/>
       <c r="X21" s="142"/>
-      <c r="Y21" s="103"/>
-      <c r="Z21" s="103"/>
-      <c r="AA21" s="108"/>
-      <c r="AB21" s="108"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="148"/>
+      <c r="Y21" s="143"/>
+      <c r="Z21" s="143"/>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148"/>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="149"/>
       <c r="AE21" s="94"/>
       <c r="AF21" s="94"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="120" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="121">
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81">
         <v>0.05</v>
       </c>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="122"/>
-      <c r="V22" s="122"/>
-      <c r="W22" s="123"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="83"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
@@ -2717,30 +2717,30 @@
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="95" t="s">
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="97"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="169"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="169"/>
+      <c r="K23" s="169"/>
+      <c r="L23" s="169"/>
+      <c r="M23" s="169"/>
+      <c r="N23" s="169"/>
+      <c r="O23" s="169"/>
+      <c r="P23" s="169"/>
+      <c r="Q23" s="169"/>
+      <c r="R23" s="169"/>
+      <c r="S23" s="169"/>
+      <c r="T23" s="169"/>
+      <c r="U23" s="169"/>
+      <c r="V23" s="169"/>
+      <c r="W23" s="170"/>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
@@ -2750,48 +2750,48 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="149">
+      <c r="AE23" s="107">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="149"/>
+      <c r="AF23" s="107"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="110" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="80"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="124">
+      <c r="L24" s="85">
         <v>44947</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="125" t="s">
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="129" t="s">
+      <c r="Q24" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="100"/>
-      <c r="S24" s="124">
+      <c r="R24" s="80"/>
+      <c r="S24" s="85">
         <v>44986</v>
       </c>
-      <c r="T24" s="99"/>
-      <c r="U24" s="99"/>
-      <c r="V24" s="99"/>
-      <c r="W24" s="100"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="79"/>
+      <c r="W24" s="80"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
@@ -2804,34 +2804,34 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="110" t="s">
+      <c r="B25" s="114"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="137" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="111">
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="88">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="113"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="114">
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="154"/>
+      <c r="Q25" s="91">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="112"/>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="113"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="90"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
@@ -2844,32 +2844,32 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="110" t="s">
+      <c r="B26" s="114"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="115">
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="165">
         <v>1</v>
       </c>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="115"/>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
+      <c r="L26" s="165"/>
+      <c r="M26" s="165"/>
+      <c r="N26" s="165"/>
+      <c r="O26" s="165"/>
+      <c r="P26" s="165"/>
+      <c r="Q26" s="165"/>
+      <c r="R26" s="165"/>
+      <c r="S26" s="165"/>
+      <c r="T26" s="165"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="165"/>
+      <c r="W26" s="165"/>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
@@ -2882,43 +2882,43 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="85" t="s">
+      <c r="B27" s="114"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="171" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="88">
+      <c r="E27" s="172"/>
+      <c r="F27" s="172"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="118">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="89"/>
-      <c r="M27" s="89"/>
-      <c r="N27" s="89"/>
-      <c r="O27" s="89"/>
-      <c r="P27" s="89"/>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="90"/>
+      <c r="L27" s="119"/>
+      <c r="M27" s="119"/>
+      <c r="N27" s="119"/>
+      <c r="O27" s="119"/>
+      <c r="P27" s="119"/>
+      <c r="Q27" s="119"/>
+      <c r="R27" s="119"/>
+      <c r="S27" s="119"/>
+      <c r="T27" s="119"/>
+      <c r="U27" s="119"/>
+      <c r="V27" s="119"/>
+      <c r="W27" s="120"/>
       <c r="X27" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="103"/>
-      <c r="AA27" s="108">
+      <c r="Y27" s="143"/>
+      <c r="Z27" s="143"/>
+      <c r="AA27" s="148">
         <v>1800</v>
       </c>
-      <c r="AB27" s="108"/>
-      <c r="AC27" s="108"/>
+      <c r="AB27" s="148"/>
+      <c r="AC27" s="148"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
@@ -2929,45 +2929,45 @@
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="116" t="s">
+      <c r="B28" s="114"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74" t="s">
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="74"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="76">
+      <c r="I28" s="100"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="159">
         <v>29.33</v>
       </c>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
-      <c r="R28" s="77"/>
-      <c r="S28" s="77"/>
-      <c r="T28" s="77"/>
-      <c r="U28" s="77"/>
-      <c r="V28" s="77"/>
-      <c r="W28" s="78"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="160"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="160"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="161"/>
       <c r="X28" s="142" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="103"/>
-      <c r="AA28" s="108">
+      <c r="Y28" s="143"/>
+      <c r="Z28" s="143"/>
+      <c r="AA28" s="148">
         <v>1800</v>
       </c>
-      <c r="AB28" s="108"/>
-      <c r="AC28" s="108"/>
-      <c r="AD28" s="148" t="s">
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="149" t="s">
         <v>17</v>
       </c>
       <c r="AE28" s="94">
@@ -2978,70 +2978,70 @@
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="82" t="s">
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="83" t="s">
+      <c r="H29" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="83"/>
-      <c r="J29" s="84"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-      <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="81"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="163"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="163"/>
+      <c r="O29" s="163"/>
+      <c r="P29" s="163"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="164"/>
       <c r="X29" s="142"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
-      <c r="AA29" s="108"/>
-      <c r="AB29" s="108"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="148"/>
+      <c r="Y29" s="143"/>
+      <c r="Z29" s="143"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="149"/>
       <c r="AE29" s="94"/>
       <c r="AF29" s="94"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="120" t="s">
+      <c r="B30" s="114"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="121">
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81">
         <v>0.05</v>
       </c>
-      <c r="L30" s="122"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="122"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="122"/>
-      <c r="V30" s="122"/>
-      <c r="W30" s="123"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+      <c r="U30" s="82"/>
+      <c r="V30" s="82"/>
+      <c r="W30" s="83"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3051,11 +3051,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="143">
+      <c r="AE30" s="144">
         <f>AE28*K30</f>
         <v>2639.7000000000003</v>
       </c>
-      <c r="AF30" s="144"/>
+      <c r="AF30" s="145"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3090,91 +3090,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="149">
+      <c r="AE31" s="107">
         <f>AE28+AE30</f>
         <v>55433.7</v>
       </c>
-      <c r="AF31" s="149"/>
+      <c r="AF31" s="107"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="D32" s="102" t="s">
+      <c r="C32" s="90"/>
+      <c r="D32" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="100"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="80"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="124">
+      <c r="L32" s="85">
         <v>44946</v>
       </c>
-      <c r="M32" s="99"/>
-      <c r="N32" s="99"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="117" t="s">
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="117" t="s">
+      <c r="Q32" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="100"/>
-      <c r="S32" s="124">
+      <c r="R32" s="80"/>
+      <c r="S32" s="85">
         <v>44977</v>
       </c>
-      <c r="T32" s="99"/>
-      <c r="U32" s="99"/>
-      <c r="V32" s="99"/>
-      <c r="W32" s="100"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="80"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="109"/>
-      <c r="AB32" s="109"/>
+      <c r="AA32" s="157"/>
+      <c r="AB32" s="157"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="164"/>
-      <c r="AF32" s="93"/>
+      <c r="AE32" s="150"/>
+      <c r="AF32" s="75"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="102" t="s">
+      <c r="B33" s="114"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="99"/>
-      <c r="F33" s="99"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="99"/>
-      <c r="I33" s="99"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="111">
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="79"/>
+      <c r="I33" s="79"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="88">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="112"/>
-      <c r="M33" s="112"/>
-      <c r="N33" s="112"/>
-      <c r="O33" s="113"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="114">
+      <c r="L33" s="89"/>
+      <c r="M33" s="89"/>
+      <c r="N33" s="89"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="91">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="112"/>
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
-      <c r="W33" s="113"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="90"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3182,85 +3182,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="141"/>
-      <c r="AF33" s="93"/>
+      <c r="AE33" s="174"/>
+      <c r="AF33" s="75"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="98" t="s">
+      <c r="B34" s="114"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="99"/>
-      <c r="F34" s="99"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="99"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="101">
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="126">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="99"/>
-      <c r="M34" s="99"/>
-      <c r="N34" s="99"/>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99"/>
-      <c r="Q34" s="99"/>
-      <c r="R34" s="99"/>
-      <c r="S34" s="99"/>
-      <c r="T34" s="99"/>
-      <c r="U34" s="99"/>
-      <c r="V34" s="99"/>
-      <c r="W34" s="100"/>
-      <c r="X34" s="103" t="s">
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="79"/>
+      <c r="R34" s="79"/>
+      <c r="S34" s="79"/>
+      <c r="T34" s="79"/>
+      <c r="U34" s="79"/>
+      <c r="V34" s="79"/>
+      <c r="W34" s="80"/>
+      <c r="X34" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
-      <c r="AA34" s="91">
+      <c r="Y34" s="75"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="110">
         <v>1800</v>
       </c>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
+      <c r="AB34" s="110"/>
+      <c r="AC34" s="110"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="92">
+      <c r="AE34" s="74">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="93"/>
+      <c r="AF34" s="75"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="106"/>
-      <c r="B35" s="153"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="102" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="101">
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="79"/>
+      <c r="I35" s="79"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="126">
         <v>1800</v>
       </c>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="99"/>
-      <c r="S35" s="99"/>
-      <c r="T35" s="99"/>
-      <c r="U35" s="99"/>
-      <c r="V35" s="99"/>
-      <c r="W35" s="100"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="79"/>
+      <c r="R35" s="79"/>
+      <c r="S35" s="79"/>
+      <c r="T35" s="79"/>
+      <c r="U35" s="79"/>
+      <c r="V35" s="79"/>
+      <c r="W35" s="80"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3274,36 +3274,36 @@
         <f>K35</f>
         <v>1800</v>
       </c>
-      <c r="AF35" s="93"/>
+      <c r="AF35" s="75"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="106"/>
-      <c r="B36" s="153"/>
-      <c r="C36" s="154"/>
-      <c r="D36" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="121">
+      <c r="A36" s="98"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="81">
         <v>0.03</v>
       </c>
-      <c r="L36" s="122"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="122"/>
-      <c r="O36" s="122"/>
-      <c r="P36" s="122"/>
-      <c r="Q36" s="122"/>
-      <c r="R36" s="122"/>
-      <c r="S36" s="122"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="122"/>
-      <c r="V36" s="122"/>
-      <c r="W36" s="123"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="82"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="82"/>
+      <c r="R36" s="82"/>
+      <c r="S36" s="82"/>
+      <c r="T36" s="82"/>
+      <c r="U36" s="82"/>
+      <c r="V36" s="82"/>
+      <c r="W36" s="83"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -3313,38 +3313,38 @@
       <c r="AD36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE36" s="104">
-        <f>K36*AE35</f>
+      <c r="AE36" s="138">
+        <f>K36*(AE35+AE34)</f>
         <v>54</v>
       </c>
-      <c r="AF36" s="105"/>
+      <c r="AF36" s="139"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="106"/>
-      <c r="B37" s="153"/>
-      <c r="C37" s="154"/>
-      <c r="D37" s="95" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="96"/>
-      <c r="T37" s="96"/>
-      <c r="U37" s="96"/>
-      <c r="V37" s="96"/>
-      <c r="W37" s="97"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
+      <c r="P37" s="169"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="169"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="169"/>
+      <c r="W37" s="170"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
@@ -3354,48 +3354,48 @@
       <c r="AD37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE37" s="92">
+      <c r="AE37" s="74">
         <f>AE34+AE35+AE36</f>
         <v>1854</v>
       </c>
-      <c r="AF37" s="93"/>
+      <c r="AF37" s="75"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="106"/>
-      <c r="B38" s="153"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="102" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="80"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="124">
+      <c r="L38" s="85">
         <v>44947</v>
       </c>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="117" t="s">
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="117" t="s">
+      <c r="Q38" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="100"/>
-      <c r="S38" s="124">
+      <c r="R38" s="80"/>
+      <c r="S38" s="85">
         <v>44993</v>
       </c>
-      <c r="T38" s="99"/>
-      <c r="U38" s="99"/>
-      <c r="V38" s="99"/>
-      <c r="W38" s="100"/>
+      <c r="T38" s="79"/>
+      <c r="U38" s="79"/>
+      <c r="V38" s="79"/>
+      <c r="W38" s="80"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3407,35 +3407,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="106"/>
-      <c r="B39" s="153"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="102" t="s">
+      <c r="A39" s="98"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="111">
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="88">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="112"/>
-      <c r="N39" s="112"/>
-      <c r="O39" s="113"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="114">
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="91">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="112"/>
-      <c r="S39" s="112"/>
-      <c r="T39" s="112"/>
-      <c r="U39" s="112"/>
-      <c r="V39" s="112"/>
-      <c r="W39" s="113"/>
+      <c r="R39" s="89"/>
+      <c r="S39" s="89"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="89"/>
+      <c r="V39" s="89"/>
+      <c r="W39" s="90"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3447,81 +3447,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="106"/>
-      <c r="B40" s="153"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="98" t="s">
+      <c r="A40" s="98"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="101">
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="126">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="99"/>
-      <c r="W40" s="100"/>
-      <c r="X40" s="103" t="s">
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
+      <c r="Q40" s="79"/>
+      <c r="R40" s="79"/>
+      <c r="S40" s="79"/>
+      <c r="T40" s="79"/>
+      <c r="U40" s="79"/>
+      <c r="V40" s="79"/>
+      <c r="W40" s="80"/>
+      <c r="X40" s="143" t="s">
         <v>32</v>
       </c>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="91">
+      <c r="Y40" s="75"/>
+      <c r="Z40" s="75"/>
+      <c r="AA40" s="110">
         <v>1800</v>
       </c>
-      <c r="AB40" s="91"/>
-      <c r="AC40" s="91"/>
+      <c r="AB40" s="110"/>
+      <c r="AC40" s="110"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="92">
+      <c r="AE40" s="74">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="93"/>
+      <c r="AF40" s="75"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="106"/>
-      <c r="B41" s="153"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="102" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="99"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="99"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="101">
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="126">
         <v>1800</v>
       </c>
-      <c r="L41" s="99"/>
-      <c r="M41" s="99"/>
-      <c r="N41" s="99"/>
-      <c r="O41" s="99"/>
-      <c r="P41" s="99"/>
-      <c r="Q41" s="99"/>
-      <c r="R41" s="99"/>
-      <c r="S41" s="99"/>
-      <c r="T41" s="99"/>
-      <c r="U41" s="99"/>
-      <c r="V41" s="99"/>
-      <c r="W41" s="100"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
+      <c r="Q41" s="79"/>
+      <c r="R41" s="79"/>
+      <c r="S41" s="79"/>
+      <c r="T41" s="79"/>
+      <c r="U41" s="79"/>
+      <c r="V41" s="79"/>
+      <c r="W41" s="80"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3535,36 +3535,36 @@
         <f>K41</f>
         <v>1800</v>
       </c>
-      <c r="AF41" s="93"/>
+      <c r="AF41" s="75"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="107"/>
-      <c r="B42" s="155"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="169" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="99"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="121">
+      <c r="A42" s="99"/>
+      <c r="B42" s="116"/>
+      <c r="C42" s="117"/>
+      <c r="D42" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="81">
         <v>0.03</v>
       </c>
-      <c r="L42" s="122"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="122"/>
-      <c r="O42" s="122"/>
-      <c r="P42" s="122"/>
-      <c r="Q42" s="122"/>
-      <c r="R42" s="122"/>
-      <c r="S42" s="122"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="122"/>
-      <c r="V42" s="122"/>
-      <c r="W42" s="123"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="82"/>
+      <c r="S42" s="82"/>
+      <c r="T42" s="82"/>
+      <c r="U42" s="82"/>
+      <c r="V42" s="82"/>
+      <c r="W42" s="83"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3574,14 +3574,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="104">
-        <f>K42*AE41</f>
+      <c r="AE42" s="138">
+        <f>K42*(AE41+AE40)</f>
         <v>54</v>
       </c>
-      <c r="AF42" s="105"/>
+      <c r="AF42" s="139"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="107"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3613,14 +3613,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="92">
+      <c r="AE43" s="74">
         <f>AE40+AE41+AE42</f>
         <v>1854</v>
       </c>
-      <c r="AF43" s="93"/>
+      <c r="AF43" s="75"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="107"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3654,7 +3654,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="107"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3673,17 +3673,17 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="170" t="s">
-        <v>59</v>
-      </c>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="93"/>
-      <c r="X45" s="93"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="93"/>
+      <c r="T45" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="75"/>
+      <c r="AA45" s="75"/>
+      <c r="AB45" s="75"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
@@ -3691,10 +3691,10 @@
       <c r="AE45" s="94">
         <v>0</v>
       </c>
-      <c r="AF45" s="172"/>
+      <c r="AF45" s="95"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="107"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="41"/>
@@ -3713,17 +3713,17 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
-      <c r="T46" s="170" t="s">
+      <c r="T46" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="93"/>
-      <c r="AA46" s="93"/>
-      <c r="AB46" s="93"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="75"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
       <c r="AC46" s="18"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
@@ -3731,7 +3731,7 @@
       <c r="AE46" s="94">
         <v>1800</v>
       </c>
-      <c r="AF46" s="172"/>
+      <c r="AF46" s="95"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3753,26 +3753,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="171" t="s">
+      <c r="T47" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="U47" s="93"/>
-      <c r="V47" s="93"/>
-      <c r="W47" s="93"/>
-      <c r="X47" s="93"/>
-      <c r="Y47" s="93"/>
-      <c r="Z47" s="93"/>
-      <c r="AA47" s="93"/>
-      <c r="AB47" s="93"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="149">
+      <c r="AE47" s="107">
         <f>AE23+AE31+AE37+AE43+AE45+AE46</f>
         <v>227261.7</v>
       </c>
-      <c r="AF47" s="149"/>
+      <c r="AF47" s="107"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3844,41 +3844,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="167" t="s">
+      <c r="B50" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="167"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="168" t="s">
+      <c r="C50" s="102"/>
+      <c r="D50" s="102"/>
+      <c r="E50" s="102"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="103" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="168"/>
-      <c r="I50" s="168"/>
-      <c r="J50" s="168"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="168"/>
-      <c r="M50" s="168"/>
-      <c r="N50" s="168"/>
-      <c r="O50" s="168"/>
-      <c r="P50" s="168"/>
-      <c r="Q50" s="168"/>
-      <c r="R50" s="168"/>
-      <c r="S50" s="168"/>
-      <c r="T50" s="168"/>
-      <c r="U50" s="168"/>
-      <c r="V50" s="168"/>
-      <c r="W50" s="168"/>
-      <c r="X50" s="168"/>
-      <c r="Y50" s="168"/>
-      <c r="Z50" s="168"/>
-      <c r="AA50" s="168"/>
-      <c r="AB50" s="168"/>
-      <c r="AC50" s="168"/>
-      <c r="AD50" s="168"/>
-      <c r="AE50" s="168"/>
-      <c r="AF50" s="168"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="103"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="103"/>
+      <c r="N50" s="103"/>
+      <c r="O50" s="103"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="103"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="103"/>
+      <c r="T50" s="103"/>
+      <c r="U50" s="103"/>
+      <c r="V50" s="103"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="103"/>
+      <c r="Y50" s="103"/>
+      <c r="Z50" s="103"/>
+      <c r="AA50" s="103"/>
+      <c r="AB50" s="103"/>
+      <c r="AC50" s="103"/>
+      <c r="AD50" s="103"/>
+      <c r="AE50" s="103"/>
+      <c r="AF50" s="103"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4010,108 +4010,108 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="160" t="s">
+      <c r="AB54" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="AC54" s="160"/>
-      <c r="AD54" s="160"/>
-      <c r="AE54" s="160"/>
-      <c r="AF54" s="160"/>
+      <c r="AC54" s="96"/>
+      <c r="AD54" s="96"/>
+      <c r="AE54" s="96"/>
+      <c r="AF54" s="96"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="242" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="242"/>
-      <c r="D55" s="242"/>
-      <c r="E55" s="242"/>
-      <c r="F55" s="242"/>
-      <c r="G55" s="242"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
-      <c r="K55" s="242"/>
-      <c r="L55" s="242"/>
-      <c r="M55" s="242"/>
-      <c r="N55" s="242"/>
-      <c r="O55" s="242"/>
-      <c r="P55" s="242"/>
-      <c r="Q55" s="242"/>
-      <c r="R55" s="242"/>
-      <c r="S55" s="242"/>
-      <c r="T55" s="242"/>
-      <c r="U55" s="242"/>
-      <c r="V55" s="242"/>
-      <c r="W55" s="242"/>
+      <c r="B55" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
+      <c r="M55" s="92"/>
+      <c r="N55" s="92"/>
+      <c r="O55" s="92"/>
+      <c r="P55" s="92"/>
+      <c r="Q55" s="92"/>
+      <c r="R55" s="92"/>
+      <c r="S55" s="92"/>
+      <c r="T55" s="92"/>
+      <c r="U55" s="92"/>
+      <c r="V55" s="92"/>
+      <c r="W55" s="92"/>
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="160"/>
-      <c r="AC55" s="160"/>
-      <c r="AD55" s="160"/>
-      <c r="AE55" s="160"/>
-      <c r="AF55" s="160"/>
+      <c r="AB55" s="96"/>
+      <c r="AC55" s="96"/>
+      <c r="AD55" s="96"/>
+      <c r="AE55" s="96"/>
+      <c r="AF55" s="96"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="242"/>
-      <c r="C56" s="242"/>
-      <c r="D56" s="242"/>
-      <c r="E56" s="242"/>
-      <c r="F56" s="242"/>
-      <c r="G56" s="242"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
-      <c r="K56" s="242"/>
-      <c r="L56" s="242"/>
-      <c r="M56" s="242"/>
-      <c r="N56" s="242"/>
-      <c r="O56" s="242"/>
-      <c r="P56" s="242"/>
-      <c r="Q56" s="242"/>
-      <c r="R56" s="242"/>
-      <c r="S56" s="242"/>
-      <c r="T56" s="242"/>
-      <c r="U56" s="242"/>
-      <c r="V56" s="242"/>
-      <c r="W56" s="242"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="92"/>
+      <c r="P56" s="92"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="92"/>
+      <c r="S56" s="92"/>
+      <c r="T56" s="92"/>
+      <c r="U56" s="92"/>
+      <c r="V56" s="92"/>
+      <c r="W56" s="92"/>
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="160"/>
-      <c r="AC56" s="160"/>
-      <c r="AD56" s="160"/>
-      <c r="AE56" s="160"/>
-      <c r="AF56" s="160"/>
+      <c r="AB56" s="96"/>
+      <c r="AC56" s="96"/>
+      <c r="AD56" s="96"/>
+      <c r="AE56" s="96"/>
+      <c r="AF56" s="96"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="242"/>
-      <c r="C57" s="242"/>
-      <c r="D57" s="242"/>
-      <c r="E57" s="242"/>
-      <c r="F57" s="242"/>
-      <c r="G57" s="242"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
-      <c r="K57" s="242"/>
-      <c r="L57" s="242"/>
-      <c r="M57" s="242"/>
-      <c r="N57" s="242"/>
-      <c r="O57" s="242"/>
-      <c r="P57" s="242"/>
-      <c r="Q57" s="242"/>
-      <c r="R57" s="242"/>
-      <c r="S57" s="242"/>
-      <c r="T57" s="242"/>
-      <c r="U57" s="242"/>
-      <c r="V57" s="242"/>
-      <c r="W57" s="242"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
+      <c r="M57" s="92"/>
+      <c r="N57" s="92"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="92"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="92"/>
+      <c r="T57" s="92"/>
+      <c r="U57" s="92"/>
+      <c r="V57" s="92"/>
+      <c r="W57" s="92"/>
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
@@ -4124,28 +4124,28 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="242"/>
-      <c r="C58" s="242"/>
-      <c r="D58" s="242"/>
-      <c r="E58" s="242"/>
-      <c r="F58" s="242"/>
-      <c r="G58" s="242"/>
-      <c r="H58" s="242"/>
-      <c r="I58" s="242"/>
-      <c r="J58" s="242"/>
-      <c r="K58" s="242"/>
-      <c r="L58" s="242"/>
-      <c r="M58" s="242"/>
-      <c r="N58" s="242"/>
-      <c r="O58" s="242"/>
-      <c r="P58" s="242"/>
-      <c r="Q58" s="242"/>
-      <c r="R58" s="242"/>
-      <c r="S58" s="242"/>
-      <c r="T58" s="242"/>
-      <c r="U58" s="242"/>
-      <c r="V58" s="242"/>
-      <c r="W58" s="242"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
+      <c r="M58" s="92"/>
+      <c r="N58" s="92"/>
+      <c r="O58" s="92"/>
+      <c r="P58" s="92"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="92"/>
+      <c r="S58" s="92"/>
+      <c r="T58" s="92"/>
+      <c r="U58" s="92"/>
+      <c r="V58" s="92"/>
+      <c r="W58" s="92"/>
       <c r="X58" s="49"/>
       <c r="Y58" s="49"/>
       <c r="Z58" s="49"/>
@@ -4158,28 +4158,28 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="242"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="242"/>
-      <c r="G59" s="242"/>
-      <c r="H59" s="242"/>
-      <c r="I59" s="242"/>
-      <c r="J59" s="242"/>
-      <c r="K59" s="242"/>
-      <c r="L59" s="242"/>
-      <c r="M59" s="242"/>
-      <c r="N59" s="242"/>
-      <c r="O59" s="242"/>
-      <c r="P59" s="242"/>
-      <c r="Q59" s="242"/>
-      <c r="R59" s="242"/>
-      <c r="S59" s="242"/>
-      <c r="T59" s="242"/>
-      <c r="U59" s="242"/>
-      <c r="V59" s="242"/>
-      <c r="W59" s="242"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="92"/>
+      <c r="M59" s="92"/>
+      <c r="N59" s="92"/>
+      <c r="O59" s="92"/>
+      <c r="P59" s="92"/>
+      <c r="Q59" s="92"/>
+      <c r="R59" s="92"/>
+      <c r="S59" s="92"/>
+      <c r="T59" s="92"/>
+      <c r="U59" s="92"/>
+      <c r="V59" s="92"/>
+      <c r="W59" s="92"/>
       <c r="X59" s="49"/>
       <c r="Y59" s="49"/>
       <c r="Z59" s="49"/>
@@ -4192,28 +4192,28 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="242"/>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="242"/>
-      <c r="G60" s="242"/>
-      <c r="H60" s="242"/>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
-      <c r="K60" s="242"/>
-      <c r="L60" s="242"/>
-      <c r="M60" s="242"/>
-      <c r="N60" s="242"/>
-      <c r="O60" s="242"/>
-      <c r="P60" s="242"/>
-      <c r="Q60" s="242"/>
-      <c r="R60" s="242"/>
-      <c r="S60" s="242"/>
-      <c r="T60" s="242"/>
-      <c r="U60" s="242"/>
-      <c r="V60" s="242"/>
-      <c r="W60" s="242"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
+      <c r="M60" s="92"/>
+      <c r="N60" s="92"/>
+      <c r="O60" s="92"/>
+      <c r="P60" s="92"/>
+      <c r="Q60" s="92"/>
+      <c r="R60" s="92"/>
+      <c r="S60" s="92"/>
+      <c r="T60" s="92"/>
+      <c r="U60" s="92"/>
+      <c r="V60" s="92"/>
+      <c r="W60" s="92"/>
       <c r="X60" s="49"/>
       <c r="Y60" s="49"/>
       <c r="Z60" s="49"/>
@@ -4226,39 +4226,39 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="242"/>
-      <c r="C61" s="242"/>
-      <c r="D61" s="242"/>
-      <c r="E61" s="242"/>
-      <c r="F61" s="242"/>
-      <c r="G61" s="242"/>
-      <c r="H61" s="242"/>
-      <c r="I61" s="242"/>
-      <c r="J61" s="242"/>
-      <c r="K61" s="242"/>
-      <c r="L61" s="242"/>
-      <c r="M61" s="242"/>
-      <c r="N61" s="242"/>
-      <c r="O61" s="242"/>
-      <c r="P61" s="242"/>
-      <c r="Q61" s="242"/>
-      <c r="R61" s="242"/>
-      <c r="S61" s="242"/>
-      <c r="T61" s="242"/>
-      <c r="U61" s="242"/>
-      <c r="V61" s="242"/>
-      <c r="W61" s="242"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="92"/>
+      <c r="M61" s="92"/>
+      <c r="N61" s="92"/>
+      <c r="O61" s="92"/>
+      <c r="P61" s="92"/>
+      <c r="Q61" s="92"/>
+      <c r="R61" s="92"/>
+      <c r="S61" s="92"/>
+      <c r="T61" s="92"/>
+      <c r="U61" s="92"/>
+      <c r="V61" s="92"/>
+      <c r="W61" s="92"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="165" t="s">
+      <c r="AB61" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="AC61" s="165"/>
-      <c r="AD61" s="165"/>
-      <c r="AE61" s="165"/>
-      <c r="AF61" s="165"/>
+      <c r="AC61" s="97"/>
+      <c r="AD61" s="97"/>
+      <c r="AE61" s="97"/>
+      <c r="AF61" s="97"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4374,156 +4374,189 @@
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="173" t="s">
+      <c r="A76" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="173"/>
-      <c r="C76" s="173"/>
-      <c r="D76" s="173"/>
-      <c r="E76" s="173"/>
-      <c r="F76" s="173"/>
-      <c r="G76" s="173"/>
-      <c r="H76" s="173"/>
-      <c r="I76" s="173"/>
-      <c r="J76" s="173"/>
-      <c r="K76" s="173"/>
-      <c r="L76" s="173"/>
-      <c r="M76" s="173"/>
-      <c r="N76" s="173"/>
-      <c r="O76" s="173"/>
-      <c r="P76" s="173"/>
-      <c r="Q76" s="173"/>
-      <c r="R76" s="173"/>
-      <c r="S76" s="173"/>
-      <c r="T76" s="173"/>
-      <c r="U76" s="173"/>
-      <c r="V76" s="173"/>
-      <c r="W76" s="173"/>
-      <c r="X76" s="173"/>
-      <c r="Y76" s="173"/>
-      <c r="Z76" s="173"/>
-      <c r="AA76" s="173"/>
-      <c r="AB76" s="173"/>
-      <c r="AC76" s="173"/>
-      <c r="AD76" s="173"/>
-      <c r="AE76" s="173"/>
-      <c r="AF76" s="173"/>
-      <c r="AG76" s="173"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="76"/>
+      <c r="H76" s="76"/>
+      <c r="I76" s="76"/>
+      <c r="J76" s="76"/>
+      <c r="K76" s="76"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="76"/>
+      <c r="O76" s="76"/>
+      <c r="P76" s="76"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="76"/>
+      <c r="S76" s="76"/>
+      <c r="T76" s="76"/>
+      <c r="U76" s="76"/>
+      <c r="V76" s="76"/>
+      <c r="W76" s="76"/>
+      <c r="X76" s="76"/>
+      <c r="Y76" s="76"/>
+      <c r="Z76" s="76"/>
+      <c r="AA76" s="76"/>
+      <c r="AB76" s="76"/>
+      <c r="AC76" s="76"/>
+      <c r="AD76" s="76"/>
+      <c r="AE76" s="76"/>
+      <c r="AF76" s="76"/>
+      <c r="AG76" s="76"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="174" t="s">
+      <c r="A77" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="174"/>
-      <c r="C77" s="174"/>
-      <c r="D77" s="174"/>
-      <c r="E77" s="174"/>
-      <c r="F77" s="174"/>
-      <c r="G77" s="174"/>
-      <c r="H77" s="174"/>
-      <c r="I77" s="174"/>
-      <c r="J77" s="174"/>
-      <c r="K77" s="174"/>
-      <c r="L77" s="174"/>
-      <c r="M77" s="174"/>
-      <c r="N77" s="174"/>
-      <c r="O77" s="174"/>
-      <c r="P77" s="174"/>
-      <c r="Q77" s="174"/>
-      <c r="R77" s="174"/>
-      <c r="S77" s="174"/>
-      <c r="T77" s="174"/>
-      <c r="U77" s="174"/>
-      <c r="V77" s="174"/>
-      <c r="W77" s="174"/>
-      <c r="X77" s="174"/>
-      <c r="Y77" s="174"/>
-      <c r="Z77" s="174"/>
-      <c r="AA77" s="174"/>
-      <c r="AB77" s="174"/>
-      <c r="AC77" s="174"/>
-      <c r="AD77" s="174"/>
-      <c r="AE77" s="174"/>
-      <c r="AF77" s="174"/>
-      <c r="AG77" s="174"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
+      <c r="M77" s="77"/>
+      <c r="N77" s="77"/>
+      <c r="O77" s="77"/>
+      <c r="P77" s="77"/>
+      <c r="Q77" s="77"/>
+      <c r="R77" s="77"/>
+      <c r="S77" s="77"/>
+      <c r="T77" s="77"/>
+      <c r="U77" s="77"/>
+      <c r="V77" s="77"/>
+      <c r="W77" s="77"/>
+      <c r="X77" s="77"/>
+      <c r="Y77" s="77"/>
+      <c r="Z77" s="77"/>
+      <c r="AA77" s="77"/>
+      <c r="AB77" s="77"/>
+      <c r="AC77" s="77"/>
+      <c r="AD77" s="77"/>
+      <c r="AE77" s="77"/>
+      <c r="AF77" s="77"/>
+      <c r="AG77" s="77"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="174" t="s">
+      <c r="A78" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="174"/>
-      <c r="C78" s="174"/>
-      <c r="D78" s="174"/>
-      <c r="E78" s="174"/>
-      <c r="F78" s="174"/>
-      <c r="G78" s="174"/>
-      <c r="H78" s="174"/>
-      <c r="I78" s="174"/>
-      <c r="J78" s="174"/>
-      <c r="K78" s="174"/>
-      <c r="L78" s="174"/>
-      <c r="M78" s="174"/>
-      <c r="N78" s="174"/>
-      <c r="O78" s="174"/>
-      <c r="P78" s="174"/>
-      <c r="Q78" s="174"/>
-      <c r="R78" s="174"/>
-      <c r="S78" s="174"/>
-      <c r="T78" s="174"/>
-      <c r="U78" s="174"/>
-      <c r="V78" s="174"/>
-      <c r="W78" s="174"/>
-      <c r="X78" s="174"/>
-      <c r="Y78" s="174"/>
-      <c r="Z78" s="174"/>
-      <c r="AA78" s="174"/>
-      <c r="AB78" s="174"/>
-      <c r="AC78" s="174"/>
-      <c r="AD78" s="174"/>
-      <c r="AE78" s="174"/>
-      <c r="AF78" s="174"/>
-      <c r="AG78" s="174"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
+      <c r="M78" s="77"/>
+      <c r="N78" s="77"/>
+      <c r="O78" s="77"/>
+      <c r="P78" s="77"/>
+      <c r="Q78" s="77"/>
+      <c r="R78" s="77"/>
+      <c r="S78" s="77"/>
+      <c r="T78" s="77"/>
+      <c r="U78" s="77"/>
+      <c r="V78" s="77"/>
+      <c r="W78" s="77"/>
+      <c r="X78" s="77"/>
+      <c r="Y78" s="77"/>
+      <c r="Z78" s="77"/>
+      <c r="AA78" s="77"/>
+      <c r="AB78" s="77"/>
+      <c r="AC78" s="77"/>
+      <c r="AD78" s="77"/>
+      <c r="AE78" s="77"/>
+      <c r="AF78" s="77"/>
+      <c r="AG78" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="143">
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="A76:AG76"/>
-    <mergeCell ref="A77:AG77"/>
-    <mergeCell ref="A78:AG78"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:W36"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="B55:W61"/>
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AB54:AF56"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="X28:Z29"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="K28:W29"/>
+    <mergeCell ref="K27:W27"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="R6:W6"/>
     <mergeCell ref="B32:C42"/>
@@ -4548,94 +4581,61 @@
     <mergeCell ref="Q17:W17"/>
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="X28:Z29"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AF29"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AA34:AC34"/>
     <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:W29"/>
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:W27"/>
     <mergeCell ref="AA40:AC40"/>
     <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="A76:AG76"/>
+    <mergeCell ref="A77:AG77"/>
+    <mergeCell ref="A78:AG78"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:W36"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="B55:W61"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AB54:AF56"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="A35:A46"/>
     <mergeCell ref="AE41:AF41"/>
     <mergeCell ref="D37:W37"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="K40:W40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X34:Z34"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="62" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="61" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4647,8 +4647,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4686,163 +4686,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="128"/>
-      <c r="U2" s="128"/>
-      <c r="V2" s="128"/>
-      <c r="W2" s="128"/>
-      <c r="X2" s="128"/>
-      <c r="Y2" s="128"/>
-      <c r="Z2" s="128"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="128"/>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="128"/>
-      <c r="AE2" s="128"/>
-      <c r="AF2" s="128"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
+      <c r="T2" s="122"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
+      <c r="AA2" s="122"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
+      <c r="AF2" s="122"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
-      <c r="T3" s="128"/>
-      <c r="U3" s="128"/>
-      <c r="V3" s="128"/>
-      <c r="W3" s="128"/>
-      <c r="X3" s="128"/>
-      <c r="Y3" s="128"/>
-      <c r="Z3" s="128"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="128"/>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="128"/>
-      <c r="AE3" s="128"/>
-      <c r="AF3" s="128"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="122"/>
+      <c r="Y3" s="122"/>
+      <c r="Z3" s="122"/>
+      <c r="AA3" s="122"/>
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="160" t="s">
+      <c r="B4" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
-      <c r="N4" s="128"/>
-      <c r="O4" s="128"/>
-      <c r="P4" s="128"/>
-      <c r="Q4" s="128"/>
-      <c r="R4" s="128"/>
-      <c r="S4" s="128"/>
-      <c r="T4" s="128"/>
-      <c r="U4" s="128"/>
-      <c r="V4" s="128"/>
-      <c r="W4" s="128"/>
-      <c r="X4" s="128"/>
-      <c r="Y4" s="128"/>
-      <c r="Z4" s="128"/>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="128"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
+      <c r="W4" s="122"/>
+      <c r="X4" s="122"/>
+      <c r="Y4" s="122"/>
+      <c r="Z4" s="122"/>
+      <c r="AA4" s="122"/>
+      <c r="AB4" s="122"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="127" t="s">
+      <c r="B5" s="151" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="138" t="s">
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="156" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="128"/>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="193" t="s">
+      <c r="AB5" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="137"/>
-      <c r="AD5" s="137"/>
-      <c r="AE5" s="137"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="155"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4852,35 +4852,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="128"/>
-      <c r="T6" s="128"/>
-      <c r="U6" s="128"/>
-      <c r="V6" s="128"/>
-      <c r="W6" s="128"/>
-      <c r="X6" s="130"/>
-      <c r="Y6" s="128"/>
+      <c r="R6" s="112"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
+      <c r="W6" s="122"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="122"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="139" t="s">
+      <c r="AB6" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="128"/>
-      <c r="AD6" s="128"/>
-      <c r="AE6" s="128"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="128"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4908,13 +4908,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4923,38 +4923,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="131" t="s">
+      <c r="Q8" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="203"/>
-      <c r="S8" s="203"/>
-      <c r="T8" s="203"/>
-      <c r="U8" s="203"/>
-      <c r="V8" s="203"/>
-      <c r="W8" s="203"/>
-      <c r="X8" s="205"/>
-      <c r="Y8" s="131" t="s">
+      <c r="R8" s="223"/>
+      <c r="S8" s="223"/>
+      <c r="T8" s="223"/>
+      <c r="U8" s="223"/>
+      <c r="V8" s="223"/>
+      <c r="W8" s="223"/>
+      <c r="X8" s="225"/>
+      <c r="Y8" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="203"/>
-      <c r="AA8" s="203"/>
-      <c r="AB8" s="203"/>
-      <c r="AC8" s="205"/>
-      <c r="AD8" s="131" t="s">
+      <c r="Z8" s="223"/>
+      <c r="AA8" s="223"/>
+      <c r="AB8" s="223"/>
+      <c r="AC8" s="225"/>
+      <c r="AD8" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="203"/>
-      <c r="AF8" s="205"/>
+      <c r="AE8" s="223"/>
+      <c r="AF8" s="225"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="128"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4963,22 +4963,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="206"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="207"/>
-      <c r="Y9" s="206"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="204"/>
-      <c r="AC9" s="207"/>
-      <c r="AD9" s="206"/>
-      <c r="AE9" s="204"/>
-      <c r="AF9" s="207"/>
+      <c r="Q9" s="226"/>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="224"/>
+      <c r="U9" s="224"/>
+      <c r="V9" s="224"/>
+      <c r="W9" s="224"/>
+      <c r="X9" s="227"/>
+      <c r="Y9" s="226"/>
+      <c r="Z9" s="224"/>
+      <c r="AA9" s="224"/>
+      <c r="AB9" s="224"/>
+      <c r="AC9" s="227"/>
+      <c r="AD9" s="226"/>
+      <c r="AE9" s="224"/>
+      <c r="AF9" s="227"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4997,44 +4997,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="162">
+      <c r="Q10" s="140">
         <v>44986</v>
       </c>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="133"/>
-      <c r="Y10" s="140">
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="129"/>
+      <c r="Y10" s="158">
         <v>0</v>
       </c>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-      <c r="AB10" s="132"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="161" t="s">
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="129"/>
+      <c r="AD10" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="132"/>
-      <c r="AF10" s="133"/>
+      <c r="AE10" s="128"/>
+      <c r="AF10" s="129"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="127" t="s">
+      <c r="B11" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5043,22 +5043,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="134"/>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="134"/>
-      <c r="AE11" s="135"/>
-      <c r="AF11" s="136"/>
+      <c r="Q11" s="130"/>
+      <c r="R11" s="131"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="131"/>
+      <c r="U11" s="131"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="131"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="130"/>
+      <c r="Z11" s="131"/>
+      <c r="AA11" s="131"/>
+      <c r="AB11" s="131"/>
+      <c r="AC11" s="132"/>
+      <c r="AD11" s="130"/>
+      <c r="AE11" s="131"/>
+      <c r="AF11" s="132"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5096,75 +5096,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="163" t="s">
+      <c r="B13" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="203"/>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="203"/>
-      <c r="G13" s="203"/>
-      <c r="H13" s="203"/>
-      <c r="I13" s="203"/>
-      <c r="J13" s="203"/>
-      <c r="K13" s="203"/>
-      <c r="L13" s="203"/>
-      <c r="M13" s="203"/>
-      <c r="N13" s="203"/>
-      <c r="O13" s="203"/>
-      <c r="P13" s="203"/>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="203"/>
-      <c r="S13" s="203"/>
-      <c r="T13" s="203"/>
-      <c r="U13" s="203"/>
-      <c r="V13" s="203"/>
-      <c r="W13" s="203"/>
-      <c r="X13" s="203"/>
-      <c r="Y13" s="203"/>
-      <c r="Z13" s="203"/>
-      <c r="AA13" s="203"/>
-      <c r="AB13" s="203"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="223"/>
+      <c r="P13" s="223"/>
+      <c r="Q13" s="223"/>
+      <c r="R13" s="223"/>
+      <c r="S13" s="223"/>
+      <c r="T13" s="223"/>
+      <c r="U13" s="223"/>
+      <c r="V13" s="223"/>
+      <c r="W13" s="223"/>
+      <c r="X13" s="223"/>
+      <c r="Y13" s="223"/>
+      <c r="Z13" s="223"/>
+      <c r="AA13" s="223"/>
+      <c r="AB13" s="223"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="163" t="s">
+      <c r="AD13" s="141" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="203"/>
-      <c r="AF13" s="203"/>
+      <c r="AE13" s="223"/>
+      <c r="AF13" s="223"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="204"/>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="204"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="204"/>
-      <c r="H14" s="204"/>
-      <c r="I14" s="204"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
-      <c r="L14" s="204"/>
-      <c r="M14" s="204"/>
-      <c r="N14" s="204"/>
-      <c r="O14" s="204"/>
-      <c r="P14" s="204"/>
-      <c r="Q14" s="204"/>
-      <c r="R14" s="204"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="204"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="204"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="204"/>
-      <c r="Y14" s="204"/>
-      <c r="Z14" s="204"/>
-      <c r="AA14" s="204"/>
-      <c r="AB14" s="204"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="224"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="224"/>
+      <c r="U14" s="224"/>
+      <c r="V14" s="224"/>
+      <c r="W14" s="224"/>
+      <c r="X14" s="224"/>
+      <c r="Y14" s="224"/>
+      <c r="Z14" s="224"/>
+      <c r="AA14" s="224"/>
+      <c r="AB14" s="224"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="204"/>
-      <c r="AE14" s="204"/>
-      <c r="AF14" s="204"/>
+      <c r="AD14" s="224"/>
+      <c r="AE14" s="224"/>
+      <c r="AF14" s="224"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5201,173 +5201,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="106"/>
-      <c r="B16" s="158" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="185"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="231" t="s">
+      <c r="C16" s="194"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="191"/>
-      <c r="K16" s="189" t="s">
+      <c r="G16" s="219"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="220"/>
+      <c r="K16" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="190"/>
-      <c r="M16" s="190"/>
-      <c r="N16" s="190"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="190"/>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="190"/>
-      <c r="S16" s="190"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="190"/>
-      <c r="W16" s="190"/>
-      <c r="X16" s="190"/>
-      <c r="Y16" s="190"/>
-      <c r="Z16" s="190"/>
-      <c r="AA16" s="190"/>
-      <c r="AB16" s="191"/>
+      <c r="L16" s="219"/>
+      <c r="M16" s="219"/>
+      <c r="N16" s="219"/>
+      <c r="O16" s="219"/>
+      <c r="P16" s="219"/>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="219"/>
+      <c r="S16" s="219"/>
+      <c r="T16" s="219"/>
+      <c r="U16" s="219"/>
+      <c r="V16" s="219"/>
+      <c r="W16" s="219"/>
+      <c r="X16" s="219"/>
+      <c r="Y16" s="219"/>
+      <c r="Z16" s="219"/>
+      <c r="AA16" s="219"/>
+      <c r="AB16" s="220"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="183"/>
+      <c r="AE16" s="155"/>
+      <c r="AF16" s="186"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="106"/>
-      <c r="B17" s="228"/>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="218" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="213"/>
+      <c r="C17" s="197"/>
+      <c r="D17" s="197"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="207" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="219"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="224" t="s">
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="209"/>
+      <c r="K17" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="225"/>
-      <c r="M17" s="225"/>
-      <c r="N17" s="225"/>
-      <c r="O17" s="225"/>
-      <c r="P17" s="225"/>
-      <c r="Q17" s="225"/>
-      <c r="R17" s="186" t="s">
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="178"/>
+      <c r="O17" s="178"/>
+      <c r="P17" s="178"/>
+      <c r="Q17" s="178"/>
+      <c r="R17" s="241" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="226" t="s">
+      <c r="S17" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="226"/>
-      <c r="U17" s="226"/>
-      <c r="V17" s="226"/>
-      <c r="W17" s="226"/>
-      <c r="X17" s="226"/>
-      <c r="Y17" s="226"/>
-      <c r="Z17" s="226"/>
-      <c r="AA17" s="226"/>
-      <c r="AB17" s="227"/>
+      <c r="T17" s="179"/>
+      <c r="U17" s="179"/>
+      <c r="V17" s="179"/>
+      <c r="W17" s="179"/>
+      <c r="X17" s="179"/>
+      <c r="Y17" s="179"/>
+      <c r="Z17" s="179"/>
+      <c r="AA17" s="179"/>
+      <c r="AB17" s="180"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="148" t="s">
+      <c r="AD17" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="187">
+      <c r="AE17" s="242">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="187"/>
+      <c r="AF17" s="242"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="128"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="223"/>
-      <c r="K18" s="111">
+      <c r="A18" s="122"/>
+      <c r="B18" s="199"/>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="211"/>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="212"/>
+      <c r="K18" s="88">
         <v>16000</v>
       </c>
-      <c r="L18" s="185"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="185"/>
-      <c r="O18" s="185"/>
-      <c r="P18" s="185"/>
-      <c r="Q18" s="185"/>
-      <c r="R18" s="186"/>
-      <c r="S18" s="78">
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="241"/>
+      <c r="S18" s="161">
         <v>68.69</v>
       </c>
-      <c r="T18" s="185"/>
-      <c r="U18" s="185"/>
-      <c r="V18" s="185"/>
-      <c r="W18" s="185"/>
-      <c r="X18" s="185"/>
-      <c r="Y18" s="185"/>
-      <c r="Z18" s="185"/>
-      <c r="AA18" s="185"/>
-      <c r="AB18" s="208"/>
+      <c r="T18" s="194"/>
+      <c r="U18" s="194"/>
+      <c r="V18" s="194"/>
+      <c r="W18" s="194"/>
+      <c r="X18" s="194"/>
+      <c r="Y18" s="194"/>
+      <c r="Z18" s="194"/>
+      <c r="AA18" s="194"/>
+      <c r="AB18" s="195"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="187"/>
-      <c r="AF18" s="187"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="242"/>
+      <c r="AF18" s="242"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="110" t="s">
+      <c r="B19" s="200"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="201"/>
+      <c r="F19" s="137" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="197"/>
-      <c r="K19" s="198">
+      <c r="G19" s="215"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="202">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="199"/>
-      <c r="M19" s="199"/>
-      <c r="N19" s="199"/>
-      <c r="O19" s="199"/>
-      <c r="P19" s="199"/>
-      <c r="Q19" s="199"/>
-      <c r="R19" s="199"/>
-      <c r="S19" s="199"/>
-      <c r="T19" s="199"/>
-      <c r="U19" s="199"/>
-      <c r="V19" s="199"/>
-      <c r="W19" s="199"/>
-      <c r="X19" s="199"/>
-      <c r="Y19" s="199"/>
-      <c r="Z19" s="199"/>
-      <c r="AA19" s="199"/>
-      <c r="AB19" s="200"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="203"/>
+      <c r="S19" s="203"/>
+      <c r="T19" s="203"/>
+      <c r="U19" s="203"/>
+      <c r="V19" s="203"/>
+      <c r="W19" s="203"/>
+      <c r="X19" s="203"/>
+      <c r="Y19" s="203"/>
+      <c r="Z19" s="203"/>
+      <c r="AA19" s="203"/>
+      <c r="AB19" s="204"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="201">
+      <c r="AE19" s="185">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="202"/>
+      <c r="AF19" s="222"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5375,24 +5375,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="183"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="186"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="192"/>
-      <c r="L20" s="183"/>
-      <c r="M20" s="183"/>
-      <c r="N20" s="183"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="183"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="183"/>
-      <c r="S20" s="183"/>
-      <c r="T20" s="183"/>
-      <c r="U20" s="183"/>
-      <c r="V20" s="183"/>
-      <c r="W20" s="183"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="186"/>
+      <c r="M20" s="186"/>
+      <c r="N20" s="186"/>
+      <c r="O20" s="157"/>
+      <c r="P20" s="186"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="186"/>
+      <c r="S20" s="186"/>
+      <c r="T20" s="186"/>
+      <c r="U20" s="186"/>
+      <c r="V20" s="186"/>
+      <c r="W20" s="186"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5402,207 +5402,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="184">
+      <c r="AE20" s="240">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="185"/>
+      <c r="AF20" s="194"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="152" t="s">
+      <c r="B21" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="185"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="230" t="s">
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="191"/>
-      <c r="K21" s="189" t="s">
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
+      <c r="K21" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="190"/>
-      <c r="T21" s="190"/>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="190"/>
-      <c r="Z21" s="190"/>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="191"/>
+      <c r="L21" s="219"/>
+      <c r="M21" s="219"/>
+      <c r="N21" s="219"/>
+      <c r="O21" s="219"/>
+      <c r="P21" s="219"/>
+      <c r="Q21" s="219"/>
+      <c r="R21" s="219"/>
+      <c r="S21" s="219"/>
+      <c r="T21" s="219"/>
+      <c r="U21" s="219"/>
+      <c r="V21" s="219"/>
+      <c r="W21" s="219"/>
+      <c r="X21" s="219"/>
+      <c r="Y21" s="219"/>
+      <c r="Z21" s="219"/>
+      <c r="AA21" s="219"/>
+      <c r="AB21" s="220"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="183"/>
+      <c r="AE21" s="150"/>
+      <c r="AF21" s="186"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="210"/>
-      <c r="D22" s="210"/>
-      <c r="E22" s="211"/>
-      <c r="F22" s="175" t="s">
+      <c r="B22" s="196"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="176"/>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="224" t="s">
+      <c r="G22" s="233"/>
+      <c r="H22" s="233"/>
+      <c r="I22" s="233"/>
+      <c r="J22" s="234"/>
+      <c r="K22" s="177" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="225"/>
-      <c r="M22" s="225"/>
-      <c r="N22" s="225"/>
-      <c r="O22" s="225"/>
-      <c r="P22" s="225"/>
-      <c r="Q22" s="225"/>
-      <c r="R22" s="181" t="s">
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="178"/>
+      <c r="O22" s="178"/>
+      <c r="P22" s="178"/>
+      <c r="Q22" s="178"/>
+      <c r="R22" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="226" t="s">
+      <c r="S22" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="226"/>
-      <c r="U22" s="226"/>
-      <c r="V22" s="226"/>
-      <c r="W22" s="226"/>
-      <c r="X22" s="226"/>
-      <c r="Y22" s="226"/>
-      <c r="Z22" s="226"/>
-      <c r="AA22" s="226"/>
-      <c r="AB22" s="227"/>
+      <c r="T22" s="179"/>
+      <c r="U22" s="179"/>
+      <c r="V22" s="179"/>
+      <c r="W22" s="179"/>
+      <c r="X22" s="179"/>
+      <c r="Y22" s="179"/>
+      <c r="Z22" s="179"/>
+      <c r="AA22" s="179"/>
+      <c r="AB22" s="180"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="148" t="s">
+      <c r="AD22" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="92">
+      <c r="AE22" s="74">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="92"/>
+      <c r="AF22" s="74"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="212"/>
-      <c r="C23" s="183"/>
-      <c r="D23" s="183"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="179"/>
-      <c r="H23" s="179"/>
-      <c r="I23" s="179"/>
-      <c r="J23" s="180"/>
-      <c r="K23" s="194">
+      <c r="B23" s="199"/>
+      <c r="C23" s="186"/>
+      <c r="D23" s="186"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="235"/>
+      <c r="G23" s="236"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="236"/>
+      <c r="J23" s="237"/>
+      <c r="K23" s="230">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="195"/>
-      <c r="O23" s="195"/>
-      <c r="P23" s="195"/>
-      <c r="Q23" s="195"/>
-      <c r="R23" s="182"/>
-      <c r="S23" s="229">
+      <c r="L23" s="215"/>
+      <c r="M23" s="215"/>
+      <c r="N23" s="215"/>
+      <c r="O23" s="215"/>
+      <c r="P23" s="215"/>
+      <c r="Q23" s="215"/>
+      <c r="R23" s="239"/>
+      <c r="S23" s="214">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="195"/>
-      <c r="U23" s="195"/>
-      <c r="V23" s="195"/>
-      <c r="W23" s="195"/>
-      <c r="X23" s="195"/>
-      <c r="Y23" s="195"/>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="195"/>
-      <c r="AB23" s="197"/>
+      <c r="T23" s="215"/>
+      <c r="U23" s="215"/>
+      <c r="V23" s="215"/>
+      <c r="W23" s="215"/>
+      <c r="X23" s="215"/>
+      <c r="Y23" s="215"/>
+      <c r="Z23" s="215"/>
+      <c r="AA23" s="215"/>
+      <c r="AB23" s="216"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="104"/>
-      <c r="AF23" s="104"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="213"/>
-      <c r="C24" s="214"/>
-      <c r="D24" s="214"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="196" t="s">
+      <c r="B24" s="200"/>
+      <c r="C24" s="176"/>
+      <c r="D24" s="176"/>
+      <c r="E24" s="201"/>
+      <c r="F24" s="231" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="197"/>
-      <c r="K24" s="198">
+      <c r="G24" s="215"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="215"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="202">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="199"/>
-      <c r="M24" s="199"/>
-      <c r="N24" s="199"/>
-      <c r="O24" s="199"/>
-      <c r="P24" s="199"/>
-      <c r="Q24" s="199"/>
-      <c r="R24" s="199"/>
-      <c r="S24" s="199"/>
-      <c r="T24" s="199"/>
-      <c r="U24" s="199"/>
-      <c r="V24" s="199"/>
-      <c r="W24" s="199"/>
-      <c r="X24" s="199"/>
-      <c r="Y24" s="199"/>
-      <c r="Z24" s="199"/>
-      <c r="AA24" s="199"/>
-      <c r="AB24" s="200"/>
+      <c r="L24" s="203"/>
+      <c r="M24" s="203"/>
+      <c r="N24" s="203"/>
+      <c r="O24" s="203"/>
+      <c r="P24" s="203"/>
+      <c r="Q24" s="203"/>
+      <c r="R24" s="203"/>
+      <c r="S24" s="203"/>
+      <c r="T24" s="203"/>
+      <c r="U24" s="203"/>
+      <c r="V24" s="203"/>
+      <c r="W24" s="203"/>
+      <c r="X24" s="203"/>
+      <c r="Y24" s="203"/>
+      <c r="Z24" s="203"/>
+      <c r="AA24" s="203"/>
+      <c r="AB24" s="204"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="104">
+      <c r="AE24" s="138">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="214"/>
+      <c r="AF24" s="176"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="106"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="216"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
+      <c r="F25" s="205"/>
+      <c r="G25" s="176"/>
+      <c r="H25" s="176"/>
+      <c r="I25" s="176"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="241"/>
-      <c r="L25" s="214"/>
-      <c r="M25" s="214"/>
-      <c r="N25" s="214"/>
-      <c r="O25" s="214"/>
-      <c r="P25" s="214"/>
-      <c r="Q25" s="214"/>
-      <c r="R25" s="214"/>
-      <c r="S25" s="214"/>
-      <c r="T25" s="214"/>
-      <c r="U25" s="214"/>
-      <c r="V25" s="214"/>
-      <c r="W25" s="214"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
+      <c r="M25" s="176"/>
+      <c r="N25" s="176"/>
+      <c r="O25" s="176"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
+      <c r="U25" s="176"/>
+      <c r="V25" s="176"/>
+      <c r="W25" s="176"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5612,14 +5612,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="201">
+      <c r="AE25" s="185">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="214"/>
+      <c r="AF25" s="176"/>
     </row>
     <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="128"/>
+      <c r="A26" s="122"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5653,7 +5653,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="128"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5672,28 +5672,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="170" t="s">
-        <v>58</v>
-      </c>
-      <c r="U27" s="183"/>
-      <c r="V27" s="183"/>
-      <c r="W27" s="183"/>
-      <c r="X27" s="183"/>
-      <c r="Y27" s="183"/>
-      <c r="Z27" s="183"/>
-      <c r="AA27" s="183"/>
-      <c r="AB27" s="183"/>
+      <c r="T27" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="U27" s="186"/>
+      <c r="V27" s="186"/>
+      <c r="W27" s="186"/>
+      <c r="X27" s="186"/>
+      <c r="Y27" s="186"/>
+      <c r="Z27" s="186"/>
+      <c r="AA27" s="186"/>
+      <c r="AB27" s="186"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="238">
+      <c r="AE27" s="181">
         <v>10000</v>
       </c>
-      <c r="AF27" s="239"/>
+      <c r="AF27" s="182"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128"/>
+      <c r="A28" s="122"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5712,28 +5712,28 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="170" t="s">
-        <v>59</v>
-      </c>
-      <c r="U28" s="93"/>
-      <c r="V28" s="93"/>
-      <c r="W28" s="93"/>
-      <c r="X28" s="93"/>
-      <c r="Y28" s="93"/>
-      <c r="Z28" s="93"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="93"/>
+      <c r="T28" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" s="75"/>
+      <c r="V28" s="75"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="75"/>
+      <c r="Y28" s="75"/>
+      <c r="Z28" s="75"/>
+      <c r="AA28" s="75"/>
+      <c r="AB28" s="75"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="240">
+      <c r="AE28" s="187">
         <v>0</v>
       </c>
-      <c r="AF28" s="239"/>
+      <c r="AF28" s="182"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="128"/>
+      <c r="A29" s="122"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5752,25 +5752,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="166" t="s">
+      <c r="T29" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="183"/>
-      <c r="V29" s="183"/>
-      <c r="W29" s="183"/>
-      <c r="X29" s="183"/>
-      <c r="Y29" s="183"/>
-      <c r="Z29" s="183"/>
-      <c r="AA29" s="183"/>
-      <c r="AB29" s="183"/>
+      <c r="U29" s="186"/>
+      <c r="V29" s="186"/>
+      <c r="W29" s="186"/>
+      <c r="X29" s="186"/>
+      <c r="Y29" s="186"/>
+      <c r="Z29" s="186"/>
+      <c r="AA29" s="186"/>
+      <c r="AB29" s="186"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="243">
+      <c r="AE29" s="183">
         <v>10000</v>
       </c>
-      <c r="AF29" s="244"/>
+      <c r="AF29" s="184"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5792,26 +5792,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="171" t="s">
+      <c r="T30" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="183"/>
-      <c r="V30" s="183"/>
-      <c r="W30" s="183"/>
-      <c r="X30" s="183"/>
-      <c r="Y30" s="183"/>
-      <c r="Z30" s="183"/>
-      <c r="AA30" s="183"/>
-      <c r="AB30" s="183"/>
+      <c r="U30" s="186"/>
+      <c r="V30" s="186"/>
+      <c r="W30" s="186"/>
+      <c r="X30" s="186"/>
+      <c r="Y30" s="186"/>
+      <c r="Z30" s="186"/>
+      <c r="AA30" s="186"/>
+      <c r="AB30" s="186"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="92">
+      <c r="AE30" s="74">
         <f>AE20+AE25+AE27+AE29+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF30" s="183"/>
+      <c r="AF30" s="186"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -5883,41 +5883,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="167" t="s">
+      <c r="B33" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="167"/>
-      <c r="D33" s="167"/>
-      <c r="E33" s="167"/>
-      <c r="F33" s="167"/>
-      <c r="G33" s="236" t="s">
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="192" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="236"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="236"/>
-      <c r="M33" s="236"/>
-      <c r="N33" s="236"/>
-      <c r="O33" s="236"/>
-      <c r="P33" s="236"/>
-      <c r="Q33" s="236"/>
-      <c r="R33" s="236"/>
-      <c r="S33" s="236"/>
-      <c r="T33" s="236"/>
-      <c r="U33" s="236"/>
-      <c r="V33" s="236"/>
-      <c r="W33" s="236"/>
-      <c r="X33" s="236"/>
-      <c r="Y33" s="236"/>
-      <c r="Z33" s="236"/>
-      <c r="AA33" s="236"/>
-      <c r="AB33" s="236"/>
-      <c r="AC33" s="236"/>
-      <c r="AD33" s="236"/>
-      <c r="AE33" s="236"/>
-      <c r="AF33" s="236"/>
+      <c r="H33" s="192"/>
+      <c r="I33" s="192"/>
+      <c r="J33" s="192"/>
+      <c r="K33" s="192"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="192"/>
+      <c r="O33" s="192"/>
+      <c r="P33" s="192"/>
+      <c r="Q33" s="192"/>
+      <c r="R33" s="192"/>
+      <c r="S33" s="192"/>
+      <c r="T33" s="192"/>
+      <c r="U33" s="192"/>
+      <c r="V33" s="192"/>
+      <c r="W33" s="192"/>
+      <c r="X33" s="192"/>
+      <c r="Y33" s="192"/>
+      <c r="Z33" s="192"/>
+      <c r="AA33" s="192"/>
+      <c r="AB33" s="192"/>
+      <c r="AC33" s="192"/>
+      <c r="AD33" s="192"/>
+      <c r="AE33" s="192"/>
+      <c r="AF33" s="192"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -6046,207 +6046,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="49"/>
-      <c r="AB37" s="237" t="s">
+      <c r="AB37" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="237"/>
-      <c r="AD37" s="237"/>
-      <c r="AE37" s="237"/>
-      <c r="AF37" s="237"/>
+      <c r="AC37" s="193"/>
+      <c r="AD37" s="193"/>
+      <c r="AE37" s="193"/>
+      <c r="AF37" s="193"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="242" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="242"/>
-      <c r="D38" s="242"/>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
-      <c r="K38" s="242"/>
-      <c r="L38" s="242"/>
-      <c r="M38" s="242"/>
-      <c r="N38" s="242"/>
-      <c r="O38" s="242"/>
-      <c r="P38" s="242"/>
-      <c r="Q38" s="242"/>
-      <c r="R38" s="242"/>
-      <c r="S38" s="242"/>
-      <c r="T38" s="242"/>
-      <c r="U38" s="242"/>
-      <c r="V38" s="242"/>
-      <c r="W38" s="242"/>
-      <c r="AB38" s="237"/>
-      <c r="AC38" s="237"/>
-      <c r="AD38" s="237"/>
-      <c r="AE38" s="237"/>
-      <c r="AF38" s="237"/>
+      <c r="B38" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
+      <c r="M38" s="92"/>
+      <c r="N38" s="92"/>
+      <c r="O38" s="92"/>
+      <c r="P38" s="92"/>
+      <c r="Q38" s="92"/>
+      <c r="R38" s="92"/>
+      <c r="S38" s="92"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="92"/>
+      <c r="V38" s="92"/>
+      <c r="W38" s="92"/>
+      <c r="AB38" s="193"/>
+      <c r="AC38" s="193"/>
+      <c r="AD38" s="193"/>
+      <c r="AE38" s="193"/>
+      <c r="AF38" s="193"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="242"/>
-      <c r="K39" s="242"/>
-      <c r="L39" s="242"/>
-      <c r="M39" s="242"/>
-      <c r="N39" s="242"/>
-      <c r="O39" s="242"/>
-      <c r="P39" s="242"/>
-      <c r="Q39" s="242"/>
-      <c r="R39" s="242"/>
-      <c r="S39" s="242"/>
-      <c r="T39" s="242"/>
-      <c r="U39" s="242"/>
-      <c r="V39" s="242"/>
-      <c r="W39" s="242"/>
-      <c r="AB39" s="237"/>
-      <c r="AC39" s="237"/>
-      <c r="AD39" s="237"/>
-      <c r="AE39" s="237"/>
-      <c r="AF39" s="237"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="M39" s="92"/>
+      <c r="N39" s="92"/>
+      <c r="O39" s="92"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="92"/>
+      <c r="V39" s="92"/>
+      <c r="W39" s="92"/>
+      <c r="AB39" s="193"/>
+      <c r="AC39" s="193"/>
+      <c r="AD39" s="193"/>
+      <c r="AE39" s="193"/>
+      <c r="AF39" s="193"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="242"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="242"/>
-      <c r="N40" s="242"/>
-      <c r="O40" s="242"/>
-      <c r="P40" s="242"/>
-      <c r="Q40" s="242"/>
-      <c r="R40" s="242"/>
-      <c r="S40" s="242"/>
-      <c r="T40" s="242"/>
-      <c r="U40" s="242"/>
-      <c r="V40" s="242"/>
-      <c r="W40" s="242"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242"/>
-      <c r="D41" s="242"/>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="242"/>
-      <c r="H41" s="242"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="242"/>
-      <c r="L41" s="242"/>
-      <c r="M41" s="242"/>
-      <c r="N41" s="242"/>
-      <c r="O41" s="242"/>
-      <c r="P41" s="242"/>
-      <c r="Q41" s="242"/>
-      <c r="R41" s="242"/>
-      <c r="S41" s="242"/>
-      <c r="T41" s="242"/>
-      <c r="U41" s="242"/>
-      <c r="V41" s="242"/>
-      <c r="W41" s="242"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="92"/>
+      <c r="U41" s="92"/>
+      <c r="V41" s="92"/>
+      <c r="W41" s="92"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="242"/>
-      <c r="C42" s="242"/>
-      <c r="D42" s="242"/>
-      <c r="E42" s="242"/>
-      <c r="F42" s="242"/>
-      <c r="G42" s="242"/>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="242"/>
-      <c r="M42" s="242"/>
-      <c r="N42" s="242"/>
-      <c r="O42" s="242"/>
-      <c r="P42" s="242"/>
-      <c r="Q42" s="242"/>
-      <c r="R42" s="242"/>
-      <c r="S42" s="242"/>
-      <c r="T42" s="242"/>
-      <c r="U42" s="242"/>
-      <c r="V42" s="242"/>
-      <c r="W42" s="242"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+      <c r="T42" s="92"/>
+      <c r="U42" s="92"/>
+      <c r="V42" s="92"/>
+      <c r="W42" s="92"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="242"/>
-      <c r="C43" s="242"/>
-      <c r="D43" s="242"/>
-      <c r="E43" s="242"/>
-      <c r="F43" s="242"/>
-      <c r="G43" s="242"/>
-      <c r="H43" s="242"/>
-      <c r="I43" s="242"/>
-      <c r="J43" s="242"/>
-      <c r="K43" s="242"/>
-      <c r="L43" s="242"/>
-      <c r="M43" s="242"/>
-      <c r="N43" s="242"/>
-      <c r="O43" s="242"/>
-      <c r="P43" s="242"/>
-      <c r="Q43" s="242"/>
-      <c r="R43" s="242"/>
-      <c r="S43" s="242"/>
-      <c r="T43" s="242"/>
-      <c r="U43" s="242"/>
-      <c r="V43" s="242"/>
-      <c r="W43" s="242"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+      <c r="T43" s="92"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="92"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="242"/>
-      <c r="C44" s="242"/>
-      <c r="D44" s="242"/>
-      <c r="E44" s="242"/>
-      <c r="F44" s="242"/>
-      <c r="G44" s="242"/>
-      <c r="H44" s="242"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="242"/>
-      <c r="K44" s="242"/>
-      <c r="L44" s="242"/>
-      <c r="M44" s="242"/>
-      <c r="N44" s="242"/>
-      <c r="O44" s="242"/>
-      <c r="P44" s="242"/>
-      <c r="Q44" s="242"/>
-      <c r="R44" s="242"/>
-      <c r="S44" s="242"/>
-      <c r="T44" s="242"/>
-      <c r="U44" s="242"/>
-      <c r="V44" s="242"/>
-      <c r="W44" s="242"/>
-      <c r="AB44" s="234" t="s">
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="AB44" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="235"/>
-      <c r="AD44" s="235"/>
-      <c r="AE44" s="235"/>
-      <c r="AF44" s="235"/>
+      <c r="AC44" s="191"/>
+      <c r="AD44" s="191"/>
+      <c r="AE44" s="191"/>
+      <c r="AF44" s="191"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -6272,11 +6272,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="232"/>
-      <c r="AC45" s="233"/>
-      <c r="AD45" s="233"/>
-      <c r="AE45" s="233"/>
-      <c r="AF45" s="233"/>
+      <c r="AB45" s="188"/>
+      <c r="AC45" s="189"/>
+      <c r="AD45" s="189"/>
+      <c r="AE45" s="189"/>
+      <c r="AF45" s="189"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -6517,128 +6517,154 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="173" t="s">
+      <c r="B63" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="128"/>
-      <c r="D63" s="128"/>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128"/>
-      <c r="G63" s="128"/>
-      <c r="H63" s="128"/>
-      <c r="I63" s="128"/>
-      <c r="J63" s="128"/>
-      <c r="K63" s="128"/>
-      <c r="L63" s="128"/>
-      <c r="M63" s="128"/>
-      <c r="N63" s="128"/>
-      <c r="O63" s="128"/>
-      <c r="P63" s="128"/>
-      <c r="Q63" s="128"/>
-      <c r="R63" s="128"/>
-      <c r="S63" s="128"/>
-      <c r="T63" s="128"/>
-      <c r="U63" s="128"/>
-      <c r="V63" s="128"/>
-      <c r="W63" s="128"/>
-      <c r="X63" s="128"/>
-      <c r="Y63" s="128"/>
-      <c r="Z63" s="128"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="128"/>
-      <c r="AC63" s="128"/>
-      <c r="AD63" s="128"/>
-      <c r="AE63" s="128"/>
-      <c r="AF63" s="128"/>
+      <c r="C63" s="122"/>
+      <c r="D63" s="122"/>
+      <c r="E63" s="122"/>
+      <c r="F63" s="122"/>
+      <c r="G63" s="122"/>
+      <c r="H63" s="122"/>
+      <c r="I63" s="122"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="122"/>
+      <c r="M63" s="122"/>
+      <c r="N63" s="122"/>
+      <c r="O63" s="122"/>
+      <c r="P63" s="122"/>
+      <c r="Q63" s="122"/>
+      <c r="R63" s="122"/>
+      <c r="S63" s="122"/>
+      <c r="T63" s="122"/>
+      <c r="U63" s="122"/>
+      <c r="V63" s="122"/>
+      <c r="W63" s="122"/>
+      <c r="X63" s="122"/>
+      <c r="Y63" s="122"/>
+      <c r="Z63" s="122"/>
+      <c r="AA63" s="122"/>
+      <c r="AB63" s="122"/>
+      <c r="AC63" s="122"/>
+      <c r="AD63" s="122"/>
+      <c r="AE63" s="122"/>
+      <c r="AF63" s="122"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="174" t="s">
+      <c r="B64" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="128"/>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128"/>
-      <c r="F64" s="128"/>
-      <c r="G64" s="128"/>
-      <c r="H64" s="128"/>
-      <c r="I64" s="128"/>
-      <c r="J64" s="128"/>
-      <c r="K64" s="128"/>
-      <c r="L64" s="128"/>
-      <c r="M64" s="128"/>
-      <c r="N64" s="128"/>
-      <c r="O64" s="128"/>
-      <c r="P64" s="128"/>
-      <c r="Q64" s="128"/>
-      <c r="R64" s="128"/>
-      <c r="S64" s="128"/>
-      <c r="T64" s="128"/>
-      <c r="U64" s="128"/>
-      <c r="V64" s="128"/>
-      <c r="W64" s="128"/>
-      <c r="X64" s="128"/>
-      <c r="Y64" s="128"/>
-      <c r="Z64" s="128"/>
-      <c r="AA64" s="128"/>
-      <c r="AB64" s="128"/>
-      <c r="AC64" s="128"/>
-      <c r="AD64" s="128"/>
-      <c r="AE64" s="128"/>
-      <c r="AF64" s="128"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="122"/>
+      <c r="M64" s="122"/>
+      <c r="N64" s="122"/>
+      <c r="O64" s="122"/>
+      <c r="P64" s="122"/>
+      <c r="Q64" s="122"/>
+      <c r="R64" s="122"/>
+      <c r="S64" s="122"/>
+      <c r="T64" s="122"/>
+      <c r="U64" s="122"/>
+      <c r="V64" s="122"/>
+      <c r="W64" s="122"/>
+      <c r="X64" s="122"/>
+      <c r="Y64" s="122"/>
+      <c r="Z64" s="122"/>
+      <c r="AA64" s="122"/>
+      <c r="AB64" s="122"/>
+      <c r="AC64" s="122"/>
+      <c r="AD64" s="122"/>
+      <c r="AE64" s="122"/>
+      <c r="AF64" s="122"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="174" t="s">
+      <c r="B65" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="128"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="128"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="128"/>
-      <c r="L65" s="128"/>
-      <c r="M65" s="128"/>
-      <c r="N65" s="128"/>
-      <c r="O65" s="128"/>
-      <c r="P65" s="128"/>
-      <c r="Q65" s="128"/>
-      <c r="R65" s="128"/>
-      <c r="S65" s="128"/>
-      <c r="T65" s="128"/>
-      <c r="U65" s="128"/>
-      <c r="V65" s="128"/>
-      <c r="W65" s="128"/>
-      <c r="X65" s="128"/>
-      <c r="Y65" s="128"/>
-      <c r="Z65" s="128"/>
-      <c r="AA65" s="128"/>
-      <c r="AB65" s="128"/>
-      <c r="AC65" s="128"/>
-      <c r="AD65" s="128"/>
-      <c r="AE65" s="128"/>
-      <c r="AF65" s="128"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="122"/>
+      <c r="M65" s="122"/>
+      <c r="N65" s="122"/>
+      <c r="O65" s="122"/>
+      <c r="P65" s="122"/>
+      <c r="Q65" s="122"/>
+      <c r="R65" s="122"/>
+      <c r="S65" s="122"/>
+      <c r="T65" s="122"/>
+      <c r="U65" s="122"/>
+      <c r="V65" s="122"/>
+      <c r="W65" s="122"/>
+      <c r="X65" s="122"/>
+      <c r="Y65" s="122"/>
+      <c r="Z65" s="122"/>
+      <c r="AA65" s="122"/>
+      <c r="AB65" s="122"/>
+      <c r="AC65" s="122"/>
+      <c r="AD65" s="122"/>
+      <c r="AE65" s="122"/>
+      <c r="AF65" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="76">
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="B38:W44"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B65:AF65"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="B63:AF63"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B64:AF64"/>
+    <mergeCell ref="T30:AB30"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B21:E24"/>
     <mergeCell ref="K24:AB24"/>
@@ -6655,50 +6681,24 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B65:AF65"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="B63:AF63"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B64:AF64"/>
-    <mergeCell ref="T30:AB30"/>
-    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="T28:AB28"/>
     <mergeCell ref="F22:J23"/>
     <mergeCell ref="R22:R23"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611284E-C25A-4D76-8CCD-10FF7AD7E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690310B-FF86-4F0B-9828-483F9F54C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="79">
   <si>
     <t>BILLING STATEMENT</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Late Charges :</t>
   </si>
   <si>
-    <t>Common Area</t>
-  </si>
-  <si>
     <t>Attention :
 1. Payment by transfer to Bank BCA Virtual Account above.
 2. Payment by transfer must state the unit number.
@@ -244,6 +241,63 @@
     - 0811814845 (Jumiah), 
     - 081717129340 (Office).
 5. Please avoid this invoice, if payment has been made.</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Denda:</t>
+  </si>
+  <si>
+    <t>Tahap</t>
+  </si>
+  <si>
+    <t>Masa Tunggakan</t>
+  </si>
+  <si>
+    <t>Kewajiban Pelanggaran</t>
+  </si>
+  <si>
+    <t>Sanksi/Tindakan</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1 hari s/d 30 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 5.0%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air berjalan normal</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>31 hari s/d 60 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 7.5%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air off dan access</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>61 hari s/d 90 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 10.0%/bulan</t>
+  </si>
+  <si>
+    <t>Permintaan penyambungan diberlakukan sebagai pemasangan baru</t>
+  </si>
+  <si>
+    <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
   </si>
 </sst>
 </file>
@@ -263,7 +317,7 @@
     <numFmt numFmtId="171" formatCode="#&quot; kVa&quot;"/>
     <numFmt numFmtId="172" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,6 +420,11 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -568,7 +627,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -767,26 +826,99 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
@@ -797,130 +929,33 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -930,118 +965,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1053,149 +1103,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1205,17 +1180,116 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -1241,20 +1315,24 @@
     <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1853,8 +1931,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE37" sqref="AE37:AF37"/>
+    <sheetView view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:W69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1894,146 +1972,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="99"/>
-      <c r="AC2" s="99"/>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="99"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="99"/>
-      <c r="W4" s="99"/>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="99"/>
-      <c r="AD4" s="99"/>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="156"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="99"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="99"/>
-      <c r="P5" s="99"/>
-      <c r="Q5" s="99"/>
-      <c r="R5" s="99"/>
-      <c r="S5" s="99"/>
-      <c r="T5" s="99"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="99"/>
-      <c r="W5" s="99"/>
-      <c r="X5" s="99"/>
-      <c r="Y5" s="99"/>
-      <c r="Z5" s="99"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="146" t="s">
+      <c r="AB5" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="99"/>
-      <c r="AD5" s="99"/>
-      <c r="AE5" s="99"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
@@ -2046,15 +2124,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2064,35 +2142,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="99"/>
-      <c r="T6" s="99"/>
-      <c r="U6" s="99"/>
-      <c r="V6" s="99"/>
-      <c r="W6" s="99"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="99"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="85"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="99"/>
-      <c r="AD6" s="99"/>
-      <c r="AE6" s="99"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2120,13 +2198,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2135,38 +2213,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="127" t="s">
+      <c r="Q8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="128"/>
-      <c r="S8" s="128"/>
-      <c r="T8" s="128"/>
-      <c r="U8" s="128"/>
-      <c r="V8" s="128"/>
-      <c r="W8" s="128"/>
-      <c r="X8" s="129"/>
-      <c r="Y8" s="127" t="s">
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="121"/>
+      <c r="Y8" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="129"/>
-      <c r="AD8" s="127" t="s">
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="120"/>
+      <c r="AC8" s="121"/>
+      <c r="AD8" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="128"/>
-      <c r="AF8" s="129"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="121"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2175,22 +2253,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="130"/>
-      <c r="R9" s="131"/>
-      <c r="S9" s="131"/>
-      <c r="T9" s="131"/>
-      <c r="U9" s="131"/>
-      <c r="V9" s="131"/>
-      <c r="W9" s="131"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="130"/>
-      <c r="Z9" s="131"/>
-      <c r="AA9" s="131"/>
-      <c r="AB9" s="131"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="131"/>
-      <c r="AF9" s="132"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="123"/>
+      <c r="S9" s="123"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
+      <c r="V9" s="123"/>
+      <c r="W9" s="123"/>
+      <c r="X9" s="124"/>
+      <c r="Y9" s="122"/>
+      <c r="Z9" s="123"/>
+      <c r="AA9" s="123"/>
+      <c r="AB9" s="123"/>
+      <c r="AC9" s="124"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="124"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2209,44 +2287,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="140">
+      <c r="Q10" s="156">
         <v>44986</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="158">
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="128">
         <v>0</v>
       </c>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="133" t="s">
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="129"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="121"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2255,22 +2333,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="132"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="124"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2308,77 +2386,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="135" t="s">
+      <c r="B13" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="135"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="135"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="135" t="s">
+      <c r="AA13" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="141" t="s">
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="132"/>
+      <c r="AD13" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="128"/>
-      <c r="AF13" s="128"/>
+      <c r="AE13" s="120"/>
+      <c r="AF13" s="120"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="136"/>
-      <c r="C14" s="136"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="136"/>
-      <c r="N14" s="136"/>
-      <c r="O14" s="136"/>
-      <c r="P14" s="136"/>
-      <c r="Q14" s="136"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
+      <c r="L14" s="133"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="133"/>
+      <c r="R14" s="133"/>
+      <c r="S14" s="133"/>
+      <c r="T14" s="133"/>
+      <c r="U14" s="133"/>
+      <c r="V14" s="133"/>
+      <c r="W14" s="133"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="131"/>
-      <c r="AE14" s="131"/>
-      <c r="AF14" s="131"/>
+      <c r="AA14" s="133"/>
+      <c r="AB14" s="133"/>
+      <c r="AC14" s="133"/>
+      <c r="AD14" s="123"/>
+      <c r="AE14" s="123"/>
+      <c r="AF14" s="123"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2415,121 +2493,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="123" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="90"/>
-      <c r="D16" s="137" t="s">
+      <c r="C16" s="97"/>
+      <c r="D16" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="112">
         <v>44946</v>
       </c>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="153" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="108" t="s">
+      <c r="Q16" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="80"/>
-      <c r="S16" s="85">
+      <c r="R16" s="76"/>
+      <c r="S16" s="112">
         <v>44977</v>
       </c>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="80"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="157"/>
-      <c r="AB16" s="157"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="75"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="79"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="137" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="88">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="91">
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="90"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="97"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="157"/>
-      <c r="AB17" s="157"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="155"/>
-      <c r="AF17" s="75"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="79"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="137" t="s">
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="165">
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="99">
         <v>1</v>
       </c>
-      <c r="L18" s="165"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="165"/>
-      <c r="O18" s="165"/>
-      <c r="P18" s="165"/>
-      <c r="Q18" s="165"/>
-      <c r="R18" s="165"/>
-      <c r="S18" s="165"/>
-      <c r="T18" s="165"/>
-      <c r="U18" s="165"/>
-      <c r="V18" s="165"/>
-      <c r="W18" s="165"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2542,166 +2620,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="167" t="s">
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="89"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="118">
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="139">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="142" t="s">
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="140"/>
+      <c r="V19" s="140"/>
+      <c r="W19" s="141"/>
+      <c r="X19" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="143"/>
-      <c r="Z19" s="143"/>
-      <c r="AA19" s="148">
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="86">
         <v>1800</v>
       </c>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="94">
+      <c r="AE19" s="135">
         <v>0</v>
       </c>
-      <c r="AF19" s="94"/>
+      <c r="AF19" s="135"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="166" t="s">
+      <c r="B20" s="145"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100" t="s">
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="100"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="159">
+      <c r="I20" s="101"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="87">
         <v>88</v>
       </c>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="160"/>
-      <c r="Q20" s="160"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="142" t="s">
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="143"/>
-      <c r="Z20" s="143"/>
-      <c r="AA20" s="148">
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="86">
         <v>1800</v>
       </c>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="149" t="s">
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="94">
+      <c r="AE20" s="135">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="94"/>
+      <c r="AF20" s="135"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="104" t="s">
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="105" t="s">
+      <c r="H21" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="163"/>
-      <c r="M21" s="163"/>
-      <c r="N21" s="163"/>
-      <c r="O21" s="163"/>
-      <c r="P21" s="163"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="142"/>
-      <c r="Y21" s="143"/>
-      <c r="Z21" s="143"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="149"/>
-      <c r="AE21" s="94"/>
-      <c r="AF21" s="94"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="129"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="136"/>
+      <c r="AE21" s="135"/>
+      <c r="AF21" s="135"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="125" t="s">
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="81">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="106">
         <v>0.05</v>
       </c>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="83"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="108"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
@@ -2709,38 +2787,38 @@
       <c r="AB22" s="63"/>
       <c r="AC22" s="63"/>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="147">
+      <c r="AE22" s="134">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="147"/>
+      <c r="AF22" s="134"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="168" t="s">
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="169"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="169"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="169"/>
-      <c r="M23" s="169"/>
-      <c r="N23" s="169"/>
-      <c r="O23" s="169"/>
-      <c r="P23" s="169"/>
-      <c r="Q23" s="169"/>
-      <c r="R23" s="169"/>
-      <c r="S23" s="169"/>
-      <c r="T23" s="169"/>
-      <c r="U23" s="169"/>
-      <c r="V23" s="169"/>
-      <c r="W23" s="170"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="111"/>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
@@ -2750,48 +2828,48 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="107">
+      <c r="AE23" s="137">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="107"/>
+      <c r="AF23" s="137"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="137" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="80"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="85">
+      <c r="L24" s="112">
         <v>44947</v>
       </c>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="153" t="s">
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="108" t="s">
+      <c r="Q24" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="80"/>
-      <c r="S24" s="85">
+      <c r="R24" s="76"/>
+      <c r="S24" s="112">
         <v>44986</v>
       </c>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="79"/>
-      <c r="W24" s="80"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="76"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
@@ -2804,34 +2882,34 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="137" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="88">
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="91">
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="90"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="97"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
@@ -2844,32 +2922,32 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="137" t="s">
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="165">
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="99">
         <v>1</v>
       </c>
-      <c r="L26" s="165"/>
-      <c r="M26" s="165"/>
-      <c r="N26" s="165"/>
-      <c r="O26" s="165"/>
-      <c r="P26" s="165"/>
-      <c r="Q26" s="165"/>
-      <c r="R26" s="165"/>
-      <c r="S26" s="165"/>
-      <c r="T26" s="165"/>
-      <c r="U26" s="165"/>
-      <c r="V26" s="165"/>
-      <c r="W26" s="165"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
@@ -2882,166 +2960,166 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="171" t="s">
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="118">
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="139">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="119"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="119"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="119"/>
-      <c r="Q27" s="119"/>
-      <c r="R27" s="119"/>
-      <c r="S27" s="119"/>
-      <c r="T27" s="119"/>
-      <c r="U27" s="119"/>
-      <c r="V27" s="119"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="142" t="s">
+      <c r="L27" s="140"/>
+      <c r="M27" s="140"/>
+      <c r="N27" s="140"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="140"/>
+      <c r="Q27" s="140"/>
+      <c r="R27" s="140"/>
+      <c r="S27" s="140"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="140"/>
+      <c r="V27" s="140"/>
+      <c r="W27" s="141"/>
+      <c r="X27" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="143"/>
-      <c r="Z27" s="143"/>
-      <c r="AA27" s="148">
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="86">
         <v>1800</v>
       </c>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="94">
+      <c r="AE27" s="135">
         <v>0</v>
       </c>
-      <c r="AF27" s="94"/>
+      <c r="AF27" s="135"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="166" t="s">
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100" t="s">
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="159">
+      <c r="I28" s="101"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="87">
         <v>29.33</v>
       </c>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="160"/>
-      <c r="Q28" s="160"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="161"/>
-      <c r="X28" s="142" t="s">
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="129" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="143"/>
-      <c r="Z28" s="143"/>
-      <c r="AA28" s="148">
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="86">
         <v>1800</v>
       </c>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="149" t="s">
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="94">
+      <c r="AE28" s="135">
         <f>K28*AA28</f>
         <v>52794</v>
       </c>
-      <c r="AF28" s="94"/>
+      <c r="AF28" s="135"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="104" t="s">
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="105"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="105" t="s">
+      <c r="H29" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="105"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="163"/>
-      <c r="M29" s="163"/>
-      <c r="N29" s="163"/>
-      <c r="O29" s="163"/>
-      <c r="P29" s="163"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="164"/>
-      <c r="X29" s="142"/>
-      <c r="Y29" s="143"/>
-      <c r="Z29" s="143"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="149"/>
-      <c r="AE29" s="94"/>
-      <c r="AF29" s="94"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="129"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="135"/>
+      <c r="AF29" s="135"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="114"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="125" t="s">
+      <c r="B30" s="145"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="81">
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="106">
         <v>0.05</v>
       </c>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="83"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="108"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3051,11 +3129,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="144">
+      <c r="AE30" s="130">
         <f>AE28*K30</f>
         <v>2639.7000000000003</v>
       </c>
-      <c r="AF30" s="145"/>
+      <c r="AF30" s="131"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3090,91 +3168,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="107">
+      <c r="AE31" s="137">
         <f>AE28+AE30</f>
         <v>55433.7</v>
       </c>
-      <c r="AF31" s="107"/>
+      <c r="AF31" s="137"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="84" t="s">
+      <c r="C32" s="97"/>
+      <c r="D32" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="80"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="85">
+      <c r="L32" s="112">
         <v>44946</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="86" t="s">
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="86" t="s">
+      <c r="Q32" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="80"/>
-      <c r="S32" s="85">
+      <c r="R32" s="76"/>
+      <c r="S32" s="112">
         <v>44977</v>
       </c>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="80"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="157"/>
-      <c r="AB32" s="157"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="150"/>
-      <c r="AF32" s="75"/>
+      <c r="AE32" s="138"/>
+      <c r="AF32" s="79"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="84" t="s">
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="88">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="89"/>
-      <c r="M33" s="89"/>
-      <c r="N33" s="89"/>
-      <c r="O33" s="90"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="91">
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="90"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="97"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3182,85 +3260,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="174"/>
-      <c r="AF33" s="75"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="79"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="106" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="126">
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79"/>
-      <c r="S34" s="79"/>
-      <c r="T34" s="79"/>
-      <c r="U34" s="79"/>
-      <c r="V34" s="79"/>
-      <c r="W34" s="80"/>
-      <c r="X34" s="143" t="s">
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="110">
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="167">
         <v>1800</v>
       </c>
-      <c r="AB34" s="110"/>
-      <c r="AC34" s="110"/>
+      <c r="AB34" s="167"/>
+      <c r="AC34" s="167"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="74">
+      <c r="AE34" s="82">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="75"/>
+      <c r="AF34" s="79"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="98"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="84" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="126">
-        <v>1800</v>
-      </c>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79"/>
-      <c r="S35" s="79"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="80"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77">
+        <v>47510</v>
+      </c>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="76"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3270,40 +3348,40 @@
       <c r="AD35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE35" s="94">
+      <c r="AE35" s="135">
         <f>K35</f>
-        <v>1800</v>
-      </c>
-      <c r="AF35" s="75"/>
+        <v>47510</v>
+      </c>
+      <c r="AF35" s="79"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="98"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="81">
-        <v>0.03</v>
-      </c>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
-      <c r="S36" s="82"/>
-      <c r="T36" s="82"/>
-      <c r="U36" s="82"/>
-      <c r="V36" s="82"/>
-      <c r="W36" s="83"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77">
+        <v>11000</v>
+      </c>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="76"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -3313,38 +3391,38 @@
       <c r="AD36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE36" s="138">
-        <f>K36*(AE35+AE34)</f>
-        <v>54</v>
-      </c>
-      <c r="AF36" s="139"/>
+      <c r="AE36" s="80">
+        <f>K36</f>
+        <v>11000</v>
+      </c>
+      <c r="AF36" s="81"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="98"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="168" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="169"/>
-      <c r="O37" s="169"/>
-      <c r="P37" s="169"/>
-      <c r="Q37" s="169"/>
-      <c r="R37" s="169"/>
-      <c r="S37" s="169"/>
-      <c r="T37" s="169"/>
-      <c r="U37" s="169"/>
-      <c r="V37" s="169"/>
-      <c r="W37" s="170"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="111"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
@@ -3354,48 +3432,48 @@
       <c r="AD37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE37" s="74">
+      <c r="AE37" s="82">
         <f>AE34+AE35+AE36</f>
-        <v>1854</v>
-      </c>
-      <c r="AF37" s="75"/>
+        <v>58510</v>
+      </c>
+      <c r="AF37" s="79"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="98"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="84" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="80"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="85">
+      <c r="L38" s="112">
         <v>44947</v>
       </c>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="86" t="s">
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="86" t="s">
+      <c r="Q38" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="80"/>
-      <c r="S38" s="85">
+      <c r="R38" s="76"/>
+      <c r="S38" s="112">
         <v>44993</v>
       </c>
-      <c r="T38" s="79"/>
-      <c r="U38" s="79"/>
-      <c r="V38" s="79"/>
-      <c r="W38" s="80"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="76"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3407,35 +3485,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="98"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="84" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="88">
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="90"/>
-      <c r="P39" s="87"/>
-      <c r="Q39" s="91">
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-      <c r="T39" s="89"/>
-      <c r="U39" s="89"/>
-      <c r="V39" s="89"/>
-      <c r="W39" s="90"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="97"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3447,81 +3525,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="98"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="106" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="126">
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-      <c r="Q40" s="79"/>
-      <c r="R40" s="79"/>
-      <c r="S40" s="79"/>
-      <c r="T40" s="79"/>
-      <c r="U40" s="79"/>
-      <c r="V40" s="79"/>
-      <c r="W40" s="80"/>
-      <c r="X40" s="143" t="s">
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="110">
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="167">
         <v>1800</v>
       </c>
-      <c r="AB40" s="110"/>
-      <c r="AC40" s="110"/>
+      <c r="AB40" s="167"/>
+      <c r="AC40" s="167"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="74">
+      <c r="AE40" s="82">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="75"/>
+      <c r="AF40" s="79"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="98"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="84" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="126">
-        <v>1800</v>
-      </c>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="80"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="77">
+        <v>47510</v>
+      </c>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="76"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3531,40 +3609,40 @@
       <c r="AD41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" s="94">
+      <c r="AE41" s="135">
         <f>K41</f>
-        <v>1800</v>
-      </c>
-      <c r="AF41" s="75"/>
+        <v>47510</v>
+      </c>
+      <c r="AF41" s="79"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="99"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="117"/>
-      <c r="D42" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="81">
-        <v>0.03</v>
-      </c>
-      <c r="L42" s="82"/>
-      <c r="M42" s="82"/>
-      <c r="N42" s="82"/>
-      <c r="O42" s="82"/>
-      <c r="P42" s="82"/>
-      <c r="Q42" s="82"/>
-      <c r="R42" s="82"/>
-      <c r="S42" s="82"/>
-      <c r="T42" s="82"/>
-      <c r="U42" s="82"/>
-      <c r="V42" s="82"/>
-      <c r="W42" s="83"/>
+      <c r="A42" s="85"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="163" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="77">
+        <v>11000</v>
+      </c>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="76"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3574,14 +3652,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="138">
-        <f>K42*(AE41+AE40)</f>
-        <v>54</v>
-      </c>
-      <c r="AF42" s="139"/>
+      <c r="AE42" s="80">
+        <f>K42</f>
+        <v>11000</v>
+      </c>
+      <c r="AF42" s="81"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="99"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3613,14 +3691,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="74">
+      <c r="AE43" s="82">
         <f>AE40+AE41+AE42</f>
-        <v>1854</v>
-      </c>
-      <c r="AF43" s="75"/>
+        <v>58510</v>
+      </c>
+      <c r="AF43" s="79"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="99"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3654,7 +3732,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="99"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3673,28 +3751,28 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="93" t="s">
+      <c r="T45" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="75"/>
-      <c r="V45" s="75"/>
-      <c r="W45" s="75"/>
-      <c r="X45" s="75"/>
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="75"/>
-      <c r="AA45" s="75"/>
-      <c r="AB45" s="75"/>
+      <c r="U45" s="79"/>
+      <c r="V45" s="79"/>
+      <c r="W45" s="79"/>
+      <c r="X45" s="79"/>
+      <c r="Y45" s="79"/>
+      <c r="Z45" s="79"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="79"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE45" s="94">
+      <c r="AE45" s="135">
         <v>0</v>
       </c>
-      <c r="AF45" s="95"/>
+      <c r="AF45" s="166"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="99"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="41"/>
@@ -3713,25 +3791,25 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
-      <c r="T46" s="93" t="s">
+      <c r="T46" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="U46" s="75"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
       <c r="AC46" s="18"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE46" s="94">
-        <v>1800</v>
-      </c>
-      <c r="AF46" s="95"/>
+      <c r="AE46" s="135">
+        <v>10000</v>
+      </c>
+      <c r="AF46" s="166"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3753,26 +3831,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="109" t="s">
+      <c r="T47" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="U47" s="75"/>
-      <c r="V47" s="75"/>
-      <c r="W47" s="75"/>
-      <c r="X47" s="75"/>
-      <c r="Y47" s="75"/>
-      <c r="Z47" s="75"/>
-      <c r="AA47" s="75"/>
-      <c r="AB47" s="75"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="79"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="107">
+      <c r="AE47" s="137">
         <f>AE23+AE31+AE37+AE43+AE45+AE46</f>
-        <v>227261.7</v>
-      </c>
-      <c r="AF47" s="107"/>
+        <v>348773.7</v>
+      </c>
+      <c r="AF47" s="137"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3844,41 +3922,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="102"/>
-      <c r="D50" s="102"/>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="103" t="s">
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="103"/>
-      <c r="K50" s="103"/>
-      <c r="L50" s="103"/>
-      <c r="M50" s="103"/>
-      <c r="N50" s="103"/>
-      <c r="O50" s="103"/>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="103"/>
-      <c r="R50" s="103"/>
-      <c r="S50" s="103"/>
-      <c r="T50" s="103"/>
-      <c r="U50" s="103"/>
-      <c r="V50" s="103"/>
-      <c r="W50" s="103"/>
-      <c r="X50" s="103"/>
-      <c r="Y50" s="103"/>
-      <c r="Z50" s="103"/>
-      <c r="AA50" s="103"/>
-      <c r="AB50" s="103"/>
-      <c r="AC50" s="103"/>
-      <c r="AD50" s="103"/>
-      <c r="AE50" s="103"/>
-      <c r="AF50" s="103"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="160"/>
+      <c r="P50" s="160"/>
+      <c r="Q50" s="160"/>
+      <c r="R50" s="160"/>
+      <c r="S50" s="160"/>
+      <c r="T50" s="160"/>
+      <c r="U50" s="160"/>
+      <c r="V50" s="160"/>
+      <c r="W50" s="160"/>
+      <c r="X50" s="160"/>
+      <c r="Y50" s="160"/>
+      <c r="Z50" s="160"/>
+      <c r="AA50" s="160"/>
+      <c r="AB50" s="160"/>
+      <c r="AC50" s="160"/>
+      <c r="AD50" s="160"/>
+      <c r="AE50" s="160"/>
+      <c r="AF50" s="160"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4010,108 +4088,108 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="96" t="s">
+      <c r="AB54" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="AC54" s="96"/>
-      <c r="AD54" s="96"/>
-      <c r="AE54" s="96"/>
-      <c r="AF54" s="96"/>
+      <c r="AC54" s="152"/>
+      <c r="AD54" s="152"/>
+      <c r="AE54" s="152"/>
+      <c r="AF54" s="152"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="92"/>
-      <c r="G55" s="92"/>
-      <c r="H55" s="92"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="92"/>
-      <c r="K55" s="92"/>
-      <c r="L55" s="92"/>
-      <c r="M55" s="92"/>
-      <c r="N55" s="92"/>
-      <c r="O55" s="92"/>
-      <c r="P55" s="92"/>
-      <c r="Q55" s="92"/>
-      <c r="R55" s="92"/>
-      <c r="S55" s="92"/>
-      <c r="T55" s="92"/>
-      <c r="U55" s="92"/>
-      <c r="V55" s="92"/>
-      <c r="W55" s="92"/>
+      <c r="B55" s="173" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="173"/>
+      <c r="L55" s="173"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="173"/>
+      <c r="O55" s="173"/>
+      <c r="P55" s="173"/>
+      <c r="Q55" s="173"/>
+      <c r="R55" s="173"/>
+      <c r="S55" s="173"/>
+      <c r="T55" s="173"/>
+      <c r="U55" s="173"/>
+      <c r="V55" s="173"/>
+      <c r="W55" s="173"/>
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="96"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="96"/>
-      <c r="AE55" s="96"/>
-      <c r="AF55" s="96"/>
+      <c r="AB55" s="152"/>
+      <c r="AC55" s="152"/>
+      <c r="AD55" s="152"/>
+      <c r="AE55" s="152"/>
+      <c r="AF55" s="152"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="92"/>
-      <c r="D56" s="92"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="92"/>
-      <c r="O56" s="92"/>
-      <c r="P56" s="92"/>
-      <c r="Q56" s="92"/>
-      <c r="R56" s="92"/>
-      <c r="S56" s="92"/>
-      <c r="T56" s="92"/>
-      <c r="U56" s="92"/>
-      <c r="V56" s="92"/>
-      <c r="W56" s="92"/>
+      <c r="B56" s="173"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="173"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="173"/>
+      <c r="P56" s="173"/>
+      <c r="Q56" s="173"/>
+      <c r="R56" s="173"/>
+      <c r="S56" s="173"/>
+      <c r="T56" s="173"/>
+      <c r="U56" s="173"/>
+      <c r="V56" s="173"/>
+      <c r="W56" s="173"/>
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="96"/>
-      <c r="AC56" s="96"/>
-      <c r="AD56" s="96"/>
-      <c r="AE56" s="96"/>
-      <c r="AF56" s="96"/>
+      <c r="AB56" s="152"/>
+      <c r="AC56" s="152"/>
+      <c r="AD56" s="152"/>
+      <c r="AE56" s="152"/>
+      <c r="AF56" s="152"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="92"/>
-      <c r="N57" s="92"/>
-      <c r="O57" s="92"/>
-      <c r="P57" s="92"/>
-      <c r="Q57" s="92"/>
-      <c r="R57" s="92"/>
-      <c r="S57" s="92"/>
-      <c r="T57" s="92"/>
-      <c r="U57" s="92"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="92"/>
+      <c r="B57" s="173"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="173"/>
+      <c r="F57" s="173"/>
+      <c r="G57" s="173"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
+      <c r="O57" s="173"/>
+      <c r="P57" s="173"/>
+      <c r="Q57" s="173"/>
+      <c r="R57" s="173"/>
+      <c r="S57" s="173"/>
+      <c r="T57" s="173"/>
+      <c r="U57" s="173"/>
+      <c r="V57" s="173"/>
+      <c r="W57" s="173"/>
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
@@ -4124,28 +4202,28 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="92"/>
-      <c r="D58" s="92"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="92"/>
-      <c r="Q58" s="92"/>
-      <c r="R58" s="92"/>
-      <c r="S58" s="92"/>
-      <c r="T58" s="92"/>
-      <c r="U58" s="92"/>
-      <c r="V58" s="92"/>
-      <c r="W58" s="92"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="173"/>
+      <c r="F58" s="173"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="173"/>
+      <c r="J58" s="173"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
+      <c r="N58" s="173"/>
+      <c r="O58" s="173"/>
+      <c r="P58" s="173"/>
+      <c r="Q58" s="173"/>
+      <c r="R58" s="173"/>
+      <c r="S58" s="173"/>
+      <c r="T58" s="173"/>
+      <c r="U58" s="173"/>
+      <c r="V58" s="173"/>
+      <c r="W58" s="173"/>
       <c r="X58" s="49"/>
       <c r="Y58" s="49"/>
       <c r="Z58" s="49"/>
@@ -4158,28 +4236,28 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="92"/>
-      <c r="D59" s="92"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="92"/>
-      <c r="Q59" s="92"/>
-      <c r="R59" s="92"/>
-      <c r="S59" s="92"/>
-      <c r="T59" s="92"/>
-      <c r="U59" s="92"/>
-      <c r="V59" s="92"/>
-      <c r="W59" s="92"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
+      <c r="F59" s="173"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="173"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="173"/>
+      <c r="P59" s="173"/>
+      <c r="Q59" s="173"/>
+      <c r="R59" s="173"/>
+      <c r="S59" s="173"/>
+      <c r="T59" s="173"/>
+      <c r="U59" s="173"/>
+      <c r="V59" s="173"/>
+      <c r="W59" s="173"/>
       <c r="X59" s="49"/>
       <c r="Y59" s="49"/>
       <c r="Z59" s="49"/>
@@ -4192,28 +4270,28 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="92"/>
-      <c r="D60" s="92"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="92"/>
-      <c r="G60" s="92"/>
-      <c r="H60" s="92"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="92"/>
-      <c r="K60" s="92"/>
-      <c r="L60" s="92"/>
-      <c r="M60" s="92"/>
-      <c r="N60" s="92"/>
-      <c r="O60" s="92"/>
-      <c r="P60" s="92"/>
-      <c r="Q60" s="92"/>
-      <c r="R60" s="92"/>
-      <c r="S60" s="92"/>
-      <c r="T60" s="92"/>
-      <c r="U60" s="92"/>
-      <c r="V60" s="92"/>
-      <c r="W60" s="92"/>
+      <c r="B60" s="173"/>
+      <c r="C60" s="173"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="173"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="173"/>
+      <c r="I60" s="173"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="173"/>
+      <c r="P60" s="173"/>
+      <c r="Q60" s="173"/>
+      <c r="R60" s="173"/>
+      <c r="S60" s="173"/>
+      <c r="T60" s="173"/>
+      <c r="U60" s="173"/>
+      <c r="V60" s="173"/>
+      <c r="W60" s="173"/>
       <c r="X60" s="49"/>
       <c r="Y60" s="49"/>
       <c r="Z60" s="49"/>
@@ -4226,39 +4304,39 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
-      <c r="H61" s="92"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="92"/>
-      <c r="K61" s="92"/>
-      <c r="L61" s="92"/>
-      <c r="M61" s="92"/>
-      <c r="N61" s="92"/>
-      <c r="O61" s="92"/>
-      <c r="P61" s="92"/>
-      <c r="Q61" s="92"/>
-      <c r="R61" s="92"/>
-      <c r="S61" s="92"/>
-      <c r="T61" s="92"/>
-      <c r="U61" s="92"/>
-      <c r="V61" s="92"/>
-      <c r="W61" s="92"/>
+      <c r="B61" s="173"/>
+      <c r="C61" s="173"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
+      <c r="I61" s="173"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="173"/>
+      <c r="P61" s="173"/>
+      <c r="Q61" s="173"/>
+      <c r="R61" s="173"/>
+      <c r="S61" s="173"/>
+      <c r="T61" s="173"/>
+      <c r="U61" s="173"/>
+      <c r="V61" s="173"/>
+      <c r="W61" s="173"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="97" t="s">
+      <c r="AB61" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="AC61" s="97"/>
-      <c r="AD61" s="97"/>
-      <c r="AE61" s="97"/>
-      <c r="AF61" s="97"/>
+      <c r="AC61" s="174"/>
+      <c r="AD61" s="174"/>
+      <c r="AE61" s="174"/>
+      <c r="AF61" s="174"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4330,10 +4408,12 @@
     </row>
     <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
+      <c r="B64" s="245" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="245"/>
+      <c r="D64" s="245"/>
+      <c r="E64" s="245"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -4362,130 +4442,413 @@
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
     </row>
-    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
-    </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="246" t="s">
+        <v>62</v>
+      </c>
+      <c r="C65" s="246"/>
+      <c r="D65" s="246" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="246"/>
+      <c r="F65" s="246"/>
+      <c r="G65" s="246"/>
+      <c r="H65" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="I65" s="246"/>
+      <c r="J65" s="246"/>
+      <c r="K65" s="246"/>
+      <c r="L65" s="246"/>
+      <c r="M65" s="246"/>
+      <c r="N65" s="246"/>
+      <c r="O65" s="246" t="s">
+        <v>65</v>
+      </c>
+      <c r="P65" s="246"/>
+      <c r="Q65" s="246"/>
+      <c r="R65" s="246"/>
+      <c r="S65" s="246"/>
+      <c r="T65" s="246"/>
+      <c r="U65" s="246"/>
+      <c r="V65" s="246"/>
+      <c r="W65" s="246"/>
+    </row>
+    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="247" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="247"/>
+      <c r="D66" s="248" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="248"/>
+      <c r="F66" s="248"/>
+      <c r="G66" s="248"/>
+      <c r="H66" s="248" t="s">
+        <v>68</v>
+      </c>
+      <c r="I66" s="248"/>
+      <c r="J66" s="248"/>
+      <c r="K66" s="248"/>
+      <c r="L66" s="248"/>
+      <c r="M66" s="248"/>
+      <c r="N66" s="248"/>
+      <c r="O66" s="248" t="s">
+        <v>69</v>
+      </c>
+      <c r="P66" s="248"/>
+      <c r="Q66" s="248"/>
+      <c r="R66" s="248"/>
+      <c r="S66" s="248"/>
+      <c r="T66" s="248"/>
+      <c r="U66" s="248"/>
+      <c r="V66" s="248"/>
+      <c r="W66" s="248"/>
+    </row>
+    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="247" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="247"/>
+      <c r="D67" s="248" t="s">
+        <v>71</v>
+      </c>
+      <c r="E67" s="248"/>
+      <c r="F67" s="248"/>
+      <c r="G67" s="248"/>
+      <c r="H67" s="248" t="s">
+        <v>72</v>
+      </c>
+      <c r="I67" s="248"/>
+      <c r="J67" s="248"/>
+      <c r="K67" s="248"/>
+      <c r="L67" s="248"/>
+      <c r="M67" s="248"/>
+      <c r="N67" s="248"/>
+      <c r="O67" s="248" t="s">
+        <v>73</v>
+      </c>
+      <c r="P67" s="248"/>
+      <c r="Q67" s="248"/>
+      <c r="R67" s="248"/>
+      <c r="S67" s="248"/>
+      <c r="T67" s="248"/>
+      <c r="U67" s="248"/>
+      <c r="V67" s="248"/>
+      <c r="W67" s="248"/>
+    </row>
+    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="247"/>
+      <c r="D68" s="249" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" s="249"/>
+      <c r="F68" s="249"/>
+      <c r="G68" s="249"/>
+      <c r="H68" s="250" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" s="250"/>
+      <c r="J68" s="250"/>
+      <c r="K68" s="250"/>
+      <c r="L68" s="250"/>
+      <c r="M68" s="250"/>
+      <c r="N68" s="250"/>
+      <c r="O68" s="250" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" s="250"/>
+      <c r="Q68" s="250"/>
+      <c r="R68" s="250"/>
+      <c r="S68" s="250"/>
+      <c r="T68" s="250"/>
+      <c r="U68" s="250"/>
+      <c r="V68" s="250"/>
+      <c r="W68" s="250"/>
+    </row>
+    <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
+      <c r="B69" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="C69" s="251"/>
+      <c r="D69" s="251"/>
+      <c r="E69" s="251"/>
+      <c r="F69" s="251"/>
+      <c r="G69" s="251"/>
+      <c r="H69" s="251"/>
+      <c r="I69" s="251"/>
+      <c r="J69" s="251"/>
+      <c r="K69" s="251"/>
+      <c r="L69" s="251"/>
+      <c r="M69" s="251"/>
+      <c r="N69" s="251"/>
+      <c r="O69" s="251"/>
+      <c r="P69" s="251"/>
+      <c r="Q69" s="251"/>
+      <c r="R69" s="251"/>
+      <c r="S69" s="251"/>
+      <c r="T69" s="251"/>
+      <c r="U69" s="251"/>
+      <c r="V69" s="251"/>
+      <c r="W69" s="251"/>
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="76" t="s">
+      <c r="A76" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="76"/>
-      <c r="L76" s="76"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="76"/>
-      <c r="O76" s="76"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="76"/>
-      <c r="S76" s="76"/>
-      <c r="T76" s="76"/>
-      <c r="U76" s="76"/>
-      <c r="V76" s="76"/>
-      <c r="W76" s="76"/>
-      <c r="X76" s="76"/>
-      <c r="Y76" s="76"/>
-      <c r="Z76" s="76"/>
-      <c r="AA76" s="76"/>
-      <c r="AB76" s="76"/>
-      <c r="AC76" s="76"/>
-      <c r="AD76" s="76"/>
-      <c r="AE76" s="76"/>
-      <c r="AF76" s="76"/>
-      <c r="AG76" s="76"/>
+      <c r="B76" s="171"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="F76" s="171"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="171"/>
+      <c r="J76" s="171"/>
+      <c r="K76" s="171"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="171"/>
+      <c r="O76" s="171"/>
+      <c r="P76" s="171"/>
+      <c r="Q76" s="171"/>
+      <c r="R76" s="171"/>
+      <c r="S76" s="171"/>
+      <c r="T76" s="171"/>
+      <c r="U76" s="171"/>
+      <c r="V76" s="171"/>
+      <c r="W76" s="171"/>
+      <c r="X76" s="171"/>
+      <c r="Y76" s="171"/>
+      <c r="Z76" s="171"/>
+      <c r="AA76" s="171"/>
+      <c r="AB76" s="171"/>
+      <c r="AC76" s="171"/>
+      <c r="AD76" s="171"/>
+      <c r="AE76" s="171"/>
+      <c r="AF76" s="171"/>
+      <c r="AG76" s="171"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="77" t="s">
+      <c r="A77" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
-      <c r="M77" s="77"/>
-      <c r="N77" s="77"/>
-      <c r="O77" s="77"/>
-      <c r="P77" s="77"/>
-      <c r="Q77" s="77"/>
-      <c r="R77" s="77"/>
-      <c r="S77" s="77"/>
-      <c r="T77" s="77"/>
-      <c r="U77" s="77"/>
-      <c r="V77" s="77"/>
-      <c r="W77" s="77"/>
-      <c r="X77" s="77"/>
-      <c r="Y77" s="77"/>
-      <c r="Z77" s="77"/>
-      <c r="AA77" s="77"/>
-      <c r="AB77" s="77"/>
-      <c r="AC77" s="77"/>
-      <c r="AD77" s="77"/>
-      <c r="AE77" s="77"/>
-      <c r="AF77" s="77"/>
-      <c r="AG77" s="77"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="172"/>
+      <c r="G77" s="172"/>
+      <c r="H77" s="172"/>
+      <c r="I77" s="172"/>
+      <c r="J77" s="172"/>
+      <c r="K77" s="172"/>
+      <c r="L77" s="172"/>
+      <c r="M77" s="172"/>
+      <c r="N77" s="172"/>
+      <c r="O77" s="172"/>
+      <c r="P77" s="172"/>
+      <c r="Q77" s="172"/>
+      <c r="R77" s="172"/>
+      <c r="S77" s="172"/>
+      <c r="T77" s="172"/>
+      <c r="U77" s="172"/>
+      <c r="V77" s="172"/>
+      <c r="W77" s="172"/>
+      <c r="X77" s="172"/>
+      <c r="Y77" s="172"/>
+      <c r="Z77" s="172"/>
+      <c r="AA77" s="172"/>
+      <c r="AB77" s="172"/>
+      <c r="AC77" s="172"/>
+      <c r="AD77" s="172"/>
+      <c r="AE77" s="172"/>
+      <c r="AF77" s="172"/>
+      <c r="AG77" s="172"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="77" t="s">
+      <c r="A78" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
-      <c r="M78" s="77"/>
-      <c r="N78" s="77"/>
-      <c r="O78" s="77"/>
-      <c r="P78" s="77"/>
-      <c r="Q78" s="77"/>
-      <c r="R78" s="77"/>
-      <c r="S78" s="77"/>
-      <c r="T78" s="77"/>
-      <c r="U78" s="77"/>
-      <c r="V78" s="77"/>
-      <c r="W78" s="77"/>
-      <c r="X78" s="77"/>
-      <c r="Y78" s="77"/>
-      <c r="Z78" s="77"/>
-      <c r="AA78" s="77"/>
-      <c r="AB78" s="77"/>
-      <c r="AC78" s="77"/>
-      <c r="AD78" s="77"/>
-      <c r="AE78" s="77"/>
-      <c r="AF78" s="77"/>
-      <c r="AG78" s="77"/>
+      <c r="B78" s="172"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="172"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="172"/>
+      <c r="K78" s="172"/>
+      <c r="L78" s="172"/>
+      <c r="M78" s="172"/>
+      <c r="N78" s="172"/>
+      <c r="O78" s="172"/>
+      <c r="P78" s="172"/>
+      <c r="Q78" s="172"/>
+      <c r="R78" s="172"/>
+      <c r="S78" s="172"/>
+      <c r="T78" s="172"/>
+      <c r="U78" s="172"/>
+      <c r="V78" s="172"/>
+      <c r="W78" s="172"/>
+      <c r="X78" s="172"/>
+      <c r="Y78" s="172"/>
+      <c r="Z78" s="172"/>
+      <c r="AA78" s="172"/>
+      <c r="AB78" s="172"/>
+      <c r="AC78" s="172"/>
+      <c r="AD78" s="172"/>
+      <c r="AE78" s="172"/>
+      <c r="AF78" s="172"/>
+      <c r="AG78" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="161">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:N67"/>
+    <mergeCell ref="O67:W67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:N68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="B69:W69"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="O65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="A76:AG76"/>
+    <mergeCell ref="A77:AG77"/>
+    <mergeCell ref="A78:AG78"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:W36"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="B55:W61"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AB54:AF56"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="D37:W37"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:W40"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B32:C42"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C30"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="X28:Z29"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="K28:W29"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="K41:W41"/>
     <mergeCell ref="X40:Z40"/>
@@ -4510,125 +4873,6 @@
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="K18:W18"/>
     <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="X28:Z29"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AF29"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="K28:W29"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B32:C42"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C30"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="A76:AG76"/>
-    <mergeCell ref="A77:AG77"/>
-    <mergeCell ref="A78:AG78"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:W36"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="B55:W61"/>
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AB54:AF56"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="D37:W37"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:W40"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -4647,8 +4891,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:W44"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4686,163 +4930,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="122"/>
-      <c r="S2" s="122"/>
-      <c r="T2" s="122"/>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="122"/>
-      <c r="AC2" s="122"/>
-      <c r="AD2" s="122"/>
-      <c r="AE2" s="122"/>
-      <c r="AF2" s="122"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="122"/>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
-      <c r="V3" s="122"/>
-      <c r="W3" s="122"/>
-      <c r="X3" s="122"/>
-      <c r="Y3" s="122"/>
-      <c r="Z3" s="122"/>
-      <c r="AA3" s="122"/>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="122"/>
-      <c r="AD3" s="122"/>
-      <c r="AE3" s="122"/>
-      <c r="AF3" s="122"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="122"/>
-      <c r="AA4" s="122"/>
-      <c r="AB4" s="122"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
-      <c r="AF4" s="122"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="122"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="122"/>
-      <c r="I5" s="156" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="122"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="122"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="122"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="122"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="228" t="s">
+      <c r="AB5" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="155"/>
-      <c r="AD5" s="155"/>
-      <c r="AE5" s="155"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -4852,35 +5096,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="122"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="118"/>
+      <c r="Y6" s="116"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="146" t="s">
+      <c r="AB6" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="122"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -4908,13 +5152,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -4923,38 +5167,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="127" t="s">
+      <c r="Q8" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="223"/>
-      <c r="S8" s="223"/>
-      <c r="T8" s="223"/>
-      <c r="U8" s="223"/>
-      <c r="V8" s="223"/>
-      <c r="W8" s="223"/>
-      <c r="X8" s="225"/>
-      <c r="Y8" s="127" t="s">
+      <c r="R8" s="195"/>
+      <c r="S8" s="195"/>
+      <c r="T8" s="195"/>
+      <c r="U8" s="195"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="223"/>
-      <c r="AA8" s="223"/>
-      <c r="AB8" s="223"/>
-      <c r="AC8" s="225"/>
-      <c r="AD8" s="127" t="s">
+      <c r="Z8" s="195"/>
+      <c r="AA8" s="195"/>
+      <c r="AB8" s="195"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="223"/>
-      <c r="AF8" s="225"/>
+      <c r="AE8" s="195"/>
+      <c r="AF8" s="197"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -4963,22 +5207,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="226"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="224"/>
-      <c r="U9" s="224"/>
-      <c r="V9" s="224"/>
-      <c r="W9" s="224"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="226"/>
-      <c r="Z9" s="224"/>
-      <c r="AA9" s="224"/>
-      <c r="AB9" s="224"/>
-      <c r="AC9" s="227"/>
-      <c r="AD9" s="226"/>
-      <c r="AE9" s="224"/>
-      <c r="AF9" s="227"/>
+      <c r="Q9" s="198"/>
+      <c r="R9" s="196"/>
+      <c r="S9" s="196"/>
+      <c r="T9" s="196"/>
+      <c r="U9" s="196"/>
+      <c r="V9" s="196"/>
+      <c r="W9" s="196"/>
+      <c r="X9" s="199"/>
+      <c r="Y9" s="198"/>
+      <c r="Z9" s="196"/>
+      <c r="AA9" s="196"/>
+      <c r="AB9" s="196"/>
+      <c r="AC9" s="199"/>
+      <c r="AD9" s="198"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="199"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -4997,44 +5241,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="140">
+      <c r="Q10" s="156">
         <v>44986</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="129"/>
-      <c r="Y10" s="158">
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="121"/>
+      <c r="Y10" s="128">
         <v>0</v>
       </c>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="129"/>
-      <c r="AD10" s="133" t="s">
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="121"/>
+      <c r="AD10" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="128"/>
-      <c r="AF10" s="129"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="121"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5043,22 +5287,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="130"/>
-      <c r="R11" s="131"/>
-      <c r="S11" s="131"/>
-      <c r="T11" s="131"/>
-      <c r="U11" s="131"/>
-      <c r="V11" s="131"/>
-      <c r="W11" s="131"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="130"/>
-      <c r="Z11" s="131"/>
-      <c r="AA11" s="131"/>
-      <c r="AB11" s="131"/>
-      <c r="AC11" s="132"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="131"/>
-      <c r="AF11" s="132"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="123"/>
+      <c r="S11" s="123"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+      <c r="V11" s="123"/>
+      <c r="W11" s="123"/>
+      <c r="X11" s="124"/>
+      <c r="Y11" s="122"/>
+      <c r="Z11" s="123"/>
+      <c r="AA11" s="123"/>
+      <c r="AB11" s="123"/>
+      <c r="AC11" s="124"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="123"/>
+      <c r="AF11" s="124"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5096,75 +5340,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="223"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
-      <c r="L13" s="223"/>
-      <c r="M13" s="223"/>
-      <c r="N13" s="223"/>
-      <c r="O13" s="223"/>
-      <c r="P13" s="223"/>
-      <c r="Q13" s="223"/>
-      <c r="R13" s="223"/>
-      <c r="S13" s="223"/>
-      <c r="T13" s="223"/>
-      <c r="U13" s="223"/>
-      <c r="V13" s="223"/>
-      <c r="W13" s="223"/>
-      <c r="X13" s="223"/>
-      <c r="Y13" s="223"/>
-      <c r="Z13" s="223"/>
-      <c r="AA13" s="223"/>
-      <c r="AB13" s="223"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="195"/>
+      <c r="O13" s="195"/>
+      <c r="P13" s="195"/>
+      <c r="Q13" s="195"/>
+      <c r="R13" s="195"/>
+      <c r="S13" s="195"/>
+      <c r="T13" s="195"/>
+      <c r="U13" s="195"/>
+      <c r="V13" s="195"/>
+      <c r="W13" s="195"/>
+      <c r="X13" s="195"/>
+      <c r="Y13" s="195"/>
+      <c r="Z13" s="195"/>
+      <c r="AA13" s="195"/>
+      <c r="AB13" s="195"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="141" t="s">
+      <c r="AD13" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="223"/>
-      <c r="AF13" s="223"/>
+      <c r="AE13" s="195"/>
+      <c r="AF13" s="195"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="224"/>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
-      <c r="E14" s="224"/>
-      <c r="F14" s="224"/>
-      <c r="G14" s="224"/>
-      <c r="H14" s="224"/>
-      <c r="I14" s="224"/>
-      <c r="J14" s="224"/>
-      <c r="K14" s="224"/>
-      <c r="L14" s="224"/>
-      <c r="M14" s="224"/>
-      <c r="N14" s="224"/>
-      <c r="O14" s="224"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="224"/>
-      <c r="U14" s="224"/>
-      <c r="V14" s="224"/>
-      <c r="W14" s="224"/>
-      <c r="X14" s="224"/>
-      <c r="Y14" s="224"/>
-      <c r="Z14" s="224"/>
-      <c r="AA14" s="224"/>
-      <c r="AB14" s="224"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="196"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="196"/>
+      <c r="R14" s="196"/>
+      <c r="S14" s="196"/>
+      <c r="T14" s="196"/>
+      <c r="U14" s="196"/>
+      <c r="V14" s="196"/>
+      <c r="W14" s="196"/>
+      <c r="X14" s="196"/>
+      <c r="Y14" s="196"/>
+      <c r="Z14" s="196"/>
+      <c r="AA14" s="196"/>
+      <c r="AB14" s="196"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="224"/>
-      <c r="AE14" s="224"/>
-      <c r="AF14" s="224"/>
+      <c r="AD14" s="196"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="196"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5201,173 +5445,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="98"/>
-      <c r="B16" s="123" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="221" t="s">
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="224" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="219"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="220"/>
-      <c r="K16" s="229" t="s">
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="183"/>
+      <c r="K16" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="219"/>
-      <c r="M16" s="219"/>
-      <c r="N16" s="219"/>
-      <c r="O16" s="219"/>
-      <c r="P16" s="219"/>
-      <c r="Q16" s="219"/>
-      <c r="R16" s="219"/>
-      <c r="S16" s="219"/>
-      <c r="T16" s="219"/>
-      <c r="U16" s="219"/>
-      <c r="V16" s="219"/>
-      <c r="W16" s="219"/>
-      <c r="X16" s="219"/>
-      <c r="Y16" s="219"/>
-      <c r="Z16" s="219"/>
-      <c r="AA16" s="219"/>
-      <c r="AB16" s="220"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="182"/>
+      <c r="O16" s="182"/>
+      <c r="P16" s="182"/>
+      <c r="Q16" s="182"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="182"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="182"/>
+      <c r="V16" s="182"/>
+      <c r="W16" s="182"/>
+      <c r="X16" s="182"/>
+      <c r="Y16" s="182"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="183"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="186"/>
+      <c r="AE16" s="125"/>
+      <c r="AF16" s="175"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="98"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="197"/>
-      <c r="D17" s="197"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="207" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="202"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
-      <c r="J17" s="209"/>
-      <c r="K17" s="177" t="s">
+      <c r="G17" s="211"/>
+      <c r="H17" s="211"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="178"/>
-      <c r="O17" s="178"/>
-      <c r="P17" s="178"/>
-      <c r="Q17" s="178"/>
-      <c r="R17" s="241" t="s">
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="217"/>
+      <c r="Q17" s="217"/>
+      <c r="R17" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="179" t="s">
+      <c r="S17" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="179"/>
-      <c r="U17" s="179"/>
-      <c r="V17" s="179"/>
-      <c r="W17" s="179"/>
-      <c r="X17" s="179"/>
-      <c r="Y17" s="179"/>
-      <c r="Z17" s="179"/>
-      <c r="AA17" s="179"/>
-      <c r="AB17" s="180"/>
+      <c r="T17" s="218"/>
+      <c r="U17" s="218"/>
+      <c r="V17" s="218"/>
+      <c r="W17" s="218"/>
+      <c r="X17" s="218"/>
+      <c r="Y17" s="218"/>
+      <c r="Z17" s="218"/>
+      <c r="AA17" s="218"/>
+      <c r="AB17" s="219"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="149" t="s">
+      <c r="AD17" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="242">
+      <c r="AE17" s="179">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="242"/>
+      <c r="AF17" s="179"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="122"/>
-      <c r="B18" s="199"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="198"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="211"/>
-      <c r="H18" s="211"/>
-      <c r="I18" s="211"/>
-      <c r="J18" s="212"/>
-      <c r="K18" s="88">
+      <c r="A18" s="116"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="95">
         <v>16000</v>
       </c>
-      <c r="L18" s="194"/>
-      <c r="M18" s="194"/>
-      <c r="N18" s="194"/>
-      <c r="O18" s="194"/>
-      <c r="P18" s="194"/>
-      <c r="Q18" s="194"/>
-      <c r="R18" s="241"/>
-      <c r="S18" s="161">
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="178"/>
+      <c r="S18" s="89">
         <v>68.69</v>
       </c>
-      <c r="T18" s="194"/>
-      <c r="U18" s="194"/>
-      <c r="V18" s="194"/>
-      <c r="W18" s="194"/>
-      <c r="X18" s="194"/>
-      <c r="Y18" s="194"/>
-      <c r="Z18" s="194"/>
-      <c r="AA18" s="194"/>
-      <c r="AB18" s="195"/>
+      <c r="T18" s="177"/>
+      <c r="U18" s="177"/>
+      <c r="V18" s="177"/>
+      <c r="W18" s="177"/>
+      <c r="X18" s="177"/>
+      <c r="Y18" s="177"/>
+      <c r="Z18" s="177"/>
+      <c r="AA18" s="177"/>
+      <c r="AB18" s="200"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="149"/>
-      <c r="AE18" s="242"/>
-      <c r="AF18" s="242"/>
+      <c r="AD18" s="136"/>
+      <c r="AE18" s="179"/>
+      <c r="AF18" s="179"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="200"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="176"/>
-      <c r="E19" s="201"/>
-      <c r="F19" s="137" t="s">
+      <c r="B19" s="205"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="206"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="215"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="215"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="202">
+      <c r="G19" s="187"/>
+      <c r="H19" s="187"/>
+      <c r="I19" s="187"/>
+      <c r="J19" s="189"/>
+      <c r="K19" s="190">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="203"/>
-      <c r="S19" s="203"/>
-      <c r="T19" s="203"/>
-      <c r="U19" s="203"/>
-      <c r="V19" s="203"/>
-      <c r="W19" s="203"/>
-      <c r="X19" s="203"/>
-      <c r="Y19" s="203"/>
-      <c r="Z19" s="203"/>
-      <c r="AA19" s="203"/>
-      <c r="AB19" s="204"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="191"/>
+      <c r="N19" s="191"/>
+      <c r="O19" s="191"/>
+      <c r="P19" s="191"/>
+      <c r="Q19" s="191"/>
+      <c r="R19" s="191"/>
+      <c r="S19" s="191"/>
+      <c r="T19" s="191"/>
+      <c r="U19" s="191"/>
+      <c r="V19" s="191"/>
+      <c r="W19" s="191"/>
+      <c r="X19" s="191"/>
+      <c r="Y19" s="191"/>
+      <c r="Z19" s="191"/>
+      <c r="AA19" s="191"/>
+      <c r="AB19" s="192"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="185">
+      <c r="AE19" s="193">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="222"/>
+      <c r="AF19" s="194"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5375,24 +5619,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="206"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="186"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="244"/>
-      <c r="L20" s="186"/>
-      <c r="M20" s="186"/>
-      <c r="N20" s="186"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="186"/>
-      <c r="Q20" s="243"/>
-      <c r="R20" s="186"/>
-      <c r="S20" s="186"/>
-      <c r="T20" s="186"/>
-      <c r="U20" s="186"/>
-      <c r="V20" s="186"/>
-      <c r="W20" s="186"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="180"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5402,207 +5646,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="240">
+      <c r="AE20" s="176">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="194"/>
+      <c r="AF20" s="177"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="194"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="218" t="s">
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="223" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="219"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="219"/>
-      <c r="J21" s="220"/>
-      <c r="K21" s="229" t="s">
+      <c r="G21" s="182"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="182"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="219"/>
-      <c r="M21" s="219"/>
-      <c r="N21" s="219"/>
-      <c r="O21" s="219"/>
-      <c r="P21" s="219"/>
-      <c r="Q21" s="219"/>
-      <c r="R21" s="219"/>
-      <c r="S21" s="219"/>
-      <c r="T21" s="219"/>
-      <c r="U21" s="219"/>
-      <c r="V21" s="219"/>
-      <c r="W21" s="219"/>
-      <c r="X21" s="219"/>
-      <c r="Y21" s="219"/>
-      <c r="Z21" s="219"/>
-      <c r="AA21" s="219"/>
-      <c r="AB21" s="220"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="182"/>
+      <c r="O21" s="182"/>
+      <c r="P21" s="182"/>
+      <c r="Q21" s="182"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="182"/>
+      <c r="T21" s="182"/>
+      <c r="U21" s="182"/>
+      <c r="V21" s="182"/>
+      <c r="W21" s="182"/>
+      <c r="X21" s="182"/>
+      <c r="Y21" s="182"/>
+      <c r="Z21" s="182"/>
+      <c r="AA21" s="182"/>
+      <c r="AB21" s="183"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="150"/>
-      <c r="AF21" s="186"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="175"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="232" t="s">
+      <c r="B22" s="201"/>
+      <c r="C22" s="202"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="237" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="233"/>
-      <c r="H22" s="233"/>
-      <c r="I22" s="233"/>
-      <c r="J22" s="234"/>
-      <c r="K22" s="177" t="s">
+      <c r="G22" s="238"/>
+      <c r="H22" s="238"/>
+      <c r="I22" s="238"/>
+      <c r="J22" s="239"/>
+      <c r="K22" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="178"/>
-      <c r="Q22" s="178"/>
-      <c r="R22" s="238" t="s">
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="217"/>
+      <c r="R22" s="243" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="179" t="s">
+      <c r="S22" s="218" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="179"/>
-      <c r="U22" s="179"/>
-      <c r="V22" s="179"/>
-      <c r="W22" s="179"/>
-      <c r="X22" s="179"/>
-      <c r="Y22" s="179"/>
-      <c r="Z22" s="179"/>
-      <c r="AA22" s="179"/>
-      <c r="AB22" s="180"/>
+      <c r="T22" s="218"/>
+      <c r="U22" s="218"/>
+      <c r="V22" s="218"/>
+      <c r="W22" s="218"/>
+      <c r="X22" s="218"/>
+      <c r="Y22" s="218"/>
+      <c r="Z22" s="218"/>
+      <c r="AA22" s="218"/>
+      <c r="AB22" s="219"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="149" t="s">
+      <c r="AD22" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="74">
+      <c r="AE22" s="82">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="74"/>
+      <c r="AF22" s="82"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="199"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="235"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="236"/>
-      <c r="I23" s="236"/>
-      <c r="J23" s="237"/>
-      <c r="K23" s="230">
+      <c r="B23" s="204"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="203"/>
+      <c r="F23" s="240"/>
+      <c r="G23" s="241"/>
+      <c r="H23" s="241"/>
+      <c r="I23" s="241"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="186">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="215"/>
-      <c r="M23" s="215"/>
-      <c r="N23" s="215"/>
-      <c r="O23" s="215"/>
-      <c r="P23" s="215"/>
-      <c r="Q23" s="215"/>
-      <c r="R23" s="239"/>
-      <c r="S23" s="214">
+      <c r="L23" s="187"/>
+      <c r="M23" s="187"/>
+      <c r="N23" s="187"/>
+      <c r="O23" s="187"/>
+      <c r="P23" s="187"/>
+      <c r="Q23" s="187"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="221">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="215"/>
-      <c r="U23" s="215"/>
-      <c r="V23" s="215"/>
-      <c r="W23" s="215"/>
-      <c r="X23" s="215"/>
-      <c r="Y23" s="215"/>
-      <c r="Z23" s="215"/>
-      <c r="AA23" s="215"/>
-      <c r="AB23" s="216"/>
+      <c r="T23" s="187"/>
+      <c r="U23" s="187"/>
+      <c r="V23" s="187"/>
+      <c r="W23" s="187"/>
+      <c r="X23" s="187"/>
+      <c r="Y23" s="187"/>
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="187"/>
+      <c r="AB23" s="189"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="149"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="200"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
-      <c r="E24" s="201"/>
-      <c r="F24" s="231" t="s">
+      <c r="B24" s="205"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="215"/>
-      <c r="H24" s="215"/>
-      <c r="I24" s="215"/>
-      <c r="J24" s="216"/>
-      <c r="K24" s="202">
+      <c r="G24" s="187"/>
+      <c r="H24" s="187"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="189"/>
+      <c r="K24" s="190">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="203"/>
-      <c r="M24" s="203"/>
-      <c r="N24" s="203"/>
-      <c r="O24" s="203"/>
-      <c r="P24" s="203"/>
-      <c r="Q24" s="203"/>
-      <c r="R24" s="203"/>
-      <c r="S24" s="203"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="203"/>
-      <c r="V24" s="203"/>
-      <c r="W24" s="203"/>
-      <c r="X24" s="203"/>
-      <c r="Y24" s="203"/>
-      <c r="Z24" s="203"/>
-      <c r="AA24" s="203"/>
-      <c r="AB24" s="204"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="191"/>
+      <c r="N24" s="191"/>
+      <c r="O24" s="191"/>
+      <c r="P24" s="191"/>
+      <c r="Q24" s="191"/>
+      <c r="R24" s="191"/>
+      <c r="S24" s="191"/>
+      <c r="T24" s="191"/>
+      <c r="U24" s="191"/>
+      <c r="V24" s="191"/>
+      <c r="W24" s="191"/>
+      <c r="X24" s="191"/>
+      <c r="Y24" s="191"/>
+      <c r="Z24" s="191"/>
+      <c r="AA24" s="191"/>
+      <c r="AB24" s="192"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="138">
+      <c r="AE24" s="80">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="176"/>
+      <c r="AF24" s="206"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="98"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="176"/>
-      <c r="I25" s="176"/>
+      <c r="F25" s="208"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
-      <c r="M25" s="176"/>
-      <c r="N25" s="176"/>
-      <c r="O25" s="176"/>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="176"/>
-      <c r="U25" s="176"/>
-      <c r="V25" s="176"/>
-      <c r="W25" s="176"/>
+      <c r="K25" s="236"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
+      <c r="N25" s="206"/>
+      <c r="O25" s="206"/>
+      <c r="P25" s="206"/>
+      <c r="Q25" s="206"/>
+      <c r="R25" s="206"/>
+      <c r="S25" s="206"/>
+      <c r="T25" s="206"/>
+      <c r="U25" s="206"/>
+      <c r="V25" s="206"/>
+      <c r="W25" s="206"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5612,14 +5856,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="185">
+      <c r="AE25" s="193">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="176"/>
+      <c r="AF25" s="206"/>
     </row>
     <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5653,7 +5897,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="122"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5672,28 +5916,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="93" t="s">
+      <c r="T27" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="U27" s="186"/>
-      <c r="V27" s="186"/>
-      <c r="W27" s="186"/>
-      <c r="X27" s="186"/>
-      <c r="Y27" s="186"/>
-      <c r="Z27" s="186"/>
-      <c r="AA27" s="186"/>
-      <c r="AB27" s="186"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="175"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="181">
+      <c r="AE27" s="231">
         <v>10000</v>
       </c>
-      <c r="AF27" s="182"/>
+      <c r="AF27" s="232"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5712,28 +5956,28 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="93" t="s">
+      <c r="T28" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="187">
+      <c r="AE28" s="235">
         <v>0</v>
       </c>
-      <c r="AF28" s="182"/>
+      <c r="AF28" s="232"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="122"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5752,25 +5996,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="217" t="s">
+      <c r="T29" s="222" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="186"/>
-      <c r="V29" s="186"/>
-      <c r="W29" s="186"/>
-      <c r="X29" s="186"/>
-      <c r="Y29" s="186"/>
-      <c r="Z29" s="186"/>
-      <c r="AA29" s="186"/>
-      <c r="AB29" s="186"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="183">
+      <c r="AE29" s="233">
         <v>10000</v>
       </c>
-      <c r="AF29" s="184"/>
+      <c r="AF29" s="234"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -5792,26 +6036,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="109" t="s">
+      <c r="T30" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="186"/>
-      <c r="V30" s="186"/>
-      <c r="W30" s="186"/>
-      <c r="X30" s="186"/>
-      <c r="Y30" s="186"/>
-      <c r="Z30" s="186"/>
-      <c r="AA30" s="186"/>
-      <c r="AB30" s="186"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="175"/>
+      <c r="AA30" s="175"/>
+      <c r="AB30" s="175"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="74">
+      <c r="AE30" s="82">
         <f>AE20+AE25+AE27+AE29+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF30" s="186"/>
+      <c r="AF30" s="175"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -5883,41 +6127,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="192" t="s">
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
-      <c r="P33" s="192"/>
-      <c r="Q33" s="192"/>
-      <c r="R33" s="192"/>
-      <c r="S33" s="192"/>
-      <c r="T33" s="192"/>
-      <c r="U33" s="192"/>
-      <c r="V33" s="192"/>
-      <c r="W33" s="192"/>
-      <c r="X33" s="192"/>
-      <c r="Y33" s="192"/>
-      <c r="Z33" s="192"/>
-      <c r="AA33" s="192"/>
-      <c r="AB33" s="192"/>
-      <c r="AC33" s="192"/>
-      <c r="AD33" s="192"/>
-      <c r="AE33" s="192"/>
-      <c r="AF33" s="192"/>
+      <c r="H33" s="229"/>
+      <c r="I33" s="229"/>
+      <c r="J33" s="229"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="229"/>
+      <c r="M33" s="229"/>
+      <c r="N33" s="229"/>
+      <c r="O33" s="229"/>
+      <c r="P33" s="229"/>
+      <c r="Q33" s="229"/>
+      <c r="R33" s="229"/>
+      <c r="S33" s="229"/>
+      <c r="T33" s="229"/>
+      <c r="U33" s="229"/>
+      <c r="V33" s="229"/>
+      <c r="W33" s="229"/>
+      <c r="X33" s="229"/>
+      <c r="Y33" s="229"/>
+      <c r="Z33" s="229"/>
+      <c r="AA33" s="229"/>
+      <c r="AB33" s="229"/>
+      <c r="AC33" s="229"/>
+      <c r="AD33" s="229"/>
+      <c r="AE33" s="229"/>
+      <c r="AF33" s="229"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -6046,207 +6290,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="49"/>
-      <c r="AB37" s="193" t="s">
+      <c r="AB37" s="230" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="193"/>
-      <c r="AD37" s="193"/>
-      <c r="AE37" s="193"/>
-      <c r="AF37" s="193"/>
+      <c r="AC37" s="230"/>
+      <c r="AD37" s="230"/>
+      <c r="AE37" s="230"/>
+      <c r="AF37" s="230"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="92"/>
-      <c r="G38" s="92"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="92"/>
-      <c r="K38" s="92"/>
-      <c r="L38" s="92"/>
-      <c r="M38" s="92"/>
-      <c r="N38" s="92"/>
-      <c r="O38" s="92"/>
-      <c r="P38" s="92"/>
-      <c r="Q38" s="92"/>
-      <c r="R38" s="92"/>
-      <c r="S38" s="92"/>
-      <c r="T38" s="92"/>
-      <c r="U38" s="92"/>
-      <c r="V38" s="92"/>
-      <c r="W38" s="92"/>
-      <c r="AB38" s="193"/>
-      <c r="AC38" s="193"/>
-      <c r="AD38" s="193"/>
-      <c r="AE38" s="193"/>
-      <c r="AF38" s="193"/>
+      <c r="B38" s="173" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="173"/>
+      <c r="W38" s="173"/>
+      <c r="AB38" s="230"/>
+      <c r="AC38" s="230"/>
+      <c r="AD38" s="230"/>
+      <c r="AE38" s="230"/>
+      <c r="AF38" s="230"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="92"/>
-      <c r="Q39" s="92"/>
-      <c r="R39" s="92"/>
-      <c r="S39" s="92"/>
-      <c r="T39" s="92"/>
-      <c r="U39" s="92"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="AB39" s="193"/>
-      <c r="AC39" s="193"/>
-      <c r="AD39" s="193"/>
-      <c r="AE39" s="193"/>
-      <c r="AF39" s="193"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="173"/>
+      <c r="W39" s="173"/>
+      <c r="AB39" s="230"/>
+      <c r="AC39" s="230"/>
+      <c r="AD39" s="230"/>
+      <c r="AE39" s="230"/>
+      <c r="AF39" s="230"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="173"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="92"/>
-      <c r="H41" s="92"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="92"/>
-      <c r="Q41" s="92"/>
-      <c r="R41" s="92"/>
-      <c r="S41" s="92"/>
-      <c r="T41" s="92"/>
-      <c r="U41" s="92"/>
-      <c r="V41" s="92"/>
-      <c r="W41" s="92"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="92"/>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="92"/>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
-      <c r="W42" s="92"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="173"/>
+      <c r="S42" s="173"/>
+      <c r="T42" s="173"/>
+      <c r="U42" s="173"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="92"/>
-      <c r="R43" s="92"/>
-      <c r="S43" s="92"/>
-      <c r="T43" s="92"/>
-      <c r="U43" s="92"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="92"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="173"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="AB44" s="190" t="s">
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173"/>
+      <c r="Q44" s="173"/>
+      <c r="R44" s="173"/>
+      <c r="S44" s="173"/>
+      <c r="T44" s="173"/>
+      <c r="U44" s="173"/>
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="AB44" s="227" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="191"/>
-      <c r="AD44" s="191"/>
-      <c r="AE44" s="191"/>
-      <c r="AF44" s="191"/>
+      <c r="AC44" s="228"/>
+      <c r="AD44" s="228"/>
+      <c r="AE44" s="228"/>
+      <c r="AF44" s="228"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -6272,11 +6516,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="188"/>
-      <c r="AC45" s="189"/>
-      <c r="AD45" s="189"/>
-      <c r="AE45" s="189"/>
-      <c r="AF45" s="189"/>
+      <c r="AB45" s="225"/>
+      <c r="AC45" s="226"/>
+      <c r="AD45" s="226"/>
+      <c r="AE45" s="226"/>
+      <c r="AF45" s="226"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -6314,10 +6558,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="245" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="245"/>
+      <c r="D47" s="245"/>
+      <c r="E47" s="245"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -6348,28 +6594,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
+      <c r="B48" s="246" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="246"/>
+      <c r="D48" s="246" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="246"/>
+      <c r="F48" s="246"/>
+      <c r="G48" s="246"/>
+      <c r="H48" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" s="246"/>
+      <c r="J48" s="246"/>
+      <c r="K48" s="246"/>
+      <c r="L48" s="246"/>
+      <c r="M48" s="246"/>
+      <c r="N48" s="246"/>
+      <c r="O48" s="246" t="s">
+        <v>65</v>
+      </c>
+      <c r="P48" s="246"/>
+      <c r="Q48" s="246"/>
+      <c r="R48" s="246"/>
+      <c r="S48" s="246"/>
+      <c r="T48" s="246"/>
+      <c r="U48" s="246"/>
+      <c r="V48" s="246"/>
+      <c r="W48" s="246"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -6382,28 +6636,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
+      <c r="B49" s="247" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="247"/>
+      <c r="D49" s="248" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="248"/>
+      <c r="F49" s="248"/>
+      <c r="G49" s="248"/>
+      <c r="H49" s="248" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="248"/>
+      <c r="J49" s="248"/>
+      <c r="K49" s="248"/>
+      <c r="L49" s="248"/>
+      <c r="M49" s="248"/>
+      <c r="N49" s="248"/>
+      <c r="O49" s="248" t="s">
+        <v>69</v>
+      </c>
+      <c r="P49" s="248"/>
+      <c r="Q49" s="248"/>
+      <c r="R49" s="248"/>
+      <c r="S49" s="248"/>
+      <c r="T49" s="248"/>
+      <c r="U49" s="248"/>
+      <c r="V49" s="248"/>
+      <c r="W49" s="248"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6416,28 +6678,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
+      <c r="B50" s="247" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="247"/>
+      <c r="D50" s="248" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="248"/>
+      <c r="F50" s="248"/>
+      <c r="G50" s="248"/>
+      <c r="H50" s="248" t="s">
+        <v>72</v>
+      </c>
+      <c r="I50" s="248"/>
+      <c r="J50" s="248"/>
+      <c r="K50" s="248"/>
+      <c r="L50" s="248"/>
+      <c r="M50" s="248"/>
+      <c r="N50" s="248"/>
+      <c r="O50" s="248" t="s">
+        <v>73</v>
+      </c>
+      <c r="P50" s="248"/>
+      <c r="Q50" s="248"/>
+      <c r="R50" s="248"/>
+      <c r="S50" s="248"/>
+      <c r="T50" s="248"/>
+      <c r="U50" s="248"/>
+      <c r="V50" s="248"/>
+      <c r="W50" s="248"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6450,28 +6720,36 @@
     </row>
     <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
+      <c r="B51" s="247" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="247"/>
+      <c r="D51" s="249" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="249"/>
+      <c r="F51" s="249"/>
+      <c r="G51" s="249"/>
+      <c r="H51" s="250" t="s">
+        <v>76</v>
+      </c>
+      <c r="I51" s="250"/>
+      <c r="J51" s="250"/>
+      <c r="K51" s="250"/>
+      <c r="L51" s="250"/>
+      <c r="M51" s="250"/>
+      <c r="N51" s="250"/>
+      <c r="O51" s="250" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" s="250"/>
+      <c r="Q51" s="250"/>
+      <c r="R51" s="250"/>
+      <c r="S51" s="250"/>
+      <c r="T51" s="250"/>
+      <c r="U51" s="250"/>
+      <c r="V51" s="250"/>
+      <c r="W51" s="250"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6484,28 +6762,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
+      <c r="B52" s="251" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="251"/>
+      <c r="D52" s="251"/>
+      <c r="E52" s="251"/>
+      <c r="F52" s="251"/>
+      <c r="G52" s="251"/>
+      <c r="H52" s="251"/>
+      <c r="I52" s="251"/>
+      <c r="J52" s="251"/>
+      <c r="K52" s="251"/>
+      <c r="L52" s="251"/>
+      <c r="M52" s="251"/>
+      <c r="N52" s="251"/>
+      <c r="O52" s="251"/>
+      <c r="P52" s="251"/>
+      <c r="Q52" s="251"/>
+      <c r="R52" s="251"/>
+      <c r="S52" s="251"/>
+      <c r="T52" s="251"/>
+      <c r="U52" s="251"/>
+      <c r="V52" s="251"/>
+      <c r="W52" s="251"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6517,122 +6797,180 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="76" t="s">
+      <c r="B63" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="122"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="122"/>
-      <c r="M63" s="122"/>
-      <c r="N63" s="122"/>
-      <c r="O63" s="122"/>
-      <c r="P63" s="122"/>
-      <c r="Q63" s="122"/>
-      <c r="R63" s="122"/>
-      <c r="S63" s="122"/>
-      <c r="T63" s="122"/>
-      <c r="U63" s="122"/>
-      <c r="V63" s="122"/>
-      <c r="W63" s="122"/>
-      <c r="X63" s="122"/>
-      <c r="Y63" s="122"/>
-      <c r="Z63" s="122"/>
-      <c r="AA63" s="122"/>
-      <c r="AB63" s="122"/>
-      <c r="AC63" s="122"/>
-      <c r="AD63" s="122"/>
-      <c r="AE63" s="122"/>
-      <c r="AF63" s="122"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="116"/>
+      <c r="V63" s="116"/>
+      <c r="W63" s="116"/>
+      <c r="X63" s="116"/>
+      <c r="Y63" s="116"/>
+      <c r="Z63" s="116"/>
+      <c r="AA63" s="116"/>
+      <c r="AB63" s="116"/>
+      <c r="AC63" s="116"/>
+      <c r="AD63" s="116"/>
+      <c r="AE63" s="116"/>
+      <c r="AF63" s="116"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="122"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="122"/>
-      <c r="M64" s="122"/>
-      <c r="N64" s="122"/>
-      <c r="O64" s="122"/>
-      <c r="P64" s="122"/>
-      <c r="Q64" s="122"/>
-      <c r="R64" s="122"/>
-      <c r="S64" s="122"/>
-      <c r="T64" s="122"/>
-      <c r="U64" s="122"/>
-      <c r="V64" s="122"/>
-      <c r="W64" s="122"/>
-      <c r="X64" s="122"/>
-      <c r="Y64" s="122"/>
-      <c r="Z64" s="122"/>
-      <c r="AA64" s="122"/>
-      <c r="AB64" s="122"/>
-      <c r="AC64" s="122"/>
-      <c r="AD64" s="122"/>
-      <c r="AE64" s="122"/>
-      <c r="AF64" s="122"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="116"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="116"/>
+      <c r="R64" s="116"/>
+      <c r="S64" s="116"/>
+      <c r="T64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="116"/>
+      <c r="W64" s="116"/>
+      <c r="X64" s="116"/>
+      <c r="Y64" s="116"/>
+      <c r="Z64" s="116"/>
+      <c r="AA64" s="116"/>
+      <c r="AB64" s="116"/>
+      <c r="AC64" s="116"/>
+      <c r="AD64" s="116"/>
+      <c r="AE64" s="116"/>
+      <c r="AF64" s="116"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="77" t="s">
+      <c r="B65" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="122"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="122"/>
-      <c r="M65" s="122"/>
-      <c r="N65" s="122"/>
-      <c r="O65" s="122"/>
-      <c r="P65" s="122"/>
-      <c r="Q65" s="122"/>
-      <c r="R65" s="122"/>
-      <c r="S65" s="122"/>
-      <c r="T65" s="122"/>
-      <c r="U65" s="122"/>
-      <c r="V65" s="122"/>
-      <c r="W65" s="122"/>
-      <c r="X65" s="122"/>
-      <c r="Y65" s="122"/>
-      <c r="Z65" s="122"/>
-      <c r="AA65" s="122"/>
-      <c r="AB65" s="122"/>
-      <c r="AC65" s="122"/>
-      <c r="AD65" s="122"/>
-      <c r="AE65" s="122"/>
-      <c r="AF65" s="122"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="116"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
+      <c r="Z65" s="116"/>
+      <c r="AA65" s="116"/>
+      <c r="AB65" s="116"/>
+      <c r="AC65" s="116"/>
+      <c r="AD65" s="116"/>
+      <c r="AE65" s="116"/>
+      <c r="AF65" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
+  <mergeCells count="94">
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B65:AF65"/>
@@ -6649,56 +6987,16 @@
     <mergeCell ref="B64:AF64"/>
     <mergeCell ref="T30:AB30"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="B38:W44"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A690310B-FF86-4F0B-9828-483F9F54C130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD05CA-5F90-4A64-8CE3-9B8F4F99B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -226,16 +226,70 @@
     <t>Ppju + Common Area</t>
   </si>
   <si>
-    <t>Admin Fee (5%) :</t>
-  </si>
-  <si>
     <t>Late Charges :</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Denda:</t>
+  </si>
+  <si>
+    <t>Tahap</t>
+  </si>
+  <si>
+    <t>Masa Tunggakan</t>
+  </si>
+  <si>
+    <t>Kewajiban Pelanggaran</t>
+  </si>
+  <si>
+    <t>Sanksi/Tindakan</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>1 hari s/d 30 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 5.0%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air berjalan normal</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>31 hari s/d 60 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 7.5%/bulan</t>
+  </si>
+  <si>
+    <t>Listrik off, air off dan access</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>61 hari s/d 90 hari</t>
+  </si>
+  <si>
+    <t>Tagihan ditambah denda 10.0%/bulan</t>
+  </si>
+  <si>
+    <t>Permintaan penyambungan diberlakukan sebagai pemasangan baru</t>
+  </si>
+  <si>
+    <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
   </si>
   <si>
     <t>Attention :
 1. Payment by transfer to Bank BCA Virtual Account above.
 2. Payment by transfer must state the unit number.
-3. Please settle your payment before the due date to avoid disconnection of the Facility and accumulative late charges.
+3. Please settle your payment before the due date to avoid accumulative late charges and disconnection of the Facility.
 4. Should you have any queries, please contact Tenant Relation at: 
     - 08129914720 (Ade), 
     - 0811814845 (Jumiah), 
@@ -243,61 +297,7 @@
 5. Please avoid this invoice, if payment has been made.</t>
   </si>
   <si>
-    <t>Maintenance</t>
-  </si>
-  <si>
-    <t>Denda:</t>
-  </si>
-  <si>
-    <t>Tahap</t>
-  </si>
-  <si>
-    <t>Masa Tunggakan</t>
-  </si>
-  <si>
-    <t>Kewajiban Pelanggaran</t>
-  </si>
-  <si>
-    <t>Sanksi/Tindakan</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>1 hari s/d 30 hari</t>
-  </si>
-  <si>
-    <t>Tagihan ditambah denda 5.0%/bulan</t>
-  </si>
-  <si>
-    <t>Listrik off, air berjalan normal</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>31 hari s/d 60 hari</t>
-  </si>
-  <si>
-    <t>Tagihan ditambah denda 7.5%/bulan</t>
-  </si>
-  <si>
-    <t>Listrik off, air off dan access</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
-    <t>61 hari s/d 90 hari</t>
-  </si>
-  <si>
-    <t>Tagihan ditambah denda 10.0%/bulan</t>
-  </si>
-  <si>
-    <t>Permintaan penyambungan diberlakukan sebagai pemasangan baru</t>
-  </si>
-  <si>
-    <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
+    <t>SC Admin Fee (5%) :</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
@@ -826,136 +826,197 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -965,176 +1026,266 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,35 +1293,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1180,159 +1304,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1931,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:W69"/>
+    <sheetView view="pageLayout" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1972,146 +1990,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="103"/>
+      <c r="O3" s="103"/>
+      <c r="P3" s="103"/>
+      <c r="Q3" s="103"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="103"/>
+      <c r="X3" s="103"/>
+      <c r="Y3" s="103"/>
+      <c r="Z3" s="103"/>
+      <c r="AA3" s="103"/>
+      <c r="AB3" s="103"/>
+      <c r="AC3" s="103"/>
+      <c r="AD3" s="103"/>
+      <c r="AE3" s="103"/>
+      <c r="AF3" s="103"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="103"/>
+      <c r="Q4" s="103"/>
+      <c r="R4" s="103"/>
+      <c r="S4" s="103"/>
+      <c r="T4" s="103"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="103"/>
+      <c r="W4" s="103"/>
+      <c r="X4" s="103"/>
+      <c r="Y4" s="103"/>
+      <c r="Z4" s="103"/>
+      <c r="AA4" s="103"/>
+      <c r="AB4" s="103"/>
+      <c r="AC4" s="103"/>
+      <c r="AD4" s="103"/>
+      <c r="AE4" s="103"/>
+      <c r="AF4" s="103"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="174"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="103"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
+      <c r="Y5" s="103"/>
+      <c r="Z5" s="103"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="127" t="s">
+      <c r="AB5" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
+      <c r="AC5" s="103"/>
+      <c r="AD5" s="103"/>
+      <c r="AE5" s="103"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
@@ -2124,15 +2142,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2142,35 +2160,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="85"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="103"/>
+      <c r="T6" s="103"/>
+      <c r="U6" s="103"/>
+      <c r="V6" s="103"/>
+      <c r="W6" s="103"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="103"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="127" t="s">
+      <c r="AB6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
+      <c r="AC6" s="103"/>
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2198,13 +2216,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2213,38 +2231,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="119" t="s">
+      <c r="Q8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="120"/>
-      <c r="S8" s="120"/>
-      <c r="T8" s="120"/>
-      <c r="U8" s="120"/>
-      <c r="V8" s="120"/>
-      <c r="W8" s="120"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="119" t="s">
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="120"/>
-      <c r="AA8" s="120"/>
-      <c r="AB8" s="120"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="119" t="s">
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="121"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="142"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2253,22 +2271,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="123"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="123"/>
-      <c r="X9" s="124"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="123"/>
-      <c r="AA9" s="123"/>
-      <c r="AB9" s="123"/>
-      <c r="AC9" s="124"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="124"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="145"/>
+      <c r="Y9" s="143"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="145"/>
+      <c r="AD9" s="143"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="145"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2287,44 +2305,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="156">
+      <c r="Q10" s="152">
         <v>44986</v>
       </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="128">
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="176">
         <v>0</v>
       </c>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="153" t="s">
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="121"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="142"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2333,22 +2351,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="124"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="145"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2386,77 +2404,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="147"/>
+      <c r="L13" s="147"/>
+      <c r="M13" s="147"/>
+      <c r="N13" s="147"/>
+      <c r="O13" s="147"/>
+      <c r="P13" s="147"/>
+      <c r="Q13" s="147"/>
+      <c r="R13" s="147"/>
+      <c r="S13" s="147"/>
+      <c r="T13" s="147"/>
+      <c r="U13" s="147"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="147"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="132" t="s">
+      <c r="AA13" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="132"/>
-      <c r="AD13" s="157" t="s">
+      <c r="AB13" s="147"/>
+      <c r="AC13" s="147"/>
+      <c r="AD13" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="120"/>
-      <c r="AF13" s="120"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="133"/>
-      <c r="J14" s="133"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="133"/>
-      <c r="R14" s="133"/>
-      <c r="S14" s="133"/>
-      <c r="T14" s="133"/>
-      <c r="U14" s="133"/>
-      <c r="V14" s="133"/>
-      <c r="W14" s="133"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="148"/>
+      <c r="M14" s="148"/>
+      <c r="N14" s="148"/>
+      <c r="O14" s="148"/>
+      <c r="P14" s="148"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="148"/>
+      <c r="S14" s="148"/>
+      <c r="T14" s="148"/>
+      <c r="U14" s="148"/>
+      <c r="V14" s="148"/>
+      <c r="W14" s="148"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="133"/>
-      <c r="AB14" s="133"/>
-      <c r="AC14" s="133"/>
-      <c r="AD14" s="123"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
+      <c r="AA14" s="148"/>
+      <c r="AB14" s="148"/>
+      <c r="AC14" s="148"/>
+      <c r="AD14" s="144"/>
+      <c r="AE14" s="144"/>
+      <c r="AF14" s="144"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2493,121 +2511,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="150" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="86"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="112">
+      <c r="L16" s="89">
         <v>44946</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="113" t="s">
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="117" t="s">
+      <c r="Q16" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="76"/>
-      <c r="S16" s="112">
+      <c r="R16" s="86"/>
+      <c r="S16" s="89">
         <v>44977</v>
       </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="76"/>
+      <c r="T16" s="85"/>
+      <c r="U16" s="85"/>
+      <c r="V16" s="85"/>
+      <c r="W16" s="86"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="175"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="79"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="81"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="94" t="s">
+      <c r="A17" s="103"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="95">
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="98">
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="171"/>
+      <c r="Q17" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="97"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="94"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="175"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="79"/>
+      <c r="AE17" s="173"/>
+      <c r="AF17" s="81"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="94" t="s">
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="99">
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="179">
         <v>1</v>
       </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="179"/>
+      <c r="Q18" s="179"/>
+      <c r="R18" s="179"/>
+      <c r="S18" s="179"/>
+      <c r="T18" s="179"/>
+      <c r="U18" s="179"/>
+      <c r="V18" s="179"/>
+      <c r="W18" s="179"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2620,166 +2638,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="104" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="139">
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="132">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="140"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="140"/>
-      <c r="R19" s="140"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="140"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="140"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="129" t="s">
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="133"/>
+      <c r="R19" s="133"/>
+      <c r="S19" s="133"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+      <c r="V19" s="133"/>
+      <c r="W19" s="134"/>
+      <c r="X19" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="86">
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="160">
         <v>1800</v>
       </c>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
+      <c r="AB19" s="160"/>
+      <c r="AC19" s="160"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="135">
+      <c r="AE19" s="98">
         <v>0</v>
       </c>
-      <c r="AF19" s="135"/>
+      <c r="AF19" s="98"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="100" t="s">
+      <c r="B20" s="128"/>
+      <c r="C20" s="138"/>
+      <c r="D20" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101" t="s">
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="87">
+      <c r="I20" s="108"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="163">
         <v>88</v>
       </c>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="129" t="s">
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="86">
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="160">
         <v>1800</v>
       </c>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="136" t="s">
+      <c r="AB20" s="160"/>
+      <c r="AC20" s="160"/>
+      <c r="AD20" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="135">
+      <c r="AE20" s="98">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="135"/>
+      <c r="AF20" s="98"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="161" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="129"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="135"/>
-      <c r="AF21" s="135"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="167"/>
+      <c r="V21" s="167"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="154"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="160"/>
+      <c r="AB21" s="160"/>
+      <c r="AC21" s="160"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="98"/>
+      <c r="AF21" s="98"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="105" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="106">
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="112">
         <v>0.05</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="108"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="113"/>
+      <c r="N22" s="113"/>
+      <c r="O22" s="113"/>
+      <c r="P22" s="113"/>
+      <c r="Q22" s="113"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="114"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
@@ -2787,38 +2805,38 @@
       <c r="AB22" s="63"/>
       <c r="AC22" s="63"/>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="134">
+      <c r="AE22" s="159">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="134"/>
+      <c r="AF22" s="159"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="109" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="111"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="105"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="105"/>
+      <c r="N23" s="105"/>
+      <c r="O23" s="105"/>
+      <c r="P23" s="105"/>
+      <c r="Q23" s="105"/>
+      <c r="R23" s="105"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="105"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="105"/>
+      <c r="W23" s="106"/>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
@@ -2828,48 +2846,48 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="137">
+      <c r="AE23" s="117">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="137"/>
+      <c r="AF23" s="117"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="94" t="s">
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="149" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="86"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="112">
+      <c r="L24" s="89">
         <v>44947</v>
       </c>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="113" t="s">
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="170" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="117" t="s">
+      <c r="Q24" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="76"/>
-      <c r="S24" s="112">
+      <c r="R24" s="86"/>
+      <c r="S24" s="89">
         <v>44986</v>
       </c>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="76"/>
+      <c r="T24" s="85"/>
+      <c r="U24" s="85"/>
+      <c r="V24" s="85"/>
+      <c r="W24" s="86"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
@@ -2882,34 +2900,34 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="94" t="s">
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="149" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="95">
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="98">
+      <c r="L25" s="93"/>
+      <c r="M25" s="93"/>
+      <c r="N25" s="93"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="171"/>
+      <c r="Q25" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="97"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="94"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
@@ -2922,32 +2940,32 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="94" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="99">
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="179">
         <v>1</v>
       </c>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="179"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="179"/>
+      <c r="Q26" s="179"/>
+      <c r="R26" s="179"/>
+      <c r="S26" s="179"/>
+      <c r="T26" s="179"/>
+      <c r="U26" s="179"/>
+      <c r="V26" s="179"/>
+      <c r="W26" s="179"/>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
@@ -2960,166 +2978,166 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="168" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="122" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="139">
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
+      <c r="G27" s="123"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="132">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="140"/>
-      <c r="M27" s="140"/>
-      <c r="N27" s="140"/>
-      <c r="O27" s="140"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="140"/>
-      <c r="R27" s="140"/>
-      <c r="S27" s="140"/>
-      <c r="T27" s="140"/>
-      <c r="U27" s="140"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="141"/>
-      <c r="X27" s="129" t="s">
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="133"/>
+      <c r="O27" s="133"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="133"/>
+      <c r="R27" s="133"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+      <c r="V27" s="133"/>
+      <c r="W27" s="134"/>
+      <c r="X27" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="86">
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="160">
         <v>1800</v>
       </c>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
+      <c r="AB27" s="160"/>
+      <c r="AC27" s="160"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="135">
+      <c r="AE27" s="98">
         <v>0</v>
       </c>
-      <c r="AF27" s="135"/>
+      <c r="AF27" s="98"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="100" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="177" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101" t="s">
+      <c r="E28" s="108"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="108"/>
+      <c r="H28" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="87">
+      <c r="I28" s="108"/>
+      <c r="J28" s="109"/>
+      <c r="K28" s="163">
         <v>29.33</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="129" t="s">
+      <c r="L28" s="164"/>
+      <c r="M28" s="164"/>
+      <c r="N28" s="164"/>
+      <c r="O28" s="164"/>
+      <c r="P28" s="164"/>
+      <c r="Q28" s="164"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="165"/>
+      <c r="X28" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="86">
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="160">
         <v>1800</v>
       </c>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="136" t="s">
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="135">
+      <c r="AE28" s="98">
         <f>K28*AA28</f>
         <v>52794</v>
       </c>
-      <c r="AF28" s="135"/>
+      <c r="AF28" s="98"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="161" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="154" t="s">
+      <c r="H29" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="129"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="135"/>
-      <c r="AF29" s="135"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="121"/>
+      <c r="K29" s="166"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="167"/>
+      <c r="V29" s="167"/>
+      <c r="W29" s="168"/>
+      <c r="X29" s="154"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="160"/>
+      <c r="AC29" s="160"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="98"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="105" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="106">
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="112">
         <v>0.05</v>
       </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="108"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="113"/>
+      <c r="N30" s="113"/>
+      <c r="O30" s="113"/>
+      <c r="P30" s="113"/>
+      <c r="Q30" s="113"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="114"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3129,11 +3147,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="130">
+      <c r="AE30" s="156">
         <f>AE28*K30</f>
         <v>2639.7000000000003</v>
       </c>
-      <c r="AF30" s="131"/>
+      <c r="AF30" s="157"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3168,91 +3186,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="137">
+      <c r="AE31" s="117">
         <f>AE28+AE30</f>
         <v>55433.7</v>
       </c>
-      <c r="AF31" s="137"/>
+      <c r="AF31" s="117"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="127" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="74" t="s">
+      <c r="C32" s="94"/>
+      <c r="D32" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="86"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="112">
+      <c r="L32" s="89">
         <v>44946</v>
       </c>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="102" t="s">
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="102" t="s">
+      <c r="Q32" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="76"/>
-      <c r="S32" s="112">
+      <c r="R32" s="86"/>
+      <c r="S32" s="89">
         <v>44977</v>
       </c>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="76"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="86"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
+      <c r="AA32" s="175"/>
+      <c r="AB32" s="175"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="138"/>
-      <c r="AF32" s="79"/>
+      <c r="AE32" s="162"/>
+      <c r="AF32" s="81"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="74" t="s">
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="95">
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="98">
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="97"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="94"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3260,85 +3278,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="79"/>
+      <c r="AE33" s="178"/>
+      <c r="AF33" s="81"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="162" t="s">
+      <c r="B34" s="128"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77">
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="78" t="s">
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
+      <c r="N34" s="85"/>
+      <c r="O34" s="85"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="85"/>
+      <c r="R34" s="85"/>
+      <c r="S34" s="85"/>
+      <c r="T34" s="85"/>
+      <c r="U34" s="85"/>
+      <c r="V34" s="85"/>
+      <c r="W34" s="86"/>
+      <c r="X34" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="167">
+      <c r="Y34" s="81"/>
+      <c r="Z34" s="81"/>
+      <c r="AA34" s="120">
         <v>1800</v>
       </c>
-      <c r="AB34" s="167"/>
-      <c r="AC34" s="167"/>
+      <c r="AB34" s="120"/>
+      <c r="AC34" s="120"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="82">
+      <c r="AE34" s="80">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="79"/>
+      <c r="AF34" s="81"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="74" t="s">
+      <c r="A35" s="102"/>
+      <c r="B35" s="128"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77">
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="87">
         <v>47510</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="76"/>
+      <c r="L35" s="85"/>
+      <c r="M35" s="85"/>
+      <c r="N35" s="85"/>
+      <c r="O35" s="85"/>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="85"/>
+      <c r="R35" s="85"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="86"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3348,40 +3366,40 @@
       <c r="AD35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE35" s="135">
+      <c r="AE35" s="98">
         <f>K35</f>
         <v>47510</v>
       </c>
-      <c r="AF35" s="79"/>
+      <c r="AF35" s="81"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="163" t="s">
-        <v>60</v>
-      </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77">
+      <c r="A36" s="102"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="87">
         <v>11000</v>
       </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="76"/>
+      <c r="L36" s="85"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="85"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="85"/>
+      <c r="R36" s="85"/>
+      <c r="S36" s="85"/>
+      <c r="T36" s="85"/>
+      <c r="U36" s="85"/>
+      <c r="V36" s="85"/>
+      <c r="W36" s="86"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -3391,38 +3409,38 @@
       <c r="AD36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE36" s="80">
+      <c r="AE36" s="150">
         <f>K36</f>
         <v>11000</v>
       </c>
-      <c r="AF36" s="81"/>
+      <c r="AF36" s="151"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="109" t="s">
+      <c r="A37" s="102"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="111"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="105"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="105"/>
+      <c r="N37" s="105"/>
+      <c r="O37" s="105"/>
+      <c r="P37" s="105"/>
+      <c r="Q37" s="105"/>
+      <c r="R37" s="105"/>
+      <c r="S37" s="105"/>
+      <c r="T37" s="105"/>
+      <c r="U37" s="105"/>
+      <c r="V37" s="105"/>
+      <c r="W37" s="106"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
@@ -3432,48 +3450,48 @@
       <c r="AD37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE37" s="82">
+      <c r="AE37" s="80">
         <f>AE34+AE35+AE36</f>
         <v>58510</v>
       </c>
-      <c r="AF37" s="79"/>
+      <c r="AF37" s="81"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="74" t="s">
+      <c r="A38" s="102"/>
+      <c r="B38" s="128"/>
+      <c r="C38" s="129"/>
+      <c r="D38" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="86"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="112">
+      <c r="L38" s="89">
         <v>44947</v>
       </c>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="102" t="s">
+      <c r="M38" s="85"/>
+      <c r="N38" s="85"/>
+      <c r="O38" s="86"/>
+      <c r="P38" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="102" t="s">
+      <c r="Q38" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="76"/>
-      <c r="S38" s="112">
+      <c r="R38" s="86"/>
+      <c r="S38" s="89">
         <v>44993</v>
       </c>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="76"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="86"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3485,35 +3503,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="74" t="s">
+      <c r="A39" s="102"/>
+      <c r="B39" s="128"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="95">
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="92">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="98">
+      <c r="L39" s="93"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="91"/>
+      <c r="Q39" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="97"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="93"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="93"/>
+      <c r="V39" s="93"/>
+      <c r="W39" s="94"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3525,81 +3543,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="162" t="s">
+      <c r="A40" s="102"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="129"/>
+      <c r="D40" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="77">
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="87">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="78" t="s">
+      <c r="L40" s="85"/>
+      <c r="M40" s="85"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="85"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="85"/>
+      <c r="R40" s="85"/>
+      <c r="S40" s="85"/>
+      <c r="T40" s="85"/>
+      <c r="U40" s="85"/>
+      <c r="V40" s="85"/>
+      <c r="W40" s="86"/>
+      <c r="X40" s="155" t="s">
         <v>32</v>
       </c>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="167">
+      <c r="Y40" s="81"/>
+      <c r="Z40" s="81"/>
+      <c r="AA40" s="120">
         <v>1800</v>
       </c>
-      <c r="AB40" s="167"/>
-      <c r="AC40" s="167"/>
+      <c r="AB40" s="120"/>
+      <c r="AC40" s="120"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="82">
+      <c r="AE40" s="80">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="79"/>
+      <c r="AF40" s="81"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="74" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="128"/>
+      <c r="C41" s="129"/>
+      <c r="D41" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77">
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="87">
         <v>47510</v>
       </c>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="76"/>
+      <c r="L41" s="85"/>
+      <c r="M41" s="85"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="85"/>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="85"/>
+      <c r="R41" s="85"/>
+      <c r="S41" s="85"/>
+      <c r="T41" s="85"/>
+      <c r="U41" s="85"/>
+      <c r="V41" s="85"/>
+      <c r="W41" s="86"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3609,40 +3627,40 @@
       <c r="AD41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" s="135">
+      <c r="AE41" s="98">
         <f>K41</f>
         <v>47510</v>
       </c>
-      <c r="AF41" s="79"/>
+      <c r="AF41" s="81"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="163" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="77">
+      <c r="A42" s="103"/>
+      <c r="B42" s="130"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="87">
         <v>11000</v>
       </c>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="76"/>
+      <c r="L42" s="85"/>
+      <c r="M42" s="85"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="85"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="85"/>
+      <c r="R42" s="85"/>
+      <c r="S42" s="85"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="85"/>
+      <c r="V42" s="85"/>
+      <c r="W42" s="86"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3652,14 +3670,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="80">
+      <c r="AE42" s="150">
         <f>K42</f>
         <v>11000</v>
       </c>
-      <c r="AF42" s="81"/>
+      <c r="AF42" s="151"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
+      <c r="A43" s="103"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3691,14 +3709,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="82">
+      <c r="AE43" s="80">
         <f>AE40+AE41+AE42</f>
         <v>58510</v>
       </c>
-      <c r="AF43" s="79"/>
+      <c r="AF43" s="81"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
+      <c r="A44" s="103"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3732,7 +3750,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
+      <c r="A45" s="103"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3751,28 +3769,28 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79"/>
-      <c r="X45" s="79"/>
-      <c r="Y45" s="79"/>
-      <c r="Z45" s="79"/>
-      <c r="AA45" s="79"/>
-      <c r="AB45" s="79"/>
+      <c r="T45" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="81"/>
+      <c r="X45" s="81"/>
+      <c r="Y45" s="81"/>
+      <c r="Z45" s="81"/>
+      <c r="AA45" s="81"/>
+      <c r="AB45" s="81"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE45" s="135">
+      <c r="AE45" s="98">
         <v>0</v>
       </c>
-      <c r="AF45" s="166"/>
+      <c r="AF45" s="99"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
+      <c r="A46" s="103"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="41"/>
@@ -3791,25 +3809,25 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
-      <c r="T46" s="164" t="s">
+      <c r="T46" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="81"/>
+      <c r="Y46" s="81"/>
+      <c r="Z46" s="81"/>
+      <c r="AA46" s="81"/>
+      <c r="AB46" s="81"/>
       <c r="AC46" s="18"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE46" s="135">
+      <c r="AE46" s="98">
         <v>10000</v>
       </c>
-      <c r="AF46" s="166"/>
+      <c r="AF46" s="99"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3831,26 +3849,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="165" t="s">
+      <c r="T47" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="79"/>
-      <c r="Z47" s="79"/>
-      <c r="AA47" s="79"/>
-      <c r="AB47" s="79"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="81"/>
+      <c r="X47" s="81"/>
+      <c r="Y47" s="81"/>
+      <c r="Z47" s="81"/>
+      <c r="AA47" s="81"/>
+      <c r="AB47" s="81"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="137">
+      <c r="AE47" s="117">
         <f>AE23+AE31+AE37+AE43+AE45+AE46</f>
         <v>348773.7</v>
       </c>
-      <c r="AF47" s="137"/>
+      <c r="AF47" s="117"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3922,41 +3940,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="160" t="s">
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="160"/>
-      <c r="N50" s="160"/>
-      <c r="O50" s="160"/>
-      <c r="P50" s="160"/>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="160"/>
-      <c r="S50" s="160"/>
-      <c r="T50" s="160"/>
-      <c r="U50" s="160"/>
-      <c r="V50" s="160"/>
-      <c r="W50" s="160"/>
-      <c r="X50" s="160"/>
-      <c r="Y50" s="160"/>
-      <c r="Z50" s="160"/>
-      <c r="AA50" s="160"/>
-      <c r="AB50" s="160"/>
-      <c r="AC50" s="160"/>
-      <c r="AD50" s="160"/>
-      <c r="AE50" s="160"/>
-      <c r="AF50" s="160"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="111"/>
+      <c r="P50" s="111"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
+      <c r="U50" s="111"/>
+      <c r="V50" s="111"/>
+      <c r="W50" s="111"/>
+      <c r="X50" s="111"/>
+      <c r="Y50" s="111"/>
+      <c r="Z50" s="111"/>
+      <c r="AA50" s="111"/>
+      <c r="AB50" s="111"/>
+      <c r="AC50" s="111"/>
+      <c r="AD50" s="111"/>
+      <c r="AE50" s="111"/>
+      <c r="AF50" s="111"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4088,108 +4106,108 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="152" t="s">
+      <c r="AB54" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="AC54" s="152"/>
-      <c r="AD54" s="152"/>
-      <c r="AE54" s="152"/>
-      <c r="AF54" s="152"/>
+      <c r="AC54" s="100"/>
+      <c r="AD54" s="100"/>
+      <c r="AE54" s="100"/>
+      <c r="AF54" s="100"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="173"/>
-      <c r="K55" s="173"/>
-      <c r="L55" s="173"/>
-      <c r="M55" s="173"/>
-      <c r="N55" s="173"/>
-      <c r="O55" s="173"/>
-      <c r="P55" s="173"/>
-      <c r="Q55" s="173"/>
-      <c r="R55" s="173"/>
-      <c r="S55" s="173"/>
-      <c r="T55" s="173"/>
-      <c r="U55" s="173"/>
-      <c r="V55" s="173"/>
-      <c r="W55" s="173"/>
+      <c r="B55" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="96"/>
+      <c r="F55" s="96"/>
+      <c r="G55" s="96"/>
+      <c r="H55" s="96"/>
+      <c r="I55" s="96"/>
+      <c r="J55" s="96"/>
+      <c r="K55" s="96"/>
+      <c r="L55" s="96"/>
+      <c r="M55" s="96"/>
+      <c r="N55" s="96"/>
+      <c r="O55" s="96"/>
+      <c r="P55" s="96"/>
+      <c r="Q55" s="96"/>
+      <c r="R55" s="96"/>
+      <c r="S55" s="96"/>
+      <c r="T55" s="96"/>
+      <c r="U55" s="96"/>
+      <c r="V55" s="96"/>
+      <c r="W55" s="96"/>
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="152"/>
-      <c r="AC55" s="152"/>
-      <c r="AD55" s="152"/>
-      <c r="AE55" s="152"/>
-      <c r="AF55" s="152"/>
+      <c r="AB55" s="100"/>
+      <c r="AC55" s="100"/>
+      <c r="AD55" s="100"/>
+      <c r="AE55" s="100"/>
+      <c r="AF55" s="100"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="173"/>
-      <c r="C56" s="173"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="173"/>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
-      <c r="M56" s="173"/>
-      <c r="N56" s="173"/>
-      <c r="O56" s="173"/>
-      <c r="P56" s="173"/>
-      <c r="Q56" s="173"/>
-      <c r="R56" s="173"/>
-      <c r="S56" s="173"/>
-      <c r="T56" s="173"/>
-      <c r="U56" s="173"/>
-      <c r="V56" s="173"/>
-      <c r="W56" s="173"/>
+      <c r="B56" s="96"/>
+      <c r="C56" s="96"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="96"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="96"/>
+      <c r="H56" s="96"/>
+      <c r="I56" s="96"/>
+      <c r="J56" s="96"/>
+      <c r="K56" s="96"/>
+      <c r="L56" s="96"/>
+      <c r="M56" s="96"/>
+      <c r="N56" s="96"/>
+      <c r="O56" s="96"/>
+      <c r="P56" s="96"/>
+      <c r="Q56" s="96"/>
+      <c r="R56" s="96"/>
+      <c r="S56" s="96"/>
+      <c r="T56" s="96"/>
+      <c r="U56" s="96"/>
+      <c r="V56" s="96"/>
+      <c r="W56" s="96"/>
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="152"/>
-      <c r="AC56" s="152"/>
-      <c r="AD56" s="152"/>
-      <c r="AE56" s="152"/>
-      <c r="AF56" s="152"/>
+      <c r="AB56" s="100"/>
+      <c r="AC56" s="100"/>
+      <c r="AD56" s="100"/>
+      <c r="AE56" s="100"/>
+      <c r="AF56" s="100"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="173"/>
-      <c r="C57" s="173"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173"/>
-      <c r="N57" s="173"/>
-      <c r="O57" s="173"/>
-      <c r="P57" s="173"/>
-      <c r="Q57" s="173"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="173"/>
-      <c r="T57" s="173"/>
-      <c r="U57" s="173"/>
-      <c r="V57" s="173"/>
-      <c r="W57" s="173"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="96"/>
+      <c r="N57" s="96"/>
+      <c r="O57" s="96"/>
+      <c r="P57" s="96"/>
+      <c r="Q57" s="96"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
+      <c r="U57" s="96"/>
+      <c r="V57" s="96"/>
+      <c r="W57" s="96"/>
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
@@ -4202,28 +4220,28 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="173"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="173"/>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="173"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="173"/>
-      <c r="L58" s="173"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="173"/>
-      <c r="O58" s="173"/>
-      <c r="P58" s="173"/>
-      <c r="Q58" s="173"/>
-      <c r="R58" s="173"/>
-      <c r="S58" s="173"/>
-      <c r="T58" s="173"/>
-      <c r="U58" s="173"/>
-      <c r="V58" s="173"/>
-      <c r="W58" s="173"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="96"/>
+      <c r="P58" s="96"/>
+      <c r="Q58" s="96"/>
+      <c r="R58" s="96"/>
+      <c r="S58" s="96"/>
+      <c r="T58" s="96"/>
+      <c r="U58" s="96"/>
+      <c r="V58" s="96"/>
+      <c r="W58" s="96"/>
       <c r="X58" s="49"/>
       <c r="Y58" s="49"/>
       <c r="Z58" s="49"/>
@@ -4236,28 +4254,28 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="173"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="173"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
-      <c r="I59" s="173"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="173"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="173"/>
-      <c r="U59" s="173"/>
-      <c r="V59" s="173"/>
-      <c r="W59" s="173"/>
+      <c r="B59" s="96"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="96"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="96"/>
+      <c r="L59" s="96"/>
+      <c r="M59" s="96"/>
+      <c r="N59" s="96"/>
+      <c r="O59" s="96"/>
+      <c r="P59" s="96"/>
+      <c r="Q59" s="96"/>
+      <c r="R59" s="96"/>
+      <c r="S59" s="96"/>
+      <c r="T59" s="96"/>
+      <c r="U59" s="96"/>
+      <c r="V59" s="96"/>
+      <c r="W59" s="96"/>
       <c r="X59" s="49"/>
       <c r="Y59" s="49"/>
       <c r="Z59" s="49"/>
@@ -4270,28 +4288,28 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="173"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="173"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
-      <c r="I60" s="173"/>
-      <c r="J60" s="173"/>
-      <c r="K60" s="173"/>
-      <c r="L60" s="173"/>
-      <c r="M60" s="173"/>
-      <c r="N60" s="173"/>
-      <c r="O60" s="173"/>
-      <c r="P60" s="173"/>
-      <c r="Q60" s="173"/>
-      <c r="R60" s="173"/>
-      <c r="S60" s="173"/>
-      <c r="T60" s="173"/>
-      <c r="U60" s="173"/>
-      <c r="V60" s="173"/>
-      <c r="W60" s="173"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="96"/>
+      <c r="H60" s="96"/>
+      <c r="I60" s="96"/>
+      <c r="J60" s="96"/>
+      <c r="K60" s="96"/>
+      <c r="L60" s="96"/>
+      <c r="M60" s="96"/>
+      <c r="N60" s="96"/>
+      <c r="O60" s="96"/>
+      <c r="P60" s="96"/>
+      <c r="Q60" s="96"/>
+      <c r="R60" s="96"/>
+      <c r="S60" s="96"/>
+      <c r="T60" s="96"/>
+      <c r="U60" s="96"/>
+      <c r="V60" s="96"/>
+      <c r="W60" s="96"/>
       <c r="X60" s="49"/>
       <c r="Y60" s="49"/>
       <c r="Z60" s="49"/>
@@ -4304,39 +4322,39 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="173"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
-      <c r="I61" s="173"/>
-      <c r="J61" s="173"/>
-      <c r="K61" s="173"/>
-      <c r="L61" s="173"/>
-      <c r="M61" s="173"/>
-      <c r="N61" s="173"/>
-      <c r="O61" s="173"/>
-      <c r="P61" s="173"/>
-      <c r="Q61" s="173"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
-      <c r="T61" s="173"/>
-      <c r="U61" s="173"/>
-      <c r="V61" s="173"/>
-      <c r="W61" s="173"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
+      <c r="H61" s="96"/>
+      <c r="I61" s="96"/>
+      <c r="J61" s="96"/>
+      <c r="K61" s="96"/>
+      <c r="L61" s="96"/>
+      <c r="M61" s="96"/>
+      <c r="N61" s="96"/>
+      <c r="O61" s="96"/>
+      <c r="P61" s="96"/>
+      <c r="Q61" s="96"/>
+      <c r="R61" s="96"/>
+      <c r="S61" s="96"/>
+      <c r="T61" s="96"/>
+      <c r="U61" s="96"/>
+      <c r="V61" s="96"/>
+      <c r="W61" s="96"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="174" t="s">
+      <c r="AB61" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="AC61" s="174"/>
-      <c r="AD61" s="174"/>
-      <c r="AE61" s="174"/>
-      <c r="AF61" s="174"/>
+      <c r="AC61" s="101"/>
+      <c r="AD61" s="101"/>
+      <c r="AE61" s="101"/>
+      <c r="AF61" s="101"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4408,12 +4426,12 @@
     </row>
     <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="245" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="245"/>
-      <c r="D64" s="245"/>
-      <c r="E64" s="245"/>
+      <c r="B64" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -4444,292 +4462,393 @@
     </row>
     <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
-      <c r="B65" s="246" t="s">
+      <c r="B65" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="79"/>
+      <c r="D65" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="79"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="79"/>
+      <c r="H65" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="246"/>
-      <c r="D65" s="246" t="s">
+      <c r="I65" s="252"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="252"/>
+      <c r="L65" s="252"/>
+      <c r="M65" s="252"/>
+      <c r="N65" s="253"/>
+      <c r="O65" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="E65" s="246"/>
-      <c r="F65" s="246"/>
-      <c r="G65" s="246"/>
-      <c r="H65" s="246" t="s">
+      <c r="P65" s="252"/>
+      <c r="Q65" s="252"/>
+      <c r="R65" s="252"/>
+      <c r="S65" s="252"/>
+      <c r="T65" s="252"/>
+      <c r="U65" s="252"/>
+      <c r="V65" s="252"/>
+      <c r="W65" s="253"/>
+    </row>
+    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="I65" s="246"/>
-      <c r="J65" s="246"/>
-      <c r="K65" s="246"/>
-      <c r="L65" s="246"/>
-      <c r="M65" s="246"/>
-      <c r="N65" s="246"/>
-      <c r="O65" s="246" t="s">
+      <c r="C66" s="74"/>
+      <c r="D66" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="P65" s="246"/>
-      <c r="Q65" s="246"/>
-      <c r="R65" s="246"/>
-      <c r="S65" s="246"/>
-      <c r="T65" s="246"/>
-      <c r="U65" s="246"/>
-      <c r="V65" s="246"/>
-      <c r="W65" s="246"/>
-    </row>
-    <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="247" t="s">
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="247"/>
-      <c r="D66" s="248" t="s">
+      <c r="I66" s="255"/>
+      <c r="J66" s="255"/>
+      <c r="K66" s="255"/>
+      <c r="L66" s="255"/>
+      <c r="M66" s="255"/>
+      <c r="N66" s="256"/>
+      <c r="O66" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="E66" s="248"/>
-      <c r="F66" s="248"/>
-      <c r="G66" s="248"/>
-      <c r="H66" s="248" t="s">
+      <c r="P66" s="255"/>
+      <c r="Q66" s="255"/>
+      <c r="R66" s="255"/>
+      <c r="S66" s="255"/>
+      <c r="T66" s="255"/>
+      <c r="U66" s="255"/>
+      <c r="V66" s="255"/>
+      <c r="W66" s="256"/>
+    </row>
+    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="I66" s="248"/>
-      <c r="J66" s="248"/>
-      <c r="K66" s="248"/>
-      <c r="L66" s="248"/>
-      <c r="M66" s="248"/>
-      <c r="N66" s="248"/>
-      <c r="O66" s="248" t="s">
+      <c r="C67" s="74"/>
+      <c r="D67" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="P66" s="248"/>
-      <c r="Q66" s="248"/>
-      <c r="R66" s="248"/>
-      <c r="S66" s="248"/>
-      <c r="T66" s="248"/>
-      <c r="U66" s="248"/>
-      <c r="V66" s="248"/>
-      <c r="W66" s="248"/>
-    </row>
-    <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="247" t="s">
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="254" t="s">
         <v>70</v>
       </c>
-      <c r="C67" s="247"/>
-      <c r="D67" s="248" t="s">
+      <c r="I67" s="255"/>
+      <c r="J67" s="255"/>
+      <c r="K67" s="255"/>
+      <c r="L67" s="255"/>
+      <c r="M67" s="255"/>
+      <c r="N67" s="256"/>
+      <c r="O67" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="E67" s="248"/>
-      <c r="F67" s="248"/>
-      <c r="G67" s="248"/>
-      <c r="H67" s="248" t="s">
+      <c r="P67" s="255"/>
+      <c r="Q67" s="255"/>
+      <c r="R67" s="255"/>
+      <c r="S67" s="255"/>
+      <c r="T67" s="255"/>
+      <c r="U67" s="255"/>
+      <c r="V67" s="255"/>
+      <c r="W67" s="256"/>
+    </row>
+    <row r="68" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="I67" s="248"/>
-      <c r="J67" s="248"/>
-      <c r="K67" s="248"/>
-      <c r="L67" s="248"/>
-      <c r="M67" s="248"/>
-      <c r="N67" s="248"/>
-      <c r="O67" s="248" t="s">
+      <c r="C68" s="74"/>
+      <c r="D68" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="P67" s="248"/>
-      <c r="Q67" s="248"/>
-      <c r="R67" s="248"/>
-      <c r="S67" s="248"/>
-      <c r="T67" s="248"/>
-      <c r="U67" s="248"/>
-      <c r="V67" s="248"/>
-      <c r="W67" s="248"/>
-    </row>
-    <row r="68" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="247" t="s">
+      <c r="E68" s="76"/>
+      <c r="F68" s="76"/>
+      <c r="G68" s="76"/>
+      <c r="H68" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="247"/>
-      <c r="D68" s="249" t="s">
+      <c r="I68" s="258"/>
+      <c r="J68" s="258"/>
+      <c r="K68" s="258"/>
+      <c r="L68" s="258"/>
+      <c r="M68" s="258"/>
+      <c r="N68" s="259"/>
+      <c r="O68" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="E68" s="249"/>
-      <c r="F68" s="249"/>
-      <c r="G68" s="249"/>
-      <c r="H68" s="250" t="s">
-        <v>76</v>
-      </c>
-      <c r="I68" s="250"/>
-      <c r="J68" s="250"/>
-      <c r="K68" s="250"/>
-      <c r="L68" s="250"/>
-      <c r="M68" s="250"/>
-      <c r="N68" s="250"/>
-      <c r="O68" s="250" t="s">
-        <v>77</v>
-      </c>
-      <c r="P68" s="250"/>
-      <c r="Q68" s="250"/>
-      <c r="R68" s="250"/>
-      <c r="S68" s="250"/>
-      <c r="T68" s="250"/>
-      <c r="U68" s="250"/>
-      <c r="V68" s="250"/>
-      <c r="W68" s="250"/>
+      <c r="P68" s="258"/>
+      <c r="Q68" s="258"/>
+      <c r="R68" s="258"/>
+      <c r="S68" s="258"/>
+      <c r="T68" s="258"/>
+      <c r="U68" s="258"/>
+      <c r="V68" s="258"/>
+      <c r="W68" s="259"/>
     </row>
     <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" s="251"/>
-      <c r="D69" s="251"/>
-      <c r="E69" s="251"/>
-      <c r="F69" s="251"/>
-      <c r="G69" s="251"/>
-      <c r="H69" s="251"/>
-      <c r="I69" s="251"/>
-      <c r="J69" s="251"/>
-      <c r="K69" s="251"/>
-      <c r="L69" s="251"/>
-      <c r="M69" s="251"/>
-      <c r="N69" s="251"/>
-      <c r="O69" s="251"/>
-      <c r="P69" s="251"/>
-      <c r="Q69" s="251"/>
-      <c r="R69" s="251"/>
-      <c r="S69" s="251"/>
-      <c r="T69" s="251"/>
-      <c r="U69" s="251"/>
-      <c r="V69" s="251"/>
-      <c r="W69" s="251"/>
+      <c r="B69" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="77"/>
+      <c r="P69" s="77"/>
+      <c r="Q69" s="77"/>
+      <c r="R69" s="77"/>
+      <c r="S69" s="77"/>
+      <c r="T69" s="77"/>
+      <c r="U69" s="77"/>
+      <c r="V69" s="77"/>
+      <c r="W69" s="77"/>
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="171" t="s">
+      <c r="A76" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="171"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="171"/>
-      <c r="F76" s="171"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="171"/>
-      <c r="J76" s="171"/>
-      <c r="K76" s="171"/>
-      <c r="L76" s="171"/>
-      <c r="M76" s="171"/>
-      <c r="N76" s="171"/>
-      <c r="O76" s="171"/>
-      <c r="P76" s="171"/>
-      <c r="Q76" s="171"/>
-      <c r="R76" s="171"/>
-      <c r="S76" s="171"/>
-      <c r="T76" s="171"/>
-      <c r="U76" s="171"/>
-      <c r="V76" s="171"/>
-      <c r="W76" s="171"/>
-      <c r="X76" s="171"/>
-      <c r="Y76" s="171"/>
-      <c r="Z76" s="171"/>
-      <c r="AA76" s="171"/>
-      <c r="AB76" s="171"/>
-      <c r="AC76" s="171"/>
-      <c r="AD76" s="171"/>
-      <c r="AE76" s="171"/>
-      <c r="AF76" s="171"/>
-      <c r="AG76" s="171"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="82"/>
+      <c r="D76" s="82"/>
+      <c r="E76" s="82"/>
+      <c r="F76" s="82"/>
+      <c r="G76" s="82"/>
+      <c r="H76" s="82"/>
+      <c r="I76" s="82"/>
+      <c r="J76" s="82"/>
+      <c r="K76" s="82"/>
+      <c r="L76" s="82"/>
+      <c r="M76" s="82"/>
+      <c r="N76" s="82"/>
+      <c r="O76" s="82"/>
+      <c r="P76" s="82"/>
+      <c r="Q76" s="82"/>
+      <c r="R76" s="82"/>
+      <c r="S76" s="82"/>
+      <c r="T76" s="82"/>
+      <c r="U76" s="82"/>
+      <c r="V76" s="82"/>
+      <c r="W76" s="82"/>
+      <c r="X76" s="82"/>
+      <c r="Y76" s="82"/>
+      <c r="Z76" s="82"/>
+      <c r="AA76" s="82"/>
+      <c r="AB76" s="82"/>
+      <c r="AC76" s="82"/>
+      <c r="AD76" s="82"/>
+      <c r="AE76" s="82"/>
+      <c r="AF76" s="82"/>
+      <c r="AG76" s="82"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="172" t="s">
+      <c r="A77" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="172"/>
-      <c r="C77" s="172"/>
-      <c r="D77" s="172"/>
-      <c r="E77" s="172"/>
-      <c r="F77" s="172"/>
-      <c r="G77" s="172"/>
-      <c r="H77" s="172"/>
-      <c r="I77" s="172"/>
-      <c r="J77" s="172"/>
-      <c r="K77" s="172"/>
-      <c r="L77" s="172"/>
-      <c r="M77" s="172"/>
-      <c r="N77" s="172"/>
-      <c r="O77" s="172"/>
-      <c r="P77" s="172"/>
-      <c r="Q77" s="172"/>
-      <c r="R77" s="172"/>
-      <c r="S77" s="172"/>
-      <c r="T77" s="172"/>
-      <c r="U77" s="172"/>
-      <c r="V77" s="172"/>
-      <c r="W77" s="172"/>
-      <c r="X77" s="172"/>
-      <c r="Y77" s="172"/>
-      <c r="Z77" s="172"/>
-      <c r="AA77" s="172"/>
-      <c r="AB77" s="172"/>
-      <c r="AC77" s="172"/>
-      <c r="AD77" s="172"/>
-      <c r="AE77" s="172"/>
-      <c r="AF77" s="172"/>
-      <c r="AG77" s="172"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="83"/>
+      <c r="F77" s="83"/>
+      <c r="G77" s="83"/>
+      <c r="H77" s="83"/>
+      <c r="I77" s="83"/>
+      <c r="J77" s="83"/>
+      <c r="K77" s="83"/>
+      <c r="L77" s="83"/>
+      <c r="M77" s="83"/>
+      <c r="N77" s="83"/>
+      <c r="O77" s="83"/>
+      <c r="P77" s="83"/>
+      <c r="Q77" s="83"/>
+      <c r="R77" s="83"/>
+      <c r="S77" s="83"/>
+      <c r="T77" s="83"/>
+      <c r="U77" s="83"/>
+      <c r="V77" s="83"/>
+      <c r="W77" s="83"/>
+      <c r="X77" s="83"/>
+      <c r="Y77" s="83"/>
+      <c r="Z77" s="83"/>
+      <c r="AA77" s="83"/>
+      <c r="AB77" s="83"/>
+      <c r="AC77" s="83"/>
+      <c r="AD77" s="83"/>
+      <c r="AE77" s="83"/>
+      <c r="AF77" s="83"/>
+      <c r="AG77" s="83"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="172"/>
-      <c r="C78" s="172"/>
-      <c r="D78" s="172"/>
-      <c r="E78" s="172"/>
-      <c r="F78" s="172"/>
-      <c r="G78" s="172"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="172"/>
-      <c r="J78" s="172"/>
-      <c r="K78" s="172"/>
-      <c r="L78" s="172"/>
-      <c r="M78" s="172"/>
-      <c r="N78" s="172"/>
-      <c r="O78" s="172"/>
-      <c r="P78" s="172"/>
-      <c r="Q78" s="172"/>
-      <c r="R78" s="172"/>
-      <c r="S78" s="172"/>
-      <c r="T78" s="172"/>
-      <c r="U78" s="172"/>
-      <c r="V78" s="172"/>
-      <c r="W78" s="172"/>
-      <c r="X78" s="172"/>
-      <c r="Y78" s="172"/>
-      <c r="Z78" s="172"/>
-      <c r="AA78" s="172"/>
-      <c r="AB78" s="172"/>
-      <c r="AC78" s="172"/>
-      <c r="AD78" s="172"/>
-      <c r="AE78" s="172"/>
-      <c r="AF78" s="172"/>
-      <c r="AG78" s="172"/>
+      <c r="B78" s="83"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="83"/>
+      <c r="E78" s="83"/>
+      <c r="F78" s="83"/>
+      <c r="G78" s="83"/>
+      <c r="H78" s="83"/>
+      <c r="I78" s="83"/>
+      <c r="J78" s="83"/>
+      <c r="K78" s="83"/>
+      <c r="L78" s="83"/>
+      <c r="M78" s="83"/>
+      <c r="N78" s="83"/>
+      <c r="O78" s="83"/>
+      <c r="P78" s="83"/>
+      <c r="Q78" s="83"/>
+      <c r="R78" s="83"/>
+      <c r="S78" s="83"/>
+      <c r="T78" s="83"/>
+      <c r="U78" s="83"/>
+      <c r="V78" s="83"/>
+      <c r="W78" s="83"/>
+      <c r="X78" s="83"/>
+      <c r="Y78" s="83"/>
+      <c r="Z78" s="83"/>
+      <c r="AA78" s="83"/>
+      <c r="AB78" s="83"/>
+      <c r="AC78" s="83"/>
+      <c r="AD78" s="83"/>
+      <c r="AE78" s="83"/>
+      <c r="AF78" s="83"/>
+      <c r="AG78" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:N67"/>
-    <mergeCell ref="O67:W67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:N68"/>
-    <mergeCell ref="O68:W68"/>
-    <mergeCell ref="B69:W69"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:N65"/>
-    <mergeCell ref="O65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:N66"/>
-    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="X28:Z29"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="K28:W29"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B32:C42"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C30"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="A76:AG76"/>
     <mergeCell ref="A77:AG77"/>
@@ -4754,132 +4873,31 @@
     <mergeCell ref="D37:W37"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="K40:W40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B32:C42"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C30"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="X28:Z29"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AF29"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="K28:W29"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="O65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:N67"/>
+    <mergeCell ref="O67:W67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:N68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="B69:W69"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="61" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4891,8 +4909,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:W52"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29:AB29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4930,163 +4948,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="136"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="136"/>
+      <c r="AA3" s="136"/>
+      <c r="AB3" s="136"/>
+      <c r="AC3" s="136"/>
+      <c r="AD3" s="136"/>
+      <c r="AE3" s="136"/>
+      <c r="AF3" s="136"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="136"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="136"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="136"/>
+      <c r="O4" s="136"/>
+      <c r="P4" s="136"/>
+      <c r="Q4" s="136"/>
+      <c r="R4" s="136"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
+      <c r="U4" s="136"/>
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="136"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="136"/>
+      <c r="AA4" s="136"/>
+      <c r="AB4" s="136"/>
+      <c r="AC4" s="136"/>
+      <c r="AD4" s="136"/>
+      <c r="AE4" s="136"/>
+      <c r="AF4" s="136"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="126" t="s">
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136"/>
+      <c r="U5" s="136"/>
+      <c r="V5" s="136"/>
+      <c r="W5" s="136"/>
+      <c r="X5" s="136"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="185" t="s">
+      <c r="AB5" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="125"/>
-      <c r="AD5" s="125"/>
-      <c r="AE5" s="125"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -5096,35 +5114,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="118"/>
-      <c r="Y6" s="116"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136"/>
+      <c r="U6" s="136"/>
+      <c r="V6" s="136"/>
+      <c r="W6" s="136"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="136"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="127" t="s">
+      <c r="AB6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
+      <c r="AC6" s="136"/>
+      <c r="AD6" s="136"/>
+      <c r="AE6" s="136"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
+      <c r="B7" s="136"/>
+      <c r="C7" s="136"/>
+      <c r="D7" s="136"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="136"/>
+      <c r="H7" s="136"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -5152,13 +5170,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -5167,38 +5185,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="119" t="s">
+      <c r="Q8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="195"/>
-      <c r="S8" s="195"/>
-      <c r="T8" s="195"/>
-      <c r="U8" s="195"/>
-      <c r="V8" s="195"/>
-      <c r="W8" s="195"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="119" t="s">
+      <c r="R8" s="237"/>
+      <c r="S8" s="237"/>
+      <c r="T8" s="237"/>
+      <c r="U8" s="237"/>
+      <c r="V8" s="237"/>
+      <c r="W8" s="237"/>
+      <c r="X8" s="239"/>
+      <c r="Y8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="195"/>
-      <c r="AA8" s="195"/>
-      <c r="AB8" s="195"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="119" t="s">
+      <c r="Z8" s="237"/>
+      <c r="AA8" s="237"/>
+      <c r="AB8" s="237"/>
+      <c r="AC8" s="239"/>
+      <c r="AD8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="195"/>
-      <c r="AF8" s="197"/>
+      <c r="AE8" s="237"/>
+      <c r="AF8" s="239"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -5207,22 +5225,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="198"/>
-      <c r="R9" s="196"/>
-      <c r="S9" s="196"/>
-      <c r="T9" s="196"/>
-      <c r="U9" s="196"/>
-      <c r="V9" s="196"/>
-      <c r="W9" s="196"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="198"/>
-      <c r="Z9" s="196"/>
-      <c r="AA9" s="196"/>
-      <c r="AB9" s="196"/>
-      <c r="AC9" s="199"/>
-      <c r="AD9" s="198"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="199"/>
+      <c r="Q9" s="240"/>
+      <c r="R9" s="238"/>
+      <c r="S9" s="238"/>
+      <c r="T9" s="238"/>
+      <c r="U9" s="238"/>
+      <c r="V9" s="238"/>
+      <c r="W9" s="238"/>
+      <c r="X9" s="241"/>
+      <c r="Y9" s="240"/>
+      <c r="Z9" s="238"/>
+      <c r="AA9" s="238"/>
+      <c r="AB9" s="238"/>
+      <c r="AC9" s="241"/>
+      <c r="AD9" s="240"/>
+      <c r="AE9" s="238"/>
+      <c r="AF9" s="241"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -5241,44 +5259,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="156">
+      <c r="Q10" s="152">
         <v>44986</v>
       </c>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="128">
+      <c r="R10" s="141"/>
+      <c r="S10" s="141"/>
+      <c r="T10" s="141"/>
+      <c r="U10" s="141"/>
+      <c r="V10" s="141"/>
+      <c r="W10" s="141"/>
+      <c r="X10" s="142"/>
+      <c r="Y10" s="176">
         <v>0</v>
       </c>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="153" t="s">
+      <c r="Z10" s="141"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="141"/>
+      <c r="AC10" s="142"/>
+      <c r="AD10" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="121"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="142"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="136"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="172" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5287,22 +5305,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="122"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="124"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="123"/>
-      <c r="AA11" s="123"/>
-      <c r="AB11" s="123"/>
-      <c r="AC11" s="124"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="123"/>
-      <c r="AF11" s="124"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
+      <c r="W11" s="144"/>
+      <c r="X11" s="145"/>
+      <c r="Y11" s="143"/>
+      <c r="Z11" s="144"/>
+      <c r="AA11" s="144"/>
+      <c r="AB11" s="144"/>
+      <c r="AC11" s="145"/>
+      <c r="AD11" s="143"/>
+      <c r="AE11" s="144"/>
+      <c r="AF11" s="145"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5340,75 +5358,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
-      <c r="L13" s="195"/>
-      <c r="M13" s="195"/>
-      <c r="N13" s="195"/>
-      <c r="O13" s="195"/>
-      <c r="P13" s="195"/>
-      <c r="Q13" s="195"/>
-      <c r="R13" s="195"/>
-      <c r="S13" s="195"/>
-      <c r="T13" s="195"/>
-      <c r="U13" s="195"/>
-      <c r="V13" s="195"/>
-      <c r="W13" s="195"/>
-      <c r="X13" s="195"/>
-      <c r="Y13" s="195"/>
-      <c r="Z13" s="195"/>
-      <c r="AA13" s="195"/>
-      <c r="AB13" s="195"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="237"/>
+      <c r="M13" s="237"/>
+      <c r="N13" s="237"/>
+      <c r="O13" s="237"/>
+      <c r="P13" s="237"/>
+      <c r="Q13" s="237"/>
+      <c r="R13" s="237"/>
+      <c r="S13" s="237"/>
+      <c r="T13" s="237"/>
+      <c r="U13" s="237"/>
+      <c r="V13" s="237"/>
+      <c r="W13" s="237"/>
+      <c r="X13" s="237"/>
+      <c r="Y13" s="237"/>
+      <c r="Z13" s="237"/>
+      <c r="AA13" s="237"/>
+      <c r="AB13" s="237"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="157" t="s">
+      <c r="AD13" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="195"/>
-      <c r="AF13" s="195"/>
+      <c r="AE13" s="237"/>
+      <c r="AF13" s="237"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="196"/>
-      <c r="C14" s="196"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="196"/>
-      <c r="G14" s="196"/>
-      <c r="H14" s="196"/>
-      <c r="I14" s="196"/>
-      <c r="J14" s="196"/>
-      <c r="K14" s="196"/>
-      <c r="L14" s="196"/>
-      <c r="M14" s="196"/>
-      <c r="N14" s="196"/>
-      <c r="O14" s="196"/>
-      <c r="P14" s="196"/>
-      <c r="Q14" s="196"/>
-      <c r="R14" s="196"/>
-      <c r="S14" s="196"/>
-      <c r="T14" s="196"/>
-      <c r="U14" s="196"/>
-      <c r="V14" s="196"/>
-      <c r="W14" s="196"/>
-      <c r="X14" s="196"/>
-      <c r="Y14" s="196"/>
-      <c r="Z14" s="196"/>
-      <c r="AA14" s="196"/>
-      <c r="AB14" s="196"/>
+      <c r="B14" s="238"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="238"/>
+      <c r="E14" s="238"/>
+      <c r="F14" s="238"/>
+      <c r="G14" s="238"/>
+      <c r="H14" s="238"/>
+      <c r="I14" s="238"/>
+      <c r="J14" s="238"/>
+      <c r="K14" s="238"/>
+      <c r="L14" s="238"/>
+      <c r="M14" s="238"/>
+      <c r="N14" s="238"/>
+      <c r="O14" s="238"/>
+      <c r="P14" s="238"/>
+      <c r="Q14" s="238"/>
+      <c r="R14" s="238"/>
+      <c r="S14" s="238"/>
+      <c r="T14" s="238"/>
+      <c r="U14" s="238"/>
+      <c r="V14" s="238"/>
+      <c r="W14" s="238"/>
+      <c r="X14" s="238"/>
+      <c r="Y14" s="238"/>
+      <c r="Z14" s="238"/>
+      <c r="AA14" s="238"/>
+      <c r="AB14" s="238"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="196"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="196"/>
+      <c r="AD14" s="238"/>
+      <c r="AE14" s="238"/>
+      <c r="AF14" s="238"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5445,173 +5463,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="150" t="s">
+      <c r="A16" s="102"/>
+      <c r="B16" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="224" t="s">
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="183"/>
-      <c r="K16" s="181" t="s">
+      <c r="G16" s="233"/>
+      <c r="H16" s="233"/>
+      <c r="I16" s="233"/>
+      <c r="J16" s="234"/>
+      <c r="K16" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="182"/>
-      <c r="O16" s="182"/>
-      <c r="P16" s="182"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="182"/>
-      <c r="S16" s="182"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="182"/>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="183"/>
+      <c r="L16" s="233"/>
+      <c r="M16" s="233"/>
+      <c r="N16" s="233"/>
+      <c r="O16" s="233"/>
+      <c r="P16" s="233"/>
+      <c r="Q16" s="233"/>
+      <c r="R16" s="233"/>
+      <c r="S16" s="233"/>
+      <c r="T16" s="233"/>
+      <c r="U16" s="233"/>
+      <c r="V16" s="233"/>
+      <c r="W16" s="233"/>
+      <c r="X16" s="233"/>
+      <c r="Y16" s="233"/>
+      <c r="Z16" s="233"/>
+      <c r="AA16" s="233"/>
+      <c r="AB16" s="234"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="175"/>
+      <c r="AE16" s="173"/>
+      <c r="AF16" s="200"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="220"/>
-      <c r="C17" s="202"/>
-      <c r="D17" s="202"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="210" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="227"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="221" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="211"/>
-      <c r="H17" s="211"/>
-      <c r="I17" s="211"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="216" t="s">
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="222"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="217"/>
-      <c r="M17" s="217"/>
-      <c r="N17" s="217"/>
-      <c r="O17" s="217"/>
-      <c r="P17" s="217"/>
-      <c r="Q17" s="217"/>
-      <c r="R17" s="178" t="s">
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="247" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="218" t="s">
+      <c r="S17" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="218"/>
-      <c r="U17" s="218"/>
-      <c r="V17" s="218"/>
-      <c r="W17" s="218"/>
-      <c r="X17" s="218"/>
-      <c r="Y17" s="218"/>
-      <c r="Z17" s="218"/>
-      <c r="AA17" s="218"/>
-      <c r="AB17" s="219"/>
+      <c r="T17" s="185"/>
+      <c r="U17" s="185"/>
+      <c r="V17" s="185"/>
+      <c r="W17" s="185"/>
+      <c r="X17" s="185"/>
+      <c r="Y17" s="185"/>
+      <c r="Z17" s="185"/>
+      <c r="AA17" s="185"/>
+      <c r="AB17" s="186"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="136" t="s">
+      <c r="AD17" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="179">
+      <c r="AE17" s="248">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="179"/>
+      <c r="AF17" s="248"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="204"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="175"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="215"/>
-      <c r="K18" s="95">
+      <c r="A18" s="136"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="200"/>
+      <c r="D18" s="200"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="225"/>
+      <c r="H18" s="225"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="92">
         <v>16000</v>
       </c>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="178"/>
-      <c r="S18" s="89">
+      <c r="L18" s="208"/>
+      <c r="M18" s="208"/>
+      <c r="N18" s="208"/>
+      <c r="O18" s="208"/>
+      <c r="P18" s="208"/>
+      <c r="Q18" s="208"/>
+      <c r="R18" s="247"/>
+      <c r="S18" s="165">
         <v>68.69</v>
       </c>
-      <c r="T18" s="177"/>
-      <c r="U18" s="177"/>
-      <c r="V18" s="177"/>
-      <c r="W18" s="177"/>
-      <c r="X18" s="177"/>
-      <c r="Y18" s="177"/>
-      <c r="Z18" s="177"/>
-      <c r="AA18" s="177"/>
-      <c r="AB18" s="200"/>
+      <c r="T18" s="208"/>
+      <c r="U18" s="208"/>
+      <c r="V18" s="208"/>
+      <c r="W18" s="208"/>
+      <c r="X18" s="208"/>
+      <c r="Y18" s="208"/>
+      <c r="Z18" s="208"/>
+      <c r="AA18" s="208"/>
+      <c r="AB18" s="209"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="179"/>
-      <c r="AF18" s="179"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="248"/>
+      <c r="AF18" s="248"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="205"/>
-      <c r="C19" s="206"/>
-      <c r="D19" s="206"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="94" t="s">
+      <c r="B19" s="214"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="189"/>
-      <c r="K19" s="190">
+      <c r="G19" s="229"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="230"/>
+      <c r="K19" s="216">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="191"/>
-      <c r="M19" s="191"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
-      <c r="P19" s="191"/>
-      <c r="Q19" s="191"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="191"/>
-      <c r="AA19" s="191"/>
-      <c r="AB19" s="192"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="217"/>
+      <c r="V19" s="217"/>
+      <c r="W19" s="217"/>
+      <c r="X19" s="217"/>
+      <c r="Y19" s="217"/>
+      <c r="Z19" s="217"/>
+      <c r="AA19" s="217"/>
+      <c r="AB19" s="218"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="193">
+      <c r="AE19" s="199">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="194"/>
+      <c r="AF19" s="236"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5619,24 +5637,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="184"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="180"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="175"/>
-      <c r="U20" s="175"/>
-      <c r="V20" s="175"/>
-      <c r="W20" s="175"/>
+      <c r="K20" s="250"/>
+      <c r="L20" s="200"/>
+      <c r="M20" s="200"/>
+      <c r="N20" s="200"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="200"/>
+      <c r="Q20" s="249"/>
+      <c r="R20" s="200"/>
+      <c r="S20" s="200"/>
+      <c r="T20" s="200"/>
+      <c r="U20" s="200"/>
+      <c r="V20" s="200"/>
+      <c r="W20" s="200"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5646,207 +5664,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="176">
+      <c r="AE20" s="246">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="177"/>
+      <c r="AF20" s="208"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="200"/>
-      <c r="F21" s="223" t="s">
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="232" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="182"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="182"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="181" t="s">
+      <c r="G21" s="233"/>
+      <c r="H21" s="233"/>
+      <c r="I21" s="233"/>
+      <c r="J21" s="234"/>
+      <c r="K21" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="182"/>
-      <c r="O21" s="182"/>
-      <c r="P21" s="182"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="183"/>
+      <c r="L21" s="233"/>
+      <c r="M21" s="233"/>
+      <c r="N21" s="233"/>
+      <c r="O21" s="233"/>
+      <c r="P21" s="233"/>
+      <c r="Q21" s="233"/>
+      <c r="R21" s="233"/>
+      <c r="S21" s="233"/>
+      <c r="T21" s="233"/>
+      <c r="U21" s="233"/>
+      <c r="V21" s="233"/>
+      <c r="W21" s="233"/>
+      <c r="X21" s="233"/>
+      <c r="Y21" s="233"/>
+      <c r="Z21" s="233"/>
+      <c r="AA21" s="233"/>
+      <c r="AB21" s="234"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="175"/>
+      <c r="AE21" s="162"/>
+      <c r="AF21" s="200"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="201"/>
-      <c r="C22" s="202"/>
-      <c r="D22" s="202"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="237" t="s">
+      <c r="B22" s="210"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="238"/>
-      <c r="H22" s="238"/>
-      <c r="I22" s="238"/>
-      <c r="J22" s="239"/>
-      <c r="K22" s="216" t="s">
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="189"/>
+      <c r="K22" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="217"/>
-      <c r="M22" s="217"/>
-      <c r="N22" s="217"/>
-      <c r="O22" s="217"/>
-      <c r="P22" s="217"/>
-      <c r="Q22" s="217"/>
-      <c r="R22" s="243" t="s">
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="218" t="s">
+      <c r="S22" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="218"/>
-      <c r="U22" s="218"/>
-      <c r="V22" s="218"/>
-      <c r="W22" s="218"/>
-      <c r="X22" s="218"/>
-      <c r="Y22" s="218"/>
-      <c r="Z22" s="218"/>
-      <c r="AA22" s="218"/>
-      <c r="AB22" s="219"/>
+      <c r="T22" s="185"/>
+      <c r="U22" s="185"/>
+      <c r="V22" s="185"/>
+      <c r="W22" s="185"/>
+      <c r="X22" s="185"/>
+      <c r="Y22" s="185"/>
+      <c r="Z22" s="185"/>
+      <c r="AA22" s="185"/>
+      <c r="AB22" s="186"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="136" t="s">
+      <c r="AD22" s="161" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="82">
+      <c r="AE22" s="80">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="82"/>
+      <c r="AF22" s="80"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="175"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="241"/>
-      <c r="H23" s="241"/>
-      <c r="I23" s="241"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="186">
+      <c r="B23" s="213"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="191"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="192"/>
+      <c r="K23" s="244">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="187"/>
-      <c r="P23" s="187"/>
-      <c r="Q23" s="187"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="221">
+      <c r="L23" s="229"/>
+      <c r="M23" s="229"/>
+      <c r="N23" s="229"/>
+      <c r="O23" s="229"/>
+      <c r="P23" s="229"/>
+      <c r="Q23" s="229"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="228">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="187"/>
-      <c r="U23" s="187"/>
-      <c r="V23" s="187"/>
-      <c r="W23" s="187"/>
-      <c r="X23" s="187"/>
-      <c r="Y23" s="187"/>
-      <c r="Z23" s="187"/>
-      <c r="AA23" s="187"/>
-      <c r="AB23" s="189"/>
+      <c r="T23" s="229"/>
+      <c r="U23" s="229"/>
+      <c r="V23" s="229"/>
+      <c r="W23" s="229"/>
+      <c r="X23" s="229"/>
+      <c r="Y23" s="229"/>
+      <c r="Z23" s="229"/>
+      <c r="AA23" s="229"/>
+      <c r="AB23" s="230"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="80"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="150"/>
+      <c r="AF23" s="150"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="206"/>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="188" t="s">
+      <c r="B24" s="214"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="215"/>
+      <c r="F24" s="245" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="189"/>
-      <c r="K24" s="190">
+      <c r="G24" s="229"/>
+      <c r="H24" s="229"/>
+      <c r="I24" s="229"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="216">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="191"/>
-      <c r="M24" s="191"/>
-      <c r="N24" s="191"/>
-      <c r="O24" s="191"/>
-      <c r="P24" s="191"/>
-      <c r="Q24" s="191"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="191"/>
-      <c r="AB24" s="192"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="217"/>
+      <c r="Q24" s="217"/>
+      <c r="R24" s="217"/>
+      <c r="S24" s="217"/>
+      <c r="T24" s="217"/>
+      <c r="U24" s="217"/>
+      <c r="V24" s="217"/>
+      <c r="W24" s="217"/>
+      <c r="X24" s="217"/>
+      <c r="Y24" s="217"/>
+      <c r="Z24" s="217"/>
+      <c r="AA24" s="217"/>
+      <c r="AB24" s="218"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="80">
+      <c r="AE24" s="150">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="206"/>
+      <c r="AF24" s="182"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
+      <c r="A25" s="102"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="206"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="206"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="182"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="182"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="236"/>
-      <c r="L25" s="206"/>
-      <c r="M25" s="206"/>
-      <c r="N25" s="206"/>
-      <c r="O25" s="206"/>
-      <c r="P25" s="206"/>
-      <c r="Q25" s="206"/>
-      <c r="R25" s="206"/>
-      <c r="S25" s="206"/>
-      <c r="T25" s="206"/>
-      <c r="U25" s="206"/>
-      <c r="V25" s="206"/>
-      <c r="W25" s="206"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="182"/>
+      <c r="O25" s="182"/>
+      <c r="P25" s="182"/>
+      <c r="Q25" s="182"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="182"/>
+      <c r="T25" s="182"/>
+      <c r="U25" s="182"/>
+      <c r="V25" s="182"/>
+      <c r="W25" s="182"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5856,14 +5874,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="193">
+      <c r="AE25" s="199">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="206"/>
+      <c r="AF25" s="182"/>
     </row>
     <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5897,7 +5915,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5916,28 +5934,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="164" t="s">
-        <v>57</v>
-      </c>
-      <c r="U27" s="175"/>
-      <c r="V27" s="175"/>
-      <c r="W27" s="175"/>
-      <c r="X27" s="175"/>
-      <c r="Y27" s="175"/>
-      <c r="Z27" s="175"/>
-      <c r="AA27" s="175"/>
-      <c r="AB27" s="175"/>
+      <c r="T27" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="U27" s="200"/>
+      <c r="V27" s="200"/>
+      <c r="W27" s="200"/>
+      <c r="X27" s="200"/>
+      <c r="Y27" s="200"/>
+      <c r="Z27" s="200"/>
+      <c r="AA27" s="200"/>
+      <c r="AB27" s="200"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="231">
+      <c r="AE27" s="195">
         <v>10000</v>
       </c>
-      <c r="AF27" s="232"/>
+      <c r="AF27" s="196"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
+      <c r="A28" s="136"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5956,28 +5974,28 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
+      <c r="T28" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="81"/>
+      <c r="X28" s="81"/>
+      <c r="Y28" s="81"/>
+      <c r="Z28" s="81"/>
+      <c r="AA28" s="81"/>
+      <c r="AB28" s="81"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="235">
+      <c r="AE28" s="201">
         <v>0</v>
       </c>
-      <c r="AF28" s="232"/>
+      <c r="AF28" s="196"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
+      <c r="A29" s="136"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5996,25 +6014,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="222" t="s">
+      <c r="T29" s="231" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="175"/>
-      <c r="V29" s="175"/>
-      <c r="W29" s="175"/>
-      <c r="X29" s="175"/>
-      <c r="Y29" s="175"/>
-      <c r="Z29" s="175"/>
-      <c r="AA29" s="175"/>
-      <c r="AB29" s="175"/>
+      <c r="U29" s="200"/>
+      <c r="V29" s="200"/>
+      <c r="W29" s="200"/>
+      <c r="X29" s="200"/>
+      <c r="Y29" s="200"/>
+      <c r="Z29" s="200"/>
+      <c r="AA29" s="200"/>
+      <c r="AB29" s="200"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="233">
+      <c r="AE29" s="197">
         <v>10000</v>
       </c>
-      <c r="AF29" s="234"/>
+      <c r="AF29" s="198"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -6036,26 +6054,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="165" t="s">
+      <c r="T30" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="175"/>
-      <c r="V30" s="175"/>
-      <c r="W30" s="175"/>
-      <c r="X30" s="175"/>
-      <c r="Y30" s="175"/>
-      <c r="Z30" s="175"/>
-      <c r="AA30" s="175"/>
-      <c r="AB30" s="175"/>
+      <c r="U30" s="200"/>
+      <c r="V30" s="200"/>
+      <c r="W30" s="200"/>
+      <c r="X30" s="200"/>
+      <c r="Y30" s="200"/>
+      <c r="Z30" s="200"/>
+      <c r="AA30" s="200"/>
+      <c r="AB30" s="200"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="82">
+      <c r="AE30" s="80">
         <f>AE20+AE25+AE27+AE29+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF30" s="175"/>
+      <c r="AF30" s="200"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -6127,41 +6145,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="229" t="s">
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="206" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="229"/>
-      <c r="I33" s="229"/>
-      <c r="J33" s="229"/>
-      <c r="K33" s="229"/>
-      <c r="L33" s="229"/>
-      <c r="M33" s="229"/>
-      <c r="N33" s="229"/>
-      <c r="O33" s="229"/>
-      <c r="P33" s="229"/>
-      <c r="Q33" s="229"/>
-      <c r="R33" s="229"/>
-      <c r="S33" s="229"/>
-      <c r="T33" s="229"/>
-      <c r="U33" s="229"/>
-      <c r="V33" s="229"/>
-      <c r="W33" s="229"/>
-      <c r="X33" s="229"/>
-      <c r="Y33" s="229"/>
-      <c r="Z33" s="229"/>
-      <c r="AA33" s="229"/>
-      <c r="AB33" s="229"/>
-      <c r="AC33" s="229"/>
-      <c r="AD33" s="229"/>
-      <c r="AE33" s="229"/>
-      <c r="AF33" s="229"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="206"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="206"/>
+      <c r="M33" s="206"/>
+      <c r="N33" s="206"/>
+      <c r="O33" s="206"/>
+      <c r="P33" s="206"/>
+      <c r="Q33" s="206"/>
+      <c r="R33" s="206"/>
+      <c r="S33" s="206"/>
+      <c r="T33" s="206"/>
+      <c r="U33" s="206"/>
+      <c r="V33" s="206"/>
+      <c r="W33" s="206"/>
+      <c r="X33" s="206"/>
+      <c r="Y33" s="206"/>
+      <c r="Z33" s="206"/>
+      <c r="AA33" s="206"/>
+      <c r="AB33" s="206"/>
+      <c r="AC33" s="206"/>
+      <c r="AD33" s="206"/>
+      <c r="AE33" s="206"/>
+      <c r="AF33" s="206"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -6290,207 +6308,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="49"/>
-      <c r="AB37" s="230" t="s">
+      <c r="AB37" s="207" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="230"/>
-      <c r="AD37" s="230"/>
-      <c r="AE37" s="230"/>
-      <c r="AF37" s="230"/>
+      <c r="AC37" s="207"/>
+      <c r="AD37" s="207"/>
+      <c r="AE37" s="207"/>
+      <c r="AF37" s="207"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="173" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
-      <c r="S38" s="173"/>
-      <c r="T38" s="173"/>
-      <c r="U38" s="173"/>
-      <c r="V38" s="173"/>
-      <c r="W38" s="173"/>
-      <c r="AB38" s="230"/>
-      <c r="AC38" s="230"/>
-      <c r="AD38" s="230"/>
-      <c r="AE38" s="230"/>
-      <c r="AF38" s="230"/>
+      <c r="B38" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="96"/>
+      <c r="O38" s="96"/>
+      <c r="P38" s="96"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="96"/>
+      <c r="S38" s="96"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="96"/>
+      <c r="AB38" s="207"/>
+      <c r="AC38" s="207"/>
+      <c r="AD38" s="207"/>
+      <c r="AE38" s="207"/>
+      <c r="AF38" s="207"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="173"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="173"/>
-      <c r="U39" s="173"/>
-      <c r="V39" s="173"/>
-      <c r="W39" s="173"/>
-      <c r="AB39" s="230"/>
-      <c r="AC39" s="230"/>
-      <c r="AD39" s="230"/>
-      <c r="AE39" s="230"/>
-      <c r="AF39" s="230"/>
+      <c r="B39" s="96"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="96"/>
+      <c r="P39" s="96"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="96"/>
+      <c r="AB39" s="207"/>
+      <c r="AC39" s="207"/>
+      <c r="AD39" s="207"/>
+      <c r="AE39" s="207"/>
+      <c r="AF39" s="207"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="173"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
-      <c r="U40" s="173"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="96"/>
+      <c r="O40" s="96"/>
+      <c r="P40" s="96"/>
+      <c r="Q40" s="96"/>
+      <c r="R40" s="96"/>
+      <c r="S40" s="96"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="96"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="96"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="173"/>
-      <c r="U41" s="173"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="96"/>
+      <c r="O41" s="96"/>
+      <c r="P41" s="96"/>
+      <c r="Q41" s="96"/>
+      <c r="R41" s="96"/>
+      <c r="S41" s="96"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="96"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="96"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="173"/>
-      <c r="M42" s="173"/>
-      <c r="N42" s="173"/>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="173"/>
-      <c r="S42" s="173"/>
-      <c r="T42" s="173"/>
-      <c r="U42" s="173"/>
-      <c r="V42" s="173"/>
-      <c r="W42" s="173"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="96"/>
+      <c r="P42" s="96"/>
+      <c r="Q42" s="96"/>
+      <c r="R42" s="96"/>
+      <c r="S42" s="96"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="96"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="96"/>
+      <c r="O43" s="96"/>
+      <c r="P43" s="96"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="96"/>
+      <c r="S43" s="96"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="96"/>
+      <c r="V43" s="96"/>
+      <c r="W43" s="96"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="173"/>
-      <c r="S44" s="173"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="173"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="173"/>
-      <c r="AB44" s="227" t="s">
+      <c r="B44" s="96"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="AB44" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="228"/>
-      <c r="AD44" s="228"/>
-      <c r="AE44" s="228"/>
-      <c r="AF44" s="228"/>
+      <c r="AC44" s="205"/>
+      <c r="AD44" s="205"/>
+      <c r="AE44" s="205"/>
+      <c r="AF44" s="205"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -6516,11 +6534,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="225"/>
-      <c r="AC45" s="226"/>
-      <c r="AD45" s="226"/>
-      <c r="AE45" s="226"/>
-      <c r="AF45" s="226"/>
+      <c r="AB45" s="202"/>
+      <c r="AC45" s="203"/>
+      <c r="AD45" s="203"/>
+      <c r="AE45" s="203"/>
+      <c r="AF45" s="203"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -6558,12 +6576,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="245" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="245"/>
-      <c r="D47" s="245"/>
-      <c r="E47" s="245"/>
+      <c r="B47" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -6594,36 +6612,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="246" t="s">
+      <c r="B48" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="251" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="246"/>
-      <c r="D48" s="246" t="s">
+      <c r="I48" s="252"/>
+      <c r="J48" s="252"/>
+      <c r="K48" s="252"/>
+      <c r="L48" s="252"/>
+      <c r="M48" s="252"/>
+      <c r="N48" s="253"/>
+      <c r="O48" s="251" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="246"/>
-      <c r="F48" s="246"/>
-      <c r="G48" s="246"/>
-      <c r="H48" s="246" t="s">
-        <v>64</v>
-      </c>
-      <c r="I48" s="246"/>
-      <c r="J48" s="246"/>
-      <c r="K48" s="246"/>
-      <c r="L48" s="246"/>
-      <c r="M48" s="246"/>
-      <c r="N48" s="246"/>
-      <c r="O48" s="246" t="s">
-        <v>65</v>
-      </c>
-      <c r="P48" s="246"/>
-      <c r="Q48" s="246"/>
-      <c r="R48" s="246"/>
-      <c r="S48" s="246"/>
-      <c r="T48" s="246"/>
-      <c r="U48" s="246"/>
-      <c r="V48" s="246"/>
-      <c r="W48" s="246"/>
+      <c r="P48" s="252"/>
+      <c r="Q48" s="252"/>
+      <c r="R48" s="252"/>
+      <c r="S48" s="252"/>
+      <c r="T48" s="252"/>
+      <c r="U48" s="252"/>
+      <c r="V48" s="252"/>
+      <c r="W48" s="253"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -6636,36 +6654,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="247" t="s">
+      <c r="B49" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="74"/>
+      <c r="D49" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="254" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="247"/>
-      <c r="D49" s="248" t="s">
+      <c r="I49" s="255"/>
+      <c r="J49" s="255"/>
+      <c r="K49" s="255"/>
+      <c r="L49" s="255"/>
+      <c r="M49" s="255"/>
+      <c r="N49" s="256"/>
+      <c r="O49" s="254" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="248"/>
-      <c r="F49" s="248"/>
-      <c r="G49" s="248"/>
-      <c r="H49" s="248" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="248"/>
-      <c r="J49" s="248"/>
-      <c r="K49" s="248"/>
-      <c r="L49" s="248"/>
-      <c r="M49" s="248"/>
-      <c r="N49" s="248"/>
-      <c r="O49" s="248" t="s">
-        <v>69</v>
-      </c>
-      <c r="P49" s="248"/>
-      <c r="Q49" s="248"/>
-      <c r="R49" s="248"/>
-      <c r="S49" s="248"/>
-      <c r="T49" s="248"/>
-      <c r="U49" s="248"/>
-      <c r="V49" s="248"/>
-      <c r="W49" s="248"/>
+      <c r="P49" s="255"/>
+      <c r="Q49" s="255"/>
+      <c r="R49" s="255"/>
+      <c r="S49" s="255"/>
+      <c r="T49" s="255"/>
+      <c r="U49" s="255"/>
+      <c r="V49" s="255"/>
+      <c r="W49" s="256"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6678,36 +6696,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="247" t="s">
+      <c r="B50" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="74"/>
+      <c r="D50" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="254" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="247"/>
-      <c r="D50" s="248" t="s">
+      <c r="I50" s="255"/>
+      <c r="J50" s="255"/>
+      <c r="K50" s="255"/>
+      <c r="L50" s="255"/>
+      <c r="M50" s="255"/>
+      <c r="N50" s="256"/>
+      <c r="O50" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="248"/>
-      <c r="F50" s="248"/>
-      <c r="G50" s="248"/>
-      <c r="H50" s="248" t="s">
-        <v>72</v>
-      </c>
-      <c r="I50" s="248"/>
-      <c r="J50" s="248"/>
-      <c r="K50" s="248"/>
-      <c r="L50" s="248"/>
-      <c r="M50" s="248"/>
-      <c r="N50" s="248"/>
-      <c r="O50" s="248" t="s">
-        <v>73</v>
-      </c>
-      <c r="P50" s="248"/>
-      <c r="Q50" s="248"/>
-      <c r="R50" s="248"/>
-      <c r="S50" s="248"/>
-      <c r="T50" s="248"/>
-      <c r="U50" s="248"/>
-      <c r="V50" s="248"/>
-      <c r="W50" s="248"/>
+      <c r="P50" s="255"/>
+      <c r="Q50" s="255"/>
+      <c r="R50" s="255"/>
+      <c r="S50" s="255"/>
+      <c r="T50" s="255"/>
+      <c r="U50" s="255"/>
+      <c r="V50" s="255"/>
+      <c r="W50" s="256"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6718,38 +6736,38 @@
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
     </row>
-    <row r="51" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="247" t="s">
+      <c r="B51" s="74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="74"/>
+      <c r="D51" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="76"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="257" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="247"/>
-      <c r="D51" s="249" t="s">
+      <c r="I51" s="258"/>
+      <c r="J51" s="258"/>
+      <c r="K51" s="258"/>
+      <c r="L51" s="258"/>
+      <c r="M51" s="258"/>
+      <c r="N51" s="259"/>
+      <c r="O51" s="257" t="s">
         <v>75</v>
       </c>
-      <c r="E51" s="249"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="249"/>
-      <c r="H51" s="250" t="s">
-        <v>76</v>
-      </c>
-      <c r="I51" s="250"/>
-      <c r="J51" s="250"/>
-      <c r="K51" s="250"/>
-      <c r="L51" s="250"/>
-      <c r="M51" s="250"/>
-      <c r="N51" s="250"/>
-      <c r="O51" s="250" t="s">
-        <v>77</v>
-      </c>
-      <c r="P51" s="250"/>
-      <c r="Q51" s="250"/>
-      <c r="R51" s="250"/>
-      <c r="S51" s="250"/>
-      <c r="T51" s="250"/>
-      <c r="U51" s="250"/>
-      <c r="V51" s="250"/>
-      <c r="W51" s="250"/>
+      <c r="P51" s="258"/>
+      <c r="Q51" s="258"/>
+      <c r="R51" s="258"/>
+      <c r="S51" s="258"/>
+      <c r="T51" s="258"/>
+      <c r="U51" s="258"/>
+      <c r="V51" s="258"/>
+      <c r="W51" s="259"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6762,30 +6780,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="251" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="251"/>
-      <c r="D52" s="251"/>
-      <c r="E52" s="251"/>
-      <c r="F52" s="251"/>
-      <c r="G52" s="251"/>
-      <c r="H52" s="251"/>
-      <c r="I52" s="251"/>
-      <c r="J52" s="251"/>
-      <c r="K52" s="251"/>
-      <c r="L52" s="251"/>
-      <c r="M52" s="251"/>
-      <c r="N52" s="251"/>
-      <c r="O52" s="251"/>
-      <c r="P52" s="251"/>
-      <c r="Q52" s="251"/>
-      <c r="R52" s="251"/>
-      <c r="S52" s="251"/>
-      <c r="T52" s="251"/>
-      <c r="U52" s="251"/>
-      <c r="V52" s="251"/>
-      <c r="W52" s="251"/>
+      <c r="B52" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
+      <c r="M52" s="77"/>
+      <c r="N52" s="77"/>
+      <c r="O52" s="77"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="77"/>
+      <c r="R52" s="77"/>
+      <c r="S52" s="77"/>
+      <c r="T52" s="77"/>
+      <c r="U52" s="77"/>
+      <c r="V52" s="77"/>
+      <c r="W52" s="77"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6797,148 +6815,157 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="171" t="s">
+      <c r="B63" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
-      <c r="U63" s="116"/>
-      <c r="V63" s="116"/>
-      <c r="W63" s="116"/>
-      <c r="X63" s="116"/>
-      <c r="Y63" s="116"/>
-      <c r="Z63" s="116"/>
-      <c r="AA63" s="116"/>
-      <c r="AB63" s="116"/>
-      <c r="AC63" s="116"/>
-      <c r="AD63" s="116"/>
-      <c r="AE63" s="116"/>
-      <c r="AF63" s="116"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="136"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="136"/>
+      <c r="N63" s="136"/>
+      <c r="O63" s="136"/>
+      <c r="P63" s="136"/>
+      <c r="Q63" s="136"/>
+      <c r="R63" s="136"/>
+      <c r="S63" s="136"/>
+      <c r="T63" s="136"/>
+      <c r="U63" s="136"/>
+      <c r="V63" s="136"/>
+      <c r="W63" s="136"/>
+      <c r="X63" s="136"/>
+      <c r="Y63" s="136"/>
+      <c r="Z63" s="136"/>
+      <c r="AA63" s="136"/>
+      <c r="AB63" s="136"/>
+      <c r="AC63" s="136"/>
+      <c r="AD63" s="136"/>
+      <c r="AE63" s="136"/>
+      <c r="AF63" s="136"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="172" t="s">
+      <c r="B64" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="116"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="116"/>
-      <c r="W64" s="116"/>
-      <c r="X64" s="116"/>
-      <c r="Y64" s="116"/>
-      <c r="Z64" s="116"/>
-      <c r="AA64" s="116"/>
-      <c r="AB64" s="116"/>
-      <c r="AC64" s="116"/>
-      <c r="AD64" s="116"/>
-      <c r="AE64" s="116"/>
-      <c r="AF64" s="116"/>
+      <c r="C64" s="136"/>
+      <c r="D64" s="136"/>
+      <c r="E64" s="136"/>
+      <c r="F64" s="136"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="136"/>
+      <c r="I64" s="136"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="136"/>
+      <c r="L64" s="136"/>
+      <c r="M64" s="136"/>
+      <c r="N64" s="136"/>
+      <c r="O64" s="136"/>
+      <c r="P64" s="136"/>
+      <c r="Q64" s="136"/>
+      <c r="R64" s="136"/>
+      <c r="S64" s="136"/>
+      <c r="T64" s="136"/>
+      <c r="U64" s="136"/>
+      <c r="V64" s="136"/>
+      <c r="W64" s="136"/>
+      <c r="X64" s="136"/>
+      <c r="Y64" s="136"/>
+      <c r="Z64" s="136"/>
+      <c r="AA64" s="136"/>
+      <c r="AB64" s="136"/>
+      <c r="AC64" s="136"/>
+      <c r="AD64" s="136"/>
+      <c r="AE64" s="136"/>
+      <c r="AF64" s="136"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="172" t="s">
+      <c r="B65" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="116"/>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="116"/>
-      <c r="U65" s="116"/>
-      <c r="V65" s="116"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="116"/>
-      <c r="Y65" s="116"/>
-      <c r="Z65" s="116"/>
-      <c r="AA65" s="116"/>
-      <c r="AB65" s="116"/>
-      <c r="AC65" s="116"/>
-      <c r="AD65" s="116"/>
-      <c r="AE65" s="116"/>
-      <c r="AF65" s="116"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="136"/>
+      <c r="F65" s="136"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="136"/>
+      <c r="I65" s="136"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="136"/>
+      <c r="L65" s="136"/>
+      <c r="M65" s="136"/>
+      <c r="N65" s="136"/>
+      <c r="O65" s="136"/>
+      <c r="P65" s="136"/>
+      <c r="Q65" s="136"/>
+      <c r="R65" s="136"/>
+      <c r="S65" s="136"/>
+      <c r="T65" s="136"/>
+      <c r="U65" s="136"/>
+      <c r="V65" s="136"/>
+      <c r="W65" s="136"/>
+      <c r="X65" s="136"/>
+      <c r="Y65" s="136"/>
+      <c r="Z65" s="136"/>
+      <c r="AA65" s="136"/>
+      <c r="AB65" s="136"/>
+      <c r="AC65" s="136"/>
+      <c r="AD65" s="136"/>
+      <c r="AE65" s="136"/>
+      <c r="AF65" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
-    <mergeCell ref="B52:W52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="O50:W50"/>
     <mergeCell ref="O49:W49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:N48"/>
     <mergeCell ref="O48:W48"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="B38:W44"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B65:AF65"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="B63:AF63"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B64:AF64"/>
+    <mergeCell ref="T30:AB30"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B21:E24"/>
     <mergeCell ref="K24:AB24"/>
@@ -6955,55 +6982,46 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B65:AF65"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="B63:AF63"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B64:AF64"/>
-    <mergeCell ref="T30:AB30"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B52:W52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.27559055118110237" right="0.13" top="0.6692913385826772" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup scale="76" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageSetup scale="74" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD05CA-5F90-4A64-8CE3-9B8F4F99B24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00956989-33E4-46DF-BCB7-12437DAE3409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -286,18 +286,18 @@
     <t>**Denda mulai dikenakan dari tanggal 26 dan seterusnya</t>
   </si>
   <si>
+    <t>SC Admin Fee (5%) :</t>
+  </si>
+  <si>
     <t>Attention :
 1. Payment by transfer to Bank BCA Virtual Account above.
 2. Payment by transfer must state the unit number.
-3. Please settle your payment before the due date to avoid accumulative late charges and disconnection of the Facility.
+3. Please settle your payment before the due date to avoid disconnection of the Facility and accumulative late charges.
 4. Should you have any queries, please contact Tenant Relation at: 
     - 08129914720 (Ade), 
     - 0811814845 (Jumiah), 
     - 081717129340 (Office).
 5. Please avoid this invoice, if payment has been made.</t>
-  </si>
-  <si>
-    <t>SC Admin Fee (5%) :</t>
   </si>
 </sst>
 </file>
@@ -826,197 +826,133 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1026,23 +962,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1050,251 +1064,150 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1304,53 +1217,140 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1949,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:XFD68"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:W61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1990,146 +1990,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="103"/>
-      <c r="AB2" s="103"/>
-      <c r="AC2" s="103"/>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="103"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="P3" s="103"/>
-      <c r="Q3" s="103"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="103"/>
-      <c r="X3" s="103"/>
-      <c r="Y3" s="103"/>
-      <c r="Z3" s="103"/>
-      <c r="AA3" s="103"/>
-      <c r="AB3" s="103"/>
-      <c r="AC3" s="103"/>
-      <c r="AD3" s="103"/>
-      <c r="AE3" s="103"/>
-      <c r="AF3" s="103"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="85"/>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
+      <c r="X3" s="85"/>
+      <c r="Y3" s="85"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="85"/>
+      <c r="AC3" s="85"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="85"/>
+      <c r="AF3" s="85"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="103"/>
-      <c r="Q4" s="103"/>
-      <c r="R4" s="103"/>
-      <c r="S4" s="103"/>
-      <c r="T4" s="103"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="103"/>
-      <c r="W4" s="103"/>
-      <c r="X4" s="103"/>
-      <c r="Y4" s="103"/>
-      <c r="Z4" s="103"/>
-      <c r="AA4" s="103"/>
-      <c r="AB4" s="103"/>
-      <c r="AC4" s="103"/>
-      <c r="AD4" s="103"/>
-      <c r="AE4" s="103"/>
-      <c r="AF4" s="103"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="85"/>
+      <c r="AD4" s="85"/>
+      <c r="AE4" s="85"/>
+      <c r="AF4" s="85"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="174"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
-      <c r="L5" s="103"/>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
-      <c r="X5" s="103"/>
-      <c r="Y5" s="103"/>
-      <c r="Z5" s="103"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="158" t="s">
+      <c r="AB5" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="103"/>
-      <c r="AD5" s="103"/>
-      <c r="AE5" s="103"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
@@ -2142,15 +2142,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2160,35 +2160,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="103"/>
-      <c r="T6" s="103"/>
-      <c r="U6" s="103"/>
-      <c r="V6" s="103"/>
-      <c r="W6" s="103"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="103"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="85"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="158" t="s">
+      <c r="AB6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="103"/>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2216,13 +2216,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2231,38 +2231,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="140" t="s">
+      <c r="Q8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="140" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="140" t="s">
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="142"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="120"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2271,22 +2271,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="145"/>
-      <c r="Y9" s="143"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="145"/>
-      <c r="AD9" s="143"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="145"/>
+      <c r="Q9" s="121"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
+      <c r="W9" s="122"/>
+      <c r="X9" s="123"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="122"/>
+      <c r="AA9" s="122"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="123"/>
+      <c r="AD9" s="121"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="123"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2305,44 +2305,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="152">
+      <c r="Q10" s="156">
         <v>44986</v>
       </c>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="176">
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="127">
         <v>0</v>
       </c>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="146" t="s">
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="142"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="120"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="136"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2351,22 +2351,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="143"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="143"/>
-      <c r="AE11" s="144"/>
-      <c r="AF11" s="145"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="123"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2404,77 +2404,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="147" t="s">
+      <c r="B13" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="147"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
-      <c r="O13" s="147"/>
-      <c r="P13" s="147"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
+      <c r="S13" s="131"/>
+      <c r="T13" s="131"/>
+      <c r="U13" s="131"/>
+      <c r="V13" s="131"/>
+      <c r="W13" s="131"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="147" t="s">
+      <c r="AA13" s="131" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="153" t="s">
+      <c r="AB13" s="131"/>
+      <c r="AC13" s="131"/>
+      <c r="AD13" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
+      <c r="AE13" s="119"/>
+      <c r="AF13" s="119"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="148"/>
-      <c r="N14" s="148"/>
-      <c r="O14" s="148"/>
-      <c r="P14" s="148"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="144"/>
-      <c r="AE14" s="144"/>
-      <c r="AF14" s="144"/>
+      <c r="AA14" s="132"/>
+      <c r="AB14" s="132"/>
+      <c r="AC14" s="132"/>
+      <c r="AD14" s="122"/>
+      <c r="AE14" s="122"/>
+      <c r="AF14" s="122"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2511,121 +2511,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="137" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="149" t="s">
+      <c r="C16" s="97"/>
+      <c r="D16" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="86"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="89">
+      <c r="L16" s="112">
         <v>44946</v>
       </c>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="170" t="s">
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="118" t="s">
+      <c r="Q16" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="86"/>
-      <c r="S16" s="89">
+      <c r="R16" s="76"/>
+      <c r="S16" s="112">
         <v>44977</v>
       </c>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="86"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="76"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="175"/>
-      <c r="AB16" s="175"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="81"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="79"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="103"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="149" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="92">
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="171"/>
-      <c r="Q17" s="95">
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="96"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="93"/>
-      <c r="S17" s="93"/>
-      <c r="T17" s="93"/>
-      <c r="U17" s="93"/>
-      <c r="V17" s="93"/>
-      <c r="W17" s="94"/>
+      <c r="R17" s="96"/>
+      <c r="S17" s="96"/>
+      <c r="T17" s="96"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="97"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="175"/>
-      <c r="AB17" s="175"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="173"/>
-      <c r="AF17" s="81"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="79"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="149" t="s">
+      <c r="B18" s="145"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="179">
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="99">
         <v>1</v>
       </c>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="179"/>
-      <c r="Q18" s="179"/>
-      <c r="R18" s="179"/>
-      <c r="S18" s="179"/>
-      <c r="T18" s="179"/>
-      <c r="U18" s="179"/>
-      <c r="V18" s="179"/>
-      <c r="W18" s="179"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
+      <c r="Q18" s="99"/>
+      <c r="R18" s="99"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="99"/>
+      <c r="U18" s="99"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="99"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2638,166 +2638,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="180" t="s">
+      <c r="B19" s="145"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="132">
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="138">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="133"/>
-      <c r="R19" s="133"/>
-      <c r="S19" s="133"/>
-      <c r="T19" s="133"/>
-      <c r="U19" s="133"/>
-      <c r="V19" s="133"/>
-      <c r="W19" s="134"/>
-      <c r="X19" s="154" t="s">
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="139"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="140"/>
+      <c r="X19" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="155"/>
-      <c r="Z19" s="155"/>
-      <c r="AA19" s="160">
+      <c r="Y19" s="78"/>
+      <c r="Z19" s="78"/>
+      <c r="AA19" s="86">
         <v>1800</v>
       </c>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
+      <c r="AB19" s="86"/>
+      <c r="AC19" s="86"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="98">
+      <c r="AE19" s="134">
         <v>0</v>
       </c>
-      <c r="AF19" s="98"/>
+      <c r="AF19" s="134"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="177" t="s">
+      <c r="B20" s="145"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108" t="s">
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="108"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="163">
+      <c r="I20" s="101"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="87">
         <v>88</v>
       </c>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="165"/>
-      <c r="X20" s="154" t="s">
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="88"/>
+      <c r="S20" s="88"/>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="155"/>
-      <c r="Z20" s="155"/>
-      <c r="AA20" s="160">
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="86">
         <v>1800</v>
       </c>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="161" t="s">
+      <c r="AB20" s="86"/>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="98">
+      <c r="AE20" s="134">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="98"/>
+      <c r="AF20" s="134"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="115" t="s">
+      <c r="B21" s="145"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="154"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="116" t="s">
+      <c r="H21" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="116"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
-      <c r="O21" s="167"/>
-      <c r="P21" s="167"/>
-      <c r="Q21" s="167"/>
-      <c r="R21" s="167"/>
-      <c r="S21" s="167"/>
-      <c r="T21" s="167"/>
-      <c r="U21" s="167"/>
-      <c r="V21" s="167"/>
-      <c r="W21" s="168"/>
-      <c r="X21" s="154"/>
-      <c r="Y21" s="155"/>
-      <c r="Z21" s="155"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="98"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="91"/>
+      <c r="N21" s="91"/>
+      <c r="O21" s="91"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="91"/>
+      <c r="R21" s="91"/>
+      <c r="S21" s="91"/>
+      <c r="T21" s="91"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="91"/>
+      <c r="W21" s="92"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="78"/>
+      <c r="Z21" s="78"/>
+      <c r="AA21" s="86"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="134"/>
+      <c r="AF21" s="134"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="139" t="s">
+      <c r="B22" s="145"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="112">
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="106">
         <v>0.05</v>
       </c>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="113"/>
-      <c r="P22" s="113"/>
-      <c r="Q22" s="113"/>
-      <c r="R22" s="113"/>
-      <c r="S22" s="113"/>
-      <c r="T22" s="113"/>
-      <c r="U22" s="113"/>
-      <c r="V22" s="113"/>
-      <c r="W22" s="114"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="108"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
@@ -2805,38 +2805,38 @@
       <c r="AB22" s="63"/>
       <c r="AC22" s="63"/>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="159">
+      <c r="AE22" s="133">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="159"/>
+      <c r="AF22" s="133"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="104" t="s">
+      <c r="B23" s="145"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="105"/>
-      <c r="N23" s="105"/>
-      <c r="O23" s="105"/>
-      <c r="P23" s="105"/>
-      <c r="Q23" s="105"/>
-      <c r="R23" s="105"/>
-      <c r="S23" s="105"/>
-      <c r="T23" s="105"/>
-      <c r="U23" s="105"/>
-      <c r="V23" s="105"/>
-      <c r="W23" s="106"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="T23" s="110"/>
+      <c r="U23" s="110"/>
+      <c r="V23" s="110"/>
+      <c r="W23" s="111"/>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
@@ -2846,48 +2846,48 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="117">
+      <c r="AE23" s="136">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="117"/>
+      <c r="AF23" s="136"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="149" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="86"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="75"/>
+      <c r="J24" s="76"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="112">
         <v>44947</v>
       </c>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="170" t="s">
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="118" t="s">
+      <c r="Q24" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="86"/>
-      <c r="S24" s="89">
+      <c r="R24" s="76"/>
+      <c r="S24" s="112">
         <v>44986</v>
       </c>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="86"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="76"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
@@ -2900,34 +2900,34 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="149" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="92">
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="171"/>
-      <c r="Q25" s="95">
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="114"/>
+      <c r="Q25" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="94"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="97"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
@@ -2940,32 +2940,32 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="149" t="s">
+      <c r="B26" s="145"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="179">
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="99">
         <v>1</v>
       </c>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="179"/>
-      <c r="Q26" s="179"/>
-      <c r="R26" s="179"/>
-      <c r="S26" s="179"/>
-      <c r="T26" s="179"/>
-      <c r="U26" s="179"/>
-      <c r="V26" s="179"/>
-      <c r="W26" s="179"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+      <c r="T26" s="99"/>
+      <c r="U26" s="99"/>
+      <c r="V26" s="99"/>
+      <c r="W26" s="99"/>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
@@ -2978,166 +2978,166 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="122" t="s">
+      <c r="B27" s="145"/>
+      <c r="C27" s="146"/>
+      <c r="D27" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="123"/>
-      <c r="H27" s="123"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="132">
+      <c r="E27" s="169"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="169"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="138">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="133"/>
-      <c r="R27" s="133"/>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
-      <c r="V27" s="133"/>
-      <c r="W27" s="134"/>
-      <c r="X27" s="154" t="s">
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="139"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="140"/>
+      <c r="X27" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="155"/>
-      <c r="Z27" s="155"/>
-      <c r="AA27" s="160">
+      <c r="Y27" s="78"/>
+      <c r="Z27" s="78"/>
+      <c r="AA27" s="86">
         <v>1800</v>
       </c>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="98">
+      <c r="AE27" s="134">
         <v>0</v>
       </c>
-      <c r="AF27" s="98"/>
+      <c r="AF27" s="134"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="177" t="s">
+      <c r="B28" s="145"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="108"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="108" t="s">
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="108"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="163">
+      <c r="I28" s="101"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="87">
         <v>29.33</v>
       </c>
-      <c r="L28" s="164"/>
-      <c r="M28" s="164"/>
-      <c r="N28" s="164"/>
-      <c r="O28" s="164"/>
-      <c r="P28" s="164"/>
-      <c r="Q28" s="164"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
-      <c r="U28" s="164"/>
-      <c r="V28" s="164"/>
-      <c r="W28" s="165"/>
-      <c r="X28" s="154" t="s">
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="155"/>
-      <c r="Z28" s="155"/>
-      <c r="AA28" s="160">
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="86">
         <v>1800</v>
       </c>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="161" t="s">
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="98">
+      <c r="AE28" s="134">
         <f>K28*AA28</f>
         <v>52794</v>
       </c>
-      <c r="AF28" s="98"/>
+      <c r="AF28" s="134"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="115" t="s">
+      <c r="B29" s="145"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="154"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="116" t="s">
+      <c r="H29" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="116"/>
-      <c r="J29" s="121"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="167"/>
-      <c r="N29" s="167"/>
-      <c r="O29" s="167"/>
-      <c r="P29" s="167"/>
-      <c r="Q29" s="167"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="167"/>
-      <c r="T29" s="167"/>
-      <c r="U29" s="167"/>
-      <c r="V29" s="167"/>
-      <c r="W29" s="168"/>
-      <c r="X29" s="154"/>
-      <c r="Y29" s="155"/>
-      <c r="Z29" s="155"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="161"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="98"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="91"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="91"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="91"/>
+      <c r="R29" s="91"/>
+      <c r="S29" s="91"/>
+      <c r="T29" s="91"/>
+      <c r="U29" s="91"/>
+      <c r="V29" s="91"/>
+      <c r="W29" s="92"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="78"/>
+      <c r="Z29" s="78"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="86"/>
+      <c r="AC29" s="86"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="134"/>
+      <c r="AF29" s="134"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="131"/>
-      <c r="D30" s="139" t="s">
+      <c r="B30" s="145"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="112">
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="106">
         <v>0.05</v>
       </c>
-      <c r="L30" s="113"/>
-      <c r="M30" s="113"/>
-      <c r="N30" s="113"/>
-      <c r="O30" s="113"/>
-      <c r="P30" s="113"/>
-      <c r="Q30" s="113"/>
-      <c r="R30" s="113"/>
-      <c r="S30" s="113"/>
-      <c r="T30" s="113"/>
-      <c r="U30" s="113"/>
-      <c r="V30" s="113"/>
-      <c r="W30" s="114"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
+      <c r="P30" s="107"/>
+      <c r="Q30" s="107"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="107"/>
+      <c r="W30" s="108"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3147,11 +3147,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="156">
+      <c r="AE30" s="129">
         <f>AE28*K30</f>
         <v>2639.7000000000003</v>
       </c>
-      <c r="AF30" s="157"/>
+      <c r="AF30" s="130"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3186,91 +3186,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="117">
+      <c r="AE31" s="136">
         <f>AE28+AE30</f>
         <v>55433.7</v>
       </c>
-      <c r="AF31" s="117"/>
+      <c r="AF31" s="136"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="127" t="s">
+      <c r="B32" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="88" t="s">
+      <c r="C32" s="97"/>
+      <c r="D32" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="86"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="89">
+      <c r="L32" s="112">
         <v>44946</v>
       </c>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="90" t="s">
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="90" t="s">
+      <c r="Q32" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="86"/>
-      <c r="S32" s="89">
+      <c r="R32" s="76"/>
+      <c r="S32" s="112">
         <v>44977</v>
       </c>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="86"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="76"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="175"/>
-      <c r="AB32" s="175"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="162"/>
-      <c r="AF32" s="81"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="79"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="88" t="s">
+      <c r="B33" s="145"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="92">
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="95">
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="94"/>
+      <c r="R33" s="96"/>
+      <c r="S33" s="96"/>
+      <c r="T33" s="96"/>
+      <c r="U33" s="96"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="97"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3278,85 +3278,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="178"/>
-      <c r="AF33" s="81"/>
+      <c r="AE33" s="83"/>
+      <c r="AF33" s="79"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="128"/>
-      <c r="C34" s="129"/>
-      <c r="D34" s="107" t="s">
+      <c r="B34" s="145"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="87">
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="85"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="155" t="s">
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="75"/>
+      <c r="O34" s="75"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="75"/>
+      <c r="W34" s="76"/>
+      <c r="X34" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="81"/>
-      <c r="Z34" s="81"/>
-      <c r="AA34" s="120">
+      <c r="Y34" s="79"/>
+      <c r="Z34" s="79"/>
+      <c r="AA34" s="167">
         <v>1800</v>
       </c>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
+      <c r="AB34" s="167"/>
+      <c r="AC34" s="167"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="80">
+      <c r="AE34" s="82">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="81"/>
+      <c r="AF34" s="79"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="102"/>
-      <c r="B35" s="128"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="88" t="s">
+      <c r="A35" s="84"/>
+      <c r="B35" s="145"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="87">
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="77">
         <v>47510</v>
       </c>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85"/>
-      <c r="N35" s="85"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="86"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="75"/>
+      <c r="O35" s="75"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="75"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="75"/>
+      <c r="W35" s="76"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3366,40 +3366,40 @@
       <c r="AD35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE35" s="98">
+      <c r="AE35" s="134">
         <f>K35</f>
         <v>47510</v>
       </c>
-      <c r="AF35" s="81"/>
+      <c r="AF35" s="79"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="102"/>
-      <c r="B36" s="128"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="84" t="s">
+      <c r="A36" s="84"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="146"/>
+      <c r="D36" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="87">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="77">
         <v>11000</v>
       </c>
-      <c r="L36" s="85"/>
-      <c r="M36" s="85"/>
-      <c r="N36" s="85"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="86"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="75"/>
+      <c r="O36" s="75"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="75"/>
+      <c r="U36" s="75"/>
+      <c r="V36" s="75"/>
+      <c r="W36" s="76"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -3409,38 +3409,38 @@
       <c r="AD36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE36" s="150">
+      <c r="AE36" s="80">
         <f>K36</f>
         <v>11000</v>
       </c>
-      <c r="AF36" s="151"/>
+      <c r="AF36" s="81"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="102"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="104" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="145"/>
+      <c r="C37" s="146"/>
+      <c r="D37" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="105"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="105"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="105"/>
-      <c r="N37" s="105"/>
-      <c r="O37" s="105"/>
-      <c r="P37" s="105"/>
-      <c r="Q37" s="105"/>
-      <c r="R37" s="105"/>
-      <c r="S37" s="105"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="105"/>
-      <c r="V37" s="105"/>
-      <c r="W37" s="106"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="111"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
@@ -3450,48 +3450,48 @@
       <c r="AD37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE37" s="80">
+      <c r="AE37" s="82">
         <f>AE34+AE35+AE36</f>
         <v>58510</v>
       </c>
-      <c r="AF37" s="81"/>
+      <c r="AF37" s="79"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="102"/>
-      <c r="B38" s="128"/>
-      <c r="C38" s="129"/>
-      <c r="D38" s="88" t="s">
+      <c r="A38" s="84"/>
+      <c r="B38" s="145"/>
+      <c r="C38" s="146"/>
+      <c r="D38" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="86"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="89">
+      <c r="L38" s="112">
         <v>44947</v>
       </c>
-      <c r="M38" s="85"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="86"/>
-      <c r="P38" s="90" t="s">
+      <c r="M38" s="75"/>
+      <c r="N38" s="75"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="90" t="s">
+      <c r="Q38" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="86"/>
-      <c r="S38" s="89">
+      <c r="R38" s="76"/>
+      <c r="S38" s="112">
         <v>44993</v>
       </c>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="86"/>
+      <c r="T38" s="75"/>
+      <c r="U38" s="75"/>
+      <c r="V38" s="75"/>
+      <c r="W38" s="76"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3503,35 +3503,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="102"/>
-      <c r="B39" s="128"/>
-      <c r="C39" s="129"/>
-      <c r="D39" s="88" t="s">
+      <c r="A39" s="84"/>
+      <c r="B39" s="145"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="86"/>
-      <c r="K39" s="92">
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="95">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="95">
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="96"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="98">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="94"/>
+      <c r="R39" s="96"/>
+      <c r="S39" s="96"/>
+      <c r="T39" s="96"/>
+      <c r="U39" s="96"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="97"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3543,81 +3543,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="102"/>
-      <c r="B40" s="128"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="107" t="s">
+      <c r="A40" s="84"/>
+      <c r="B40" s="145"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="162" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="86"/>
-      <c r="K40" s="87">
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="85"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="86"/>
-      <c r="X40" s="155" t="s">
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="Y40" s="81"/>
-      <c r="Z40" s="81"/>
-      <c r="AA40" s="120">
+      <c r="Y40" s="79"/>
+      <c r="Z40" s="79"/>
+      <c r="AA40" s="167">
         <v>1800</v>
       </c>
-      <c r="AB40" s="120"/>
-      <c r="AC40" s="120"/>
+      <c r="AB40" s="167"/>
+      <c r="AC40" s="167"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="80">
+      <c r="AE40" s="82">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="81"/>
+      <c r="AF40" s="79"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="102"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="88" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="145"/>
+      <c r="C41" s="146"/>
+      <c r="D41" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="86"/>
-      <c r="K41" s="87">
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="77">
         <v>47510</v>
       </c>
-      <c r="L41" s="85"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="86"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="76"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3627,40 +3627,40 @@
       <c r="AD41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" s="98">
+      <c r="AE41" s="134">
         <f>K41</f>
         <v>47510</v>
       </c>
-      <c r="AF41" s="81"/>
+      <c r="AF41" s="79"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="103"/>
-      <c r="B42" s="130"/>
-      <c r="C42" s="131"/>
-      <c r="D42" s="84" t="s">
+      <c r="A42" s="85"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="148"/>
+      <c r="D42" s="163" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="87">
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="77">
         <v>11000</v>
       </c>
-      <c r="L42" s="85"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="86"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="76"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3670,14 +3670,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="150">
+      <c r="AE42" s="80">
         <f>K42</f>
         <v>11000</v>
       </c>
-      <c r="AF42" s="151"/>
+      <c r="AF42" s="81"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="103"/>
+      <c r="A43" s="85"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3709,14 +3709,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="80">
+      <c r="AE43" s="82">
         <f>AE40+AE41+AE42</f>
         <v>58510</v>
       </c>
-      <c r="AF43" s="81"/>
+      <c r="AF43" s="79"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="103"/>
+      <c r="A44" s="85"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3750,7 +3750,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="103"/>
+      <c r="A45" s="85"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3769,28 +3769,28 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="97" t="s">
+      <c r="T45" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
+      <c r="U45" s="79"/>
+      <c r="V45" s="79"/>
+      <c r="W45" s="79"/>
+      <c r="X45" s="79"/>
+      <c r="Y45" s="79"/>
+      <c r="Z45" s="79"/>
+      <c r="AA45" s="79"/>
+      <c r="AB45" s="79"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE45" s="98">
+      <c r="AE45" s="134">
         <v>0</v>
       </c>
-      <c r="AF45" s="99"/>
+      <c r="AF45" s="166"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="103"/>
+      <c r="A46" s="85"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="41"/>
@@ -3809,25 +3809,25 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
-      <c r="T46" s="97" t="s">
+      <c r="T46" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
+      <c r="U46" s="79"/>
+      <c r="V46" s="79"/>
+      <c r="W46" s="79"/>
+      <c r="X46" s="79"/>
+      <c r="Y46" s="79"/>
+      <c r="Z46" s="79"/>
+      <c r="AA46" s="79"/>
+      <c r="AB46" s="79"/>
       <c r="AC46" s="18"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE46" s="98">
+      <c r="AE46" s="134">
         <v>10000</v>
       </c>
-      <c r="AF46" s="99"/>
+      <c r="AF46" s="166"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3849,26 +3849,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="119" t="s">
+      <c r="T47" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
+      <c r="U47" s="79"/>
+      <c r="V47" s="79"/>
+      <c r="W47" s="79"/>
+      <c r="X47" s="79"/>
+      <c r="Y47" s="79"/>
+      <c r="Z47" s="79"/>
+      <c r="AA47" s="79"/>
+      <c r="AB47" s="79"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="117">
+      <c r="AE47" s="136">
         <f>AE23+AE31+AE37+AE43+AE45+AE46</f>
         <v>348773.7</v>
       </c>
-      <c r="AF47" s="117"/>
+      <c r="AF47" s="136"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3940,41 +3940,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
-      <c r="F50" s="110"/>
-      <c r="G50" s="111" t="s">
+      <c r="C50" s="159"/>
+      <c r="D50" s="159"/>
+      <c r="E50" s="159"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="111"/>
-      <c r="P50" s="111"/>
-      <c r="Q50" s="111"/>
-      <c r="R50" s="111"/>
-      <c r="S50" s="111"/>
-      <c r="T50" s="111"/>
-      <c r="U50" s="111"/>
-      <c r="V50" s="111"/>
-      <c r="W50" s="111"/>
-      <c r="X50" s="111"/>
-      <c r="Y50" s="111"/>
-      <c r="Z50" s="111"/>
-      <c r="AA50" s="111"/>
-      <c r="AB50" s="111"/>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="111"/>
-      <c r="AE50" s="111"/>
-      <c r="AF50" s="111"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="160"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="160"/>
+      <c r="P50" s="160"/>
+      <c r="Q50" s="160"/>
+      <c r="R50" s="160"/>
+      <c r="S50" s="160"/>
+      <c r="T50" s="160"/>
+      <c r="U50" s="160"/>
+      <c r="V50" s="160"/>
+      <c r="W50" s="160"/>
+      <c r="X50" s="160"/>
+      <c r="Y50" s="160"/>
+      <c r="Z50" s="160"/>
+      <c r="AA50" s="160"/>
+      <c r="AB50" s="160"/>
+      <c r="AC50" s="160"/>
+      <c r="AD50" s="160"/>
+      <c r="AE50" s="160"/>
+      <c r="AF50" s="160"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4106,108 +4106,108 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="100" t="s">
+      <c r="AB54" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="AC54" s="100"/>
-      <c r="AD54" s="100"/>
-      <c r="AE54" s="100"/>
-      <c r="AF54" s="100"/>
+      <c r="AC54" s="152"/>
+      <c r="AD54" s="152"/>
+      <c r="AE54" s="152"/>
+      <c r="AF54" s="152"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="96"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="96"/>
-      <c r="F55" s="96"/>
-      <c r="G55" s="96"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="96"/>
-      <c r="J55" s="96"/>
-      <c r="K55" s="96"/>
-      <c r="L55" s="96"/>
-      <c r="M55" s="96"/>
-      <c r="N55" s="96"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="96"/>
-      <c r="R55" s="96"/>
-      <c r="S55" s="96"/>
-      <c r="T55" s="96"/>
-      <c r="U55" s="96"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="96"/>
+      <c r="B55" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="173"/>
+      <c r="D55" s="173"/>
+      <c r="E55" s="173"/>
+      <c r="F55" s="173"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="173"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="173"/>
+      <c r="L55" s="173"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="173"/>
+      <c r="O55" s="173"/>
+      <c r="P55" s="173"/>
+      <c r="Q55" s="173"/>
+      <c r="R55" s="173"/>
+      <c r="S55" s="173"/>
+      <c r="T55" s="173"/>
+      <c r="U55" s="173"/>
+      <c r="V55" s="173"/>
+      <c r="W55" s="173"/>
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="100"/>
-      <c r="AC55" s="100"/>
-      <c r="AD55" s="100"/>
-      <c r="AE55" s="100"/>
-      <c r="AF55" s="100"/>
+      <c r="AB55" s="152"/>
+      <c r="AC55" s="152"/>
+      <c r="AD55" s="152"/>
+      <c r="AE55" s="152"/>
+      <c r="AF55" s="152"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="96"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="96"/>
-      <c r="H56" s="96"/>
-      <c r="I56" s="96"/>
-      <c r="J56" s="96"/>
-      <c r="K56" s="96"/>
-      <c r="L56" s="96"/>
-      <c r="M56" s="96"/>
-      <c r="N56" s="96"/>
-      <c r="O56" s="96"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="96"/>
-      <c r="R56" s="96"/>
-      <c r="S56" s="96"/>
-      <c r="T56" s="96"/>
-      <c r="U56" s="96"/>
-      <c r="V56" s="96"/>
-      <c r="W56" s="96"/>
+      <c r="B56" s="173"/>
+      <c r="C56" s="173"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="173"/>
+      <c r="F56" s="173"/>
+      <c r="G56" s="173"/>
+      <c r="H56" s="173"/>
+      <c r="I56" s="173"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="173"/>
+      <c r="L56" s="173"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
+      <c r="O56" s="173"/>
+      <c r="P56" s="173"/>
+      <c r="Q56" s="173"/>
+      <c r="R56" s="173"/>
+      <c r="S56" s="173"/>
+      <c r="T56" s="173"/>
+      <c r="U56" s="173"/>
+      <c r="V56" s="173"/>
+      <c r="W56" s="173"/>
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="100"/>
-      <c r="AC56" s="100"/>
-      <c r="AD56" s="100"/>
-      <c r="AE56" s="100"/>
-      <c r="AF56" s="100"/>
+      <c r="AB56" s="152"/>
+      <c r="AC56" s="152"/>
+      <c r="AD56" s="152"/>
+      <c r="AE56" s="152"/>
+      <c r="AF56" s="152"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="96"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="96"/>
-      <c r="F57" s="96"/>
-      <c r="G57" s="96"/>
-      <c r="H57" s="96"/>
-      <c r="I57" s="96"/>
-      <c r="J57" s="96"/>
-      <c r="K57" s="96"/>
-      <c r="L57" s="96"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="96"/>
-      <c r="O57" s="96"/>
-      <c r="P57" s="96"/>
-      <c r="Q57" s="96"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="96"/>
-      <c r="W57" s="96"/>
+      <c r="B57" s="173"/>
+      <c r="C57" s="173"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="173"/>
+      <c r="F57" s="173"/>
+      <c r="G57" s="173"/>
+      <c r="H57" s="173"/>
+      <c r="I57" s="173"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="173"/>
+      <c r="L57" s="173"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
+      <c r="O57" s="173"/>
+      <c r="P57" s="173"/>
+      <c r="Q57" s="173"/>
+      <c r="R57" s="173"/>
+      <c r="S57" s="173"/>
+      <c r="T57" s="173"/>
+      <c r="U57" s="173"/>
+      <c r="V57" s="173"/>
+      <c r="W57" s="173"/>
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
@@ -4220,28 +4220,28 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="96"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="96"/>
-      <c r="F58" s="96"/>
-      <c r="G58" s="96"/>
-      <c r="H58" s="96"/>
-      <c r="I58" s="96"/>
-      <c r="J58" s="96"/>
-      <c r="K58" s="96"/>
-      <c r="L58" s="96"/>
-      <c r="M58" s="96"/>
-      <c r="N58" s="96"/>
-      <c r="O58" s="96"/>
-      <c r="P58" s="96"/>
-      <c r="Q58" s="96"/>
-      <c r="R58" s="96"/>
-      <c r="S58" s="96"/>
-      <c r="T58" s="96"/>
-      <c r="U58" s="96"/>
-      <c r="V58" s="96"/>
-      <c r="W58" s="96"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="173"/>
+      <c r="E58" s="173"/>
+      <c r="F58" s="173"/>
+      <c r="G58" s="173"/>
+      <c r="H58" s="173"/>
+      <c r="I58" s="173"/>
+      <c r="J58" s="173"/>
+      <c r="K58" s="173"/>
+      <c r="L58" s="173"/>
+      <c r="M58" s="173"/>
+      <c r="N58" s="173"/>
+      <c r="O58" s="173"/>
+      <c r="P58" s="173"/>
+      <c r="Q58" s="173"/>
+      <c r="R58" s="173"/>
+      <c r="S58" s="173"/>
+      <c r="T58" s="173"/>
+      <c r="U58" s="173"/>
+      <c r="V58" s="173"/>
+      <c r="W58" s="173"/>
       <c r="X58" s="49"/>
       <c r="Y58" s="49"/>
       <c r="Z58" s="49"/>
@@ -4254,28 +4254,28 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="96"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="96"/>
-      <c r="F59" s="96"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="96"/>
-      <c r="L59" s="96"/>
-      <c r="M59" s="96"/>
-      <c r="N59" s="96"/>
-      <c r="O59" s="96"/>
-      <c r="P59" s="96"/>
-      <c r="Q59" s="96"/>
-      <c r="R59" s="96"/>
-      <c r="S59" s="96"/>
-      <c r="T59" s="96"/>
-      <c r="U59" s="96"/>
-      <c r="V59" s="96"/>
-      <c r="W59" s="96"/>
+      <c r="B59" s="173"/>
+      <c r="C59" s="173"/>
+      <c r="D59" s="173"/>
+      <c r="E59" s="173"/>
+      <c r="F59" s="173"/>
+      <c r="G59" s="173"/>
+      <c r="H59" s="173"/>
+      <c r="I59" s="173"/>
+      <c r="J59" s="173"/>
+      <c r="K59" s="173"/>
+      <c r="L59" s="173"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
+      <c r="O59" s="173"/>
+      <c r="P59" s="173"/>
+      <c r="Q59" s="173"/>
+      <c r="R59" s="173"/>
+      <c r="S59" s="173"/>
+      <c r="T59" s="173"/>
+      <c r="U59" s="173"/>
+      <c r="V59" s="173"/>
+      <c r="W59" s="173"/>
       <c r="X59" s="49"/>
       <c r="Y59" s="49"/>
       <c r="Z59" s="49"/>
@@ -4288,28 +4288,28 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="96"/>
-      <c r="F60" s="96"/>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="96"/>
-      <c r="L60" s="96"/>
-      <c r="M60" s="96"/>
-      <c r="N60" s="96"/>
-      <c r="O60" s="96"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="96"/>
-      <c r="R60" s="96"/>
-      <c r="S60" s="96"/>
-      <c r="T60" s="96"/>
-      <c r="U60" s="96"/>
-      <c r="V60" s="96"/>
-      <c r="W60" s="96"/>
+      <c r="B60" s="173"/>
+      <c r="C60" s="173"/>
+      <c r="D60" s="173"/>
+      <c r="E60" s="173"/>
+      <c r="F60" s="173"/>
+      <c r="G60" s="173"/>
+      <c r="H60" s="173"/>
+      <c r="I60" s="173"/>
+      <c r="J60" s="173"/>
+      <c r="K60" s="173"/>
+      <c r="L60" s="173"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
+      <c r="O60" s="173"/>
+      <c r="P60" s="173"/>
+      <c r="Q60" s="173"/>
+      <c r="R60" s="173"/>
+      <c r="S60" s="173"/>
+      <c r="T60" s="173"/>
+      <c r="U60" s="173"/>
+      <c r="V60" s="173"/>
+      <c r="W60" s="173"/>
       <c r="X60" s="49"/>
       <c r="Y60" s="49"/>
       <c r="Z60" s="49"/>
@@ -4322,39 +4322,39 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="96"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="96"/>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="96"/>
-      <c r="L61" s="96"/>
-      <c r="M61" s="96"/>
-      <c r="N61" s="96"/>
-      <c r="O61" s="96"/>
-      <c r="P61" s="96"/>
-      <c r="Q61" s="96"/>
-      <c r="R61" s="96"/>
-      <c r="S61" s="96"/>
-      <c r="T61" s="96"/>
-      <c r="U61" s="96"/>
-      <c r="V61" s="96"/>
-      <c r="W61" s="96"/>
+      <c r="B61" s="173"/>
+      <c r="C61" s="173"/>
+      <c r="D61" s="173"/>
+      <c r="E61" s="173"/>
+      <c r="F61" s="173"/>
+      <c r="G61" s="173"/>
+      <c r="H61" s="173"/>
+      <c r="I61" s="173"/>
+      <c r="J61" s="173"/>
+      <c r="K61" s="173"/>
+      <c r="L61" s="173"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
+      <c r="O61" s="173"/>
+      <c r="P61" s="173"/>
+      <c r="Q61" s="173"/>
+      <c r="R61" s="173"/>
+      <c r="S61" s="173"/>
+      <c r="T61" s="173"/>
+      <c r="U61" s="173"/>
+      <c r="V61" s="173"/>
+      <c r="W61" s="173"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="101" t="s">
+      <c r="AB61" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="AC61" s="101"/>
-      <c r="AD61" s="101"/>
-      <c r="AE61" s="101"/>
-      <c r="AF61" s="101"/>
+      <c r="AC61" s="174"/>
+      <c r="AD61" s="174"/>
+      <c r="AE61" s="174"/>
+      <c r="AF61" s="174"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4426,12 +4426,12 @@
     </row>
     <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -4462,274 +4462,411 @@
     </row>
     <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
-      <c r="B65" s="79" t="s">
+      <c r="B65" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="79"/>
-      <c r="D65" s="79" t="s">
+      <c r="C65" s="176"/>
+      <c r="D65" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="251" t="s">
+      <c r="E65" s="176"/>
+      <c r="F65" s="176"/>
+      <c r="G65" s="176"/>
+      <c r="H65" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="252"/>
-      <c r="J65" s="252"/>
-      <c r="K65" s="252"/>
-      <c r="L65" s="252"/>
-      <c r="M65" s="252"/>
-      <c r="N65" s="253"/>
-      <c r="O65" s="251" t="s">
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="179"/>
+      <c r="O65" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="P65" s="252"/>
-      <c r="Q65" s="252"/>
-      <c r="R65" s="252"/>
-      <c r="S65" s="252"/>
-      <c r="T65" s="252"/>
-      <c r="U65" s="252"/>
-      <c r="V65" s="252"/>
-      <c r="W65" s="253"/>
+      <c r="P65" s="178"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="178"/>
+      <c r="S65" s="178"/>
+      <c r="T65" s="178"/>
+      <c r="U65" s="178"/>
+      <c r="V65" s="178"/>
+      <c r="W65" s="179"/>
     </row>
     <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="74" t="s">
+      <c r="B66" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="74"/>
-      <c r="D66" s="75" t="s">
+      <c r="C66" s="180"/>
+      <c r="D66" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
-      <c r="G66" s="75"/>
-      <c r="H66" s="254" t="s">
+      <c r="E66" s="181"/>
+      <c r="F66" s="181"/>
+      <c r="G66" s="181"/>
+      <c r="H66" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="I66" s="255"/>
-      <c r="J66" s="255"/>
-      <c r="K66" s="255"/>
-      <c r="L66" s="255"/>
-      <c r="M66" s="255"/>
-      <c r="N66" s="256"/>
-      <c r="O66" s="254" t="s">
+      <c r="I66" s="183"/>
+      <c r="J66" s="183"/>
+      <c r="K66" s="183"/>
+      <c r="L66" s="183"/>
+      <c r="M66" s="183"/>
+      <c r="N66" s="184"/>
+      <c r="O66" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="P66" s="255"/>
-      <c r="Q66" s="255"/>
-      <c r="R66" s="255"/>
-      <c r="S66" s="255"/>
-      <c r="T66" s="255"/>
-      <c r="U66" s="255"/>
-      <c r="V66" s="255"/>
-      <c r="W66" s="256"/>
+      <c r="P66" s="183"/>
+      <c r="Q66" s="183"/>
+      <c r="R66" s="183"/>
+      <c r="S66" s="183"/>
+      <c r="T66" s="183"/>
+      <c r="U66" s="183"/>
+      <c r="V66" s="183"/>
+      <c r="W66" s="184"/>
     </row>
     <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="74" t="s">
+      <c r="B67" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="74"/>
-      <c r="D67" s="75" t="s">
+      <c r="C67" s="180"/>
+      <c r="D67" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="75"/>
-      <c r="F67" s="75"/>
-      <c r="G67" s="75"/>
-      <c r="H67" s="254" t="s">
+      <c r="E67" s="181"/>
+      <c r="F67" s="181"/>
+      <c r="G67" s="181"/>
+      <c r="H67" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="I67" s="255"/>
-      <c r="J67" s="255"/>
-      <c r="K67" s="255"/>
-      <c r="L67" s="255"/>
-      <c r="M67" s="255"/>
-      <c r="N67" s="256"/>
-      <c r="O67" s="254" t="s">
+      <c r="I67" s="183"/>
+      <c r="J67" s="183"/>
+      <c r="K67" s="183"/>
+      <c r="L67" s="183"/>
+      <c r="M67" s="183"/>
+      <c r="N67" s="184"/>
+      <c r="O67" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="P67" s="255"/>
-      <c r="Q67" s="255"/>
-      <c r="R67" s="255"/>
-      <c r="S67" s="255"/>
-      <c r="T67" s="255"/>
-      <c r="U67" s="255"/>
-      <c r="V67" s="255"/>
-      <c r="W67" s="256"/>
+      <c r="P67" s="183"/>
+      <c r="Q67" s="183"/>
+      <c r="R67" s="183"/>
+      <c r="S67" s="183"/>
+      <c r="T67" s="183"/>
+      <c r="U67" s="183"/>
+      <c r="V67" s="183"/>
+      <c r="W67" s="184"/>
     </row>
     <row r="68" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="74" t="s">
+      <c r="B68" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="74"/>
-      <c r="D68" s="76" t="s">
+      <c r="C68" s="180"/>
+      <c r="D68" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="76"/>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="257" t="s">
+      <c r="E68" s="185"/>
+      <c r="F68" s="185"/>
+      <c r="G68" s="185"/>
+      <c r="H68" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="258"/>
-      <c r="J68" s="258"/>
-      <c r="K68" s="258"/>
-      <c r="L68" s="258"/>
-      <c r="M68" s="258"/>
-      <c r="N68" s="259"/>
-      <c r="O68" s="257" t="s">
+      <c r="I68" s="187"/>
+      <c r="J68" s="187"/>
+      <c r="K68" s="187"/>
+      <c r="L68" s="187"/>
+      <c r="M68" s="187"/>
+      <c r="N68" s="188"/>
+      <c r="O68" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="P68" s="258"/>
-      <c r="Q68" s="258"/>
-      <c r="R68" s="258"/>
-      <c r="S68" s="258"/>
-      <c r="T68" s="258"/>
-      <c r="U68" s="258"/>
-      <c r="V68" s="258"/>
-      <c r="W68" s="259"/>
+      <c r="P68" s="187"/>
+      <c r="Q68" s="187"/>
+      <c r="R68" s="187"/>
+      <c r="S68" s="187"/>
+      <c r="T68" s="187"/>
+      <c r="U68" s="187"/>
+      <c r="V68" s="187"/>
+      <c r="W68" s="188"/>
     </row>
     <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
-      <c r="M69" s="77"/>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
-      <c r="P69" s="77"/>
-      <c r="Q69" s="77"/>
-      <c r="R69" s="77"/>
-      <c r="S69" s="77"/>
-      <c r="T69" s="77"/>
-      <c r="U69" s="77"/>
-      <c r="V69" s="77"/>
-      <c r="W69" s="77"/>
+      <c r="C69" s="189"/>
+      <c r="D69" s="189"/>
+      <c r="E69" s="189"/>
+      <c r="F69" s="189"/>
+      <c r="G69" s="189"/>
+      <c r="H69" s="189"/>
+      <c r="I69" s="189"/>
+      <c r="J69" s="189"/>
+      <c r="K69" s="189"/>
+      <c r="L69" s="189"/>
+      <c r="M69" s="189"/>
+      <c r="N69" s="189"/>
+      <c r="O69" s="189"/>
+      <c r="P69" s="189"/>
+      <c r="Q69" s="189"/>
+      <c r="R69" s="189"/>
+      <c r="S69" s="189"/>
+      <c r="T69" s="189"/>
+      <c r="U69" s="189"/>
+      <c r="V69" s="189"/>
+      <c r="W69" s="189"/>
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="82" t="s">
+      <c r="A76" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="82"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="82"/>
-      <c r="G76" s="82"/>
-      <c r="H76" s="82"/>
-      <c r="I76" s="82"/>
-      <c r="J76" s="82"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="82"/>
-      <c r="N76" s="82"/>
-      <c r="O76" s="82"/>
-      <c r="P76" s="82"/>
-      <c r="Q76" s="82"/>
-      <c r="R76" s="82"/>
-      <c r="S76" s="82"/>
-      <c r="T76" s="82"/>
-      <c r="U76" s="82"/>
-      <c r="V76" s="82"/>
-      <c r="W76" s="82"/>
-      <c r="X76" s="82"/>
-      <c r="Y76" s="82"/>
-      <c r="Z76" s="82"/>
-      <c r="AA76" s="82"/>
-      <c r="AB76" s="82"/>
-      <c r="AC76" s="82"/>
-      <c r="AD76" s="82"/>
-      <c r="AE76" s="82"/>
-      <c r="AF76" s="82"/>
-      <c r="AG76" s="82"/>
+      <c r="B76" s="171"/>
+      <c r="C76" s="171"/>
+      <c r="D76" s="171"/>
+      <c r="E76" s="171"/>
+      <c r="F76" s="171"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="171"/>
+      <c r="I76" s="171"/>
+      <c r="J76" s="171"/>
+      <c r="K76" s="171"/>
+      <c r="L76" s="171"/>
+      <c r="M76" s="171"/>
+      <c r="N76" s="171"/>
+      <c r="O76" s="171"/>
+      <c r="P76" s="171"/>
+      <c r="Q76" s="171"/>
+      <c r="R76" s="171"/>
+      <c r="S76" s="171"/>
+      <c r="T76" s="171"/>
+      <c r="U76" s="171"/>
+      <c r="V76" s="171"/>
+      <c r="W76" s="171"/>
+      <c r="X76" s="171"/>
+      <c r="Y76" s="171"/>
+      <c r="Z76" s="171"/>
+      <c r="AA76" s="171"/>
+      <c r="AB76" s="171"/>
+      <c r="AC76" s="171"/>
+      <c r="AD76" s="171"/>
+      <c r="AE76" s="171"/>
+      <c r="AF76" s="171"/>
+      <c r="AG76" s="171"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="83"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="83"/>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="83"/>
-      <c r="I77" s="83"/>
-      <c r="J77" s="83"/>
-      <c r="K77" s="83"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="83"/>
-      <c r="N77" s="83"/>
-      <c r="O77" s="83"/>
-      <c r="P77" s="83"/>
-      <c r="Q77" s="83"/>
-      <c r="R77" s="83"/>
-      <c r="S77" s="83"/>
-      <c r="T77" s="83"/>
-      <c r="U77" s="83"/>
-      <c r="V77" s="83"/>
-      <c r="W77" s="83"/>
-      <c r="X77" s="83"/>
-      <c r="Y77" s="83"/>
-      <c r="Z77" s="83"/>
-      <c r="AA77" s="83"/>
-      <c r="AB77" s="83"/>
-      <c r="AC77" s="83"/>
-      <c r="AD77" s="83"/>
-      <c r="AE77" s="83"/>
-      <c r="AF77" s="83"/>
-      <c r="AG77" s="83"/>
+      <c r="B77" s="172"/>
+      <c r="C77" s="172"/>
+      <c r="D77" s="172"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="172"/>
+      <c r="G77" s="172"/>
+      <c r="H77" s="172"/>
+      <c r="I77" s="172"/>
+      <c r="J77" s="172"/>
+      <c r="K77" s="172"/>
+      <c r="L77" s="172"/>
+      <c r="M77" s="172"/>
+      <c r="N77" s="172"/>
+      <c r="O77" s="172"/>
+      <c r="P77" s="172"/>
+      <c r="Q77" s="172"/>
+      <c r="R77" s="172"/>
+      <c r="S77" s="172"/>
+      <c r="T77" s="172"/>
+      <c r="U77" s="172"/>
+      <c r="V77" s="172"/>
+      <c r="W77" s="172"/>
+      <c r="X77" s="172"/>
+      <c r="Y77" s="172"/>
+      <c r="Z77" s="172"/>
+      <c r="AA77" s="172"/>
+      <c r="AB77" s="172"/>
+      <c r="AC77" s="172"/>
+      <c r="AD77" s="172"/>
+      <c r="AE77" s="172"/>
+      <c r="AF77" s="172"/>
+      <c r="AG77" s="172"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="83" t="s">
+      <c r="A78" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="83"/>
-      <c r="C78" s="83"/>
-      <c r="D78" s="83"/>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="83"/>
-      <c r="I78" s="83"/>
-      <c r="J78" s="83"/>
-      <c r="K78" s="83"/>
-      <c r="L78" s="83"/>
-      <c r="M78" s="83"/>
-      <c r="N78" s="83"/>
-      <c r="O78" s="83"/>
-      <c r="P78" s="83"/>
-      <c r="Q78" s="83"/>
-      <c r="R78" s="83"/>
-      <c r="S78" s="83"/>
-      <c r="T78" s="83"/>
-      <c r="U78" s="83"/>
-      <c r="V78" s="83"/>
-      <c r="W78" s="83"/>
-      <c r="X78" s="83"/>
-      <c r="Y78" s="83"/>
-      <c r="Z78" s="83"/>
-      <c r="AA78" s="83"/>
-      <c r="AB78" s="83"/>
-      <c r="AC78" s="83"/>
-      <c r="AD78" s="83"/>
-      <c r="AE78" s="83"/>
-      <c r="AF78" s="83"/>
-      <c r="AG78" s="83"/>
+      <c r="B78" s="172"/>
+      <c r="C78" s="172"/>
+      <c r="D78" s="172"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="172"/>
+      <c r="G78" s="172"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="172"/>
+      <c r="K78" s="172"/>
+      <c r="L78" s="172"/>
+      <c r="M78" s="172"/>
+      <c r="N78" s="172"/>
+      <c r="O78" s="172"/>
+      <c r="P78" s="172"/>
+      <c r="Q78" s="172"/>
+      <c r="R78" s="172"/>
+      <c r="S78" s="172"/>
+      <c r="T78" s="172"/>
+      <c r="U78" s="172"/>
+      <c r="V78" s="172"/>
+      <c r="W78" s="172"/>
+      <c r="X78" s="172"/>
+      <c r="Y78" s="172"/>
+      <c r="Z78" s="172"/>
+      <c r="AA78" s="172"/>
+      <c r="AB78" s="172"/>
+      <c r="AC78" s="172"/>
+      <c r="AD78" s="172"/>
+      <c r="AE78" s="172"/>
+      <c r="AF78" s="172"/>
+      <c r="AG78" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:N67"/>
+    <mergeCell ref="O67:W67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:N68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="B69:W69"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="O65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="A76:AG76"/>
+    <mergeCell ref="A77:AG77"/>
+    <mergeCell ref="A78:AG78"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:W36"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="P38:P39"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="S38:W38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="Q39:W39"/>
+    <mergeCell ref="B55:W61"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="AB54:AF56"/>
+    <mergeCell ref="AB61:AF61"/>
+    <mergeCell ref="A35:A46"/>
+    <mergeCell ref="AE41:AF41"/>
+    <mergeCell ref="D37:W37"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:W40"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AE40:AF40"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B32:C42"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C30"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="X28:Z29"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="K28:W29"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="P16:P17"/>
     <mergeCell ref="D41:J41"/>
     <mergeCell ref="K41:W41"/>
     <mergeCell ref="X40:Z40"/>
@@ -4754,143 +4891,6 @@
     <mergeCell ref="D18:J18"/>
     <mergeCell ref="K18:W18"/>
     <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="X28:Z29"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AF29"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="K28:W29"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B32:C42"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C30"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="A76:AG76"/>
-    <mergeCell ref="A77:AG77"/>
-    <mergeCell ref="A78:AG78"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:W36"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="P38:P39"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="S38:W38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="Q39:W39"/>
-    <mergeCell ref="B55:W61"/>
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="AB54:AF56"/>
-    <mergeCell ref="AB61:AF61"/>
-    <mergeCell ref="A35:A46"/>
-    <mergeCell ref="AE41:AF41"/>
-    <mergeCell ref="D37:W37"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:W40"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:N65"/>
-    <mergeCell ref="O65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:N66"/>
-    <mergeCell ref="O66:W66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:N67"/>
-    <mergeCell ref="O67:W67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:N68"/>
-    <mergeCell ref="O68:W68"/>
-    <mergeCell ref="B69:W69"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -4909,8 +4909,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29:AB29"/>
+    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:W44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4948,163 +4948,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="125" t="s">
+      <c r="B2" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
-      <c r="T2" s="136"/>
-      <c r="U2" s="136"/>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="136"/>
-      <c r="Y2" s="136"/>
-      <c r="Z2" s="136"/>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="116"/>
+      <c r="Z2" s="116"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
+      <c r="AD2" s="116"/>
+      <c r="AE2" s="116"/>
+      <c r="AF2" s="116"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="116"/>
+      <c r="W3" s="116"/>
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="116"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="116"/>
+      <c r="AE3" s="116"/>
+      <c r="AF3" s="116"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="152" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="136"/>
-      <c r="M4" s="136"/>
-      <c r="N4" s="136"/>
-      <c r="O4" s="136"/>
-      <c r="P4" s="136"/>
-      <c r="Q4" s="136"/>
-      <c r="R4" s="136"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="116"/>
+      <c r="W4" s="116"/>
+      <c r="X4" s="116"/>
+      <c r="Y4" s="116"/>
+      <c r="Z4" s="116"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
+      <c r="AD4" s="116"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="116"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="174" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136"/>
-      <c r="U5" s="136"/>
-      <c r="V5" s="136"/>
-      <c r="W5" s="136"/>
-      <c r="X5" s="136"/>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="242" t="s">
+      <c r="AB5" s="200" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
+      <c r="AC5" s="124"/>
+      <c r="AD5" s="124"/>
+      <c r="AE5" s="124"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -5114,35 +5114,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="126"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136"/>
-      <c r="U6" s="136"/>
-      <c r="V6" s="136"/>
-      <c r="W6" s="136"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="136"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="116"/>
+      <c r="W6" s="116"/>
+      <c r="X6" s="141"/>
+      <c r="Y6" s="116"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="158" t="s">
+      <c r="AB6" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="136"/>
-      <c r="AD6" s="136"/>
-      <c r="AE6" s="136"/>
+      <c r="AC6" s="116"/>
+      <c r="AD6" s="116"/>
+      <c r="AE6" s="116"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -5170,13 +5170,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -5185,38 +5185,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="140" t="s">
+      <c r="Q8" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="237"/>
-      <c r="S8" s="237"/>
-      <c r="T8" s="237"/>
-      <c r="U8" s="237"/>
-      <c r="V8" s="237"/>
-      <c r="W8" s="237"/>
-      <c r="X8" s="239"/>
-      <c r="Y8" s="140" t="s">
+      <c r="R8" s="210"/>
+      <c r="S8" s="210"/>
+      <c r="T8" s="210"/>
+      <c r="U8" s="210"/>
+      <c r="V8" s="210"/>
+      <c r="W8" s="210"/>
+      <c r="X8" s="212"/>
+      <c r="Y8" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="237"/>
-      <c r="AA8" s="237"/>
-      <c r="AB8" s="237"/>
-      <c r="AC8" s="239"/>
-      <c r="AD8" s="140" t="s">
+      <c r="Z8" s="210"/>
+      <c r="AA8" s="210"/>
+      <c r="AB8" s="210"/>
+      <c r="AC8" s="212"/>
+      <c r="AD8" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="237"/>
-      <c r="AF8" s="239"/>
+      <c r="AE8" s="210"/>
+      <c r="AF8" s="212"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -5225,22 +5225,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="240"/>
-      <c r="R9" s="238"/>
-      <c r="S9" s="238"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="238"/>
-      <c r="V9" s="238"/>
-      <c r="W9" s="238"/>
-      <c r="X9" s="241"/>
-      <c r="Y9" s="240"/>
-      <c r="Z9" s="238"/>
-      <c r="AA9" s="238"/>
-      <c r="AB9" s="238"/>
-      <c r="AC9" s="241"/>
-      <c r="AD9" s="240"/>
-      <c r="AE9" s="238"/>
-      <c r="AF9" s="241"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="211"/>
+      <c r="S9" s="211"/>
+      <c r="T9" s="211"/>
+      <c r="U9" s="211"/>
+      <c r="V9" s="211"/>
+      <c r="W9" s="211"/>
+      <c r="X9" s="214"/>
+      <c r="Y9" s="213"/>
+      <c r="Z9" s="211"/>
+      <c r="AA9" s="211"/>
+      <c r="AB9" s="211"/>
+      <c r="AC9" s="214"/>
+      <c r="AD9" s="213"/>
+      <c r="AE9" s="211"/>
+      <c r="AF9" s="214"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -5259,44 +5259,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="152">
+      <c r="Q10" s="156">
         <v>44986</v>
       </c>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
-      <c r="W10" s="141"/>
-      <c r="X10" s="142"/>
-      <c r="Y10" s="176">
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="127">
         <v>0</v>
       </c>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="146" t="s">
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="119"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="142"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="120"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="172" t="s">
+      <c r="B11" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="136"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="172" t="s">
+      <c r="E11" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5305,22 +5305,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="144"/>
-      <c r="V11" s="144"/>
-      <c r="W11" s="144"/>
-      <c r="X11" s="145"/>
-      <c r="Y11" s="143"/>
-      <c r="Z11" s="144"/>
-      <c r="AA11" s="144"/>
-      <c r="AB11" s="144"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="143"/>
-      <c r="AE11" s="144"/>
-      <c r="AF11" s="145"/>
+      <c r="Q11" s="121"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
+      <c r="W11" s="122"/>
+      <c r="X11" s="123"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="122"/>
+      <c r="AA11" s="122"/>
+      <c r="AB11" s="122"/>
+      <c r="AC11" s="123"/>
+      <c r="AD11" s="121"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="123"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5358,75 +5358,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="237"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="237"/>
-      <c r="F13" s="237"/>
-      <c r="G13" s="237"/>
-      <c r="H13" s="237"/>
-      <c r="I13" s="237"/>
-      <c r="J13" s="237"/>
-      <c r="K13" s="237"/>
-      <c r="L13" s="237"/>
-      <c r="M13" s="237"/>
-      <c r="N13" s="237"/>
-      <c r="O13" s="237"/>
-      <c r="P13" s="237"/>
-      <c r="Q13" s="237"/>
-      <c r="R13" s="237"/>
-      <c r="S13" s="237"/>
-      <c r="T13" s="237"/>
-      <c r="U13" s="237"/>
-      <c r="V13" s="237"/>
-      <c r="W13" s="237"/>
-      <c r="X13" s="237"/>
-      <c r="Y13" s="237"/>
-      <c r="Z13" s="237"/>
-      <c r="AA13" s="237"/>
-      <c r="AB13" s="237"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
+      <c r="P13" s="210"/>
+      <c r="Q13" s="210"/>
+      <c r="R13" s="210"/>
+      <c r="S13" s="210"/>
+      <c r="T13" s="210"/>
+      <c r="U13" s="210"/>
+      <c r="V13" s="210"/>
+      <c r="W13" s="210"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="210"/>
+      <c r="Z13" s="210"/>
+      <c r="AA13" s="210"/>
+      <c r="AB13" s="210"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="153" t="s">
+      <c r="AD13" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="237"/>
-      <c r="AF13" s="237"/>
+      <c r="AE13" s="210"/>
+      <c r="AF13" s="210"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="238"/>
-      <c r="C14" s="238"/>
-      <c r="D14" s="238"/>
-      <c r="E14" s="238"/>
-      <c r="F14" s="238"/>
-      <c r="G14" s="238"/>
-      <c r="H14" s="238"/>
-      <c r="I14" s="238"/>
-      <c r="J14" s="238"/>
-      <c r="K14" s="238"/>
-      <c r="L14" s="238"/>
-      <c r="M14" s="238"/>
-      <c r="N14" s="238"/>
-      <c r="O14" s="238"/>
-      <c r="P14" s="238"/>
-      <c r="Q14" s="238"/>
-      <c r="R14" s="238"/>
-      <c r="S14" s="238"/>
-      <c r="T14" s="238"/>
-      <c r="U14" s="238"/>
-      <c r="V14" s="238"/>
-      <c r="W14" s="238"/>
-      <c r="X14" s="238"/>
-      <c r="Y14" s="238"/>
-      <c r="Z14" s="238"/>
-      <c r="AA14" s="238"/>
-      <c r="AB14" s="238"/>
+      <c r="B14" s="211"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="211"/>
+      <c r="E14" s="211"/>
+      <c r="F14" s="211"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="211"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="211"/>
+      <c r="U14" s="211"/>
+      <c r="V14" s="211"/>
+      <c r="W14" s="211"/>
+      <c r="X14" s="211"/>
+      <c r="Y14" s="211"/>
+      <c r="Z14" s="211"/>
+      <c r="AA14" s="211"/>
+      <c r="AB14" s="211"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="238"/>
-      <c r="AE14" s="238"/>
-      <c r="AF14" s="238"/>
+      <c r="AD14" s="211"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="211"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5463,173 +5463,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="137" t="s">
+      <c r="A16" s="84"/>
+      <c r="B16" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="235" t="s">
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="233"/>
-      <c r="H16" s="233"/>
-      <c r="I16" s="233"/>
-      <c r="J16" s="234"/>
-      <c r="K16" s="243" t="s">
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
+      <c r="J16" s="198"/>
+      <c r="K16" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="233"/>
-      <c r="M16" s="233"/>
-      <c r="N16" s="233"/>
-      <c r="O16" s="233"/>
-      <c r="P16" s="233"/>
-      <c r="Q16" s="233"/>
-      <c r="R16" s="233"/>
-      <c r="S16" s="233"/>
-      <c r="T16" s="233"/>
-      <c r="U16" s="233"/>
-      <c r="V16" s="233"/>
-      <c r="W16" s="233"/>
-      <c r="X16" s="233"/>
-      <c r="Y16" s="233"/>
-      <c r="Z16" s="233"/>
-      <c r="AA16" s="233"/>
-      <c r="AB16" s="234"/>
+      <c r="L16" s="197"/>
+      <c r="M16" s="197"/>
+      <c r="N16" s="197"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="197"/>
+      <c r="Q16" s="197"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="197"/>
+      <c r="T16" s="197"/>
+      <c r="U16" s="197"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="197"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="197"/>
+      <c r="Z16" s="197"/>
+      <c r="AA16" s="197"/>
+      <c r="AB16" s="198"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="173"/>
-      <c r="AF16" s="200"/>
+      <c r="AE16" s="124"/>
+      <c r="AF16" s="190"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102"/>
-      <c r="B17" s="227"/>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="221" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="217"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="225" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="222"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="183" t="s">
+      <c r="G17" s="226"/>
+      <c r="H17" s="226"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="227"/>
+      <c r="K17" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="184"/>
-      <c r="O17" s="184"/>
-      <c r="P17" s="184"/>
-      <c r="Q17" s="184"/>
-      <c r="R17" s="247" t="s">
+      <c r="L17" s="232"/>
+      <c r="M17" s="232"/>
+      <c r="N17" s="232"/>
+      <c r="O17" s="232"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="232"/>
+      <c r="R17" s="193" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="185" t="s">
+      <c r="S17" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="185"/>
-      <c r="U17" s="185"/>
-      <c r="V17" s="185"/>
-      <c r="W17" s="185"/>
-      <c r="X17" s="185"/>
-      <c r="Y17" s="185"/>
-      <c r="Z17" s="185"/>
-      <c r="AA17" s="185"/>
-      <c r="AB17" s="186"/>
+      <c r="T17" s="233"/>
+      <c r="U17" s="233"/>
+      <c r="V17" s="233"/>
+      <c r="W17" s="233"/>
+      <c r="X17" s="233"/>
+      <c r="Y17" s="233"/>
+      <c r="Z17" s="233"/>
+      <c r="AA17" s="233"/>
+      <c r="AB17" s="234"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="161" t="s">
+      <c r="AD17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="248">
+      <c r="AE17" s="194">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="248"/>
+      <c r="AF17" s="194"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="200"/>
-      <c r="D18" s="200"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="224"/>
-      <c r="G18" s="225"/>
-      <c r="H18" s="225"/>
-      <c r="I18" s="225"/>
-      <c r="J18" s="226"/>
-      <c r="K18" s="92">
+      <c r="A18" s="116"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="228"/>
+      <c r="G18" s="229"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="230"/>
+      <c r="K18" s="95">
         <v>16000</v>
       </c>
-      <c r="L18" s="208"/>
-      <c r="M18" s="208"/>
-      <c r="N18" s="208"/>
-      <c r="O18" s="208"/>
-      <c r="P18" s="208"/>
-      <c r="Q18" s="208"/>
-      <c r="R18" s="247"/>
-      <c r="S18" s="165">
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="192"/>
+      <c r="O18" s="192"/>
+      <c r="P18" s="192"/>
+      <c r="Q18" s="192"/>
+      <c r="R18" s="193"/>
+      <c r="S18" s="89">
         <v>68.69</v>
       </c>
-      <c r="T18" s="208"/>
-      <c r="U18" s="208"/>
-      <c r="V18" s="208"/>
-      <c r="W18" s="208"/>
-      <c r="X18" s="208"/>
-      <c r="Y18" s="208"/>
-      <c r="Z18" s="208"/>
-      <c r="AA18" s="208"/>
-      <c r="AB18" s="209"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="215"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="248"/>
-      <c r="AF18" s="248"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="194"/>
+      <c r="AF18" s="194"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="214"/>
-      <c r="C19" s="182"/>
-      <c r="D19" s="182"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="149" t="s">
+      <c r="B19" s="220"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="230"/>
-      <c r="K19" s="216">
+      <c r="G19" s="202"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="202"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="205">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="217"/>
-      <c r="M19" s="217"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
-      <c r="Q19" s="217"/>
-      <c r="R19" s="217"/>
-      <c r="S19" s="217"/>
-      <c r="T19" s="217"/>
-      <c r="U19" s="217"/>
-      <c r="V19" s="217"/>
-      <c r="W19" s="217"/>
-      <c r="X19" s="217"/>
-      <c r="Y19" s="217"/>
-      <c r="Z19" s="217"/>
-      <c r="AA19" s="217"/>
-      <c r="AB19" s="218"/>
+      <c r="L19" s="206"/>
+      <c r="M19" s="206"/>
+      <c r="N19" s="206"/>
+      <c r="O19" s="206"/>
+      <c r="P19" s="206"/>
+      <c r="Q19" s="206"/>
+      <c r="R19" s="206"/>
+      <c r="S19" s="206"/>
+      <c r="T19" s="206"/>
+      <c r="U19" s="206"/>
+      <c r="V19" s="206"/>
+      <c r="W19" s="206"/>
+      <c r="X19" s="206"/>
+      <c r="Y19" s="206"/>
+      <c r="Z19" s="206"/>
+      <c r="AA19" s="206"/>
+      <c r="AB19" s="207"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="199">
+      <c r="AE19" s="208">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="236"/>
+      <c r="AF19" s="209"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5637,24 +5637,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="250"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="200"/>
-      <c r="Q20" s="249"/>
-      <c r="R20" s="200"/>
-      <c r="S20" s="200"/>
-      <c r="T20" s="200"/>
-      <c r="U20" s="200"/>
-      <c r="V20" s="200"/>
-      <c r="W20" s="200"/>
+      <c r="K20" s="199"/>
+      <c r="L20" s="190"/>
+      <c r="M20" s="190"/>
+      <c r="N20" s="190"/>
+      <c r="O20" s="93"/>
+      <c r="P20" s="190"/>
+      <c r="Q20" s="195"/>
+      <c r="R20" s="190"/>
+      <c r="S20" s="190"/>
+      <c r="T20" s="190"/>
+      <c r="U20" s="190"/>
+      <c r="V20" s="190"/>
+      <c r="W20" s="190"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5664,207 +5664,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="246">
+      <c r="AE20" s="191">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="208"/>
+      <c r="AF20" s="192"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="127" t="s">
+      <c r="B21" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="232" t="s">
+      <c r="C21" s="192"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="233"/>
-      <c r="H21" s="233"/>
-      <c r="I21" s="233"/>
-      <c r="J21" s="234"/>
-      <c r="K21" s="243" t="s">
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="198"/>
+      <c r="K21" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="233"/>
-      <c r="M21" s="233"/>
-      <c r="N21" s="233"/>
-      <c r="O21" s="233"/>
-      <c r="P21" s="233"/>
-      <c r="Q21" s="233"/>
-      <c r="R21" s="233"/>
-      <c r="S21" s="233"/>
-      <c r="T21" s="233"/>
-      <c r="U21" s="233"/>
-      <c r="V21" s="233"/>
-      <c r="W21" s="233"/>
-      <c r="X21" s="233"/>
-      <c r="Y21" s="233"/>
-      <c r="Z21" s="233"/>
-      <c r="AA21" s="233"/>
-      <c r="AB21" s="234"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+      <c r="Q21" s="197"/>
+      <c r="R21" s="197"/>
+      <c r="S21" s="197"/>
+      <c r="T21" s="197"/>
+      <c r="U21" s="197"/>
+      <c r="V21" s="197"/>
+      <c r="W21" s="197"/>
+      <c r="X21" s="197"/>
+      <c r="Y21" s="197"/>
+      <c r="Z21" s="197"/>
+      <c r="AA21" s="197"/>
+      <c r="AB21" s="198"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="162"/>
-      <c r="AF21" s="200"/>
+      <c r="AE21" s="137"/>
+      <c r="AF21" s="190"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="210"/>
-      <c r="C22" s="211"/>
-      <c r="D22" s="211"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="187" t="s">
+      <c r="B22" s="216"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="189"/>
-      <c r="K22" s="183" t="s">
+      <c r="G22" s="253"/>
+      <c r="H22" s="253"/>
+      <c r="I22" s="253"/>
+      <c r="J22" s="254"/>
+      <c r="K22" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="184"/>
-      <c r="O22" s="184"/>
-      <c r="P22" s="184"/>
-      <c r="Q22" s="184"/>
-      <c r="R22" s="193" t="s">
+      <c r="L22" s="232"/>
+      <c r="M22" s="232"/>
+      <c r="N22" s="232"/>
+      <c r="O22" s="232"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="232"/>
+      <c r="R22" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="185" t="s">
+      <c r="S22" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="185"/>
-      <c r="U22" s="185"/>
-      <c r="V22" s="185"/>
-      <c r="W22" s="185"/>
-      <c r="X22" s="185"/>
-      <c r="Y22" s="185"/>
-      <c r="Z22" s="185"/>
-      <c r="AA22" s="185"/>
-      <c r="AB22" s="186"/>
+      <c r="T22" s="233"/>
+      <c r="U22" s="233"/>
+      <c r="V22" s="233"/>
+      <c r="W22" s="233"/>
+      <c r="X22" s="233"/>
+      <c r="Y22" s="233"/>
+      <c r="Z22" s="233"/>
+      <c r="AA22" s="233"/>
+      <c r="AB22" s="234"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="161" t="s">
+      <c r="AD22" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="80">
+      <c r="AE22" s="82">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="80"/>
+      <c r="AF22" s="82"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="191"/>
-      <c r="H23" s="191"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="244">
+      <c r="B23" s="219"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="190"/>
+      <c r="E23" s="218"/>
+      <c r="F23" s="255"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="257"/>
+      <c r="K23" s="201">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="229"/>
-      <c r="M23" s="229"/>
-      <c r="N23" s="229"/>
-      <c r="O23" s="229"/>
-      <c r="P23" s="229"/>
-      <c r="Q23" s="229"/>
-      <c r="R23" s="194"/>
-      <c r="S23" s="228">
+      <c r="L23" s="202"/>
+      <c r="M23" s="202"/>
+      <c r="N23" s="202"/>
+      <c r="O23" s="202"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="202"/>
+      <c r="R23" s="259"/>
+      <c r="S23" s="236">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="229"/>
-      <c r="U23" s="229"/>
-      <c r="V23" s="229"/>
-      <c r="W23" s="229"/>
-      <c r="X23" s="229"/>
-      <c r="Y23" s="229"/>
-      <c r="Z23" s="229"/>
-      <c r="AA23" s="229"/>
-      <c r="AB23" s="230"/>
+      <c r="T23" s="202"/>
+      <c r="U23" s="202"/>
+      <c r="V23" s="202"/>
+      <c r="W23" s="202"/>
+      <c r="X23" s="202"/>
+      <c r="Y23" s="202"/>
+      <c r="Z23" s="202"/>
+      <c r="AA23" s="202"/>
+      <c r="AB23" s="204"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="161"/>
-      <c r="AE23" s="150"/>
-      <c r="AF23" s="150"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="214"/>
-      <c r="C24" s="182"/>
-      <c r="D24" s="182"/>
-      <c r="E24" s="215"/>
-      <c r="F24" s="245" t="s">
+      <c r="B24" s="220"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="203" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="229"/>
-      <c r="H24" s="229"/>
-      <c r="I24" s="229"/>
-      <c r="J24" s="230"/>
-      <c r="K24" s="216">
+      <c r="G24" s="202"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="204"/>
+      <c r="K24" s="205">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="217"/>
-      <c r="M24" s="217"/>
-      <c r="N24" s="217"/>
-      <c r="O24" s="217"/>
-      <c r="P24" s="217"/>
-      <c r="Q24" s="217"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="217"/>
-      <c r="U24" s="217"/>
-      <c r="V24" s="217"/>
-      <c r="W24" s="217"/>
-      <c r="X24" s="217"/>
-      <c r="Y24" s="217"/>
-      <c r="Z24" s="217"/>
-      <c r="AA24" s="217"/>
-      <c r="AB24" s="218"/>
+      <c r="L24" s="206"/>
+      <c r="M24" s="206"/>
+      <c r="N24" s="206"/>
+      <c r="O24" s="206"/>
+      <c r="P24" s="206"/>
+      <c r="Q24" s="206"/>
+      <c r="R24" s="206"/>
+      <c r="S24" s="206"/>
+      <c r="T24" s="206"/>
+      <c r="U24" s="206"/>
+      <c r="V24" s="206"/>
+      <c r="W24" s="206"/>
+      <c r="X24" s="206"/>
+      <c r="Y24" s="206"/>
+      <c r="Z24" s="206"/>
+      <c r="AA24" s="206"/>
+      <c r="AB24" s="207"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="150">
+      <c r="AE24" s="80">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="182"/>
+      <c r="AF24" s="221"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="102"/>
+      <c r="A25" s="84"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="219"/>
-      <c r="G25" s="182"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="182"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="221"/>
+      <c r="H25" s="221"/>
+      <c r="I25" s="221"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="182"/>
-      <c r="O25" s="182"/>
-      <c r="P25" s="182"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="182"/>
-      <c r="S25" s="182"/>
-      <c r="T25" s="182"/>
-      <c r="U25" s="182"/>
-      <c r="V25" s="182"/>
-      <c r="W25" s="182"/>
+      <c r="K25" s="251"/>
+      <c r="L25" s="221"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
+      <c r="O25" s="221"/>
+      <c r="P25" s="221"/>
+      <c r="Q25" s="221"/>
+      <c r="R25" s="221"/>
+      <c r="S25" s="221"/>
+      <c r="T25" s="221"/>
+      <c r="U25" s="221"/>
+      <c r="V25" s="221"/>
+      <c r="W25" s="221"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5874,14 +5874,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="199">
+      <c r="AE25" s="208">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="182"/>
+      <c r="AF25" s="221"/>
     </row>
     <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="136"/>
+      <c r="A26" s="116"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5915,7 +5915,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="136"/>
+      <c r="A27" s="116"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5934,28 +5934,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="U27" s="200"/>
-      <c r="V27" s="200"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="200"/>
-      <c r="Y27" s="200"/>
-      <c r="Z27" s="200"/>
-      <c r="AA27" s="200"/>
-      <c r="AB27" s="200"/>
+      <c r="T27" s="164" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="190"/>
+      <c r="AB27" s="190"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="195">
+      <c r="AE27" s="246">
         <v>10000</v>
       </c>
-      <c r="AF27" s="196"/>
+      <c r="AF27" s="247"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="136"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5974,28 +5974,28 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="97" t="s">
+      <c r="T28" s="164" t="s">
         <v>57</v>
       </c>
-      <c r="U28" s="81"/>
-      <c r="V28" s="81"/>
-      <c r="W28" s="81"/>
-      <c r="X28" s="81"/>
-      <c r="Y28" s="81"/>
-      <c r="Z28" s="81"/>
-      <c r="AA28" s="81"/>
-      <c r="AB28" s="81"/>
+      <c r="U28" s="79"/>
+      <c r="V28" s="79"/>
+      <c r="W28" s="79"/>
+      <c r="X28" s="79"/>
+      <c r="Y28" s="79"/>
+      <c r="Z28" s="79"/>
+      <c r="AA28" s="79"/>
+      <c r="AB28" s="79"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="201">
+      <c r="AE28" s="250">
         <v>0</v>
       </c>
-      <c r="AF28" s="196"/>
+      <c r="AF28" s="247"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="136"/>
+      <c r="A29" s="116"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -6014,25 +6014,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="231" t="s">
+      <c r="T29" s="237" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="200"/>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="200"/>
-      <c r="Y29" s="200"/>
-      <c r="Z29" s="200"/>
-      <c r="AA29" s="200"/>
-      <c r="AB29" s="200"/>
+      <c r="U29" s="190"/>
+      <c r="V29" s="190"/>
+      <c r="W29" s="190"/>
+      <c r="X29" s="190"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="190"/>
+      <c r="AB29" s="190"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="197">
+      <c r="AE29" s="248">
         <v>10000</v>
       </c>
-      <c r="AF29" s="198"/>
+      <c r="AF29" s="249"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -6054,26 +6054,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="119" t="s">
+      <c r="T30" s="165" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="200"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="200"/>
-      <c r="Y30" s="200"/>
-      <c r="Z30" s="200"/>
-      <c r="AA30" s="200"/>
-      <c r="AB30" s="200"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="190"/>
+      <c r="W30" s="190"/>
+      <c r="X30" s="190"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="190"/>
+      <c r="AB30" s="190"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="80">
+      <c r="AE30" s="82">
         <f>AE20+AE25+AE27+AE29+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF30" s="200"/>
+      <c r="AF30" s="190"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -6145,41 +6145,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
-      <c r="E33" s="110"/>
-      <c r="F33" s="110"/>
-      <c r="G33" s="206" t="s">
+      <c r="C33" s="159"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="159"/>
+      <c r="G33" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="206"/>
-      <c r="I33" s="206"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="206"/>
-      <c r="L33" s="206"/>
-      <c r="M33" s="206"/>
-      <c r="N33" s="206"/>
-      <c r="O33" s="206"/>
-      <c r="P33" s="206"/>
-      <c r="Q33" s="206"/>
-      <c r="R33" s="206"/>
-      <c r="S33" s="206"/>
-      <c r="T33" s="206"/>
-      <c r="U33" s="206"/>
-      <c r="V33" s="206"/>
-      <c r="W33" s="206"/>
-      <c r="X33" s="206"/>
-      <c r="Y33" s="206"/>
-      <c r="Z33" s="206"/>
-      <c r="AA33" s="206"/>
-      <c r="AB33" s="206"/>
-      <c r="AC33" s="206"/>
-      <c r="AD33" s="206"/>
-      <c r="AE33" s="206"/>
-      <c r="AF33" s="206"/>
+      <c r="H33" s="244"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="244"/>
+      <c r="K33" s="244"/>
+      <c r="L33" s="244"/>
+      <c r="M33" s="244"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="244"/>
+      <c r="P33" s="244"/>
+      <c r="Q33" s="244"/>
+      <c r="R33" s="244"/>
+      <c r="S33" s="244"/>
+      <c r="T33" s="244"/>
+      <c r="U33" s="244"/>
+      <c r="V33" s="244"/>
+      <c r="W33" s="244"/>
+      <c r="X33" s="244"/>
+      <c r="Y33" s="244"/>
+      <c r="Z33" s="244"/>
+      <c r="AA33" s="244"/>
+      <c r="AB33" s="244"/>
+      <c r="AC33" s="244"/>
+      <c r="AD33" s="244"/>
+      <c r="AE33" s="244"/>
+      <c r="AF33" s="244"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -6308,207 +6308,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="49"/>
-      <c r="AB37" s="207" t="s">
+      <c r="AB37" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="207"/>
-      <c r="AD37" s="207"/>
-      <c r="AE37" s="207"/>
-      <c r="AF37" s="207"/>
+      <c r="AC37" s="245"/>
+      <c r="AD37" s="245"/>
+      <c r="AE37" s="245"/>
+      <c r="AF37" s="245"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="96"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
-      <c r="T38" s="96"/>
-      <c r="U38" s="96"/>
-      <c r="V38" s="96"/>
-      <c r="W38" s="96"/>
-      <c r="AB38" s="207"/>
-      <c r="AC38" s="207"/>
-      <c r="AD38" s="207"/>
-      <c r="AE38" s="207"/>
-      <c r="AF38" s="207"/>
+      <c r="B38" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="173"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="173"/>
+      <c r="L38" s="173"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
+      <c r="O38" s="173"/>
+      <c r="P38" s="173"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="173"/>
+      <c r="S38" s="173"/>
+      <c r="T38" s="173"/>
+      <c r="U38" s="173"/>
+      <c r="V38" s="173"/>
+      <c r="W38" s="173"/>
+      <c r="AB38" s="245"/>
+      <c r="AC38" s="245"/>
+      <c r="AD38" s="245"/>
+      <c r="AE38" s="245"/>
+      <c r="AF38" s="245"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="96"/>
-      <c r="AB39" s="207"/>
-      <c r="AC39" s="207"/>
-      <c r="AD39" s="207"/>
-      <c r="AE39" s="207"/>
-      <c r="AF39" s="207"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="173"/>
+      <c r="F39" s="173"/>
+      <c r="G39" s="173"/>
+      <c r="H39" s="173"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="173"/>
+      <c r="L39" s="173"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
+      <c r="O39" s="173"/>
+      <c r="P39" s="173"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="173"/>
+      <c r="S39" s="173"/>
+      <c r="T39" s="173"/>
+      <c r="U39" s="173"/>
+      <c r="V39" s="173"/>
+      <c r="W39" s="173"/>
+      <c r="AB39" s="245"/>
+      <c r="AC39" s="245"/>
+      <c r="AD39" s="245"/>
+      <c r="AE39" s="245"/>
+      <c r="AF39" s="245"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="96"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
-      <c r="P40" s="96"/>
-      <c r="Q40" s="96"/>
-      <c r="R40" s="96"/>
-      <c r="S40" s="96"/>
-      <c r="T40" s="96"/>
-      <c r="U40" s="96"/>
-      <c r="V40" s="96"/>
-      <c r="W40" s="96"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="173"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
+      <c r="O40" s="173"/>
+      <c r="P40" s="173"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="173"/>
+      <c r="S40" s="173"/>
+      <c r="T40" s="173"/>
+      <c r="U40" s="173"/>
+      <c r="V40" s="173"/>
+      <c r="W40" s="173"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="96"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="96"/>
-      <c r="R41" s="96"/>
-      <c r="S41" s="96"/>
-      <c r="T41" s="96"/>
-      <c r="U41" s="96"/>
-      <c r="V41" s="96"/>
-      <c r="W41" s="96"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="173"/>
+      <c r="E41" s="173"/>
+      <c r="F41" s="173"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="173"/>
+      <c r="L41" s="173"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
+      <c r="O41" s="173"/>
+      <c r="P41" s="173"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="173"/>
+      <c r="S41" s="173"/>
+      <c r="T41" s="173"/>
+      <c r="U41" s="173"/>
+      <c r="V41" s="173"/>
+      <c r="W41" s="173"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
-      <c r="P42" s="96"/>
-      <c r="Q42" s="96"/>
-      <c r="R42" s="96"/>
-      <c r="S42" s="96"/>
-      <c r="T42" s="96"/>
-      <c r="U42" s="96"/>
-      <c r="V42" s="96"/>
-      <c r="W42" s="96"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="173"/>
+      <c r="S42" s="173"/>
+      <c r="T42" s="173"/>
+      <c r="U42" s="173"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
-      <c r="P43" s="96"/>
-      <c r="Q43" s="96"/>
-      <c r="R43" s="96"/>
-      <c r="S43" s="96"/>
-      <c r="T43" s="96"/>
-      <c r="U43" s="96"/>
-      <c r="V43" s="96"/>
-      <c r="W43" s="96"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="173"/>
+      <c r="E43" s="173"/>
+      <c r="F43" s="173"/>
+      <c r="G43" s="173"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="173"/>
+      <c r="L43" s="173"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="173"/>
+      <c r="P43" s="173"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="173"/>
+      <c r="S43" s="173"/>
+      <c r="T43" s="173"/>
+      <c r="U43" s="173"/>
+      <c r="V43" s="173"/>
+      <c r="W43" s="173"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="96"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
-      <c r="P44" s="96"/>
-      <c r="Q44" s="96"/>
-      <c r="R44" s="96"/>
-      <c r="S44" s="96"/>
-      <c r="T44" s="96"/>
-      <c r="U44" s="96"/>
-      <c r="V44" s="96"/>
-      <c r="W44" s="96"/>
-      <c r="AB44" s="204" t="s">
+      <c r="B44" s="173"/>
+      <c r="C44" s="173"/>
+      <c r="D44" s="173"/>
+      <c r="E44" s="173"/>
+      <c r="F44" s="173"/>
+      <c r="G44" s="173"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="173"/>
+      <c r="L44" s="173"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
+      <c r="O44" s="173"/>
+      <c r="P44" s="173"/>
+      <c r="Q44" s="173"/>
+      <c r="R44" s="173"/>
+      <c r="S44" s="173"/>
+      <c r="T44" s="173"/>
+      <c r="U44" s="173"/>
+      <c r="V44" s="173"/>
+      <c r="W44" s="173"/>
+      <c r="AB44" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="205"/>
-      <c r="AD44" s="205"/>
-      <c r="AE44" s="205"/>
-      <c r="AF44" s="205"/>
+      <c r="AC44" s="243"/>
+      <c r="AD44" s="243"/>
+      <c r="AE44" s="243"/>
+      <c r="AF44" s="243"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -6534,11 +6534,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="202"/>
-      <c r="AC45" s="203"/>
-      <c r="AD45" s="203"/>
-      <c r="AE45" s="203"/>
-      <c r="AF45" s="203"/>
+      <c r="AB45" s="240"/>
+      <c r="AC45" s="241"/>
+      <c r="AD45" s="241"/>
+      <c r="AE45" s="241"/>
+      <c r="AF45" s="241"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -6576,12 +6576,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
-      <c r="E47" s="78"/>
+      <c r="C47" s="175"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -6612,36 +6612,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="176" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79" t="s">
+      <c r="C48" s="176"/>
+      <c r="D48" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="251" t="s">
+      <c r="E48" s="176"/>
+      <c r="F48" s="176"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="I48" s="252"/>
-      <c r="J48" s="252"/>
-      <c r="K48" s="252"/>
-      <c r="L48" s="252"/>
-      <c r="M48" s="252"/>
-      <c r="N48" s="253"/>
-      <c r="O48" s="251" t="s">
+      <c r="I48" s="178"/>
+      <c r="J48" s="178"/>
+      <c r="K48" s="178"/>
+      <c r="L48" s="178"/>
+      <c r="M48" s="178"/>
+      <c r="N48" s="179"/>
+      <c r="O48" s="177" t="s">
         <v>63</v>
       </c>
-      <c r="P48" s="252"/>
-      <c r="Q48" s="252"/>
-      <c r="R48" s="252"/>
-      <c r="S48" s="252"/>
-      <c r="T48" s="252"/>
-      <c r="U48" s="252"/>
-      <c r="V48" s="252"/>
-      <c r="W48" s="253"/>
+      <c r="P48" s="178"/>
+      <c r="Q48" s="178"/>
+      <c r="R48" s="178"/>
+      <c r="S48" s="178"/>
+      <c r="T48" s="178"/>
+      <c r="U48" s="178"/>
+      <c r="V48" s="178"/>
+      <c r="W48" s="179"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -6654,36 +6654,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="74" t="s">
+      <c r="B49" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="74"/>
-      <c r="D49" s="75" t="s">
+      <c r="C49" s="180"/>
+      <c r="D49" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="H49" s="254" t="s">
+      <c r="E49" s="181"/>
+      <c r="F49" s="181"/>
+      <c r="G49" s="181"/>
+      <c r="H49" s="182" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="255"/>
-      <c r="J49" s="255"/>
-      <c r="K49" s="255"/>
-      <c r="L49" s="255"/>
-      <c r="M49" s="255"/>
-      <c r="N49" s="256"/>
-      <c r="O49" s="254" t="s">
+      <c r="I49" s="183"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="183"/>
+      <c r="N49" s="184"/>
+      <c r="O49" s="182" t="s">
         <v>67</v>
       </c>
-      <c r="P49" s="255"/>
-      <c r="Q49" s="255"/>
-      <c r="R49" s="255"/>
-      <c r="S49" s="255"/>
-      <c r="T49" s="255"/>
-      <c r="U49" s="255"/>
-      <c r="V49" s="255"/>
-      <c r="W49" s="256"/>
+      <c r="P49" s="183"/>
+      <c r="Q49" s="183"/>
+      <c r="R49" s="183"/>
+      <c r="S49" s="183"/>
+      <c r="T49" s="183"/>
+      <c r="U49" s="183"/>
+      <c r="V49" s="183"/>
+      <c r="W49" s="184"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6696,36 +6696,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="180" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="74"/>
-      <c r="D50" s="75" t="s">
+      <c r="C50" s="180"/>
+      <c r="D50" s="181" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="75"/>
-      <c r="H50" s="254" t="s">
+      <c r="E50" s="181"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="182" t="s">
         <v>70</v>
       </c>
-      <c r="I50" s="255"/>
-      <c r="J50" s="255"/>
-      <c r="K50" s="255"/>
-      <c r="L50" s="255"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="256"/>
-      <c r="O50" s="254" t="s">
+      <c r="I50" s="183"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="183"/>
+      <c r="M50" s="183"/>
+      <c r="N50" s="184"/>
+      <c r="O50" s="182" t="s">
         <v>71</v>
       </c>
-      <c r="P50" s="255"/>
-      <c r="Q50" s="255"/>
-      <c r="R50" s="255"/>
-      <c r="S50" s="255"/>
-      <c r="T50" s="255"/>
-      <c r="U50" s="255"/>
-      <c r="V50" s="255"/>
-      <c r="W50" s="256"/>
+      <c r="P50" s="183"/>
+      <c r="Q50" s="183"/>
+      <c r="R50" s="183"/>
+      <c r="S50" s="183"/>
+      <c r="T50" s="183"/>
+      <c r="U50" s="183"/>
+      <c r="V50" s="183"/>
+      <c r="W50" s="184"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6738,36 +6738,36 @@
     </row>
     <row r="51" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="74" t="s">
+      <c r="B51" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="74"/>
-      <c r="D51" s="76" t="s">
+      <c r="C51" s="180"/>
+      <c r="D51" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="76"/>
-      <c r="F51" s="76"/>
-      <c r="G51" s="76"/>
-      <c r="H51" s="257" t="s">
+      <c r="E51" s="185"/>
+      <c r="F51" s="185"/>
+      <c r="G51" s="185"/>
+      <c r="H51" s="186" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="258"/>
-      <c r="J51" s="258"/>
-      <c r="K51" s="258"/>
-      <c r="L51" s="258"/>
-      <c r="M51" s="258"/>
-      <c r="N51" s="259"/>
-      <c r="O51" s="257" t="s">
+      <c r="I51" s="187"/>
+      <c r="J51" s="187"/>
+      <c r="K51" s="187"/>
+      <c r="L51" s="187"/>
+      <c r="M51" s="187"/>
+      <c r="N51" s="188"/>
+      <c r="O51" s="186" t="s">
         <v>75</v>
       </c>
-      <c r="P51" s="258"/>
-      <c r="Q51" s="258"/>
-      <c r="R51" s="258"/>
-      <c r="S51" s="258"/>
-      <c r="T51" s="258"/>
-      <c r="U51" s="258"/>
-      <c r="V51" s="258"/>
-      <c r="W51" s="259"/>
+      <c r="P51" s="187"/>
+      <c r="Q51" s="187"/>
+      <c r="R51" s="187"/>
+      <c r="S51" s="187"/>
+      <c r="T51" s="187"/>
+      <c r="U51" s="187"/>
+      <c r="V51" s="187"/>
+      <c r="W51" s="188"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6780,30 +6780,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="77" t="s">
+      <c r="B52" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
-      <c r="M52" s="77"/>
-      <c r="N52" s="77"/>
-      <c r="O52" s="77"/>
-      <c r="P52" s="77"/>
-      <c r="Q52" s="77"/>
-      <c r="R52" s="77"/>
-      <c r="S52" s="77"/>
-      <c r="T52" s="77"/>
-      <c r="U52" s="77"/>
-      <c r="V52" s="77"/>
-      <c r="W52" s="77"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="189"/>
+      <c r="G52" s="189"/>
+      <c r="H52" s="189"/>
+      <c r="I52" s="189"/>
+      <c r="J52" s="189"/>
+      <c r="K52" s="189"/>
+      <c r="L52" s="189"/>
+      <c r="M52" s="189"/>
+      <c r="N52" s="189"/>
+      <c r="O52" s="189"/>
+      <c r="P52" s="189"/>
+      <c r="Q52" s="189"/>
+      <c r="R52" s="189"/>
+      <c r="S52" s="189"/>
+      <c r="T52" s="189"/>
+      <c r="U52" s="189"/>
+      <c r="V52" s="189"/>
+      <c r="W52" s="189"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6815,125 +6815,170 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="136"/>
-      <c r="F63" s="136"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="136"/>
-      <c r="I63" s="136"/>
-      <c r="J63" s="136"/>
-      <c r="K63" s="136"/>
-      <c r="L63" s="136"/>
-      <c r="M63" s="136"/>
-      <c r="N63" s="136"/>
-      <c r="O63" s="136"/>
-      <c r="P63" s="136"/>
-      <c r="Q63" s="136"/>
-      <c r="R63" s="136"/>
-      <c r="S63" s="136"/>
-      <c r="T63" s="136"/>
-      <c r="U63" s="136"/>
-      <c r="V63" s="136"/>
-      <c r="W63" s="136"/>
-      <c r="X63" s="136"/>
-      <c r="Y63" s="136"/>
-      <c r="Z63" s="136"/>
-      <c r="AA63" s="136"/>
-      <c r="AB63" s="136"/>
-      <c r="AC63" s="136"/>
-      <c r="AD63" s="136"/>
-      <c r="AE63" s="136"/>
-      <c r="AF63" s="136"/>
+      <c r="C63" s="116"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="116"/>
+      <c r="N63" s="116"/>
+      <c r="O63" s="116"/>
+      <c r="P63" s="116"/>
+      <c r="Q63" s="116"/>
+      <c r="R63" s="116"/>
+      <c r="S63" s="116"/>
+      <c r="T63" s="116"/>
+      <c r="U63" s="116"/>
+      <c r="V63" s="116"/>
+      <c r="W63" s="116"/>
+      <c r="X63" s="116"/>
+      <c r="Y63" s="116"/>
+      <c r="Z63" s="116"/>
+      <c r="AA63" s="116"/>
+      <c r="AB63" s="116"/>
+      <c r="AC63" s="116"/>
+      <c r="AD63" s="116"/>
+      <c r="AE63" s="116"/>
+      <c r="AF63" s="116"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="136"/>
-      <c r="F64" s="136"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="136"/>
-      <c r="I64" s="136"/>
-      <c r="J64" s="136"/>
-      <c r="K64" s="136"/>
-      <c r="L64" s="136"/>
-      <c r="M64" s="136"/>
-      <c r="N64" s="136"/>
-      <c r="O64" s="136"/>
-      <c r="P64" s="136"/>
-      <c r="Q64" s="136"/>
-      <c r="R64" s="136"/>
-      <c r="S64" s="136"/>
-      <c r="T64" s="136"/>
-      <c r="U64" s="136"/>
-      <c r="V64" s="136"/>
-      <c r="W64" s="136"/>
-      <c r="X64" s="136"/>
-      <c r="Y64" s="136"/>
-      <c r="Z64" s="136"/>
-      <c r="AA64" s="136"/>
-      <c r="AB64" s="136"/>
-      <c r="AC64" s="136"/>
-      <c r="AD64" s="136"/>
-      <c r="AE64" s="136"/>
-      <c r="AF64" s="136"/>
+      <c r="C64" s="116"/>
+      <c r="D64" s="116"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="116"/>
+      <c r="H64" s="116"/>
+      <c r="I64" s="116"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="116"/>
+      <c r="M64" s="116"/>
+      <c r="N64" s="116"/>
+      <c r="O64" s="116"/>
+      <c r="P64" s="116"/>
+      <c r="Q64" s="116"/>
+      <c r="R64" s="116"/>
+      <c r="S64" s="116"/>
+      <c r="T64" s="116"/>
+      <c r="U64" s="116"/>
+      <c r="V64" s="116"/>
+      <c r="W64" s="116"/>
+      <c r="X64" s="116"/>
+      <c r="Y64" s="116"/>
+      <c r="Z64" s="116"/>
+      <c r="AA64" s="116"/>
+      <c r="AB64" s="116"/>
+      <c r="AC64" s="116"/>
+      <c r="AD64" s="116"/>
+      <c r="AE64" s="116"/>
+      <c r="AF64" s="116"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="83" t="s">
+      <c r="B65" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="136"/>
-      <c r="F65" s="136"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="136"/>
-      <c r="I65" s="136"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="136"/>
-      <c r="L65" s="136"/>
-      <c r="M65" s="136"/>
-      <c r="N65" s="136"/>
-      <c r="O65" s="136"/>
-      <c r="P65" s="136"/>
-      <c r="Q65" s="136"/>
-      <c r="R65" s="136"/>
-      <c r="S65" s="136"/>
-      <c r="T65" s="136"/>
-      <c r="U65" s="136"/>
-      <c r="V65" s="136"/>
-      <c r="W65" s="136"/>
-      <c r="X65" s="136"/>
-      <c r="Y65" s="136"/>
-      <c r="Z65" s="136"/>
-      <c r="AA65" s="136"/>
-      <c r="AB65" s="136"/>
-      <c r="AC65" s="136"/>
-      <c r="AD65" s="136"/>
-      <c r="AE65" s="136"/>
-      <c r="AF65" s="136"/>
+      <c r="C65" s="116"/>
+      <c r="D65" s="116"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="116"/>
+      <c r="H65" s="116"/>
+      <c r="I65" s="116"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="116"/>
+      <c r="M65" s="116"/>
+      <c r="N65" s="116"/>
+      <c r="O65" s="116"/>
+      <c r="P65" s="116"/>
+      <c r="Q65" s="116"/>
+      <c r="R65" s="116"/>
+      <c r="S65" s="116"/>
+      <c r="T65" s="116"/>
+      <c r="U65" s="116"/>
+      <c r="V65" s="116"/>
+      <c r="W65" s="116"/>
+      <c r="X65" s="116"/>
+      <c r="Y65" s="116"/>
+      <c r="Z65" s="116"/>
+      <c r="AA65" s="116"/>
+      <c r="AB65" s="116"/>
+      <c r="AC65" s="116"/>
+      <c r="AD65" s="116"/>
+      <c r="AE65" s="116"/>
+      <c r="AF65" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="O49:W49"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B52:W52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B21:E24"/>
+    <mergeCell ref="K24:AB24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F17:J18"/>
+    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="S17:AB17"/>
+    <mergeCell ref="B16:E19"/>
+    <mergeCell ref="S23:AB23"/>
+    <mergeCell ref="T29:AB29"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="B2:AF3"/>
     <mergeCell ref="AB5:AE5"/>
     <mergeCell ref="B65:AF65"/>
@@ -6950,71 +6995,26 @@
     <mergeCell ref="B64:AF64"/>
     <mergeCell ref="T30:AB30"/>
     <mergeCell ref="F24:J24"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B21:E24"/>
-    <mergeCell ref="K24:AB24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F17:J18"/>
-    <mergeCell ref="K17:Q17"/>
-    <mergeCell ref="S17:AB17"/>
-    <mergeCell ref="B16:E19"/>
-    <mergeCell ref="S23:AB23"/>
-    <mergeCell ref="T29:AB29"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
     <mergeCell ref="AB45:AF45"/>
     <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
     <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE30:AF30"/>
     <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AE28:AF28"/>
     <mergeCell ref="K25:W25"/>
     <mergeCell ref="K22:Q22"/>
     <mergeCell ref="S22:AB22"/>
-    <mergeCell ref="B38:W44"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
-    <mergeCell ref="B52:W52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>

--- a/template/template_with_adjustment.xlsx
+++ b/template/template_with_adjustment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrmau\Documents\Cevin\SysBill\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00956989-33E4-46DF-BCB7-12437DAE3409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7DF1AA-2AEA-4312-B084-3CB62A7239E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4110" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UT" sheetId="1" r:id="rId1"/>
@@ -826,310 +826,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1152,26 +848,447 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1179,32 +1296,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1217,80 +1310,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1304,53 +1349,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1949,8 +1949,8 @@
   </sheetPr>
   <dimension ref="A1:AL78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:W61"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1990,146 +1990,146 @@
     <row r="1" spans="1:38" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:38" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
     </row>
     <row r="3" spans="1:38" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="85"/>
-      <c r="S3" s="85"/>
-      <c r="T3" s="85"/>
-      <c r="U3" s="85"/>
-      <c r="V3" s="85"/>
-      <c r="W3" s="85"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="85"/>
-      <c r="AE3" s="85"/>
-      <c r="AF3" s="85"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+      <c r="M3" s="112"/>
+      <c r="N3" s="112"/>
+      <c r="O3" s="112"/>
+      <c r="P3" s="112"/>
+      <c r="Q3" s="112"/>
+      <c r="R3" s="112"/>
+      <c r="S3" s="112"/>
+      <c r="T3" s="112"/>
+      <c r="U3" s="112"/>
+      <c r="V3" s="112"/>
+      <c r="W3" s="112"/>
+      <c r="X3" s="112"/>
+      <c r="Y3" s="112"/>
+      <c r="Z3" s="112"/>
+      <c r="AA3" s="112"/>
+      <c r="AB3" s="112"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="112"/>
+      <c r="AF3" s="112"/>
     </row>
     <row r="4" spans="1:38" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="85"/>
-      <c r="W4" s="85"/>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="85"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="112"/>
+      <c r="Y4" s="112"/>
+      <c r="Z4" s="112"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="112"/>
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
     </row>
     <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="112"/>
+      <c r="P5" s="112"/>
+      <c r="Q5" s="112"/>
+      <c r="R5" s="112"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="112"/>
+      <c r="X5" s="112"/>
+      <c r="Y5" s="112"/>
+      <c r="Z5" s="112"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="126" t="s">
+      <c r="AB5" s="167" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
+      <c r="AC5" s="112"/>
+      <c r="AD5" s="112"/>
+      <c r="AE5" s="112"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
@@ -2142,15 +2142,15 @@
     </row>
     <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -2160,35 +2160,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="85"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="112"/>
+      <c r="T6" s="112"/>
+      <c r="U6" s="112"/>
+      <c r="V6" s="112"/>
+      <c r="W6" s="112"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="112"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="126" t="s">
+      <c r="AB6" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
+      <c r="AC6" s="112"/>
+      <c r="AD6" s="112"/>
+      <c r="AE6" s="112"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -2216,13 +2216,13 @@
     </row>
     <row r="8" spans="1:38" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -2231,38 +2231,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="118" t="s">
+      <c r="Q8" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="120"/>
-      <c r="Y8" s="118" t="s">
+      <c r="R8" s="150"/>
+      <c r="S8" s="150"/>
+      <c r="T8" s="150"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="150"/>
+      <c r="W8" s="150"/>
+      <c r="X8" s="151"/>
+      <c r="Y8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="118" t="s">
+      <c r="Z8" s="150"/>
+      <c r="AA8" s="150"/>
+      <c r="AB8" s="150"/>
+      <c r="AC8" s="151"/>
+      <c r="AD8" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="119"/>
-      <c r="AF8" s="120"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="151"/>
     </row>
     <row r="9" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -2271,22 +2271,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="123"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="123"/>
+      <c r="Q9" s="152"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="154"/>
+      <c r="Y9" s="152"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="154"/>
+      <c r="AD9" s="152"/>
+      <c r="AE9" s="153"/>
+      <c r="AF9" s="154"/>
     </row>
     <row r="10" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -2305,44 +2305,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="156">
+      <c r="Q10" s="161">
         <v>44986</v>
       </c>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="127">
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="183">
         <v>0</v>
       </c>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="153" t="s">
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="120"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="151"/>
     </row>
     <row r="11" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2351,22 +2351,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="123"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="153"/>
+      <c r="AF11" s="154"/>
     </row>
     <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -2404,77 +2404,77 @@
     </row>
     <row r="13" spans="1:38" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="131" t="s">
+      <c r="B13" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-      <c r="S13" s="131"/>
-      <c r="T13" s="131"/>
-      <c r="U13" s="131"/>
-      <c r="V13" s="131"/>
-      <c r="W13" s="131"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="156"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="156"/>
+      <c r="P13" s="156"/>
+      <c r="Q13" s="156"/>
+      <c r="R13" s="156"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="156"/>
+      <c r="W13" s="156"/>
       <c r="X13" s="40"/>
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
-      <c r="AA13" s="131" t="s">
+      <c r="AA13" s="156" t="s">
         <v>35</v>
       </c>
-      <c r="AB13" s="131"/>
-      <c r="AC13" s="131"/>
-      <c r="AD13" s="157" t="s">
+      <c r="AB13" s="156"/>
+      <c r="AC13" s="156"/>
+      <c r="AD13" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="119"/>
-      <c r="AF13" s="119"/>
+      <c r="AE13" s="150"/>
+      <c r="AF13" s="150"/>
     </row>
     <row r="14" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="157"/>
+      <c r="M14" s="157"/>
+      <c r="N14" s="157"/>
+      <c r="O14" s="157"/>
+      <c r="P14" s="157"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="157"/>
+      <c r="S14" s="157"/>
+      <c r="T14" s="157"/>
+      <c r="U14" s="157"/>
+      <c r="V14" s="157"/>
+      <c r="W14" s="157"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
       <c r="Z14" s="39"/>
-      <c r="AA14" s="132"/>
-      <c r="AB14" s="132"/>
-      <c r="AC14" s="132"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
-      <c r="AF14" s="122"/>
+      <c r="AA14" s="157"/>
+      <c r="AB14" s="157"/>
+      <c r="AC14" s="157"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
+      <c r="AF14" s="153"/>
     </row>
     <row r="15" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -2511,121 +2511,121 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:38" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="150" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="94" t="s">
+      <c r="C16" s="103"/>
+      <c r="D16" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="76"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="95"/>
       <c r="K16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="112">
+      <c r="L16" s="98">
         <v>44946</v>
       </c>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="113" t="s">
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="117" t="s">
+      <c r="Q16" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="76"/>
-      <c r="S16" s="112">
+      <c r="R16" s="95"/>
+      <c r="S16" s="98">
         <v>44977</v>
       </c>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="76"/>
+      <c r="T16" s="94"/>
+      <c r="U16" s="94"/>
+      <c r="V16" s="94"/>
+      <c r="W16" s="95"/>
       <c r="X16" s="38"/>
       <c r="Y16" s="38"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="93"/>
-      <c r="AB16" s="93"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="182"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="79"/>
+      <c r="AE16" s="180"/>
+      <c r="AF16" s="90"/>
     </row>
     <row r="17" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="94" t="s">
+      <c r="A17" s="112"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="95">
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="101">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L17" s="96"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="98">
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="103"/>
+      <c r="P17" s="186"/>
+      <c r="Q17" s="104">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="97"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="103"/>
       <c r="X17" s="38"/>
       <c r="Y17" s="38"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
+      <c r="AA17" s="182"/>
+      <c r="AB17" s="182"/>
       <c r="AC17" s="38"/>
       <c r="AD17" s="42"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="79"/>
+      <c r="AE17" s="180"/>
+      <c r="AF17" s="90"/>
     </row>
     <row r="18" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="94" t="s">
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="99">
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="94"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="188">
         <v>1</v>
       </c>
-      <c r="L18" s="99"/>
-      <c r="M18" s="99"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99"/>
-      <c r="P18" s="99"/>
-      <c r="Q18" s="99"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="99"/>
-      <c r="U18" s="99"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="99"/>
+      <c r="L18" s="188"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
+      <c r="Q18" s="188"/>
+      <c r="R18" s="188"/>
+      <c r="S18" s="188"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="188"/>
+      <c r="V18" s="188"/>
+      <c r="W18" s="188"/>
       <c r="X18" s="41"/>
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
@@ -2638,166 +2638,166 @@
     </row>
     <row r="19" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="104" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="138">
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="141">
         <f>(Q17-K17)*K18</f>
         <v>0</v>
       </c>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="140"/>
-      <c r="X19" s="128" t="s">
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="142"/>
+      <c r="O19" s="142"/>
+      <c r="P19" s="142"/>
+      <c r="Q19" s="142"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="143"/>
+      <c r="X19" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="78"/>
-      <c r="Z19" s="78"/>
-      <c r="AA19" s="86">
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="169">
         <v>1800</v>
       </c>
-      <c r="AB19" s="86"/>
-      <c r="AC19" s="86"/>
+      <c r="AB19" s="169"/>
+      <c r="AC19" s="169"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="134">
+      <c r="AE19" s="107">
         <v>0</v>
       </c>
-      <c r="AF19" s="134"/>
+      <c r="AF19" s="107"/>
     </row>
     <row r="20" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="100" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101" t="s">
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="101"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="87">
+      <c r="I20" s="117"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="172">
         <v>88</v>
       </c>
-      <c r="L20" s="88"/>
-      <c r="M20" s="88"/>
-      <c r="N20" s="88"/>
-      <c r="O20" s="88"/>
-      <c r="P20" s="88"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="88"/>
-      <c r="S20" s="88"/>
-      <c r="T20" s="88"/>
-      <c r="U20" s="88"/>
-      <c r="V20" s="88"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="128" t="s">
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
+      <c r="S20" s="173"/>
+      <c r="T20" s="173"/>
+      <c r="U20" s="173"/>
+      <c r="V20" s="173"/>
+      <c r="W20" s="174"/>
+      <c r="X20" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="86">
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="169">
         <v>1800</v>
       </c>
-      <c r="AB20" s="86"/>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="135" t="s">
+      <c r="AB20" s="169"/>
+      <c r="AC20" s="169"/>
+      <c r="AD20" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="134">
+      <c r="AE20" s="107">
         <f>K20*AA20</f>
         <v>158400</v>
       </c>
-      <c r="AF20" s="134"/>
+      <c r="AF20" s="107"/>
     </row>
     <row r="21" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="145"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="161" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
+      <c r="E21" s="125"/>
+      <c r="F21" s="125"/>
       <c r="G21" s="48"/>
-      <c r="H21" s="154" t="s">
+      <c r="H21" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="I21" s="154"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
-      <c r="T21" s="91"/>
-      <c r="U21" s="91"/>
-      <c r="V21" s="91"/>
-      <c r="W21" s="92"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="78"/>
-      <c r="Z21" s="78"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="134"/>
-      <c r="AF21" s="134"/>
+      <c r="I21" s="125"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="176"/>
+      <c r="M21" s="176"/>
+      <c r="N21" s="176"/>
+      <c r="O21" s="176"/>
+      <c r="P21" s="176"/>
+      <c r="Q21" s="176"/>
+      <c r="R21" s="176"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
+      <c r="U21" s="176"/>
+      <c r="V21" s="176"/>
+      <c r="W21" s="177"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="169"/>
+      <c r="AB21" s="169"/>
+      <c r="AC21" s="169"/>
+      <c r="AD21" s="170"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
     </row>
     <row r="22" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="145"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="105" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="106">
+      <c r="E22" s="94"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="121">
         <v>0.05</v>
       </c>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="107"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="108"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
+      <c r="W22" s="123"/>
       <c r="X22" s="62"/>
       <c r="Y22" s="62"/>
       <c r="Z22" s="62"/>
@@ -2805,38 +2805,38 @@
       <c r="AB22" s="63"/>
       <c r="AC22" s="63"/>
       <c r="AD22" s="42"/>
-      <c r="AE22" s="133">
+      <c r="AE22" s="168">
         <f>AE20*K22</f>
         <v>7920</v>
       </c>
-      <c r="AF22" s="133"/>
+      <c r="AF22" s="168"/>
     </row>
     <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="145"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="109" t="s">
+      <c r="B23" s="137"/>
+      <c r="C23" s="138"/>
+      <c r="D23" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="110"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
-      <c r="S23" s="110"/>
-      <c r="T23" s="110"/>
-      <c r="U23" s="110"/>
-      <c r="V23" s="110"/>
-      <c r="W23" s="111"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
+      <c r="N23" s="114"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="114"/>
+      <c r="Q23" s="114"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="114"/>
+      <c r="T23" s="114"/>
+      <c r="U23" s="114"/>
+      <c r="V23" s="114"/>
+      <c r="W23" s="115"/>
       <c r="X23" s="62"/>
       <c r="Y23" s="62"/>
       <c r="Z23" s="62"/>
@@ -2846,48 +2846,48 @@
       <c r="AD23" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE23" s="136">
+      <c r="AE23" s="126">
         <f>AE20+AE22</f>
         <v>166320</v>
       </c>
-      <c r="AF23" s="136"/>
+      <c r="AF23" s="126"/>
     </row>
     <row r="24" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="94" t="s">
+      <c r="B24" s="137"/>
+      <c r="C24" s="138"/>
+      <c r="D24" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="76"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="112">
+      <c r="L24" s="98">
         <v>44947</v>
       </c>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="113" t="s">
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="185" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="117" t="s">
+      <c r="Q24" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="R24" s="76"/>
-      <c r="S24" s="112">
+      <c r="R24" s="95"/>
+      <c r="S24" s="98">
         <v>44986</v>
       </c>
-      <c r="T24" s="75"/>
-      <c r="U24" s="75"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="76"/>
+      <c r="T24" s="94"/>
+      <c r="U24" s="94"/>
+      <c r="V24" s="94"/>
+      <c r="W24" s="95"/>
       <c r="X24" s="62"/>
       <c r="Y24" s="62"/>
       <c r="Z24" s="62"/>
@@ -2900,34 +2900,34 @@
     </row>
     <row r="25" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="94" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
+      <c r="D25" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="95">
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="101">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L25" s="96"/>
-      <c r="M25" s="96"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="98">
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="104">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="97"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="103"/>
       <c r="X25" s="62"/>
       <c r="Y25" s="62"/>
       <c r="Z25" s="62"/>
@@ -2940,32 +2940,32 @@
     </row>
     <row r="26" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="94" t="s">
+      <c r="B26" s="137"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="99">
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="188">
         <v>1</v>
       </c>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-      <c r="T26" s="99"/>
-      <c r="U26" s="99"/>
-      <c r="V26" s="99"/>
-      <c r="W26" s="99"/>
+      <c r="L26" s="188"/>
+      <c r="M26" s="188"/>
+      <c r="N26" s="188"/>
+      <c r="O26" s="188"/>
+      <c r="P26" s="188"/>
+      <c r="Q26" s="188"/>
+      <c r="R26" s="188"/>
+      <c r="S26" s="188"/>
+      <c r="T26" s="188"/>
+      <c r="U26" s="188"/>
+      <c r="V26" s="188"/>
+      <c r="W26" s="188"/>
       <c r="X26" s="62"/>
       <c r="Y26" s="62"/>
       <c r="Z26" s="62"/>
@@ -2978,166 +2978,166 @@
     </row>
     <row r="27" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="168" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="138"/>
+      <c r="D27" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="169"/>
-      <c r="F27" s="169"/>
-      <c r="G27" s="169"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="138">
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="133"/>
+      <c r="K27" s="141">
         <f>(Q25-K25)*K26</f>
         <v>0</v>
       </c>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="139"/>
-      <c r="Q27" s="139"/>
-      <c r="R27" s="139"/>
-      <c r="S27" s="139"/>
-      <c r="T27" s="139"/>
-      <c r="U27" s="139"/>
-      <c r="V27" s="139"/>
-      <c r="W27" s="140"/>
-      <c r="X27" s="128" t="s">
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="142"/>
+      <c r="O27" s="142"/>
+      <c r="P27" s="142"/>
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="143"/>
+      <c r="X27" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="Y27" s="78"/>
-      <c r="Z27" s="78"/>
-      <c r="AA27" s="86">
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="169">
         <v>1800</v>
       </c>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
+      <c r="AB27" s="169"/>
+      <c r="AC27" s="169"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="134">
+      <c r="AE27" s="107">
         <v>0</v>
       </c>
-      <c r="AF27" s="134"/>
+      <c r="AF27" s="107"/>
     </row>
     <row r="28" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="100" t="s">
+      <c r="B28" s="137"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="184" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="101"/>
-      <c r="G28" s="101"/>
-      <c r="H28" s="101" t="s">
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="101"/>
-      <c r="J28" s="158"/>
-      <c r="K28" s="87">
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="172">
         <v>29.33</v>
       </c>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="128" t="s">
+      <c r="L28" s="173"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
+      <c r="O28" s="173"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="173"/>
+      <c r="S28" s="173"/>
+      <c r="T28" s="173"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="174"/>
+      <c r="X28" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="Y28" s="78"/>
-      <c r="Z28" s="78"/>
-      <c r="AA28" s="86">
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="169">
         <v>1800</v>
       </c>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="135" t="s">
+      <c r="AB28" s="169"/>
+      <c r="AC28" s="169"/>
+      <c r="AD28" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="134">
+      <c r="AE28" s="107">
         <f>K28*AA28</f>
         <v>52794</v>
       </c>
-      <c r="AF28" s="134"/>
+      <c r="AF28" s="107"/>
     </row>
     <row r="29" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="145"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="161" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
+      <c r="D29" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="154"/>
-      <c r="F29" s="154"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="154" t="s">
+      <c r="H29" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="I29" s="154"/>
-      <c r="J29" s="155"/>
-      <c r="K29" s="90"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
-      <c r="T29" s="91"/>
-      <c r="U29" s="91"/>
-      <c r="V29" s="91"/>
-      <c r="W29" s="92"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="78"/>
-      <c r="Z29" s="78"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="134"/>
-      <c r="AF29" s="134"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="176"/>
+      <c r="R29" s="176"/>
+      <c r="S29" s="176"/>
+      <c r="T29" s="176"/>
+      <c r="U29" s="176"/>
+      <c r="V29" s="176"/>
+      <c r="W29" s="177"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="169"/>
+      <c r="AB29" s="169"/>
+      <c r="AC29" s="169"/>
+      <c r="AD29" s="170"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
     </row>
     <row r="30" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="145"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="105" t="s">
+      <c r="B30" s="137"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="75"/>
-      <c r="F30" s="75"/>
-      <c r="G30" s="75"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="106">
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="121">
         <v>0.05</v>
       </c>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
-      <c r="P30" s="107"/>
-      <c r="Q30" s="107"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="107"/>
-      <c r="W30" s="108"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
+      <c r="W30" s="123"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -3147,11 +3147,11 @@
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="129">
+      <c r="AE30" s="165">
         <f>AE28*K30</f>
         <v>2639.7000000000003</v>
       </c>
-      <c r="AF30" s="130"/>
+      <c r="AF30" s="166"/>
     </row>
     <row r="31" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
@@ -3186,91 +3186,91 @@
       <c r="AD31" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE31" s="136">
+      <c r="AE31" s="126">
         <f>AE28+AE30</f>
         <v>55433.7</v>
       </c>
-      <c r="AF31" s="136"/>
+      <c r="AF31" s="126"/>
       <c r="AI31" s="17"/>
     </row>
     <row r="32" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="144" t="s">
+      <c r="B32" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="74" t="s">
+      <c r="C32" s="103"/>
+      <c r="D32" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="95"/>
       <c r="K32" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="112">
+      <c r="L32" s="98">
         <v>44946</v>
       </c>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="102" t="s">
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="102" t="s">
+      <c r="Q32" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="R32" s="76"/>
-      <c r="S32" s="112">
+      <c r="R32" s="95"/>
+      <c r="S32" s="98">
         <v>44977</v>
       </c>
-      <c r="T32" s="75"/>
-      <c r="U32" s="75"/>
-      <c r="V32" s="75"/>
-      <c r="W32" s="76"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="95"/>
       <c r="X32" s="18"/>
       <c r="Y32" s="18"/>
       <c r="Z32" s="18"/>
-      <c r="AA32" s="93"/>
-      <c r="AB32" s="93"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
       <c r="AC32" s="18"/>
       <c r="AD32" s="42"/>
-      <c r="AE32" s="137"/>
-      <c r="AF32" s="79"/>
+      <c r="AE32" s="171"/>
+      <c r="AF32" s="90"/>
     </row>
     <row r="33" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="74" t="s">
+      <c r="B33" s="137"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="95">
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="101">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="103"/>
-      <c r="Q33" s="98">
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="104">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R33" s="96"/>
-      <c r="S33" s="96"/>
-      <c r="T33" s="96"/>
-      <c r="U33" s="96"/>
-      <c r="V33" s="96"/>
-      <c r="W33" s="97"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="103"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
@@ -3278,85 +3278,85 @@
       <c r="AB33" s="21"/>
       <c r="AC33" s="18"/>
       <c r="AD33" s="42"/>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="79"/>
+      <c r="AE33" s="187"/>
+      <c r="AF33" s="90"/>
     </row>
     <row r="34" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="162" t="s">
+      <c r="B34" s="137"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77">
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="96">
         <f>Q33-K33</f>
         <v>0</v>
       </c>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="76"/>
-      <c r="X34" s="78" t="s">
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
+      <c r="Q34" s="94"/>
+      <c r="R34" s="94"/>
+      <c r="S34" s="94"/>
+      <c r="T34" s="94"/>
+      <c r="U34" s="94"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="Y34" s="79"/>
-      <c r="Z34" s="79"/>
-      <c r="AA34" s="167">
+      <c r="Y34" s="90"/>
+      <c r="Z34" s="90"/>
+      <c r="AA34" s="129">
         <v>1800</v>
       </c>
-      <c r="AB34" s="167"/>
-      <c r="AC34" s="167"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="129"/>
       <c r="AD34" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE34" s="82">
+      <c r="AE34" s="89">
         <f>K34*AA34</f>
         <v>0</v>
       </c>
-      <c r="AF34" s="79"/>
+      <c r="AF34" s="90"/>
     </row>
     <row r="35" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="84"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="74" t="s">
+      <c r="A35" s="111"/>
+      <c r="B35" s="137"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="77">
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="96">
         <v>47510</v>
       </c>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
-      <c r="T35" s="75"/>
-      <c r="U35" s="75"/>
-      <c r="V35" s="75"/>
-      <c r="W35" s="76"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="94"/>
+      <c r="O35" s="94"/>
+      <c r="P35" s="94"/>
+      <c r="Q35" s="94"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="95"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="23"/>
       <c r="Z35" s="23"/>
@@ -3366,40 +3366,40 @@
       <c r="AD35" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE35" s="134">
+      <c r="AE35" s="107">
         <f>K35</f>
         <v>47510</v>
       </c>
-      <c r="AF35" s="79"/>
+      <c r="AF35" s="90"/>
     </row>
     <row r="36" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="84"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="163" t="s">
+      <c r="A36" s="111"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="138"/>
+      <c r="D36" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
-      <c r="H36" s="75"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="77">
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="96">
         <v>11000</v>
       </c>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-      <c r="T36" s="75"/>
-      <c r="U36" s="75"/>
-      <c r="V36" s="75"/>
-      <c r="W36" s="76"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="94"/>
+      <c r="O36" s="94"/>
+      <c r="P36" s="94"/>
+      <c r="Q36" s="94"/>
+      <c r="R36" s="94"/>
+      <c r="S36" s="94"/>
+      <c r="T36" s="94"/>
+      <c r="U36" s="94"/>
+      <c r="V36" s="94"/>
+      <c r="W36" s="95"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="23"/>
       <c r="Z36" s="23"/>
@@ -3409,38 +3409,38 @@
       <c r="AD36" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE36" s="80">
+      <c r="AE36" s="159">
         <f>K36</f>
         <v>11000</v>
       </c>
-      <c r="AF36" s="81"/>
+      <c r="AF36" s="160"/>
     </row>
     <row r="37" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="84"/>
-      <c r="B37" s="145"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="109" t="s">
+      <c r="A37" s="111"/>
+      <c r="B37" s="137"/>
+      <c r="C37" s="138"/>
+      <c r="D37" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
-      <c r="N37" s="110"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="110"/>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="110"/>
-      <c r="U37" s="110"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="111"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+      <c r="J37" s="114"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
+      <c r="N37" s="114"/>
+      <c r="O37" s="114"/>
+      <c r="P37" s="114"/>
+      <c r="Q37" s="114"/>
+      <c r="R37" s="114"/>
+      <c r="S37" s="114"/>
+      <c r="T37" s="114"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="115"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="23"/>
       <c r="Z37" s="23"/>
@@ -3450,48 +3450,48 @@
       <c r="AD37" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE37" s="82">
+      <c r="AE37" s="89">
         <f>AE34+AE35+AE36</f>
         <v>58510</v>
       </c>
-      <c r="AF37" s="79"/>
+      <c r="AF37" s="90"/>
     </row>
     <row r="38" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="84"/>
-      <c r="B38" s="145"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="74" t="s">
+      <c r="A38" s="111"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="94"/>
+      <c r="I38" s="94"/>
+      <c r="J38" s="95"/>
       <c r="K38" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="L38" s="112">
+      <c r="L38" s="98">
         <v>44947</v>
       </c>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="102" t="s">
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="102" t="s">
+      <c r="Q38" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="R38" s="76"/>
-      <c r="S38" s="112">
+      <c r="R38" s="95"/>
+      <c r="S38" s="98">
         <v>44993</v>
       </c>
-      <c r="T38" s="75"/>
-      <c r="U38" s="75"/>
-      <c r="V38" s="75"/>
-      <c r="W38" s="76"/>
+      <c r="T38" s="94"/>
+      <c r="U38" s="94"/>
+      <c r="V38" s="94"/>
+      <c r="W38" s="95"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="23"/>
       <c r="Z38" s="23"/>
@@ -3503,35 +3503,35 @@
       <c r="AF38" s="41"/>
     </row>
     <row r="39" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="84"/>
-      <c r="B39" s="145"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="74" t="s">
+      <c r="A39" s="111"/>
+      <c r="B39" s="137"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="76"/>
-      <c r="K39" s="95">
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
+      <c r="G39" s="94"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="101">
         <v>1269.0999999999999</v>
       </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="98">
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="104">
         <v>1269.0999999999999</v>
       </c>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
-      <c r="T39" s="96"/>
-      <c r="U39" s="96"/>
-      <c r="V39" s="96"/>
-      <c r="W39" s="97"/>
+      <c r="R39" s="102"/>
+      <c r="S39" s="102"/>
+      <c r="T39" s="102"/>
+      <c r="U39" s="102"/>
+      <c r="V39" s="102"/>
+      <c r="W39" s="103"/>
       <c r="X39" s="22"/>
       <c r="Y39" s="23"/>
       <c r="Z39" s="23"/>
@@ -3543,81 +3543,81 @@
       <c r="AF39" s="41"/>
     </row>
     <row r="40" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="84"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="162" t="s">
+      <c r="A40" s="111"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
-      <c r="K40" s="77">
+      <c r="E40" s="94"/>
+      <c r="F40" s="94"/>
+      <c r="G40" s="94"/>
+      <c r="H40" s="94"/>
+      <c r="I40" s="94"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="96">
         <f>Q39-K39</f>
         <v>0</v>
       </c>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="78" t="s">
+      <c r="L40" s="94"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
+      <c r="Q40" s="94"/>
+      <c r="R40" s="94"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="95"/>
+      <c r="X40" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="Y40" s="79"/>
-      <c r="Z40" s="79"/>
-      <c r="AA40" s="167">
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="129">
         <v>1800</v>
       </c>
-      <c r="AB40" s="167"/>
-      <c r="AC40" s="167"/>
+      <c r="AB40" s="129"/>
+      <c r="AC40" s="129"/>
       <c r="AD40" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE40" s="82">
+      <c r="AE40" s="89">
         <f>K40*AA40</f>
         <v>0</v>
       </c>
-      <c r="AF40" s="79"/>
+      <c r="AF40" s="90"/>
     </row>
     <row r="41" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="84"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="74" t="s">
+      <c r="A41" s="111"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="138"/>
+      <c r="D41" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="77">
+      <c r="E41" s="94"/>
+      <c r="F41" s="94"/>
+      <c r="G41" s="94"/>
+      <c r="H41" s="94"/>
+      <c r="I41" s="94"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="96">
         <v>47510</v>
       </c>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="76"/>
+      <c r="L41" s="94"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
+      <c r="Q41" s="94"/>
+      <c r="R41" s="94"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="95"/>
       <c r="X41" s="22"/>
       <c r="Y41" s="23"/>
       <c r="Z41" s="23"/>
@@ -3627,40 +3627,40 @@
       <c r="AD41" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE41" s="134">
+      <c r="AE41" s="107">
         <f>K41</f>
         <v>47510</v>
       </c>
-      <c r="AF41" s="79"/>
+      <c r="AF41" s="90"/>
     </row>
     <row r="42" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="85"/>
-      <c r="B42" s="147"/>
-      <c r="C42" s="148"/>
-      <c r="D42" s="163" t="s">
+      <c r="A42" s="112"/>
+      <c r="B42" s="139"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="77">
+      <c r="E42" s="94"/>
+      <c r="F42" s="94"/>
+      <c r="G42" s="94"/>
+      <c r="H42" s="94"/>
+      <c r="I42" s="94"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="96">
         <v>11000</v>
       </c>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="76"/>
+      <c r="L42" s="94"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
+      <c r="Q42" s="94"/>
+      <c r="R42" s="94"/>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="95"/>
       <c r="X42" s="24"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="25"/>
@@ -3670,14 +3670,14 @@
       <c r="AD42" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE42" s="80">
+      <c r="AE42" s="159">
         <f>K42</f>
         <v>11000</v>
       </c>
-      <c r="AF42" s="81"/>
+      <c r="AF42" s="160"/>
     </row>
     <row r="43" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="85"/>
+      <c r="A43" s="112"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="41"/>
@@ -3709,14 +3709,14 @@
       <c r="AD43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE43" s="82">
+      <c r="AE43" s="89">
         <f>AE40+AE41+AE42</f>
         <v>58510</v>
       </c>
-      <c r="AF43" s="79"/>
+      <c r="AF43" s="90"/>
     </row>
     <row r="44" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="85"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="67"/>
@@ -3750,7 +3750,7 @@
       <c r="AF44" s="61"/>
     </row>
     <row r="45" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="85"/>
+      <c r="A45" s="112"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="41"/>
@@ -3769,28 +3769,28 @@
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
       <c r="S45" s="41"/>
-      <c r="T45" s="164" t="s">
+      <c r="T45" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="79"/>
-      <c r="V45" s="79"/>
-      <c r="W45" s="79"/>
-      <c r="X45" s="79"/>
-      <c r="Y45" s="79"/>
-      <c r="Z45" s="79"/>
-      <c r="AA45" s="79"/>
-      <c r="AB45" s="79"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="90"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
       <c r="AC45" s="18"/>
       <c r="AD45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE45" s="134">
+      <c r="AE45" s="107">
         <v>0</v>
       </c>
-      <c r="AF45" s="166"/>
+      <c r="AF45" s="108"/>
     </row>
     <row r="46" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="85"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="41"/>
@@ -3809,25 +3809,25 @@
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
       <c r="S46" s="41"/>
-      <c r="T46" s="164" t="s">
+      <c r="T46" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="U46" s="79"/>
-      <c r="V46" s="79"/>
-      <c r="W46" s="79"/>
-      <c r="X46" s="79"/>
-      <c r="Y46" s="79"/>
-      <c r="Z46" s="79"/>
-      <c r="AA46" s="79"/>
-      <c r="AB46" s="79"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="90"/>
+      <c r="W46" s="90"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="90"/>
+      <c r="Z46" s="90"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="90"/>
       <c r="AC46" s="18"/>
       <c r="AD46" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE46" s="134">
+      <c r="AE46" s="107">
         <v>10000</v>
       </c>
-      <c r="AF46" s="166"/>
+      <c r="AF46" s="108"/>
     </row>
     <row r="47" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
@@ -3849,26 +3849,26 @@
       <c r="Q47" s="19"/>
       <c r="R47" s="19"/>
       <c r="S47" s="19"/>
-      <c r="T47" s="165" t="s">
+      <c r="T47" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="U47" s="79"/>
-      <c r="V47" s="79"/>
-      <c r="W47" s="79"/>
-      <c r="X47" s="79"/>
-      <c r="Y47" s="79"/>
-      <c r="Z47" s="79"/>
-      <c r="AA47" s="79"/>
-      <c r="AB47" s="79"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="90"/>
+      <c r="AB47" s="90"/>
       <c r="AC47" s="19"/>
       <c r="AD47" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE47" s="136">
+      <c r="AE47" s="126">
         <f>AE23+AE31+AE37+AE43+AE45+AE46</f>
         <v>348773.7</v>
       </c>
-      <c r="AF47" s="136"/>
+      <c r="AF47" s="126"/>
     </row>
     <row r="48" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
@@ -3940,41 +3940,41 @@
     </row>
     <row r="50" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="159"/>
-      <c r="D50" s="159"/>
-      <c r="E50" s="159"/>
-      <c r="F50" s="159"/>
-      <c r="G50" s="160" t="s">
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="160"/>
-      <c r="N50" s="160"/>
-      <c r="O50" s="160"/>
-      <c r="P50" s="160"/>
-      <c r="Q50" s="160"/>
-      <c r="R50" s="160"/>
-      <c r="S50" s="160"/>
-      <c r="T50" s="160"/>
-      <c r="U50" s="160"/>
-      <c r="V50" s="160"/>
-      <c r="W50" s="160"/>
-      <c r="X50" s="160"/>
-      <c r="Y50" s="160"/>
-      <c r="Z50" s="160"/>
-      <c r="AA50" s="160"/>
-      <c r="AB50" s="160"/>
-      <c r="AC50" s="160"/>
-      <c r="AD50" s="160"/>
-      <c r="AE50" s="160"/>
-      <c r="AF50" s="160"/>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="120"/>
+      <c r="K50" s="120"/>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120"/>
+      <c r="N50" s="120"/>
+      <c r="O50" s="120"/>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120"/>
+      <c r="R50" s="120"/>
+      <c r="S50" s="120"/>
+      <c r="T50" s="120"/>
+      <c r="U50" s="120"/>
+      <c r="V50" s="120"/>
+      <c r="W50" s="120"/>
+      <c r="X50" s="120"/>
+      <c r="Y50" s="120"/>
+      <c r="Z50" s="120"/>
+      <c r="AA50" s="120"/>
+      <c r="AB50" s="120"/>
+      <c r="AC50" s="120"/>
+      <c r="AD50" s="120"/>
+      <c r="AE50" s="120"/>
+      <c r="AF50" s="120"/>
     </row>
     <row r="51" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
@@ -4106,108 +4106,108 @@
       <c r="Y54" s="49"/>
       <c r="Z54" s="49"/>
       <c r="AA54" s="49"/>
-      <c r="AB54" s="152" t="s">
+      <c r="AB54" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="AC54" s="152"/>
-      <c r="AD54" s="152"/>
-      <c r="AE54" s="152"/>
-      <c r="AF54" s="152"/>
+      <c r="AC54" s="109"/>
+      <c r="AD54" s="109"/>
+      <c r="AE54" s="109"/>
+      <c r="AF54" s="109"/>
     </row>
     <row r="55" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="173"/>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173"/>
-      <c r="F55" s="173"/>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="173"/>
-      <c r="K55" s="173"/>
-      <c r="L55" s="173"/>
-      <c r="M55" s="173"/>
-      <c r="N55" s="173"/>
-      <c r="O55" s="173"/>
-      <c r="P55" s="173"/>
-      <c r="Q55" s="173"/>
-      <c r="R55" s="173"/>
-      <c r="S55" s="173"/>
-      <c r="T55" s="173"/>
-      <c r="U55" s="173"/>
-      <c r="V55" s="173"/>
-      <c r="W55" s="173"/>
+      <c r="C55" s="105"/>
+      <c r="D55" s="105"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
+      <c r="J55" s="105"/>
+      <c r="K55" s="105"/>
+      <c r="L55" s="105"/>
+      <c r="M55" s="105"/>
+      <c r="N55" s="105"/>
+      <c r="O55" s="105"/>
+      <c r="P55" s="105"/>
+      <c r="Q55" s="105"/>
+      <c r="R55" s="105"/>
+      <c r="S55" s="105"/>
+      <c r="T55" s="105"/>
+      <c r="U55" s="105"/>
+      <c r="V55" s="105"/>
+      <c r="W55" s="105"/>
       <c r="X55" s="49"/>
       <c r="Y55" s="49"/>
       <c r="Z55" s="49"/>
       <c r="AA55" s="49"/>
-      <c r="AB55" s="152"/>
-      <c r="AC55" s="152"/>
-      <c r="AD55" s="152"/>
-      <c r="AE55" s="152"/>
-      <c r="AF55" s="152"/>
+      <c r="AB55" s="109"/>
+      <c r="AC55" s="109"/>
+      <c r="AD55" s="109"/>
+      <c r="AE55" s="109"/>
+      <c r="AF55" s="109"/>
     </row>
     <row r="56" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
-      <c r="B56" s="173"/>
-      <c r="C56" s="173"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="173"/>
-      <c r="K56" s="173"/>
-      <c r="L56" s="173"/>
-      <c r="M56" s="173"/>
-      <c r="N56" s="173"/>
-      <c r="O56" s="173"/>
-      <c r="P56" s="173"/>
-      <c r="Q56" s="173"/>
-      <c r="R56" s="173"/>
-      <c r="S56" s="173"/>
-      <c r="T56" s="173"/>
-      <c r="U56" s="173"/>
-      <c r="V56" s="173"/>
-      <c r="W56" s="173"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
+      <c r="L56" s="105"/>
+      <c r="M56" s="105"/>
+      <c r="N56" s="105"/>
+      <c r="O56" s="105"/>
+      <c r="P56" s="105"/>
+      <c r="Q56" s="105"/>
+      <c r="R56" s="105"/>
+      <c r="S56" s="105"/>
+      <c r="T56" s="105"/>
+      <c r="U56" s="105"/>
+      <c r="V56" s="105"/>
+      <c r="W56" s="105"/>
       <c r="X56" s="49"/>
       <c r="Y56" s="49"/>
       <c r="Z56" s="49"/>
       <c r="AA56" s="49"/>
-      <c r="AB56" s="152"/>
-      <c r="AC56" s="152"/>
-      <c r="AD56" s="152"/>
-      <c r="AE56" s="152"/>
-      <c r="AF56" s="152"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109"/>
+      <c r="AD56" s="109"/>
+      <c r="AE56" s="109"/>
+      <c r="AF56" s="109"/>
     </row>
     <row r="57" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
-      <c r="B57" s="173"/>
-      <c r="C57" s="173"/>
-      <c r="D57" s="173"/>
-      <c r="E57" s="173"/>
-      <c r="F57" s="173"/>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="173"/>
-      <c r="K57" s="173"/>
-      <c r="L57" s="173"/>
-      <c r="M57" s="173"/>
-      <c r="N57" s="173"/>
-      <c r="O57" s="173"/>
-      <c r="P57" s="173"/>
-      <c r="Q57" s="173"/>
-      <c r="R57" s="173"/>
-      <c r="S57" s="173"/>
-      <c r="T57" s="173"/>
-      <c r="U57" s="173"/>
-      <c r="V57" s="173"/>
-      <c r="W57" s="173"/>
+      <c r="B57" s="105"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="105"/>
+      <c r="R57" s="105"/>
+      <c r="S57" s="105"/>
+      <c r="T57" s="105"/>
+      <c r="U57" s="105"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="105"/>
       <c r="X57" s="49"/>
       <c r="Y57" s="49"/>
       <c r="Z57" s="49"/>
@@ -4220,28 +4220,28 @@
     </row>
     <row r="58" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
-      <c r="B58" s="173"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="173"/>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="173"/>
-      <c r="J58" s="173"/>
-      <c r="K58" s="173"/>
-      <c r="L58" s="173"/>
-      <c r="M58" s="173"/>
-      <c r="N58" s="173"/>
-      <c r="O58" s="173"/>
-      <c r="P58" s="173"/>
-      <c r="Q58" s="173"/>
-      <c r="R58" s="173"/>
-      <c r="S58" s="173"/>
-      <c r="T58" s="173"/>
-      <c r="U58" s="173"/>
-      <c r="V58" s="173"/>
-      <c r="W58" s="173"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="105"/>
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="105"/>
+      <c r="Q58" s="105"/>
+      <c r="R58" s="105"/>
+      <c r="S58" s="105"/>
+      <c r="T58" s="105"/>
+      <c r="U58" s="105"/>
+      <c r="V58" s="105"/>
+      <c r="W58" s="105"/>
       <c r="X58" s="49"/>
       <c r="Y58" s="49"/>
       <c r="Z58" s="49"/>
@@ -4254,28 +4254,28 @@
     </row>
     <row r="59" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
-      <c r="B59" s="173"/>
-      <c r="C59" s="173"/>
-      <c r="D59" s="173"/>
-      <c r="E59" s="173"/>
-      <c r="F59" s="173"/>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
-      <c r="I59" s="173"/>
-      <c r="J59" s="173"/>
-      <c r="K59" s="173"/>
-      <c r="L59" s="173"/>
-      <c r="M59" s="173"/>
-      <c r="N59" s="173"/>
-      <c r="O59" s="173"/>
-      <c r="P59" s="173"/>
-      <c r="Q59" s="173"/>
-      <c r="R59" s="173"/>
-      <c r="S59" s="173"/>
-      <c r="T59" s="173"/>
-      <c r="U59" s="173"/>
-      <c r="V59" s="173"/>
-      <c r="W59" s="173"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
+      <c r="J59" s="105"/>
+      <c r="K59" s="105"/>
+      <c r="L59" s="105"/>
+      <c r="M59" s="105"/>
+      <c r="N59" s="105"/>
+      <c r="O59" s="105"/>
+      <c r="P59" s="105"/>
+      <c r="Q59" s="105"/>
+      <c r="R59" s="105"/>
+      <c r="S59" s="105"/>
+      <c r="T59" s="105"/>
+      <c r="U59" s="105"/>
+      <c r="V59" s="105"/>
+      <c r="W59" s="105"/>
       <c r="X59" s="49"/>
       <c r="Y59" s="49"/>
       <c r="Z59" s="49"/>
@@ -4288,28 +4288,28 @@
     </row>
     <row r="60" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
-      <c r="B60" s="173"/>
-      <c r="C60" s="173"/>
-      <c r="D60" s="173"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
-      <c r="I60" s="173"/>
-      <c r="J60" s="173"/>
-      <c r="K60" s="173"/>
-      <c r="L60" s="173"/>
-      <c r="M60" s="173"/>
-      <c r="N60" s="173"/>
-      <c r="O60" s="173"/>
-      <c r="P60" s="173"/>
-      <c r="Q60" s="173"/>
-      <c r="R60" s="173"/>
-      <c r="S60" s="173"/>
-      <c r="T60" s="173"/>
-      <c r="U60" s="173"/>
-      <c r="V60" s="173"/>
-      <c r="W60" s="173"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="105"/>
+      <c r="K60" s="105"/>
+      <c r="L60" s="105"/>
+      <c r="M60" s="105"/>
+      <c r="N60" s="105"/>
+      <c r="O60" s="105"/>
+      <c r="P60" s="105"/>
+      <c r="Q60" s="105"/>
+      <c r="R60" s="105"/>
+      <c r="S60" s="105"/>
+      <c r="T60" s="105"/>
+      <c r="U60" s="105"/>
+      <c r="V60" s="105"/>
+      <c r="W60" s="105"/>
       <c r="X60" s="49"/>
       <c r="Y60" s="49"/>
       <c r="Z60" s="49"/>
@@ -4322,39 +4322,39 @@
     </row>
     <row r="61" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="173"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173"/>
-      <c r="F61" s="173"/>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
-      <c r="I61" s="173"/>
-      <c r="J61" s="173"/>
-      <c r="K61" s="173"/>
-      <c r="L61" s="173"/>
-      <c r="M61" s="173"/>
-      <c r="N61" s="173"/>
-      <c r="O61" s="173"/>
-      <c r="P61" s="173"/>
-      <c r="Q61" s="173"/>
-      <c r="R61" s="173"/>
-      <c r="S61" s="173"/>
-      <c r="T61" s="173"/>
-      <c r="U61" s="173"/>
-      <c r="V61" s="173"/>
-      <c r="W61" s="173"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
+      <c r="J61" s="105"/>
+      <c r="K61" s="105"/>
+      <c r="L61" s="105"/>
+      <c r="M61" s="105"/>
+      <c r="N61" s="105"/>
+      <c r="O61" s="105"/>
+      <c r="P61" s="105"/>
+      <c r="Q61" s="105"/>
+      <c r="R61" s="105"/>
+      <c r="S61" s="105"/>
+      <c r="T61" s="105"/>
+      <c r="U61" s="105"/>
+      <c r="V61" s="105"/>
+      <c r="W61" s="105"/>
       <c r="X61" s="50"/>
       <c r="Y61" s="50"/>
       <c r="Z61" s="50"/>
       <c r="AA61" s="50"/>
-      <c r="AB61" s="174" t="s">
+      <c r="AB61" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="AC61" s="174"/>
-      <c r="AD61" s="174"/>
-      <c r="AE61" s="174"/>
-      <c r="AF61" s="174"/>
+      <c r="AC61" s="110"/>
+      <c r="AD61" s="110"/>
+      <c r="AE61" s="110"/>
+      <c r="AF61" s="110"/>
     </row>
     <row r="62" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
@@ -4426,12 +4426,12 @@
     </row>
     <row r="64" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="175" t="s">
+      <c r="B64" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="31"/>
@@ -4462,292 +4462,393 @@
     </row>
     <row r="65" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
-      <c r="B65" s="176" t="s">
+      <c r="B65" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176" t="s">
+      <c r="C65" s="85"/>
+      <c r="D65" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="177" t="s">
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="178"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="179"/>
-      <c r="O65" s="177" t="s">
+      <c r="I65" s="87"/>
+      <c r="J65" s="87"/>
+      <c r="K65" s="87"/>
+      <c r="L65" s="87"/>
+      <c r="M65" s="87"/>
+      <c r="N65" s="88"/>
+      <c r="O65" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="P65" s="178"/>
-      <c r="Q65" s="178"/>
-      <c r="R65" s="178"/>
-      <c r="S65" s="178"/>
-      <c r="T65" s="178"/>
-      <c r="U65" s="178"/>
-      <c r="V65" s="178"/>
-      <c r="W65" s="179"/>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="87"/>
+      <c r="S65" s="87"/>
+      <c r="T65" s="87"/>
+      <c r="U65" s="87"/>
+      <c r="V65" s="87"/>
+      <c r="W65" s="88"/>
     </row>
     <row r="66" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="180" t="s">
+      <c r="B66" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="180"/>
-      <c r="D66" s="181" t="s">
+      <c r="C66" s="74"/>
+      <c r="D66" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E66" s="181"/>
-      <c r="F66" s="181"/>
-      <c r="G66" s="181"/>
-      <c r="H66" s="182" t="s">
+      <c r="E66" s="75"/>
+      <c r="F66" s="75"/>
+      <c r="G66" s="75"/>
+      <c r="H66" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I66" s="183"/>
-      <c r="J66" s="183"/>
-      <c r="K66" s="183"/>
-      <c r="L66" s="183"/>
-      <c r="M66" s="183"/>
-      <c r="N66" s="184"/>
-      <c r="O66" s="182" t="s">
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="78"/>
+      <c r="O66" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="P66" s="183"/>
-      <c r="Q66" s="183"/>
-      <c r="R66" s="183"/>
-      <c r="S66" s="183"/>
-      <c r="T66" s="183"/>
-      <c r="U66" s="183"/>
-      <c r="V66" s="183"/>
-      <c r="W66" s="184"/>
+      <c r="P66" s="77"/>
+      <c r="Q66" s="77"/>
+      <c r="R66" s="77"/>
+      <c r="S66" s="77"/>
+      <c r="T66" s="77"/>
+      <c r="U66" s="77"/>
+      <c r="V66" s="77"/>
+      <c r="W66" s="78"/>
     </row>
     <row r="67" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="180" t="s">
+      <c r="B67" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C67" s="180"/>
-      <c r="D67" s="181" t="s">
+      <c r="C67" s="74"/>
+      <c r="D67" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="181"/>
-      <c r="F67" s="181"/>
-      <c r="G67" s="181"/>
-      <c r="H67" s="182" t="s">
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+      <c r="G67" s="75"/>
+      <c r="H67" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="I67" s="183"/>
-      <c r="J67" s="183"/>
-      <c r="K67" s="183"/>
-      <c r="L67" s="183"/>
-      <c r="M67" s="183"/>
-      <c r="N67" s="184"/>
-      <c r="O67" s="182" t="s">
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="78"/>
+      <c r="O67" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="P67" s="183"/>
-      <c r="Q67" s="183"/>
-      <c r="R67" s="183"/>
-      <c r="S67" s="183"/>
-      <c r="T67" s="183"/>
-      <c r="U67" s="183"/>
-      <c r="V67" s="183"/>
-      <c r="W67" s="184"/>
+      <c r="P67" s="77"/>
+      <c r="Q67" s="77"/>
+      <c r="R67" s="77"/>
+      <c r="S67" s="77"/>
+      <c r="T67" s="77"/>
+      <c r="U67" s="77"/>
+      <c r="V67" s="77"/>
+      <c r="W67" s="78"/>
     </row>
     <row r="68" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="180" t="s">
+      <c r="B68" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="180"/>
-      <c r="D68" s="185" t="s">
+      <c r="C68" s="74"/>
+      <c r="D68" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="185"/>
-      <c r="F68" s="185"/>
-      <c r="G68" s="185"/>
-      <c r="H68" s="186" t="s">
+      <c r="E68" s="79"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="79"/>
+      <c r="H68" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
-      <c r="K68" s="187"/>
-      <c r="L68" s="187"/>
-      <c r="M68" s="187"/>
-      <c r="N68" s="188"/>
-      <c r="O68" s="186" t="s">
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="P68" s="187"/>
-      <c r="Q68" s="187"/>
-      <c r="R68" s="187"/>
-      <c r="S68" s="187"/>
-      <c r="T68" s="187"/>
-      <c r="U68" s="187"/>
-      <c r="V68" s="187"/>
-      <c r="W68" s="188"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="81"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="81"/>
+      <c r="U68" s="81"/>
+      <c r="V68" s="81"/>
+      <c r="W68" s="82"/>
     </row>
     <row r="69" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
-      <c r="B69" s="189" t="s">
+      <c r="B69" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="189"/>
-      <c r="D69" s="189"/>
-      <c r="E69" s="189"/>
-      <c r="F69" s="189"/>
-      <c r="G69" s="189"/>
-      <c r="H69" s="189"/>
-      <c r="I69" s="189"/>
-      <c r="J69" s="189"/>
-      <c r="K69" s="189"/>
-      <c r="L69" s="189"/>
-      <c r="M69" s="189"/>
-      <c r="N69" s="189"/>
-      <c r="O69" s="189"/>
-      <c r="P69" s="189"/>
-      <c r="Q69" s="189"/>
-      <c r="R69" s="189"/>
-      <c r="S69" s="189"/>
-      <c r="T69" s="189"/>
-      <c r="U69" s="189"/>
-      <c r="V69" s="189"/>
-      <c r="W69" s="189"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="83"/>
+      <c r="E69" s="83"/>
+      <c r="F69" s="83"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
+      <c r="I69" s="83"/>
+      <c r="J69" s="83"/>
+      <c r="K69" s="83"/>
+      <c r="L69" s="83"/>
+      <c r="M69" s="83"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
+      <c r="P69" s="83"/>
+      <c r="Q69" s="83"/>
+      <c r="R69" s="83"/>
+      <c r="S69" s="83"/>
+      <c r="T69" s="83"/>
+      <c r="U69" s="83"/>
+      <c r="V69" s="83"/>
+      <c r="W69" s="83"/>
     </row>
     <row r="75" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="76" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="171" t="s">
+      <c r="A76" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B76" s="171"/>
-      <c r="C76" s="171"/>
-      <c r="D76" s="171"/>
-      <c r="E76" s="171"/>
-      <c r="F76" s="171"/>
-      <c r="G76" s="171"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="171"/>
-      <c r="J76" s="171"/>
-      <c r="K76" s="171"/>
-      <c r="L76" s="171"/>
-      <c r="M76" s="171"/>
-      <c r="N76" s="171"/>
-      <c r="O76" s="171"/>
-      <c r="P76" s="171"/>
-      <c r="Q76" s="171"/>
-      <c r="R76" s="171"/>
-      <c r="S76" s="171"/>
-      <c r="T76" s="171"/>
-      <c r="U76" s="171"/>
-      <c r="V76" s="171"/>
-      <c r="W76" s="171"/>
-      <c r="X76" s="171"/>
-      <c r="Y76" s="171"/>
-      <c r="Z76" s="171"/>
-      <c r="AA76" s="171"/>
-      <c r="AB76" s="171"/>
-      <c r="AC76" s="171"/>
-      <c r="AD76" s="171"/>
-      <c r="AE76" s="171"/>
-      <c r="AF76" s="171"/>
-      <c r="AG76" s="171"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="91"/>
+      <c r="E76" s="91"/>
+      <c r="F76" s="91"/>
+      <c r="G76" s="91"/>
+      <c r="H76" s="91"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="91"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="91"/>
+      <c r="N76" s="91"/>
+      <c r="O76" s="91"/>
+      <c r="P76" s="91"/>
+      <c r="Q76" s="91"/>
+      <c r="R76" s="91"/>
+      <c r="S76" s="91"/>
+      <c r="T76" s="91"/>
+      <c r="U76" s="91"/>
+      <c r="V76" s="91"/>
+      <c r="W76" s="91"/>
+      <c r="X76" s="91"/>
+      <c r="Y76" s="91"/>
+      <c r="Z76" s="91"/>
+      <c r="AA76" s="91"/>
+      <c r="AB76" s="91"/>
+      <c r="AC76" s="91"/>
+      <c r="AD76" s="91"/>
+      <c r="AE76" s="91"/>
+      <c r="AF76" s="91"/>
+      <c r="AG76" s="91"/>
     </row>
     <row r="77" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="172" t="s">
+      <c r="A77" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B77" s="172"/>
-      <c r="C77" s="172"/>
-      <c r="D77" s="172"/>
-      <c r="E77" s="172"/>
-      <c r="F77" s="172"/>
-      <c r="G77" s="172"/>
-      <c r="H77" s="172"/>
-      <c r="I77" s="172"/>
-      <c r="J77" s="172"/>
-      <c r="K77" s="172"/>
-      <c r="L77" s="172"/>
-      <c r="M77" s="172"/>
-      <c r="N77" s="172"/>
-      <c r="O77" s="172"/>
-      <c r="P77" s="172"/>
-      <c r="Q77" s="172"/>
-      <c r="R77" s="172"/>
-      <c r="S77" s="172"/>
-      <c r="T77" s="172"/>
-      <c r="U77" s="172"/>
-      <c r="V77" s="172"/>
-      <c r="W77" s="172"/>
-      <c r="X77" s="172"/>
-      <c r="Y77" s="172"/>
-      <c r="Z77" s="172"/>
-      <c r="AA77" s="172"/>
-      <c r="AB77" s="172"/>
-      <c r="AC77" s="172"/>
-      <c r="AD77" s="172"/>
-      <c r="AE77" s="172"/>
-      <c r="AF77" s="172"/>
-      <c r="AG77" s="172"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="92"/>
+      <c r="N77" s="92"/>
+      <c r="O77" s="92"/>
+      <c r="P77" s="92"/>
+      <c r="Q77" s="92"/>
+      <c r="R77" s="92"/>
+      <c r="S77" s="92"/>
+      <c r="T77" s="92"/>
+      <c r="U77" s="92"/>
+      <c r="V77" s="92"/>
+      <c r="W77" s="92"/>
+      <c r="X77" s="92"/>
+      <c r="Y77" s="92"/>
+      <c r="Z77" s="92"/>
+      <c r="AA77" s="92"/>
+      <c r="AB77" s="92"/>
+      <c r="AC77" s="92"/>
+      <c r="AD77" s="92"/>
+      <c r="AE77" s="92"/>
+      <c r="AF77" s="92"/>
+      <c r="AG77" s="92"/>
     </row>
     <row r="78" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B78" s="172"/>
-      <c r="C78" s="172"/>
-      <c r="D78" s="172"/>
-      <c r="E78" s="172"/>
-      <c r="F78" s="172"/>
-      <c r="G78" s="172"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="172"/>
-      <c r="J78" s="172"/>
-      <c r="K78" s="172"/>
-      <c r="L78" s="172"/>
-      <c r="M78" s="172"/>
-      <c r="N78" s="172"/>
-      <c r="O78" s="172"/>
-      <c r="P78" s="172"/>
-      <c r="Q78" s="172"/>
-      <c r="R78" s="172"/>
-      <c r="S78" s="172"/>
-      <c r="T78" s="172"/>
-      <c r="U78" s="172"/>
-      <c r="V78" s="172"/>
-      <c r="W78" s="172"/>
-      <c r="X78" s="172"/>
-      <c r="Y78" s="172"/>
-      <c r="Z78" s="172"/>
-      <c r="AA78" s="172"/>
-      <c r="AB78" s="172"/>
-      <c r="AC78" s="172"/>
-      <c r="AD78" s="172"/>
-      <c r="AE78" s="172"/>
-      <c r="AF78" s="172"/>
-      <c r="AG78" s="172"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
+      <c r="M78" s="92"/>
+      <c r="N78" s="92"/>
+      <c r="O78" s="92"/>
+      <c r="P78" s="92"/>
+      <c r="Q78" s="92"/>
+      <c r="R78" s="92"/>
+      <c r="S78" s="92"/>
+      <c r="T78" s="92"/>
+      <c r="U78" s="92"/>
+      <c r="V78" s="92"/>
+      <c r="W78" s="92"/>
+      <c r="X78" s="92"/>
+      <c r="Y78" s="92"/>
+      <c r="Z78" s="92"/>
+      <c r="AA78" s="92"/>
+      <c r="AB78" s="92"/>
+      <c r="AC78" s="92"/>
+      <c r="AD78" s="92"/>
+      <c r="AE78" s="92"/>
+      <c r="AF78" s="92"/>
+      <c r="AG78" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="H67:N67"/>
-    <mergeCell ref="O67:W67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="H68:N68"/>
-    <mergeCell ref="O68:W68"/>
-    <mergeCell ref="B69:W69"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="H65:N65"/>
-    <mergeCell ref="O65:W65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="H66:N66"/>
-    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:W41"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AE37:AF37"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="AA19:AC19"/>
+    <mergeCell ref="K20:W21"/>
+    <mergeCell ref="AA32:AB32"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:O25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:W26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="P32:P33"/>
+    <mergeCell ref="K33:O33"/>
+    <mergeCell ref="Q33:W33"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:W18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="K22:W22"/>
+    <mergeCell ref="D23:W23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="S32:W32"/>
+    <mergeCell ref="AA13:AC14"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="S16:W16"/>
+    <mergeCell ref="X20:Z21"/>
+    <mergeCell ref="S24:W24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="X27:Z27"/>
+    <mergeCell ref="AA27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="X28:Z29"/>
+    <mergeCell ref="AA28:AC29"/>
+    <mergeCell ref="AD28:AD29"/>
+    <mergeCell ref="AE28:AF29"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AA20:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AF21"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="K28:W29"/>
+    <mergeCell ref="K27:W27"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="B32:C42"/>
+    <mergeCell ref="K19:W19"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="B6:H9"/>
+    <mergeCell ref="B16:C30"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="K34:W34"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B13:W14"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="K35:W35"/>
+    <mergeCell ref="AE35:AF35"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K42:W42"/>
+    <mergeCell ref="AE34:AF34"/>
+    <mergeCell ref="B50:F50"/>
+    <mergeCell ref="G50:AF50"/>
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T46:AB46"/>
+    <mergeCell ref="T47:AB47"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="AA34:AC34"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="AA40:AC40"/>
+    <mergeCell ref="AE40:AF40"/>
     <mergeCell ref="AE43:AF43"/>
     <mergeCell ref="A76:AG76"/>
     <mergeCell ref="A77:AG77"/>
@@ -4772,125 +4873,24 @@
     <mergeCell ref="D37:W37"/>
     <mergeCell ref="D40:J40"/>
     <mergeCell ref="K40:W40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K42:W42"/>
-    <mergeCell ref="AE34:AF34"/>
-    <mergeCell ref="B50:F50"/>
-    <mergeCell ref="G50:AF50"/>
-    <mergeCell ref="K30:W30"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T46:AB46"/>
-    <mergeCell ref="T47:AB47"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="AA34:AC34"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="AA40:AC40"/>
-    <mergeCell ref="AE40:AF40"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="B32:C42"/>
-    <mergeCell ref="K19:W19"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B16:C30"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="K34:W34"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B13:W14"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="K35:W35"/>
-    <mergeCell ref="AE35:AF35"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="S32:W32"/>
-    <mergeCell ref="AA13:AC14"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="S16:W16"/>
-    <mergeCell ref="X20:Z21"/>
-    <mergeCell ref="S24:W24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="X27:Z27"/>
-    <mergeCell ref="AA27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="X28:Z29"/>
-    <mergeCell ref="AA28:AC29"/>
-    <mergeCell ref="AD28:AD29"/>
-    <mergeCell ref="AE28:AF29"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AA20:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AF21"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="K28:W29"/>
-    <mergeCell ref="K27:W27"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="K22:W22"/>
-    <mergeCell ref="D23:W23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:W41"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AE37:AF37"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="AA19:AC19"/>
-    <mergeCell ref="K20:W21"/>
-    <mergeCell ref="AA32:AB32"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:O25"/>
-    <mergeCell ref="Q25:W25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:W26"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="P32:P33"/>
-    <mergeCell ref="K33:O33"/>
-    <mergeCell ref="Q33:W33"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:W18"/>
-    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:G65"/>
+    <mergeCell ref="H65:N65"/>
+    <mergeCell ref="O65:W65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="D66:G66"/>
+    <mergeCell ref="H66:N66"/>
+    <mergeCell ref="O66:W66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="H67:N67"/>
+    <mergeCell ref="O67:W67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:G68"/>
+    <mergeCell ref="H68:N68"/>
+    <mergeCell ref="O68:W68"/>
+    <mergeCell ref="B69:W69"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{7FD8B4C7-42A0-4993-86BF-E5604E228F87}"/>
@@ -4909,8 +4909,8 @@
   </sheetPr>
   <dimension ref="A1:AG65"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:W44"/>
+    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4948,163 +4948,163 @@
     <row r="1" spans="1:32" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:32" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="134" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="116"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="116"/>
-      <c r="Z2" s="116"/>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
-      <c r="AD2" s="116"/>
-      <c r="AE2" s="116"/>
-      <c r="AF2" s="116"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
+      <c r="N2" s="145"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="145"/>
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="145"/>
+      <c r="AA2" s="145"/>
+      <c r="AB2" s="145"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="145"/>
     </row>
     <row r="3" spans="1:32" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116"/>
-      <c r="Q3" s="116"/>
-      <c r="R3" s="116"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="116"/>
-      <c r="U3" s="116"/>
-      <c r="V3" s="116"/>
-      <c r="W3" s="116"/>
-      <c r="X3" s="116"/>
-      <c r="Y3" s="116"/>
-      <c r="Z3" s="116"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="116"/>
-      <c r="AE3" s="116"/>
-      <c r="AF3" s="116"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="145"/>
     </row>
     <row r="4" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="116"/>
-      <c r="M4" s="116"/>
-      <c r="N4" s="116"/>
-      <c r="O4" s="116"/>
-      <c r="P4" s="116"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-      <c r="S4" s="116"/>
-      <c r="T4" s="116"/>
-      <c r="U4" s="116"/>
-      <c r="V4" s="116"/>
-      <c r="W4" s="116"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="116"/>
-      <c r="Z4" s="116"/>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
-      <c r="AD4" s="116"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="116"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="145"/>
+      <c r="X4" s="145"/>
+      <c r="Y4" s="145"/>
+      <c r="Z4" s="145"/>
+      <c r="AA4" s="145"/>
+      <c r="AB4" s="145"/>
+      <c r="AC4" s="145"/>
+      <c r="AD4" s="145"/>
+      <c r="AE4" s="145"/>
+      <c r="AF4" s="145"/>
     </row>
     <row r="5" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="179" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="125" t="s">
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="181" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="116"/>
-      <c r="P5" s="116"/>
-      <c r="Q5" s="116"/>
-      <c r="R5" s="116"/>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="116"/>
-      <c r="X5" s="116"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
       <c r="AA5" s="7"/>
-      <c r="AB5" s="200" t="s">
+      <c r="AB5" s="246" t="s">
         <v>1</v>
       </c>
-      <c r="AC5" s="124"/>
-      <c r="AD5" s="124"/>
-      <c r="AE5" s="124"/>
+      <c r="AC5" s="180"/>
+      <c r="AD5" s="180"/>
+      <c r="AE5" s="180"/>
       <c r="AF5" s="47" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="149" t="s">
+      <c r="B6" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -5114,35 +5114,35 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="116"/>
-      <c r="T6" s="116"/>
-      <c r="U6" s="116"/>
-      <c r="V6" s="116"/>
-      <c r="W6" s="116"/>
-      <c r="X6" s="141"/>
-      <c r="Y6" s="116"/>
+      <c r="R6" s="135"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="145"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="7"/>
-      <c r="AB6" s="126" t="s">
+      <c r="AB6" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AC6" s="116"/>
-      <c r="AD6" s="116"/>
-      <c r="AE6" s="116"/>
+      <c r="AC6" s="145"/>
+      <c r="AD6" s="145"/>
+      <c r="AE6" s="145"/>
       <c r="AF6" s="46" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
@@ -5170,13 +5170,13 @@
     </row>
     <row r="8" spans="1:32" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
@@ -5185,38 +5185,38 @@
       <c r="N8" s="9"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
-      <c r="Q8" s="118" t="s">
+      <c r="Q8" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="212"/>
-      <c r="Y8" s="118" t="s">
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
+      <c r="U8" s="241"/>
+      <c r="V8" s="241"/>
+      <c r="W8" s="241"/>
+      <c r="X8" s="243"/>
+      <c r="Y8" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="212"/>
-      <c r="AD8" s="118" t="s">
+      <c r="Z8" s="241"/>
+      <c r="AA8" s="241"/>
+      <c r="AB8" s="241"/>
+      <c r="AC8" s="243"/>
+      <c r="AD8" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="AE8" s="210"/>
-      <c r="AF8" s="212"/>
+      <c r="AE8" s="241"/>
+      <c r="AF8" s="243"/>
     </row>
     <row r="9" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
@@ -5225,22 +5225,22 @@
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="214"/>
-      <c r="Y9" s="213"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="214"/>
-      <c r="AD9" s="213"/>
-      <c r="AE9" s="211"/>
-      <c r="AF9" s="214"/>
+      <c r="Q9" s="244"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="242"/>
+      <c r="W9" s="242"/>
+      <c r="X9" s="245"/>
+      <c r="Y9" s="244"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="242"/>
+      <c r="AC9" s="245"/>
+      <c r="AD9" s="244"/>
+      <c r="AE9" s="242"/>
+      <c r="AF9" s="245"/>
     </row>
     <row r="10" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
@@ -5259,44 +5259,44 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="156">
+      <c r="Q10" s="161">
         <v>44986</v>
       </c>
-      <c r="R10" s="119"/>
-      <c r="S10" s="119"/>
-      <c r="T10" s="119"/>
-      <c r="U10" s="119"/>
-      <c r="V10" s="119"/>
-      <c r="W10" s="119"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="127">
+      <c r="R10" s="150"/>
+      <c r="S10" s="150"/>
+      <c r="T10" s="150"/>
+      <c r="U10" s="150"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="150"/>
+      <c r="X10" s="151"/>
+      <c r="Y10" s="183">
         <v>0</v>
       </c>
-      <c r="Z10" s="119"/>
-      <c r="AA10" s="119"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="153" t="s">
+      <c r="Z10" s="150"/>
+      <c r="AA10" s="150"/>
+      <c r="AB10" s="150"/>
+      <c r="AC10" s="151"/>
+      <c r="AD10" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="AE10" s="119"/>
-      <c r="AF10" s="120"/>
+      <c r="AE10" s="150"/>
+      <c r="AF10" s="151"/>
     </row>
     <row r="11" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="116"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -5305,22 +5305,22 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="122"/>
-      <c r="AA11" s="122"/>
-      <c r="AB11" s="122"/>
-      <c r="AC11" s="123"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="122"/>
-      <c r="AF11" s="123"/>
+      <c r="Q11" s="152"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="152"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="152"/>
+      <c r="AE11" s="153"/>
+      <c r="AF11" s="154"/>
     </row>
     <row r="12" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -5358,75 +5358,75 @@
     </row>
     <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="157" t="s">
+      <c r="B13" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="210"/>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
-      <c r="P13" s="210"/>
-      <c r="Q13" s="210"/>
-      <c r="R13" s="210"/>
-      <c r="S13" s="210"/>
-      <c r="T13" s="210"/>
-      <c r="U13" s="210"/>
-      <c r="V13" s="210"/>
-      <c r="W13" s="210"/>
-      <c r="X13" s="210"/>
-      <c r="Y13" s="210"/>
-      <c r="Z13" s="210"/>
-      <c r="AA13" s="210"/>
-      <c r="AB13" s="210"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="241"/>
+      <c r="N13" s="241"/>
+      <c r="O13" s="241"/>
+      <c r="P13" s="241"/>
+      <c r="Q13" s="241"/>
+      <c r="R13" s="241"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
+      <c r="U13" s="241"/>
+      <c r="V13" s="241"/>
+      <c r="W13" s="241"/>
+      <c r="X13" s="241"/>
+      <c r="Y13" s="241"/>
+      <c r="Z13" s="241"/>
+      <c r="AA13" s="241"/>
+      <c r="AB13" s="241"/>
       <c r="AC13" s="33"/>
-      <c r="AD13" s="157" t="s">
+      <c r="AD13" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="AE13" s="210"/>
-      <c r="AF13" s="210"/>
+      <c r="AE13" s="241"/>
+      <c r="AF13" s="241"/>
     </row>
     <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
-      <c r="B14" s="211"/>
-      <c r="C14" s="211"/>
-      <c r="D14" s="211"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="211"/>
-      <c r="G14" s="211"/>
-      <c r="H14" s="211"/>
-      <c r="I14" s="211"/>
-      <c r="J14" s="211"/>
-      <c r="K14" s="211"/>
-      <c r="L14" s="211"/>
-      <c r="M14" s="211"/>
-      <c r="N14" s="211"/>
-      <c r="O14" s="211"/>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="211"/>
-      <c r="R14" s="211"/>
-      <c r="S14" s="211"/>
-      <c r="T14" s="211"/>
-      <c r="U14" s="211"/>
-      <c r="V14" s="211"/>
-      <c r="W14" s="211"/>
-      <c r="X14" s="211"/>
-      <c r="Y14" s="211"/>
-      <c r="Z14" s="211"/>
-      <c r="AA14" s="211"/>
-      <c r="AB14" s="211"/>
+      <c r="B14" s="242"/>
+      <c r="C14" s="242"/>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="242"/>
+      <c r="N14" s="242"/>
+      <c r="O14" s="242"/>
+      <c r="P14" s="242"/>
+      <c r="Q14" s="242"/>
+      <c r="R14" s="242"/>
+      <c r="S14" s="242"/>
+      <c r="T14" s="242"/>
+      <c r="U14" s="242"/>
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242"/>
       <c r="AC14" s="34"/>
-      <c r="AD14" s="211"/>
-      <c r="AE14" s="211"/>
-      <c r="AF14" s="211"/>
+      <c r="AD14" s="242"/>
+      <c r="AE14" s="242"/>
+      <c r="AF14" s="242"/>
     </row>
     <row r="15" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -5463,173 +5463,173 @@
       <c r="AF15" s="14"/>
     </row>
     <row r="16" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="150" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="215"/>
-      <c r="F16" s="239" t="s">
+      <c r="C16" s="206"/>
+      <c r="D16" s="206"/>
+      <c r="E16" s="207"/>
+      <c r="F16" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="197"/>
-      <c r="H16" s="197"/>
-      <c r="I16" s="197"/>
-      <c r="J16" s="198"/>
-      <c r="K16" s="196" t="s">
+      <c r="G16" s="236"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="236"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="197"/>
-      <c r="M16" s="197"/>
-      <c r="N16" s="197"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="197"/>
-      <c r="Q16" s="197"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="197"/>
-      <c r="T16" s="197"/>
-      <c r="U16" s="197"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="197"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="197"/>
-      <c r="Z16" s="197"/>
-      <c r="AA16" s="197"/>
-      <c r="AB16" s="198"/>
+      <c r="L16" s="236"/>
+      <c r="M16" s="236"/>
+      <c r="N16" s="236"/>
+      <c r="O16" s="236"/>
+      <c r="P16" s="236"/>
+      <c r="Q16" s="236"/>
+      <c r="R16" s="236"/>
+      <c r="S16" s="236"/>
+      <c r="T16" s="236"/>
+      <c r="U16" s="236"/>
+      <c r="V16" s="236"/>
+      <c r="W16" s="236"/>
+      <c r="X16" s="236"/>
+      <c r="Y16" s="236"/>
+      <c r="Z16" s="236"/>
+      <c r="AA16" s="236"/>
+      <c r="AB16" s="237"/>
       <c r="AC16" s="38"/>
       <c r="AD16" s="42"/>
-      <c r="AE16" s="124"/>
-      <c r="AF16" s="190"/>
+      <c r="AE16" s="180"/>
+      <c r="AF16" s="204"/>
     </row>
     <row r="17" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="84"/>
-      <c r="B17" s="235"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="225" t="s">
+      <c r="A17" s="111"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="220" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="226"/>
-      <c r="H17" s="226"/>
-      <c r="I17" s="226"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="231" t="s">
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="222"/>
+      <c r="K17" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="L17" s="232"/>
-      <c r="M17" s="232"/>
-      <c r="N17" s="232"/>
-      <c r="O17" s="232"/>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="232"/>
-      <c r="R17" s="193" t="s">
+      <c r="L17" s="227"/>
+      <c r="M17" s="227"/>
+      <c r="N17" s="227"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="227"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="251" t="s">
         <v>32</v>
       </c>
-      <c r="S17" s="233" t="s">
+      <c r="S17" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="T17" s="233"/>
-      <c r="U17" s="233"/>
-      <c r="V17" s="233"/>
-      <c r="W17" s="233"/>
-      <c r="X17" s="233"/>
-      <c r="Y17" s="233"/>
-      <c r="Z17" s="233"/>
-      <c r="AA17" s="233"/>
-      <c r="AB17" s="234"/>
+      <c r="T17" s="228"/>
+      <c r="U17" s="228"/>
+      <c r="V17" s="228"/>
+      <c r="W17" s="228"/>
+      <c r="X17" s="228"/>
+      <c r="Y17" s="228"/>
+      <c r="Z17" s="228"/>
+      <c r="AA17" s="228"/>
+      <c r="AB17" s="229"/>
       <c r="AC17" s="38"/>
-      <c r="AD17" s="135" t="s">
+      <c r="AD17" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AE17" s="194">
+      <c r="AE17" s="252">
         <f>K18*S18</f>
         <v>1099040</v>
       </c>
-      <c r="AF17" s="194"/>
+      <c r="AF17" s="252"/>
     </row>
     <row r="18" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="228"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="230"/>
-      <c r="K18" s="95">
+      <c r="A18" s="145"/>
+      <c r="B18" s="211"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="225"/>
+      <c r="K18" s="101">
         <v>16000</v>
       </c>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="192"/>
-      <c r="O18" s="192"/>
-      <c r="P18" s="192"/>
-      <c r="Q18" s="192"/>
-      <c r="R18" s="193"/>
-      <c r="S18" s="89">
+      <c r="L18" s="206"/>
+      <c r="M18" s="206"/>
+      <c r="N18" s="206"/>
+      <c r="O18" s="206"/>
+      <c r="P18" s="206"/>
+      <c r="Q18" s="206"/>
+      <c r="R18" s="251"/>
+      <c r="S18" s="174">
         <v>68.69</v>
       </c>
-      <c r="T18" s="192"/>
-      <c r="U18" s="192"/>
-      <c r="V18" s="192"/>
-      <c r="W18" s="192"/>
-      <c r="X18" s="192"/>
-      <c r="Y18" s="192"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="215"/>
+      <c r="T18" s="206"/>
+      <c r="U18" s="206"/>
+      <c r="V18" s="206"/>
+      <c r="W18" s="206"/>
+      <c r="X18" s="206"/>
+      <c r="Y18" s="206"/>
+      <c r="Z18" s="206"/>
+      <c r="AA18" s="206"/>
+      <c r="AB18" s="207"/>
       <c r="AC18" s="38"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="194"/>
-      <c r="AF18" s="194"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="252"/>
+      <c r="AF18" s="252"/>
     </row>
     <row r="19" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="220"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="94" t="s">
+      <c r="B19" s="212"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="202"/>
-      <c r="H19" s="202"/>
-      <c r="I19" s="202"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="205">
+      <c r="G19" s="232"/>
+      <c r="H19" s="232"/>
+      <c r="I19" s="232"/>
+      <c r="J19" s="233"/>
+      <c r="K19" s="215">
         <f>ROUND(AE17*11%,0)</f>
         <v>120894</v>
       </c>
-      <c r="L19" s="206"/>
-      <c r="M19" s="206"/>
-      <c r="N19" s="206"/>
-      <c r="O19" s="206"/>
-      <c r="P19" s="206"/>
-      <c r="Q19" s="206"/>
-      <c r="R19" s="206"/>
-      <c r="S19" s="206"/>
-      <c r="T19" s="206"/>
-      <c r="U19" s="206"/>
-      <c r="V19" s="206"/>
-      <c r="W19" s="206"/>
-      <c r="X19" s="206"/>
-      <c r="Y19" s="206"/>
-      <c r="Z19" s="206"/>
-      <c r="AA19" s="206"/>
-      <c r="AB19" s="207"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="216"/>
+      <c r="Y19" s="216"/>
+      <c r="Z19" s="216"/>
+      <c r="AA19" s="216"/>
+      <c r="AB19" s="217"/>
       <c r="AC19" s="38"/>
       <c r="AD19" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE19" s="208">
+      <c r="AE19" s="239">
         <f>K19</f>
         <v>120894</v>
       </c>
-      <c r="AF19" s="209"/>
+      <c r="AF19" s="240"/>
     </row>
     <row r="20" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
@@ -5637,24 +5637,24 @@
       <c r="C20" s="11"/>
       <c r="D20" s="71"/>
       <c r="E20" s="38"/>
-      <c r="F20" s="224"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+      <c r="I20" s="204"/>
       <c r="J20" s="53"/>
-      <c r="K20" s="199"/>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="93"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="195"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
+      <c r="K20" s="254"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="204"/>
+      <c r="Q20" s="253"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
       <c r="X20" s="53"/>
       <c r="Y20" s="53"/>
       <c r="Z20" s="53"/>
@@ -5664,207 +5664,207 @@
       <c r="AD20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE20" s="191">
+      <c r="AE20" s="250">
         <f>AE17+AE19</f>
         <v>1219934</v>
       </c>
-      <c r="AF20" s="192"/>
+      <c r="AF20" s="206"/>
     </row>
     <row r="21" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="238" t="s">
+      <c r="C21" s="206"/>
+      <c r="D21" s="206"/>
+      <c r="E21" s="207"/>
+      <c r="F21" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="G21" s="197"/>
-      <c r="H21" s="197"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="196" t="s">
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="236"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="L21" s="197"/>
-      <c r="M21" s="197"/>
-      <c r="N21" s="197"/>
-      <c r="O21" s="197"/>
-      <c r="P21" s="197"/>
-      <c r="Q21" s="197"/>
-      <c r="R21" s="197"/>
-      <c r="S21" s="197"/>
-      <c r="T21" s="197"/>
-      <c r="U21" s="197"/>
-      <c r="V21" s="197"/>
-      <c r="W21" s="197"/>
-      <c r="X21" s="197"/>
-      <c r="Y21" s="197"/>
-      <c r="Z21" s="197"/>
-      <c r="AA21" s="197"/>
-      <c r="AB21" s="198"/>
+      <c r="L21" s="236"/>
+      <c r="M21" s="236"/>
+      <c r="N21" s="236"/>
+      <c r="O21" s="236"/>
+      <c r="P21" s="236"/>
+      <c r="Q21" s="236"/>
+      <c r="R21" s="236"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="236"/>
+      <c r="U21" s="236"/>
+      <c r="V21" s="236"/>
+      <c r="W21" s="236"/>
+      <c r="X21" s="236"/>
+      <c r="Y21" s="236"/>
+      <c r="Z21" s="236"/>
+      <c r="AA21" s="236"/>
+      <c r="AB21" s="237"/>
       <c r="AC21" s="18"/>
       <c r="AD21" s="42"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="190"/>
+      <c r="AE21" s="171"/>
+      <c r="AF21" s="204"/>
     </row>
     <row r="22" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="217"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="218"/>
-      <c r="F22" s="252" t="s">
+      <c r="B22" s="208"/>
+      <c r="C22" s="209"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="190" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="253"/>
-      <c r="H22" s="253"/>
-      <c r="I22" s="253"/>
-      <c r="J22" s="254"/>
-      <c r="K22" s="231" t="s">
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="L22" s="232"/>
-      <c r="M22" s="232"/>
-      <c r="N22" s="232"/>
-      <c r="O22" s="232"/>
-      <c r="P22" s="232"/>
-      <c r="Q22" s="232"/>
-      <c r="R22" s="258" t="s">
+      <c r="L22" s="227"/>
+      <c r="M22" s="227"/>
+      <c r="N22" s="227"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="227"/>
+      <c r="Q22" s="227"/>
+      <c r="R22" s="196" t="s">
         <v>32</v>
       </c>
-      <c r="S22" s="233" t="s">
+      <c r="S22" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="233"/>
-      <c r="U22" s="233"/>
-      <c r="V22" s="233"/>
-      <c r="W22" s="233"/>
-      <c r="X22" s="233"/>
-      <c r="Y22" s="233"/>
-      <c r="Z22" s="233"/>
-      <c r="AA22" s="233"/>
-      <c r="AB22" s="234"/>
+      <c r="T22" s="228"/>
+      <c r="U22" s="228"/>
+      <c r="V22" s="228"/>
+      <c r="W22" s="228"/>
+      <c r="X22" s="228"/>
+      <c r="Y22" s="228"/>
+      <c r="Z22" s="228"/>
+      <c r="AA22" s="228"/>
+      <c r="AB22" s="229"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="135" t="s">
+      <c r="AD22" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="AE22" s="82">
+      <c r="AE22" s="89">
         <f>K23*S23</f>
         <v>109904</v>
       </c>
-      <c r="AF22" s="82"/>
+      <c r="AF22" s="89"/>
     </row>
     <row r="23" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="219"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="190"/>
-      <c r="E23" s="218"/>
-      <c r="F23" s="255"/>
-      <c r="G23" s="256"/>
-      <c r="H23" s="256"/>
-      <c r="I23" s="256"/>
-      <c r="J23" s="257"/>
-      <c r="K23" s="201">
+      <c r="B23" s="211"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="248">
         <f>IF(K18&lt;&gt;0,K18*10%,VLOOKUP(E11,[1]!SCSF_Billings[#Data],6,FALSE))</f>
         <v>1600</v>
       </c>
-      <c r="L23" s="202"/>
-      <c r="M23" s="202"/>
-      <c r="N23" s="202"/>
-      <c r="O23" s="202"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="202"/>
-      <c r="R23" s="259"/>
-      <c r="S23" s="236">
+      <c r="L23" s="232"/>
+      <c r="M23" s="232"/>
+      <c r="N23" s="232"/>
+      <c r="O23" s="232"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="232"/>
+      <c r="R23" s="197"/>
+      <c r="S23" s="231">
         <f>S18</f>
         <v>68.69</v>
       </c>
-      <c r="T23" s="202"/>
-      <c r="U23" s="202"/>
-      <c r="V23" s="202"/>
-      <c r="W23" s="202"/>
-      <c r="X23" s="202"/>
-      <c r="Y23" s="202"/>
-      <c r="Z23" s="202"/>
-      <c r="AA23" s="202"/>
-      <c r="AB23" s="204"/>
+      <c r="T23" s="232"/>
+      <c r="U23" s="232"/>
+      <c r="V23" s="232"/>
+      <c r="W23" s="232"/>
+      <c r="X23" s="232"/>
+      <c r="Y23" s="232"/>
+      <c r="Z23" s="232"/>
+      <c r="AA23" s="232"/>
+      <c r="AB23" s="233"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="80"/>
+      <c r="AD23" s="170"/>
+      <c r="AE23" s="159"/>
+      <c r="AF23" s="159"/>
     </row>
     <row r="24" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="220"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="203" t="s">
+      <c r="B24" s="212"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="214"/>
+      <c r="F24" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="202"/>
-      <c r="H24" s="202"/>
-      <c r="I24" s="202"/>
-      <c r="J24" s="204"/>
-      <c r="K24" s="205">
+      <c r="G24" s="232"/>
+      <c r="H24" s="232"/>
+      <c r="I24" s="232"/>
+      <c r="J24" s="233"/>
+      <c r="K24" s="215">
         <f>ROUND(AE22*11%,0)</f>
         <v>12089</v>
       </c>
-      <c r="L24" s="206"/>
-      <c r="M24" s="206"/>
-      <c r="N24" s="206"/>
-      <c r="O24" s="206"/>
-      <c r="P24" s="206"/>
-      <c r="Q24" s="206"/>
-      <c r="R24" s="206"/>
-      <c r="S24" s="206"/>
-      <c r="T24" s="206"/>
-      <c r="U24" s="206"/>
-      <c r="V24" s="206"/>
-      <c r="W24" s="206"/>
-      <c r="X24" s="206"/>
-      <c r="Y24" s="206"/>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="206"/>
-      <c r="AB24" s="207"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="216"/>
+      <c r="N24" s="216"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="216"/>
+      <c r="Q24" s="216"/>
+      <c r="R24" s="216"/>
+      <c r="S24" s="216"/>
+      <c r="T24" s="216"/>
+      <c r="U24" s="216"/>
+      <c r="V24" s="216"/>
+      <c r="W24" s="216"/>
+      <c r="X24" s="216"/>
+      <c r="Y24" s="216"/>
+      <c r="Z24" s="216"/>
+      <c r="AA24" s="216"/>
+      <c r="AB24" s="217"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE24" s="80">
+      <c r="AE24" s="159">
         <f>K24</f>
         <v>12089</v>
       </c>
-      <c r="AF24" s="221"/>
+      <c r="AF24" s="213"/>
     </row>
     <row r="25" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="84"/>
+      <c r="A25" s="111"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
+      <c r="F25" s="218"/>
+      <c r="G25" s="213"/>
+      <c r="H25" s="213"/>
+      <c r="I25" s="213"/>
       <c r="J25" s="72"/>
-      <c r="K25" s="251"/>
-      <c r="L25" s="221"/>
-      <c r="M25" s="221"/>
-      <c r="N25" s="221"/>
-      <c r="O25" s="221"/>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="221"/>
-      <c r="R25" s="221"/>
-      <c r="S25" s="221"/>
-      <c r="T25" s="221"/>
-      <c r="U25" s="221"/>
-      <c r="V25" s="221"/>
-      <c r="W25" s="221"/>
+      <c r="K25" s="259"/>
+      <c r="L25" s="213"/>
+      <c r="M25" s="213"/>
+      <c r="N25" s="213"/>
+      <c r="O25" s="213"/>
+      <c r="P25" s="213"/>
+      <c r="Q25" s="213"/>
+      <c r="R25" s="213"/>
+      <c r="S25" s="213"/>
+      <c r="T25" s="213"/>
+      <c r="U25" s="213"/>
+      <c r="V25" s="213"/>
+      <c r="W25" s="213"/>
       <c r="X25" s="36"/>
       <c r="Y25" s="36"/>
       <c r="Z25" s="36"/>
@@ -5874,14 +5874,14 @@
       <c r="AD25" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AE25" s="208">
+      <c r="AE25" s="239">
         <f>AE22+AE24</f>
         <v>121993</v>
       </c>
-      <c r="AF25" s="221"/>
-    </row>
-    <row r="26" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
+      <c r="AF25" s="213"/>
+    </row>
+    <row r="26" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="145"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
@@ -5915,7 +5915,7 @@
       <c r="AF26" s="60"/>
     </row>
     <row r="27" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="53"/>
@@ -5934,28 +5934,28 @@
       <c r="Q27" s="53"/>
       <c r="R27" s="53"/>
       <c r="S27" s="53"/>
-      <c r="T27" s="164" t="s">
+      <c r="T27" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="U27" s="190"/>
-      <c r="V27" s="190"/>
-      <c r="W27" s="190"/>
-      <c r="X27" s="190"/>
-      <c r="Y27" s="190"/>
-      <c r="Z27" s="190"/>
-      <c r="AA27" s="190"/>
-      <c r="AB27" s="190"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="204"/>
+      <c r="X27" s="204"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="204"/>
+      <c r="AB27" s="204"/>
       <c r="AC27" s="18"/>
       <c r="AD27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE27" s="246">
+      <c r="AE27" s="200">
         <v>10000</v>
       </c>
-      <c r="AF27" s="247"/>
+      <c r="AF27" s="201"/>
     </row>
     <row r="28" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
+      <c r="A28" s="145"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -5974,28 +5974,28 @@
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
-      <c r="T28" s="164" t="s">
+      <c r="T28" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="79"/>
-      <c r="Z28" s="79"/>
-      <c r="AA28" s="79"/>
-      <c r="AB28" s="79"/>
+      <c r="U28" s="90"/>
+      <c r="V28" s="90"/>
+      <c r="W28" s="90"/>
+      <c r="X28" s="90"/>
+      <c r="Y28" s="90"/>
+      <c r="Z28" s="90"/>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
       <c r="AC28" s="28"/>
       <c r="AD28" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE28" s="250">
+      <c r="AE28" s="205">
         <v>0</v>
       </c>
-      <c r="AF28" s="247"/>
+      <c r="AF28" s="201"/>
     </row>
     <row r="29" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
+      <c r="A29" s="145"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -6014,25 +6014,25 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
-      <c r="T29" s="237" t="s">
+      <c r="T29" s="234" t="s">
         <v>22</v>
       </c>
-      <c r="U29" s="190"/>
-      <c r="V29" s="190"/>
-      <c r="W29" s="190"/>
-      <c r="X29" s="190"/>
-      <c r="Y29" s="190"/>
-      <c r="Z29" s="190"/>
-      <c r="AA29" s="190"/>
-      <c r="AB29" s="190"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
       <c r="AC29" s="28"/>
       <c r="AD29" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE29" s="248">
+      <c r="AE29" s="202">
         <v>10000</v>
       </c>
-      <c r="AF29" s="249"/>
+      <c r="AF29" s="203"/>
     </row>
     <row r="30" spans="1:32" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
@@ -6054,26 +6054,26 @@
       <c r="Q30" s="19"/>
       <c r="R30" s="19"/>
       <c r="S30" s="19"/>
-      <c r="T30" s="165" t="s">
+      <c r="T30" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="U30" s="190"/>
-      <c r="V30" s="190"/>
-      <c r="W30" s="190"/>
-      <c r="X30" s="190"/>
-      <c r="Y30" s="190"/>
-      <c r="Z30" s="190"/>
-      <c r="AA30" s="190"/>
-      <c r="AB30" s="190"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
       <c r="AC30" s="19"/>
       <c r="AD30" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AE30" s="82">
+      <c r="AE30" s="89">
         <f>AE20+AE25+AE27+AE29+AE28</f>
         <v>1361927</v>
       </c>
-      <c r="AF30" s="190"/>
+      <c r="AF30" s="204"/>
     </row>
     <row r="31" spans="1:32" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
@@ -6145,41 +6145,41 @@
     </row>
     <row r="33" spans="1:32" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="159"/>
-      <c r="D33" s="159"/>
-      <c r="E33" s="159"/>
-      <c r="F33" s="159"/>
-      <c r="G33" s="244" t="s">
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="198" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="244"/>
-      <c r="I33" s="244"/>
-      <c r="J33" s="244"/>
-      <c r="K33" s="244"/>
-      <c r="L33" s="244"/>
-      <c r="M33" s="244"/>
-      <c r="N33" s="244"/>
-      <c r="O33" s="244"/>
-      <c r="P33" s="244"/>
-      <c r="Q33" s="244"/>
-      <c r="R33" s="244"/>
-      <c r="S33" s="244"/>
-      <c r="T33" s="244"/>
-      <c r="U33" s="244"/>
-      <c r="V33" s="244"/>
-      <c r="W33" s="244"/>
-      <c r="X33" s="244"/>
-      <c r="Y33" s="244"/>
-      <c r="Z33" s="244"/>
-      <c r="AA33" s="244"/>
-      <c r="AB33" s="244"/>
-      <c r="AC33" s="244"/>
-      <c r="AD33" s="244"/>
-      <c r="AE33" s="244"/>
-      <c r="AF33" s="244"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="198"/>
+      <c r="M33" s="198"/>
+      <c r="N33" s="198"/>
+      <c r="O33" s="198"/>
+      <c r="P33" s="198"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="198"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198"/>
+      <c r="W33" s="198"/>
+      <c r="X33" s="198"/>
+      <c r="Y33" s="198"/>
+      <c r="Z33" s="198"/>
+      <c r="AA33" s="198"/>
+      <c r="AB33" s="198"/>
+      <c r="AC33" s="198"/>
+      <c r="AD33" s="198"/>
+      <c r="AE33" s="198"/>
+      <c r="AF33" s="198"/>
     </row>
     <row r="34" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
@@ -6308,207 +6308,207 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
       <c r="X37" s="49"/>
-      <c r="AB37" s="245" t="s">
+      <c r="AB37" s="199" t="s">
         <v>38</v>
       </c>
-      <c r="AC37" s="245"/>
-      <c r="AD37" s="245"/>
-      <c r="AE37" s="245"/>
-      <c r="AF37" s="245"/>
+      <c r="AC37" s="199"/>
+      <c r="AD37" s="199"/>
+      <c r="AE37" s="199"/>
+      <c r="AF37" s="199"/>
     </row>
     <row r="38" spans="1:32" ht="5.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="105" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="173"/>
-      <c r="L38" s="173"/>
-      <c r="M38" s="173"/>
-      <c r="N38" s="173"/>
-      <c r="O38" s="173"/>
-      <c r="P38" s="173"/>
-      <c r="Q38" s="173"/>
-      <c r="R38" s="173"/>
-      <c r="S38" s="173"/>
-      <c r="T38" s="173"/>
-      <c r="U38" s="173"/>
-      <c r="V38" s="173"/>
-      <c r="W38" s="173"/>
-      <c r="AB38" s="245"/>
-      <c r="AC38" s="245"/>
-      <c r="AD38" s="245"/>
-      <c r="AE38" s="245"/>
-      <c r="AF38" s="245"/>
+      <c r="C38" s="105"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105"/>
+      <c r="L38" s="105"/>
+      <c r="M38" s="105"/>
+      <c r="N38" s="105"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="105"/>
+      <c r="Q38" s="105"/>
+      <c r="R38" s="105"/>
+      <c r="S38" s="105"/>
+      <c r="T38" s="105"/>
+      <c r="U38" s="105"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="105"/>
+      <c r="AB38" s="199"/>
+      <c r="AC38" s="199"/>
+      <c r="AD38" s="199"/>
+      <c r="AE38" s="199"/>
+      <c r="AF38" s="199"/>
     </row>
     <row r="39" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="173"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="173"/>
-      <c r="F39" s="173"/>
-      <c r="G39" s="173"/>
-      <c r="H39" s="173"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="173"/>
-      <c r="L39" s="173"/>
-      <c r="M39" s="173"/>
-      <c r="N39" s="173"/>
-      <c r="O39" s="173"/>
-      <c r="P39" s="173"/>
-      <c r="Q39" s="173"/>
-      <c r="R39" s="173"/>
-      <c r="S39" s="173"/>
-      <c r="T39" s="173"/>
-      <c r="U39" s="173"/>
-      <c r="V39" s="173"/>
-      <c r="W39" s="173"/>
-      <c r="AB39" s="245"/>
-      <c r="AC39" s="245"/>
-      <c r="AD39" s="245"/>
-      <c r="AE39" s="245"/>
-      <c r="AF39" s="245"/>
+      <c r="B39" s="105"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="105"/>
+      <c r="P39" s="105"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="105"/>
+      <c r="S39" s="105"/>
+      <c r="T39" s="105"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="105"/>
+      <c r="W39" s="105"/>
+      <c r="AB39" s="199"/>
+      <c r="AC39" s="199"/>
+      <c r="AD39" s="199"/>
+      <c r="AE39" s="199"/>
+      <c r="AF39" s="199"/>
     </row>
     <row r="40" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
-      <c r="B40" s="173"/>
-      <c r="C40" s="173"/>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="173"/>
-      <c r="L40" s="173"/>
-      <c r="M40" s="173"/>
-      <c r="N40" s="173"/>
-      <c r="O40" s="173"/>
-      <c r="P40" s="173"/>
-      <c r="Q40" s="173"/>
-      <c r="R40" s="173"/>
-      <c r="S40" s="173"/>
-      <c r="T40" s="173"/>
-      <c r="U40" s="173"/>
-      <c r="V40" s="173"/>
-      <c r="W40" s="173"/>
+      <c r="B40" s="105"/>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="105"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="105"/>
+      <c r="M40" s="105"/>
+      <c r="N40" s="105"/>
+      <c r="O40" s="105"/>
+      <c r="P40" s="105"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="105"/>
+      <c r="S40" s="105"/>
+      <c r="T40" s="105"/>
+      <c r="U40" s="105"/>
+      <c r="V40" s="105"/>
+      <c r="W40" s="105"/>
     </row>
     <row r="41" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="173"/>
-      <c r="E41" s="173"/>
-      <c r="F41" s="173"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="173"/>
-      <c r="L41" s="173"/>
-      <c r="M41" s="173"/>
-      <c r="N41" s="173"/>
-      <c r="O41" s="173"/>
-      <c r="P41" s="173"/>
-      <c r="Q41" s="173"/>
-      <c r="R41" s="173"/>
-      <c r="S41" s="173"/>
-      <c r="T41" s="173"/>
-      <c r="U41" s="173"/>
-      <c r="V41" s="173"/>
-      <c r="W41" s="173"/>
+      <c r="B41" s="105"/>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="105"/>
+      <c r="Q41" s="105"/>
+      <c r="R41" s="105"/>
+      <c r="S41" s="105"/>
+      <c r="T41" s="105"/>
+      <c r="U41" s="105"/>
+      <c r="V41" s="105"/>
+      <c r="W41" s="105"/>
     </row>
     <row r="42" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="173"/>
-      <c r="M42" s="173"/>
-      <c r="N42" s="173"/>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="173"/>
-      <c r="R42" s="173"/>
-      <c r="S42" s="173"/>
-      <c r="T42" s="173"/>
-      <c r="U42" s="173"/>
-      <c r="V42" s="173"/>
-      <c r="W42" s="173"/>
+      <c r="B42" s="105"/>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="105"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="105"/>
+      <c r="Q42" s="105"/>
+      <c r="R42" s="105"/>
+      <c r="S42" s="105"/>
+      <c r="T42" s="105"/>
+      <c r="U42" s="105"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="105"/>
     </row>
     <row r="43" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
-      <c r="D43" s="173"/>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="173"/>
-      <c r="L43" s="173"/>
-      <c r="M43" s="173"/>
-      <c r="N43" s="173"/>
-      <c r="O43" s="173"/>
-      <c r="P43" s="173"/>
-      <c r="Q43" s="173"/>
-      <c r="R43" s="173"/>
-      <c r="S43" s="173"/>
-      <c r="T43" s="173"/>
-      <c r="U43" s="173"/>
-      <c r="V43" s="173"/>
-      <c r="W43" s="173"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="105"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="105"/>
+      <c r="N43" s="105"/>
+      <c r="O43" s="105"/>
+      <c r="P43" s="105"/>
+      <c r="Q43" s="105"/>
+      <c r="R43" s="105"/>
+      <c r="S43" s="105"/>
+      <c r="T43" s="105"/>
+      <c r="U43" s="105"/>
+      <c r="V43" s="105"/>
+      <c r="W43" s="105"/>
     </row>
     <row r="44" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="173"/>
-      <c r="C44" s="173"/>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="173"/>
-      <c r="L44" s="173"/>
-      <c r="M44" s="173"/>
-      <c r="N44" s="173"/>
-      <c r="O44" s="173"/>
-      <c r="P44" s="173"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="173"/>
-      <c r="S44" s="173"/>
-      <c r="T44" s="173"/>
-      <c r="U44" s="173"/>
-      <c r="V44" s="173"/>
-      <c r="W44" s="173"/>
-      <c r="AB44" s="242" t="s">
+      <c r="B44" s="105"/>
+      <c r="C44" s="105"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="105"/>
+      <c r="J44" s="105"/>
+      <c r="K44" s="105"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="105"/>
+      <c r="N44" s="105"/>
+      <c r="O44" s="105"/>
+      <c r="P44" s="105"/>
+      <c r="Q44" s="105"/>
+      <c r="R44" s="105"/>
+      <c r="S44" s="105"/>
+      <c r="T44" s="105"/>
+      <c r="U44" s="105"/>
+      <c r="V44" s="105"/>
+      <c r="W44" s="105"/>
+      <c r="AB44" s="257" t="s">
         <v>39</v>
       </c>
-      <c r="AC44" s="243"/>
-      <c r="AD44" s="243"/>
-      <c r="AE44" s="243"/>
-      <c r="AF44" s="243"/>
+      <c r="AC44" s="258"/>
+      <c r="AD44" s="258"/>
+      <c r="AE44" s="258"/>
+      <c r="AF44" s="258"/>
     </row>
     <row r="45" spans="1:32" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
@@ -6534,11 +6534,11 @@
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
-      <c r="AB45" s="240"/>
-      <c r="AC45" s="241"/>
-      <c r="AD45" s="241"/>
-      <c r="AE45" s="241"/>
-      <c r="AF45" s="241"/>
+      <c r="AB45" s="255"/>
+      <c r="AC45" s="256"/>
+      <c r="AD45" s="256"/>
+      <c r="AE45" s="256"/>
+      <c r="AF45" s="256"/>
     </row>
     <row r="46" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
@@ -6576,12 +6576,12 @@
     </row>
     <row r="47" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="175" t="s">
+      <c r="B47" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="175"/>
-      <c r="D47" s="175"/>
-      <c r="E47" s="175"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="31"/>
@@ -6612,36 +6612,36 @@
     </row>
     <row r="48" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="176" t="s">
+      <c r="B48" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176" t="s">
+      <c r="C48" s="85"/>
+      <c r="D48" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="177" t="s">
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="I48" s="178"/>
-      <c r="J48" s="178"/>
-      <c r="K48" s="178"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="178"/>
-      <c r="N48" s="179"/>
-      <c r="O48" s="177" t="s">
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="P48" s="178"/>
-      <c r="Q48" s="178"/>
-      <c r="R48" s="178"/>
-      <c r="S48" s="178"/>
-      <c r="T48" s="178"/>
-      <c r="U48" s="178"/>
-      <c r="V48" s="178"/>
-      <c r="W48" s="179"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="88"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -6654,36 +6654,36 @@
     </row>
     <row r="49" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="180" t="s">
+      <c r="B49" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="180"/>
-      <c r="D49" s="181" t="s">
+      <c r="C49" s="74"/>
+      <c r="D49" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="181"/>
-      <c r="F49" s="181"/>
-      <c r="G49" s="181"/>
-      <c r="H49" s="182" t="s">
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="75"/>
+      <c r="H49" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I49" s="183"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="183"/>
-      <c r="L49" s="183"/>
-      <c r="M49" s="183"/>
-      <c r="N49" s="184"/>
-      <c r="O49" s="182" t="s">
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="P49" s="183"/>
-      <c r="Q49" s="183"/>
-      <c r="R49" s="183"/>
-      <c r="S49" s="183"/>
-      <c r="T49" s="183"/>
-      <c r="U49" s="183"/>
-      <c r="V49" s="183"/>
-      <c r="W49" s="184"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="78"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -6696,36 +6696,36 @@
     </row>
     <row r="50" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="180"/>
-      <c r="D50" s="181" t="s">
+      <c r="C50" s="74"/>
+      <c r="D50" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="E50" s="181"/>
-      <c r="F50" s="181"/>
-      <c r="G50" s="181"/>
-      <c r="H50" s="182" t="s">
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
+      <c r="G50" s="75"/>
+      <c r="H50" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="I50" s="183"/>
-      <c r="J50" s="183"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="183"/>
-      <c r="M50" s="183"/>
-      <c r="N50" s="184"/>
-      <c r="O50" s="182" t="s">
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
+      <c r="M50" s="77"/>
+      <c r="N50" s="78"/>
+      <c r="O50" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="P50" s="183"/>
-      <c r="Q50" s="183"/>
-      <c r="R50" s="183"/>
-      <c r="S50" s="183"/>
-      <c r="T50" s="183"/>
-      <c r="U50" s="183"/>
-      <c r="V50" s="183"/>
-      <c r="W50" s="184"/>
+      <c r="P50" s="77"/>
+      <c r="Q50" s="77"/>
+      <c r="R50" s="77"/>
+      <c r="S50" s="77"/>
+      <c r="T50" s="77"/>
+      <c r="U50" s="77"/>
+      <c r="V50" s="77"/>
+      <c r="W50" s="78"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -6738,36 +6738,36 @@
     </row>
     <row r="51" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="180"/>
-      <c r="D51" s="185" t="s">
+      <c r="C51" s="74"/>
+      <c r="D51" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="185"/>
-      <c r="F51" s="185"/>
-      <c r="G51" s="185"/>
-      <c r="H51" s="186" t="s">
+      <c r="E51" s="79"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="I51" s="187"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="187"/>
-      <c r="L51" s="187"/>
-      <c r="M51" s="187"/>
-      <c r="N51" s="188"/>
-      <c r="O51" s="186" t="s">
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+      <c r="L51" s="81"/>
+      <c r="M51" s="81"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="P51" s="187"/>
-      <c r="Q51" s="187"/>
-      <c r="R51" s="187"/>
-      <c r="S51" s="187"/>
-      <c r="T51" s="187"/>
-      <c r="U51" s="187"/>
-      <c r="V51" s="187"/>
-      <c r="W51" s="188"/>
+      <c r="P51" s="81"/>
+      <c r="Q51" s="81"/>
+      <c r="R51" s="81"/>
+      <c r="S51" s="81"/>
+      <c r="T51" s="81"/>
+      <c r="U51" s="81"/>
+      <c r="V51" s="81"/>
+      <c r="W51" s="82"/>
       <c r="X51" s="6"/>
       <c r="Y51" s="6"/>
       <c r="Z51" s="6"/>
@@ -6780,30 +6780,30 @@
     </row>
     <row r="52" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="189" t="s">
+      <c r="B52" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
-      <c r="G52" s="189"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="189"/>
-      <c r="K52" s="189"/>
-      <c r="L52" s="189"/>
-      <c r="M52" s="189"/>
-      <c r="N52" s="189"/>
-      <c r="O52" s="189"/>
-      <c r="P52" s="189"/>
-      <c r="Q52" s="189"/>
-      <c r="R52" s="189"/>
-      <c r="S52" s="189"/>
-      <c r="T52" s="189"/>
-      <c r="U52" s="189"/>
-      <c r="V52" s="189"/>
-      <c r="W52" s="189"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="83"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="83"/>
+      <c r="L52" s="83"/>
+      <c r="M52" s="83"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="83"/>
+      <c r="P52" s="83"/>
+      <c r="Q52" s="83"/>
+      <c r="R52" s="83"/>
+      <c r="S52" s="83"/>
+      <c r="T52" s="83"/>
+      <c r="U52" s="83"/>
+      <c r="V52" s="83"/>
+      <c r="W52" s="83"/>
       <c r="X52" s="6"/>
       <c r="Y52" s="6"/>
       <c r="Z52" s="6"/>
@@ -6815,138 +6815,164 @@
       <c r="AF52" s="6"/>
     </row>
     <row r="63" spans="1:32" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B63" s="171" t="s">
+      <c r="B63" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="116"/>
-      <c r="D63" s="116"/>
-      <c r="E63" s="116"/>
-      <c r="F63" s="116"/>
-      <c r="G63" s="116"/>
-      <c r="H63" s="116"/>
-      <c r="I63" s="116"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="116"/>
-      <c r="M63" s="116"/>
-      <c r="N63" s="116"/>
-      <c r="O63" s="116"/>
-      <c r="P63" s="116"/>
-      <c r="Q63" s="116"/>
-      <c r="R63" s="116"/>
-      <c r="S63" s="116"/>
-      <c r="T63" s="116"/>
-      <c r="U63" s="116"/>
-      <c r="V63" s="116"/>
-      <c r="W63" s="116"/>
-      <c r="X63" s="116"/>
-      <c r="Y63" s="116"/>
-      <c r="Z63" s="116"/>
-      <c r="AA63" s="116"/>
-      <c r="AB63" s="116"/>
-      <c r="AC63" s="116"/>
-      <c r="AD63" s="116"/>
-      <c r="AE63" s="116"/>
-      <c r="AF63" s="116"/>
+      <c r="C63" s="145"/>
+      <c r="D63" s="145"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="145"/>
+      <c r="L63" s="145"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="145"/>
+      <c r="O63" s="145"/>
+      <c r="P63" s="145"/>
+      <c r="Q63" s="145"/>
+      <c r="R63" s="145"/>
+      <c r="S63" s="145"/>
+      <c r="T63" s="145"/>
+      <c r="U63" s="145"/>
+      <c r="V63" s="145"/>
+      <c r="W63" s="145"/>
+      <c r="X63" s="145"/>
+      <c r="Y63" s="145"/>
+      <c r="Z63" s="145"/>
+      <c r="AA63" s="145"/>
+      <c r="AB63" s="145"/>
+      <c r="AC63" s="145"/>
+      <c r="AD63" s="145"/>
+      <c r="AE63" s="145"/>
+      <c r="AF63" s="145"/>
     </row>
     <row r="64" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="172" t="s">
+      <c r="B64" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="116"/>
-      <c r="D64" s="116"/>
-      <c r="E64" s="116"/>
-      <c r="F64" s="116"/>
-      <c r="G64" s="116"/>
-      <c r="H64" s="116"/>
-      <c r="I64" s="116"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="116"/>
-      <c r="M64" s="116"/>
-      <c r="N64" s="116"/>
-      <c r="O64" s="116"/>
-      <c r="P64" s="116"/>
-      <c r="Q64" s="116"/>
-      <c r="R64" s="116"/>
-      <c r="S64" s="116"/>
-      <c r="T64" s="116"/>
-      <c r="U64" s="116"/>
-      <c r="V64" s="116"/>
-      <c r="W64" s="116"/>
-      <c r="X64" s="116"/>
-      <c r="Y64" s="116"/>
-      <c r="Z64" s="116"/>
-      <c r="AA64" s="116"/>
-      <c r="AB64" s="116"/>
-      <c r="AC64" s="116"/>
-      <c r="AD64" s="116"/>
-      <c r="AE64" s="116"/>
-      <c r="AF64" s="116"/>
+      <c r="C64" s="145"/>
+      <c r="D64" s="145"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="145"/>
+      <c r="L64" s="145"/>
+      <c r="M64" s="145"/>
+      <c r="N64" s="145"/>
+      <c r="O64" s="145"/>
+      <c r="P64" s="145"/>
+      <c r="Q64" s="145"/>
+      <c r="R64" s="145"/>
+      <c r="S64" s="145"/>
+      <c r="T64" s="145"/>
+      <c r="U64" s="145"/>
+      <c r="V64" s="145"/>
+      <c r="W64" s="145"/>
+      <c r="X64" s="145"/>
+      <c r="Y64" s="145"/>
+      <c r="Z64" s="145"/>
+      <c r="AA64" s="145"/>
+      <c r="AB64" s="145"/>
+      <c r="AC64" s="145"/>
+      <c r="AD64" s="145"/>
+      <c r="AE64" s="145"/>
+      <c r="AF64" s="145"/>
     </row>
     <row r="65" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="172" t="s">
+      <c r="B65" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="C65" s="116"/>
-      <c r="D65" s="116"/>
-      <c r="E65" s="116"/>
-      <c r="F65" s="116"/>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="116"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="116"/>
-      <c r="M65" s="116"/>
-      <c r="N65" s="116"/>
-      <c r="O65" s="116"/>
-      <c r="P65" s="116"/>
-      <c r="Q65" s="116"/>
-      <c r="R65" s="116"/>
-      <c r="S65" s="116"/>
-      <c r="T65" s="116"/>
-      <c r="U65" s="116"/>
-      <c r="V65" s="116"/>
-      <c r="W65" s="116"/>
-      <c r="X65" s="116"/>
-      <c r="Y65" s="116"/>
-      <c r="Z65" s="116"/>
-      <c r="AA65" s="116"/>
-      <c r="AB65" s="116"/>
-      <c r="AC65" s="116"/>
-      <c r="AD65" s="116"/>
-      <c r="AE65" s="116"/>
-      <c r="AF65" s="116"/>
+      <c r="C65" s="145"/>
+      <c r="D65" s="145"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="145"/>
+      <c r="L65" s="145"/>
+      <c r="M65" s="145"/>
+      <c r="N65" s="145"/>
+      <c r="O65" s="145"/>
+      <c r="P65" s="145"/>
+      <c r="Q65" s="145"/>
+      <c r="R65" s="145"/>
+      <c r="S65" s="145"/>
+      <c r="T65" s="145"/>
+      <c r="U65" s="145"/>
+      <c r="V65" s="145"/>
+      <c r="W65" s="145"/>
+      <c r="X65" s="145"/>
+      <c r="Y65" s="145"/>
+      <c r="Z65" s="145"/>
+      <c r="AA65" s="145"/>
+      <c r="AB65" s="145"/>
+      <c r="AC65" s="145"/>
+      <c r="AD65" s="145"/>
+      <c r="AE65" s="145"/>
+      <c r="AF65" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:G51"/>
-    <mergeCell ref="H51:N51"/>
-    <mergeCell ref="O51:W51"/>
-    <mergeCell ref="B52:W52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="H50:N50"/>
-    <mergeCell ref="F22:J23"/>
-    <mergeCell ref="R22:R23"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="H48:N48"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="G33:AF33"/>
-    <mergeCell ref="AB37:AF39"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="B38:W44"/>
-    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="O50:W50"/>
+    <mergeCell ref="O49:W49"/>
+    <mergeCell ref="O48:W48"/>
+    <mergeCell ref="AD22:AD23"/>
+    <mergeCell ref="AE22:AF23"/>
+    <mergeCell ref="AB45:AF45"/>
+    <mergeCell ref="AB44:AF44"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="K25:W25"/>
+    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="AD17:AD18"/>
+    <mergeCell ref="AE17:AF18"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="K16:AB16"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="B2:AF3"/>
+    <mergeCell ref="AB5:AE5"/>
+    <mergeCell ref="B65:AF65"/>
+    <mergeCell ref="K21:AB21"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="Y10:AC11"/>
+    <mergeCell ref="B63:AF63"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="B64:AF64"/>
+    <mergeCell ref="T30:AB30"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="B4:AF4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="K19:AB19"/>
+    <mergeCell ref="AB6:AE6"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="I5:Z5"/>
+    <mergeCell ref="B13:AB14"/>
+    <mergeCell ref="AD8:AF9"/>
+    <mergeCell ref="AD13:AF14"/>
+    <mergeCell ref="Q8:X9"/>
+    <mergeCell ref="S18:AB18"/>
+    <mergeCell ref="Y8:AC9"/>
+    <mergeCell ref="Q10:X11"/>
+    <mergeCell ref="AD10:AF11"/>
+    <mergeCell ref="B6:H9"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B21:E24"/>
     <mergeCell ref="K24:AB24"/>
@@ -6963,58 +6989,32 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="F16:J16"/>
-    <mergeCell ref="B4:AF4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="K19:AB19"/>
-    <mergeCell ref="AB6:AE6"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="I5:Z5"/>
-    <mergeCell ref="B13:AB14"/>
-    <mergeCell ref="AD8:AF9"/>
-    <mergeCell ref="AD13:AF14"/>
-    <mergeCell ref="Q8:X9"/>
-    <mergeCell ref="S18:AB18"/>
-    <mergeCell ref="Y8:AC9"/>
-    <mergeCell ref="Q10:X11"/>
-    <mergeCell ref="AD10:AF11"/>
-    <mergeCell ref="B6:H9"/>
-    <mergeCell ref="B2:AF3"/>
-    <mergeCell ref="AB5:AE5"/>
-    <mergeCell ref="B65:AF65"/>
-    <mergeCell ref="K21:AB21"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="K23:Q23"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="Y10:AC11"/>
-    <mergeCell ref="B63:AF63"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="K18:Q18"/>
-    <mergeCell ref="B64:AF64"/>
-    <mergeCell ref="T30:AB30"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="AD17:AD18"/>
-    <mergeCell ref="AE17:AF18"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="K16:AB16"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="O50:W50"/>
-    <mergeCell ref="O49:W49"/>
-    <mergeCell ref="O48:W48"/>
-    <mergeCell ref="AD22:AD23"/>
-    <mergeCell ref="AE22:AF23"/>
-    <mergeCell ref="AB45:AF45"/>
-    <mergeCell ref="AB44:AF44"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="K25:W25"/>
-    <mergeCell ref="K22:Q22"/>
-    <mergeCell ref="S22:AB22"/>
+    <mergeCell ref="F22:J23"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="H48:N48"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:AF33"/>
+    <mergeCell ref="AB37:AF39"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="B38:W44"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="H50:N50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="H51:N51"/>
+    <mergeCell ref="O51:W51"/>
+    <mergeCell ref="B52:W52"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation showInputMessage="1" showErrorMessage="1" sqref="E11:H11" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
